--- a/data/02_intermediate/cleaned_Gambino_La_MG_songs.xlsx
+++ b/data/02_intermediate/cleaned_Gambino_La_MG_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted She wan live la vida loca, yeah She hate it when she sober Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted coded Our chat encrypted coded She wan live la vida loca, yeah She hate it when she sober I could meet you out in Paris I could meet you Barcelona This baddie in a whip wanna fuck me, fuck that I just wanna make my paper Just done two shows in Brisbane shut down, money in my pocket by nature Steady wanna hate on a young boy, lovely, please go double my haters Man came in, lookin' all saucy, I'm not shot that the gally don't rate us Sexy gally wanna date us, DAY1, JAY1 Caught us in a madness Okay Stop talking, you ain't on badness, price went up and my life turned lavish Talk shit, then I'll pull up with smoke One phone call, make your whole ting vanish Talk shit, then I'll pull up with smoke One phone call, make your whole ting vanish You might also like Uno, dos Tryna link that paddy, yeah smoke my weed This is a world cup song like IShowSpeed Sui She want the uno, and she want the dos I took my shot, she said Merci Please, I don't know français Is it comment ça va or comment allez-vous? Shoot like Kylian Mbappé Shoot my shot better come right through If she gonna call my, call my, call my, call my phone Then I'm on my way How many times do I gotta tell you I was tryna know you like we weren't raised Girl that pussy, oh man, oh man, oh man I'm that type of guy try to put you in place Emirates flight with a salmon or steak If she Mba-Mba-Mba-Mbappé Je suis désolé, me no speak français Im so-Im so-Im so-Im sorry Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted coded But our chat encrypted coded She wan live la vida loca, yeah She hate it when she sober I could meet you out in Paris I could meet you Barcelona L'intrus marseillaise Pourtant moi je viens de Paris Je suis au volant de la Ferrari avec une gadji d'Australie Je sors de showcase dans la poche jai ma kishta mais ya trop de paparazzi Pour g lifsa qui m assistent sortez le petard allez y Meme quand j avais rien dans les chepos j envoyer depecer s a fqska pour ca qu on est betom trop tot je me debrouille en vendant du bedo on les as vu hier ils font les pablos moi ca fait 10 ans que je vends du nejau mais avec personne j ai fais le gros je le revendique dans mes morceaux Self-made cuh' we made for this shit Self-paid, won't race, day-dates on the wrist And the drink come fresh like the German whips And like JAY1 say, that's gang gang bitch Je redonne mes kishta pour billets surtout mes reufs qui sont pieds et poings lies Banlieue parisienne, UK 'gon say this, make a good girl va s'installer Hold up, I don't need new friends Don't pace my merc, get run in the end The money I saw, well honey it's all red They gonna try be us, but we can never be them Bro quick on the run like Mbappé If brody got time, still attacking on wings Took floss so these P's getting battered I'm up on my net worth, she up in my, uh Mba-Mba-Mba-Mbappé Je suis désolé, me no speak français Im so-Im so-Im so-Im sorry Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted coded Our chat encrypted coded She wan live la vida loca, yeah She hate it when she sober I could meet you out in Paris I could meet you Barcelona</t>
+          <t>Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted She wan live la vida loca, yeah She hate it when she sober Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted coded Our chat encrypted coded She wan live la vida loca, yeah She hate it when she sober I could meet you out in Paris I could meet you Barcelona This baddie in a whip wanna fuck me, fuck that I just wanna make my paper Just done two shows in Brisbane shut down, money in my pocket by nature Steady wanna hate on a young boy, lovely, please go double my haters Man came in, lookin' all saucy, I'm not shot that the gally don't rate us Sexy gally wanna date us, DAY1, JAY1 Caught us in a madness Okay Stop talking, you ain't on badness, price went up and my life turned lavish Talk shit, then I'll pull up with smoke One phone call, make your whole ting vanish Talk shit, then I'll pull up with smoke One phone call, make your whole ting vanish Uno, dos Tryna link that paddy, yeah smoke my weed This is a world cup song like IShowSpeed Sui She want the uno, and she want the dos I took my shot, she said Merci Please, I don't know français Is it comment ça va or comment allez-vous? Shoot like Kylian Mbappé Shoot my shot better come right through If she gonna call my, call my, call my, call my phone Then I'm on my way How many times do I gotta tell you I was tryna know you like we weren't raised Girl that pussy, oh man, oh man, oh man I'm that type of guy try to put you in place Emirates flight with a salmon or steak If she Mba-Mba-Mba-Mbappé Je suis désolé, me no speak français Im so-Im so-Im so-Im sorry Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted coded But our chat encrypted coded She wan live la vida loca, yeah She hate it when she sober I could meet you out in Paris I could meet you Barcelona L'intrus marseillaise Pourtant moi je viens de Paris Je suis au volant de la Ferrari avec une gadji d'Australie Je sors de showcase dans la poche jai ma kishta mais ya trop de paparazzi Pour g lifsa qui m assistent sortez le petard allez y Meme quand j avais rien dans les chepos j envoyer depecer s a fqska pour ca qu on est betom trop tot je me debrouille en vendant du bedo on les as vu hier ils font les pablos moi ca fait 10 ans que je vends du nejau mais avec personne j ai fais le gros je le revendique dans mes morceaux Self-made cuh' we made for this shit Self-paid, won't race, day-dates on the wrist And the drink come fresh like the German whips And like JAY1 say, that's gang gang bitch Je redonne mes kishta pour billets surtout mes reufs qui sont pieds et poings lies Banlieue parisienne, UK 'gon say this, make a good girl va s'installer Hold up, I don't need new friends Don't pace my merc, get run in the end The money I saw, well honey it's all red They gonna try be us, but we can never be them Bro quick on the run like Mbappé If brody got time, still attacking on wings Took floss so these P's getting battered I'm up on my net worth, she up in my, uh Mba-Mba-Mba-Mbappé Je suis désolé, me no speak français Im so-Im so-Im so-Im sorry Gangsters, drug dealers in the bando Wonder why we stay locked and loaded? Cops think we got Motorolas But our chat encrypted coded Our chat encrypted coded She wan live la vida loca, yeah She hate it when she sober I could meet you out in Paris I could meet you Barcelona</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tout est carré comme le théorème de pythagore J'la tej elle revient comme le marteau de thor Étant pti jvoulais tellement rapper Que j'fais meme plus exprès décrire des métaphores Sur la route du succès J'fais des appels de phares Mais ya pas moyen dpasser J'sors de gav j'remet mes lacets Un iencli mattend à la gare de massy On st trop massif Ramène la massa J'roule un pet avant dpartir n mission Et sur le terrain jme la joue perso Cest chacun ses chepo et chacun ses soucis Pour ma mère j'veux des hectares de parecelle Et j'vais y arriver grâce a la sacem Fais pas genre ya des iencli qui tharcèle Sur ton téléphone ya même pas dcarte Sim J'suis dans le block avec mes associé Tincruste pas on est pas sociable Jai mis le tailledé dans lascenseur Les condé fouillent toujours létage du dessus Jai l'petard pas besoin de jujitsu Balle dans les jambes cest la sentence J'suis avec negri pour baiser l'instru Cest nous les princes de la drill en France You might also like Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker nan nan Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker Hmhm jvend la beuh qui rend bête Hmhm faut pas que les keuf me pète Hmhm laisse moi terminer tout mes diez Hmhm terminer tout mes bails Terminer tout mes huhu J'fais de loseille j'fume la huhu Dans la ville j'fais des huhu Sa bicrave que dla huhu Jai pupu d'rentrer décole Jai que Des putain de rentrer dargent Dans le hall Ca pupu l'shit et lalcool nan nan Ca sent pas le bois dargent Dans ce Putain de monde de fou Devenir Gentil cest un défaut koro A fini dans le refou Il aurait dû passer à la télé comme Jermaine Defoe Des fois La vie t'met au défis Défile toi pas gros cest la street batard Toutes tes copines cest des putes Et toi Tu veux nous faire croire tes pas une pute Shatta Jai sorti le costla Comme tout mes matins Mes gwada Laisse les ils sont rempli de blata Gros nous on va se remplir plata Plata plata Tu veux du taga Ou dla gandja Même dla selha J'peut te trouver sa fissa fissa Pas de fissa fissa Papa papa débrouillard grave On parle pas pas pas Nan nan nan Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker nan nan Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker Hmhm jvend la beuh qui rend bête Hmhm faut pas que les keuf me pète Hmhm laisse moi terminer tout mes diez Hmhm terminer tout mes bails Terminer tout mes huhu J'fais de loseille j'fume la huhu Dans la ville j'fais des huhu Sa bicrave que dla huhu Pupu ya la popo J'fais du peura j'sais pas zouker Pupu ya la popo J'fais du peura j'sais pas zouker Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker Negro negro cest Negrito avec Gambino Negro negro cest Negrito avec Gambino Negro negro cest Negrito avec Gambino Negro negro cest Negrito avec Gambino</t>
+          <t>Tout est carré comme le théorème de pythagore J'la tej elle revient comme le marteau de thor Étant pti jvoulais tellement rapper Que j'fais meme plus exprès décrire des métaphores Sur la route du succès J'fais des appels de phares Mais ya pas moyen dpasser J'sors de gav j'remet mes lacets Un iencli mattend à la gare de massy On st trop massif Ramène la massa J'roule un pet avant dpartir n mission Et sur le terrain jme la joue perso Cest chacun ses chepo et chacun ses soucis Pour ma mère j'veux des hectares de parecelle Et j'vais y arriver grâce a la sacem Fais pas genre ya des iencli qui tharcèle Sur ton téléphone ya même pas dcarte Sim J'suis dans le block avec mes associé Tincruste pas on est pas sociable Jai mis le tailledé dans lascenseur Les condé fouillent toujours létage du dessus Jai l'petard pas besoin de jujitsu Balle dans les jambes cest la sentence J'suis avec negri pour baiser l'instru Cest nous les princes de la drill en France Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker nan nan Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker Hmhm jvend la beuh qui rend bête Hmhm faut pas que les keuf me pète Hmhm laisse moi terminer tout mes diez Hmhm terminer tout mes bails Terminer tout mes huhu J'fais de loseille j'fume la huhu Dans la ville j'fais des huhu Sa bicrave que dla huhu Jai pupu d'rentrer décole Jai que Des putain de rentrer dargent Dans le hall Ca pupu l'shit et lalcool nan nan Ca sent pas le bois dargent Dans ce Putain de monde de fou Devenir Gentil cest un défaut koro A fini dans le refou Il aurait dû passer à la télé comme Jermaine Defoe Des fois La vie t'met au défis Défile toi pas gros cest la street batard Toutes tes copines cest des putes Et toi Tu veux nous faire croire tes pas une pute Shatta Jai sorti le costla Comme tout mes matins Mes gwada Laisse les ils sont rempli de blata Gros nous on va se remplir plata Plata plata Tu veux du taga Ou dla gandja Même dla selha J'peut te trouver sa fissa fissa Pas de fissa fissa Papa papa débrouillard grave On parle pas pas pas Nan nan nan Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker nan nan Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker Hmhm jvend la beuh qui rend bête Hmhm faut pas que les keuf me pète Hmhm laisse moi terminer tout mes diez Hmhm terminer tout mes bails Terminer tout mes huhu J'fais de loseille j'fume la huhu Dans la ville j'fais des huhu Sa bicrave que dla huhu Pupu ya la popo J'fais du peura j'sais pas zouker Pupu ya la popo J'fais du peura j'sais pas zouker Pupu ya la popo J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker J'fais du peura j'sais pas zouker Negro negro cest Negrito avec Gambino Negro negro cest Negrito avec Gambino Negro negro cest Negrito avec Gambino Negro negro cest Negrito avec Gambino</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F.R.N.K, envoie la sauce On a pas d'limite On va droit au but Le terrain débite Donc les porcs se butent On suce pas de bite On prend rien dans l'cul Mais pour du liquide Ça sort le zifu J'veux plus faire la queue chez la poste Chaque jour, manger des entrecôtes Claquer ma sacem chez Lacoste Faire des concerts, agiter la fosse J'suis dans le fond du bâtiment dans ma poche j'ai la recette du four J'fais confiance aux yeux du chouf Et j'fais ma mi-temps Mon bigo est dans l'mitard Les keufs veulent me menotter Ce soir, j'visser Nicolas Tes rappeurs sont bons qu'à imiter You might also like Zaïrois pas trop fêtard J'suis dans l'BM, j'passe les rapports M118, j'mets les pleins phares J'suis à 200 sans mettre le mode sport Nazo yemba pona ba lard Ko téka diamba ékoki Les condés descendent dans le tier-quar J'ai entendu le bruit du talkie Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos</t>
+          <t>F.R.N.K, envoie la sauce On a pas d'limite On va droit au but Le terrain débite Donc les porcs se butent On suce pas de bite On prend rien dans l'cul Mais pour du liquide Ça sort le zifu J'veux plus faire la queue chez la poste Chaque jour, manger des entrecôtes Claquer ma sacem chez Lacoste Faire des concerts, agiter la fosse J'suis dans le fond du bâtiment dans ma poche j'ai la recette du four J'fais confiance aux yeux du chouf Et j'fais ma mi-temps Mon bigo est dans l'mitard Les keufs veulent me menotter Ce soir, j'visser Nicolas Tes rappeurs sont bons qu'à imiter Zaïrois pas trop fêtard J'suis dans l'BM, j'passe les rapports M118, j'mets les pleins phares J'suis à 200 sans mettre le mode sport Nazo yemba pona ba lard Ko téka diamba ékoki Les condés descendent dans le tier-quar J'ai entendu le bruit du talkie Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu parles trop de gue-dro Jai vécu dans ça, c'est pas d'ma faute Gambino tu fumes trop de bédo Ça m'donne de l'inspi pour les mélos</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP You might also likeFévrier - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. Odbussy 2509 JaySoCold - B.T.S - 2509 L</t>
+          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP Février - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. Odbussy 2509 JaySoCold - B.T.S - 2509 La Mano 1.9 - I'M SO</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shiruken Music J'ai les trucs qui faut et les bons contacts Mmh, mmh, des méchants copains qui s'fâchent Mmh, mmh Qui te découpent à la hache pour du papier, peu importe ton âge C'est le papier qui fait qu'on s'couche tard Han, han, pour contrôler le mitard Han, han J'rabattais même après la mi-temps, j'sais qu'ils reconnaissent le point de vente J'ai commencé comme tout l'monde par la Lyca' Ah, aujourd'hui, le drive, il fait 10K Ah Aujourd'hui, le drive, il fait dix balles, attention au revers de la médaille Eux, ils savent très bien Ah, pu de temps pour qu'on s'expliqu Ah .9 milli' pour un self Ah, chez nous, ça pointe comme à l'escrime Ah Ils m'ont délaissé quand j'avais pas le niveau, j'les ai devancés mais j'leur ai tendus la main En vérité, moi, j'ai toujours fait ce qu'il faut, j't'ai aidé la veille mais t'oublies le lendemain Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh You might also like Et dans l'bloc, ça sent la fumette, la voisine commence à bouler Sur le jogging, que des trous d'boulettes et les tits-pe commencent à dealer, ouais Commencent à dealer, ouais Ouais, le tit-pe commence à dealer Eh, eh, sacré dilemme, il revend celle qui rend débile Mmh, mmh Le gérant d'à-côté a les boules Mmh, mmh, il songe à lui mettre une balle Mmh, mmh La rue, c'est cru, c'est pas cool Eh, eh A-, après, ça veut graille dans ton salaire Salaire, on s'quitte sur des manières Manières Sans se dire à t'-a l'heure Jamais, jamais j'leur donnerai Jamais, jamais j'pardonnerai Eh, eh Ils m'ont délaissé quand j'avais pas le niveau Eh, eh, j'les ai devancés mais j'leur ai tendus la main Eh, eh En vérité, moi, j'ai toujours fait ce qu'il faut Eh, eh, j't'ai aidé la veille mais t'oublies le lendemain Eh, eh Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Et les tits-pe commencent à dealer, ouais Surveille le bendo Shiruken Music Ouais, les tits-pe commence à dealer Surveille le bendo</t>
+          <t>Shiruken Music J'ai les trucs qui faut et les bons contacts Mmh, mmh, des méchants copains qui s'fâchent Mmh, mmh Qui te découpent à la hache pour du papier, peu importe ton âge C'est le papier qui fait qu'on s'couche tard Han, han, pour contrôler le mitard Han, han J'rabattais même après la mi-temps, j'sais qu'ils reconnaissent le point de vente J'ai commencé comme tout l'monde par la Lyca' Ah, aujourd'hui, le drive, il fait 10K Ah Aujourd'hui, le drive, il fait dix balles, attention au revers de la médaille Eux, ils savent très bien Ah, pu de temps pour qu'on s'expliqu Ah .9 milli' pour un self Ah, chez nous, ça pointe comme à l'escrime Ah Ils m'ont délaissé quand j'avais pas le niveau, j'les ai devancés mais j'leur ai tendus la main En vérité, moi, j'ai toujours fait ce qu'il faut, j't'ai aidé la veille mais t'oublies le lendemain Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Et dans l'bloc, ça sent la fumette, la voisine commence à bouler Sur le jogging, que des trous d'boulettes et les tits-pe commencent à dealer, ouais Commencent à dealer, ouais Ouais, le tit-pe commence à dealer Eh, eh, sacré dilemme, il revend celle qui rend débile Mmh, mmh Le gérant d'à-côté a les boules Mmh, mmh, il songe à lui mettre une balle Mmh, mmh La rue, c'est cru, c'est pas cool Eh, eh A-, après, ça veut graille dans ton salaire Salaire, on s'quitte sur des manières Manières Sans se dire à t'-a l'heure Jamais, jamais j'leur donnerai Jamais, jamais j'pardonnerai Eh, eh Ils m'ont délaissé quand j'avais pas le niveau Eh, eh, j'les ai devancés mais j'leur ai tendus la main Eh, eh En vérité, moi, j'ai toujours fait ce qu'il faut Eh, eh, j't'ai aidé la veille mais t'oublies le lendemain Eh, eh Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Et les tits-pe commencent à dealer, ouais Surveille le bendo Shiruken Music Ouais, les tits-pe commence à dealer Surveille le bendo</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yih ih, Yih ih 9.1.9.4.0 zéro Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Ok, ok Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Nic-So Yih ih Si tu veux barber ma part ma part Ensemble tout noir Under Armour Armour J'ai le six coups dans mon armoire armoire Deux mecs sur un T-Max, ça fait un mort mort J'ai raison même quand j'ai tord j'ai tord Mais ces putains veulent me faire taire faire taire J'fume du kamas, j'fais pas de sport Ok C'est pas les abdos qui font la guerre Yih ih J'fais la fête dans le cul de ta folle ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école de l'école Trahir ses copains, c'est pas cool Tu crache sur son dos mais tu l'tcheck de l'épaule de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Hm, hm You might also like Yih ih Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Smoke Et dans la kitchen C'est Blacki qui cook Beuh, Shit, Coke Coke Comme Pop Smoke Smoke</t>
+          <t>Yih ih, Yih ih 9.1.9.4.0 zéro Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Ok, ok Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Nic-So Yih ih Si tu veux barber ma part ma part Ensemble tout noir Under Armour Armour J'ai le six coups dans mon armoire armoire Deux mecs sur un T-Max, ça fait un mort mort J'ai raison même quand j'ai tord j'ai tord Mais ces putains veulent me faire taire faire taire J'fume du kamas, j'fais pas de sport Ok C'est pas les abdos qui font la guerre Yih ih J'fais la fête dans le cul de ta folle ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école de l'école Trahir ses copains, c'est pas cool Tu crache sur son dos mais tu l'tcheck de l'épaule de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Hm, hm Yih ih Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Smoke Et dans la kitchen C'est Blacki qui cook Beuh, Shit, Coke Coke Comme Pop Smoke Smoke</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C'est Gambino la M, j'ai tous les Ulis derrière moi C'est Gambino la M, j'suis avec le vieux Marufa Posé sur Evry des fois C'est Gambino la M, j'ai tous les Ulis derrière moi J'suis avec le vieux Marufa, posé sur Evry des fois J'ai un zincou canalois, quand y'a heja il parle pas chinois J'ai beaucoup d'collègues à moi à moi vers Saint-Geneviève des bois N104, j'suis vers Corbeil, récupère mon pote à la semi Faut qu'j'ramène la daronne à Gradi, voir son fils au parloir à Fleury C'est violent dans mon 91 oh, oh ça shoot dans mon 91 uhuh C'est violent dans mon 91 hey, hey ça shoot dans mon 91 uhuh C'est violent dans mon 91, brrr, brrr ça shoot dans mon 91 uhuh C'est violent dans mon 91 Yiii ça shoot dans mon 91 uhuh J'veux voir jouer Antony à Old Trafford 'ford à Grigny ça allume les porcs porcs Donc ils appellent des renforts, S.O Kai Du MD-Ru des Comores J'suis à Vigneux avec Machine Machine à Epinay sous Sénart ça tchin ça tchin Dans mon 91 ça trafique, à Etampes ou à Savigny Mm-mm You might also like C'est violent dans mon 91 Mm-mm, oh, oh ça shoot dans mon 91 Mm-mm C'est violent dans mon 91 Gang-Gang, ça shoot dans mon 91 uhuh C'est violent dans mon 91 Gang-Gang ça shoot dans mon 91 uhuh C'est violent dans mon 91 Mm-mm, ça shoot dans mon 91 uhuh J'suis au zoo avec Demba et Nigoto J'suis à Ris avec Kamas, ou vers Athis avec Braikho À Chilly ou à Longjumeau, à Massy, y a qu'à Zola qu'j'ai des bons frérots</t>
+          <t>C'est Gambino la M, j'ai tous les Ulis derrière moi C'est Gambino la M, j'suis avec le vieux Marufa Posé sur Evry des fois C'est Gambino la M, j'ai tous les Ulis derrière moi J'suis avec le vieux Marufa, posé sur Evry des fois J'ai un zincou canalois, quand y'a heja il parle pas chinois J'ai beaucoup d'collègues à moi à moi vers Saint-Geneviève des bois N104, j'suis vers Corbeil, récupère mon pote à la semi Faut qu'j'ramène la daronne à Gradi, voir son fils au parloir à Fleury C'est violent dans mon 91 oh, oh ça shoot dans mon 91 uhuh C'est violent dans mon 91 hey, hey ça shoot dans mon 91 uhuh C'est violent dans mon 91, brrr, brrr ça shoot dans mon 91 uhuh C'est violent dans mon 91 Yiii ça shoot dans mon 91 uhuh J'veux voir jouer Antony à Old Trafford 'ford à Grigny ça allume les porcs porcs Donc ils appellent des renforts, S.O Kai Du MD-Ru des Comores J'suis à Vigneux avec Machine Machine à Epinay sous Sénart ça tchin ça tchin Dans mon 91 ça trafique, à Etampes ou à Savigny Mm-mm C'est violent dans mon 91 Mm-mm, oh, oh ça shoot dans mon 91 Mm-mm C'est violent dans mon 91 Gang-Gang, ça shoot dans mon 91 uhuh C'est violent dans mon 91 Gang-Gang ça shoot dans mon 91 uhuh C'est violent dans mon 91 Mm-mm, ça shoot dans mon 91 uhuh J'suis au zoo avec Demba et Nigoto J'suis à Ris avec Kamas, ou vers Athis avec Braikho À Chilly ou à Longjumeau, à Massy, y a qu'à Zola qu'j'ai des bons frérots</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TripleNBeat, tu le sais, maintenant Haze Jsuis au fond du bâtiment, jfume un pète en bas d'chez moi Chez moi Sur moi, jai du Moschino 'schino, jsuis pas dans la magie noir Magie noir Les condés enquête, jai cramé ma tête, jsuis pas dans la zone, ce soir Ce soir Ils font pas dloseille, ils parlent sur le net, jles écoutes pas, ah, jsuis mort Ah, j'suis mort, uh-uh De la Calle, jveux men aller J'veux m'en aller, pour linstant, jvois les clients défilé dans lallée, hey, hey Mmh-mmh Tout à commencer sur Insta' Eh, j'suis lancé, jdois pas me rater Jai même fini sur Booska-P Sur moi, jai l Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna You might also like Si tu tires pas, sort pas darmes D'armes, on reviendra pour tallumer 'llumer Si tu baises pas, mappel pas Pas, jsuis pas là pour te câliner 'liner Jveux pas m'faire pété quand jramène le sac, jsuis ganté Jaime bien quand les choses sont rangé et quand les boloss sont alignées Grr Le rap, cest du blanchiment 'chiment, on trafic a travers le continent 'tinent On dérange les résidents 'sidents, y a des nouvelles tête a la mi-temps Mi-temps, mi-temps Jveux pas finir sur la paille, donc je vais chercher la maille Maille On peut rien obtenir à lil hey hey Sur moi, jai le Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna</t>
+          <t>TripleNBeat, tu le sais, maintenant Haze Jsuis au fond du bâtiment, jfume un pète en bas d'chez moi Chez moi Sur moi, jai du Moschino 'schino, jsuis pas dans la magie noir Magie noir Les condés enquête, jai cramé ma tête, jsuis pas dans la zone, ce soir Ce soir Ils font pas dloseille, ils parlent sur le net, jles écoutes pas, ah, jsuis mort Ah, j'suis mort, uh-uh De la Calle, jveux men aller J'veux m'en aller, pour linstant, jvois les clients défilé dans lallée, hey, hey Mmh-mmh Tout à commencer sur Insta' Eh, j'suis lancé, jdois pas me rater Jai même fini sur Booska-P Sur moi, jai l Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Si tu tires pas, sort pas darmes D'armes, on reviendra pour tallumer 'llumer Si tu baises pas, mappel pas Pas, jsuis pas là pour te câliner 'liner Jveux pas m'faire pété quand jramène le sac, jsuis ganté Jaime bien quand les choses sont rangé et quand les boloss sont alignées Grr Le rap, cest du blanchiment 'chiment, on trafic a travers le continent 'tinent On dérange les résidents 'sidents, y a des nouvelles tête a la mi-temps Mi-temps, mi-temps Jveux pas finir sur la paille, donc je vais chercher la maille Maille On peut rien obtenir à lil hey hey Sur moi, jai le Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ouh-ouh Mmh-mmh Tou-tou-touah Mmh-mmh Eh Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-panTu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi Bébé, attends-moi Han, j'ai un plan Nicki, han-han, le kil' est scotché, on y va quand ? Go La moitié ne rentre pas dans ma valise donc j'cache la moitié dans tes implants Direction Roissy Sur le T, j'suis comme Dickerson À l'affût, accroche tes crampons, woah, woah J'entends des voix, j'bédave pour dix personnes Et mon djinn me chante une chanson, tou-tou-touah, tou-tou-touah, uh-uh Juge pas sans savoir, tu sais pas c'que j'fais quand j'finis mon Tik Tok Hi-hi Si tu fais pas rentrer d'papel, à quoi bon srt de savoir se tape ? Savoir s tape, mmh-mmh Y a que si tu viens pé-cho que je peux te donner l'accès au hall Hall Access J'ai grandi avec des Zinedine, des Bryan et des Souleymane Souleymane Eh, casse le neiman, avec Souleymane Rah, brr, brr, ouh-ouh J'ai les mains dans la coke Ouh, ouh, revends ça depuis môme Ouh, ouh Il est sous hématome Ouh, ouh quand il perd le bail Ouh Tout est parti donc je m'assois, baby, elle sait que j'suis dans ça Brr, brr, brr C'est des acteurs, sortez l'Oscar, moi, j'découpais des pains non-stop Eh You might also like Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi J'la vends Go pour amasser un tas de cash Brr, brr, brr, donc pour ça, dehors même quand il vente Han Fais bosser Nikita, de temps en temps Waw afin d'remonter la pente Ouh, wah D'vant l'hall, j'ai pas l'digicode Tou-touh, j'prends pas tout sur moi, j'ai que l'strict minimum Pah Tookah tassée, on décolle Smoke, d'puis l'époque des Kyo, sont sales nos mains Eh, uh-uh Nan, j'écoute pas les On dit On dit, dans l'bloc, j'me crois dans Call of Duty Duty Ients-cli défilent comme dans mode zombie Zombie, shit jaune comme Rolie Polie Olie Holly Ce soir, ma baby, fais toi jolie Jolie, ramène tes potes les plus en folie En folie J'ramène mes gars les plus alcooliques 'cooliques, on va binkser jusqu'au matin Hi-hi On va binkser jusqu'au matin Ah-ah, elle perd ses sens à cause des ballons Tah, tah, tah, tah Nicki me croit alors qu'c'est ma tain-p' Han-han, Nicki, han-han, elle s'cache, son mac rapplique au salon J'écoute, j'écoute, j'écoute pas les on dit, mon cur rebondit quand j'touche ce papier Cash J'aurais dû écouter Agathe, cette pute d'Alysha m'a jamais rappelé Brr, allô ? Nicki, wow, wow Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi</t>
+          <t>Ouh-ouh Mmh-mmh Tou-tou-touah Mmh-mmh Eh Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-panTu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi Bébé, attends-moi Han, j'ai un plan Nicki, han-han, le kil' est scotché, on y va quand ? Go La moitié ne rentre pas dans ma valise donc j'cache la moitié dans tes implants Direction Roissy Sur le T, j'suis comme Dickerson À l'affût, accroche tes crampons, woah, woah J'entends des voix, j'bédave pour dix personnes Et mon djinn me chante une chanson, tou-tou-touah, tou-tou-touah, uh-uh Juge pas sans savoir, tu sais pas c'que j'fais quand j'finis mon Tik Tok Hi-hi Si tu fais pas rentrer d'papel, à quoi bon srt de savoir se tape ? Savoir s tape, mmh-mmh Y a que si tu viens pé-cho que je peux te donner l'accès au hall Hall Access J'ai grandi avec des Zinedine, des Bryan et des Souleymane Souleymane Eh, casse le neiman, avec Souleymane Rah, brr, brr, ouh-ouh J'ai les mains dans la coke Ouh, ouh, revends ça depuis môme Ouh, ouh Il est sous hématome Ouh, ouh quand il perd le bail Ouh Tout est parti donc je m'assois, baby, elle sait que j'suis dans ça Brr, brr, brr C'est des acteurs, sortez l'Oscar, moi, j'découpais des pains non-stop Eh Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi J'la vends Go pour amasser un tas de cash Brr, brr, brr, donc pour ça, dehors même quand il vente Han Fais bosser Nikita, de temps en temps Waw afin d'remonter la pente Ouh, wah D'vant l'hall, j'ai pas l'digicode Tou-touh, j'prends pas tout sur moi, j'ai que l'strict minimum Pah Tookah tassée, on décolle Smoke, d'puis l'époque des Kyo, sont sales nos mains Eh, uh-uh Nan, j'écoute pas les On dit On dit, dans l'bloc, j'me crois dans Call of Duty Duty Ients-cli défilent comme dans mode zombie Zombie, shit jaune comme Rolie Polie Olie Holly Ce soir, ma baby, fais toi jolie Jolie, ramène tes potes les plus en folie En folie J'ramène mes gars les plus alcooliques 'cooliques, on va binkser jusqu'au matin Hi-hi On va binkser jusqu'au matin Ah-ah, elle perd ses sens à cause des ballons Tah, tah, tah, tah Nicki me croit alors qu'c'est ma tain-p' Han-han, Nicki, han-han, elle s'cache, son mac rapplique au salon J'écoute, j'écoute, j'écoute pas les on dit, mon cur rebondit quand j'touche ce papier Cash J'aurais dû écouter Agathe, cette pute d'Alysha m'a jamais rappelé Brr, allô ? Nicki, wow, wow Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VERSE Montre pas trop ton oseille car dehors yen a qui ont faim Tes venu tout beau tes reparti enflé Jsuis dans lAudi, jai le car play sans fil Violet, jaune, vert faut que jempile Yavait plus de lumière, jai changé dampoule Jfais beaucoup de streams mais elle bouge pas la foule Jsuis en demi-finale tas perdu en poules Jaurais pu tout prendre mais jessaie de vous laisser manger De vous laisser manger Quand javais rien, jvivais chaque jour de la semaine sans mchanger Semaine sans mchanger Nous cherche pas , ça vient du 91, on a lhabitude du danger Pas dantibiotiques quand jai une angine Il suffit de la pe-fra de Tanger PRE-CHORUS Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai You might also likeCHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire VERSE J'sors mon couteau si tu m'embêtes Elle a vu GLM, elle a perdu la tête Jai perdu la bataille jvais gagner la guerre Avant qula réalité mrattrape Aux Ulysses ça senfume à toute patate Et même les tous ti-pe sadaptent Plus de cardio pour casser des têtes Cest pour ça quils ramènent des battes de base-ball Armés jusquaux dents comme dans Bana Boul Et comme Snoop Dogg en plein Superbowl Partout où jirai, jaurais mon pétou On détaille, on revend tout On détaille, on revend tout Si ten veux, viens dans la tour Te vi-sser, on est là pour CHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire</t>
+          <t>VERSE Montre pas trop ton oseille car dehors yen a qui ont faim Tes venu tout beau tes reparti enflé Jsuis dans lAudi, jai le car play sans fil Violet, jaune, vert faut que jempile Yavait plus de lumière, jai changé dampoule Jfais beaucoup de streams mais elle bouge pas la foule Jsuis en demi-finale tas perdu en poules Jaurais pu tout prendre mais jessaie de vous laisser manger De vous laisser manger Quand javais rien, jvivais chaque jour de la semaine sans mchanger Semaine sans mchanger Nous cherche pas , ça vient du 91, on a lhabitude du danger Pas dantibiotiques quand jai une angine Il suffit de la pe-fra de Tanger PRE-CHORUS Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai CHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire VERSE J'sors mon couteau si tu m'embêtes Elle a vu GLM, elle a perdu la tête Jai perdu la bataille jvais gagner la guerre Avant qula réalité mrattrape Aux Ulysses ça senfume à toute patate Et même les tous ti-pe sadaptent Plus de cardio pour casser des têtes Cest pour ça quils ramènent des battes de base-ball Armés jusquaux dents comme dans Bana Boul Et comme Snoop Dogg en plein Superbowl Partout où jirai, jaurais mon pétou On détaille, on revend tout On détaille, on revend tout Si ten veux, viens dans la tour Te vi-sser, on est là pour CHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>This is a bangerz Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu br-tom à tout moment, han Mmh, mmh J'aime quand c'est trash Brr t quand y a du cash Brr Mon cur est trop noir, je peux pas m'attacher Hi-hi J'avais d'la peine pour les meufs que j'arrachais mais j'en ai moins pour les ennemis que j'vais schlasser Schlasser, brr La conso', dans mes couilles, est cachée Dans mes couilles, est cachée, brr, brr, j'peux pas rater le coche Le coche J'ai rien laissé dans ma sacoche Mmh, mmh, viens faire un tour dans ma cité, c'est un cauchemar Mmh, mmh De quoi veux-tu qu'je parle ? Qu'je parle J'connais rien à part la bicrave Bicrave, mmh, mmh Et si je sors le pétard, j'vais tous les faire zooker comme Kassav Hi-hi J'suis dans la cité et les vrais le savent Mmh, mmh, treize ans j'commence la bédave Mmh, mmh À quinze ans, j'tenais l'sac à sav' Mmh, mmh, dix huit ans ient-cli m'appelle au pénave Eh, eh You might also like Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh J'restais sur mes gardes quand j'sortais de la ville Brr, j'volais les brise-glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux d'la résine Brr, brr, on visser tout l'monde, même les femmes enceintes J'suis avec Juby, sés-po à la pente, j'ai mis les gants, donc j'laisse aucune empreinte Mmh, mmh Tu veux m'avoir, faut passer par la science, le compte est remplie mais j'fais toujours la pince Mmh, mmh, eh, eh J'l'ai baisé toute la nuit mais j'ai pas craché, j'prends même plus d'plaisir à baiser des tains-p' Quand j'bossais, j'me faisais cramer par mes tantes, canon sur la tempe si tu portes plainte J'te refais l'portrait mais j'suis pas un peintre, sur le rrain-te, j'fais des passes et des feintes J'suis bien entouré, donc j'ai aucune crainte, je peux pas me plaindre Eh, eh Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Incriminé dans la tour Mmh, mmh, j'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh Il était temps Temps Depuis longtemps Temps À tout moment Han, han, han J'mange de la musique, il était temps Temps, j'suis dans l'trafic depuis longtemps Temps J'aurais pu ber-tom à tout moment Han</t>
+          <t>This is a bangerz Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu br-tom à tout moment, han Mmh, mmh J'aime quand c'est trash Brr t quand y a du cash Brr Mon cur est trop noir, je peux pas m'attacher Hi-hi J'avais d'la peine pour les meufs que j'arrachais mais j'en ai moins pour les ennemis que j'vais schlasser Schlasser, brr La conso', dans mes couilles, est cachée Dans mes couilles, est cachée, brr, brr, j'peux pas rater le coche Le coche J'ai rien laissé dans ma sacoche Mmh, mmh, viens faire un tour dans ma cité, c'est un cauchemar Mmh, mmh De quoi veux-tu qu'je parle ? Qu'je parle J'connais rien à part la bicrave Bicrave, mmh, mmh Et si je sors le pétard, j'vais tous les faire zooker comme Kassav Hi-hi J'suis dans la cité et les vrais le savent Mmh, mmh, treize ans j'commence la bédave Mmh, mmh À quinze ans, j'tenais l'sac à sav' Mmh, mmh, dix huit ans ient-cli m'appelle au pénave Eh, eh Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh J'restais sur mes gardes quand j'sortais de la ville Brr, j'volais les brise-glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux d'la résine Brr, brr, on visser tout l'monde, même les femmes enceintes J'suis avec Juby, sés-po à la pente, j'ai mis les gants, donc j'laisse aucune empreinte Mmh, mmh Tu veux m'avoir, faut passer par la science, le compte est remplie mais j'fais toujours la pince Mmh, mmh, eh, eh J'l'ai baisé toute la nuit mais j'ai pas craché, j'prends même plus d'plaisir à baiser des tains-p' Quand j'bossais, j'me faisais cramer par mes tantes, canon sur la tempe si tu portes plainte J'te refais l'portrait mais j'suis pas un peintre, sur le rrain-te, j'fais des passes et des feintes J'suis bien entouré, donc j'ai aucune crainte, je peux pas me plaindre Eh, eh Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Incriminé dans la tour Mmh, mmh, j'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh Il était temps Temps Depuis longtemps Temps À tout moment Han, han, han J'mange de la musique, il était temps Temps, j'suis dans l'trafic depuis longtemps Temps J'aurais pu ber-tom à tout moment Han</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mmh-mhh J'fais du pe-ra, j'sais pas zouker Non, non, j'suis dans la playlist de Anissa Yih-yih C'est dans mon quartier que tout l'été, j'suis bloqué, j'envoie un tit-pe chez Haller pour un bissap Eh-eh Tout se monnaie, y a pas d'fissa-fissa Mmh-mmh, c'est une te-pu mais elle fait la fille sage Mmh-mmh Les condés, du re-fou prennent des images Mmh-mmh, donc je cache mon visage, même à l'étage Eh-eh Y a rien d'gratuit dans la vie, si o lingi eloko oko futa Na futi chambre mais na mbetu alingi afiba te Y a toute sorte de chose à fumer vers chez moi Dans tout les recoins, ça bicrave, viens chez moi J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Pfiou Bébé me boude, elle sais que j'viens rarement la voir à jeun Pfiou Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis, bébé me rends kizengi Avec ma passion, j'fais d'la monny mais j'suis toujours bloqué dans l'biz Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh You might also like J'ai plus l'cur a faire la fête, mon bébé craque, perds la tête J'suis mignon comme mikaté mais nous testée ko méka té Là, j'vais capter ma catin, ce soir, nakotia n'a kati Numéro dix comme Nakata mais j'met au fond comme attaquant Ça négocie sur les tarots mais on fait pas crédit Toi, tu cours quand y a l'canon, frérot, t'es pas crédible Tu me cherche, en vain, j'ai caché le liquide Tu me cherche, en vain, j'suis toujours J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Bébé me boude, elle sais que j'viens rarement la voir à jeun Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis Mmh-mmh, bébé me rends kizengi Mmh-mmh Avec ma passion, j'fais d'la monny Mmh-mmh mais j'suis toujours bloqué dans l'biz Mmh-mmh, eh-eh Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh</t>
+          <t>Mmh-mhh J'fais du pe-ra, j'sais pas zouker Non, non, j'suis dans la playlist de Anissa Yih-yih C'est dans mon quartier que tout l'été, j'suis bloqué, j'envoie un tit-pe chez Haller pour un bissap Eh-eh Tout se monnaie, y a pas d'fissa-fissa Mmh-mmh, c'est une te-pu mais elle fait la fille sage Mmh-mmh Les condés, du re-fou prennent des images Mmh-mmh, donc je cache mon visage, même à l'étage Eh-eh Y a rien d'gratuit dans la vie, si o lingi eloko oko futa Na futi chambre mais na mbetu alingi afiba te Y a toute sorte de chose à fumer vers chez moi Dans tout les recoins, ça bicrave, viens chez moi J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Pfiou Bébé me boude, elle sais que j'viens rarement la voir à jeun Pfiou Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis, bébé me rends kizengi Avec ma passion, j'fais d'la monny mais j'suis toujours bloqué dans l'biz Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh J'ai plus l'cur a faire la fête, mon bébé craque, perds la tête J'suis mignon comme mikaté mais nous testée ko méka té Là, j'vais capter ma catin, ce soir, nakotia n'a kati Numéro dix comme Nakata mais j'met au fond comme attaquant Ça négocie sur les tarots mais on fait pas crédit Toi, tu cours quand y a l'canon, frérot, t'es pas crédible Tu me cherche, en vain, j'ai caché le liquide Tu me cherche, en vain, j'suis toujours J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Bébé me boude, elle sais que j'viens rarement la voir à jeun Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis Mmh-mmh, bébé me rends kizengi Mmh-mmh Avec ma passion, j'fais d'la monny Mmh-mmh mais j'suis toujours bloqué dans l'biz Mmh-mmh, eh-eh Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Si-Silver Krueger on the track! Gang, gang, pah-pah Brr M.I.G Moula, gang Pah-pah Uuhuh J'arrive tout en noir, Nike Tech, paire de TN, gros, y a que mon Glock qui flingue Poh-poh, brr Y a de la tate-pa si tu veux péch, passe au Coffee, on a la beuh qui schlingue Brr J'ai fais TP toute la semaine, j'fais pas la bringue, même le week-end, ganté, jlaisse pas d'empreintes Les petits ont grandis, aujourd'hui, ils traînent, le sac, il le tiennent et les risques, ils les prennent Gambino La M', M.I.G Moula M.I.G Moula, grr, le terrain tourne comme un moulin Comme un moulin, hein Nous, le maillot, on l'a mouillé On l'a gang, les clients, ils connaissent le menu Ça vient du 9.1, on s'pé-ta depuis minot Minot, les quiproquos, se règle à main nu À main nu Mais depuis qu'on fait rentrer du seille-o Du seille-o, bah pour rien, jpeux sortir un calibre Uuhuh, Grr, pah Les idées sont noires comme la tenue Gang ou comme le T-MAX si jt'accoste à minuit Paris, cest magique, le neuf-un, c'est violent, j'm'arrête au Ulis toucher du bon pilon Jredémarre fort, j'accélère, A86, j'suis pas loin d'Anthony J'suis pas loin Nique sa mère, ces mecs, c'est des thos-my Gang, j'voulais faire comme Tommy, Egan ou Shelby mais j'voulais du papel Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut You might also like Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh J'arrive en claquettes, j'ai branché Was, j'fais comme chez oi-m Soninka Lemou, parle pas chinois J'ai sorti la guitare comme Elvis, devant le 6.35 Piou, piou, tu fais des phrases Tu fais des phrases, ma gueule Non, c'est pas c'que tu crois Non, non, à té-cô d'la frontière de Séville, hassoul, tu connais mon CV L'ennemi, on piétine, 9.1 Vite, vite, rixe, trafic, bande organisée Sale C'est des crypto' dans le game, j'analyse, j'annule vite, j'les baise en indé' Bataradé, tu connais les tarifs la capsules de filtre, le spliff est blindé J'ai les deux pieds dans la street, même quand y a pépin, je prends jamais la fuite Fuite, fuite, fuite, fuite Sucer ? Jamais de la vie Jamais de la vie, jamais de la vie, non Enfant violent, jamais on m'invite J'suis dans les back-stage, un peu trop fonce-dé, bientôt, je benda, j'fais plus de feat' Bientôt, je benda, j'fais plus de feat' Tout droit Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh Uh-uh Purchase your tracks today!</t>
+          <t>Si-Silver Krueger on the track! Gang, gang, pah-pah Brr M.I.G Moula, gang Pah-pah Uuhuh J'arrive tout en noir, Nike Tech, paire de TN, gros, y a que mon Glock qui flingue Poh-poh, brr Y a de la tate-pa si tu veux péch, passe au Coffee, on a la beuh qui schlingue Brr J'ai fais TP toute la semaine, j'fais pas la bringue, même le week-end, ganté, jlaisse pas d'empreintes Les petits ont grandis, aujourd'hui, ils traînent, le sac, il le tiennent et les risques, ils les prennent Gambino La M', M.I.G Moula M.I.G Moula, grr, le terrain tourne comme un moulin Comme un moulin, hein Nous, le maillot, on l'a mouillé On l'a gang, les clients, ils connaissent le menu Ça vient du 9.1, on s'pé-ta depuis minot Minot, les quiproquos, se règle à main nu À main nu Mais depuis qu'on fait rentrer du seille-o Du seille-o, bah pour rien, jpeux sortir un calibre Uuhuh, Grr, pah Les idées sont noires comme la tenue Gang ou comme le T-MAX si jt'accoste à minuit Paris, cest magique, le neuf-un, c'est violent, j'm'arrête au Ulis toucher du bon pilon Jredémarre fort, j'accélère, A86, j'suis pas loin d'Anthony J'suis pas loin Nique sa mère, ces mecs, c'est des thos-my Gang, j'voulais faire comme Tommy, Egan ou Shelby mais j'voulais du papel Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh J'arrive en claquettes, j'ai branché Was, j'fais comme chez oi-m Soninka Lemou, parle pas chinois J'ai sorti la guitare comme Elvis, devant le 6.35 Piou, piou, tu fais des phrases Tu fais des phrases, ma gueule Non, c'est pas c'que tu crois Non, non, à té-cô d'la frontière de Séville, hassoul, tu connais mon CV L'ennemi, on piétine, 9.1 Vite, vite, rixe, trafic, bande organisée Sale C'est des crypto' dans le game, j'analyse, j'annule vite, j'les baise en indé' Bataradé, tu connais les tarifs la capsules de filtre, le spliff est blindé J'ai les deux pieds dans la street, même quand y a pépin, je prends jamais la fuite Fuite, fuite, fuite, fuite Sucer ? Jamais de la vie Jamais de la vie, jamais de la vie, non Enfant violent, jamais on m'invite J'suis dans les back-stage, un peu trop fonce-dé, bientôt, je benda, j'fais plus de feat' Bientôt, je benda, j'fais plus de feat' Tout droit Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh Uh-uh Purchase your tracks today!</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>On s'mêle pas des stories des gens, on croit pas à vos légendes Million Man on the beat J'ai préféré faire du chant, gratter des textes dans ma chambre À gauche Y a Rondo qui a tise, à droite Y a Limsa qui sécurise En haut Y a Blaki qui cuisine, en bas Y a Mano qui tartine Ouh, oui J'écris des textes sur mes propres type beat, ils veulent nous tester, ils sont bêtes Revente de tout c'qui est illicite donc sur nous, les flics enquêtent Hi-hi J'ai encore le temps pour la Patek, faut qu'j'aille avec ma baby en Crête Mais j'peux pas voyager sans mon kit, j'arrache au moins dix grammes sur la 'quette Uh-uh Paye tes dettes, même en affaire, on est quittes, si tu veux une situation adéquate J'me sentais seul, j'ai acheté un pit, au moins, c'est sûr, lui il m'souhaite rien d'mal Hi-hi J'suis un 9.9, ma génération a tout vu les profiteurs et les fils de putes, les grands fauchés qui s'inventent des vies On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c You might also like Y a le p'tit, deux taffes, qui prend tes sapes, pourtant, c'est juste un 0.4 Y a mon p'tit frère dans son équipe, ils ont d'jà sauté toutes les étapes Hi-hi Mais bon, c'est un peu à cause de nous que ceux qui suivent sont pas très sages Y avait du bédo à chaque étage, pour survivre, il fallait du courage Hi-hi Embrouille interne, on choisit pas d'camp Hi-hi, on respecte que ceux qui sont respectables De base, on manque pas d'respect aux grands, t'es juste un flocko si on parle mal Eh-eh Eux, ils bluffent, bluffent, on les a jamais vu faire les travaux C'est des mecs à meuf, meuf, moi, j'ai pas la tchatche, j'suis BG, j'attire les gos On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c Son cavu, cavu</t>
+          <t>On s'mêle pas des stories des gens, on croit pas à vos légendes Million Man on the beat J'ai préféré faire du chant, gratter des textes dans ma chambre À gauche Y a Rondo qui a tise, à droite Y a Limsa qui sécurise En haut Y a Blaki qui cuisine, en bas Y a Mano qui tartine Ouh, oui J'écris des textes sur mes propres type beat, ils veulent nous tester, ils sont bêtes Revente de tout c'qui est illicite donc sur nous, les flics enquêtent Hi-hi J'ai encore le temps pour la Patek, faut qu'j'aille avec ma baby en Crête Mais j'peux pas voyager sans mon kit, j'arrache au moins dix grammes sur la 'quette Uh-uh Paye tes dettes, même en affaire, on est quittes, si tu veux une situation adéquate J'me sentais seul, j'ai acheté un pit, au moins, c'est sûr, lui il m'souhaite rien d'mal Hi-hi J'suis un 9.9, ma génération a tout vu les profiteurs et les fils de putes, les grands fauchés qui s'inventent des vies On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c Y a le p'tit, deux taffes, qui prend tes sapes, pourtant, c'est juste un 0.4 Y a mon p'tit frère dans son équipe, ils ont d'jà sauté toutes les étapes Hi-hi Mais bon, c'est un peu à cause de nous que ceux qui suivent sont pas très sages Y avait du bédo à chaque étage, pour survivre, il fallait du courage Hi-hi Embrouille interne, on choisit pas d'camp Hi-hi, on respecte que ceux qui sont respectables De base, on manque pas d'respect aux grands, t'es juste un flocko si on parle mal Eh-eh Eux, ils bluffent, bluffent, on les a jamais vu faire les travaux C'est des mecs à meuf, meuf, moi, j'ai pas la tchatche, j'suis BG, j'attire les gos On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c Son cavu, cavu</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Validé par Zifu et le Kop On a trop longtemps été dans l'ombre Cet année on va finir au top J'suis pas trop doué pour faire des pompes Moi si y'a heja, je sors le glock Cagoulé dans ton salon On attache tout l'monde, c'est pas un prank Non, mon negro c'est pas un prank Ce soir, j'viscère Tanguy et Frank J'manquerai jamais d'respect aux grands Mais j'ai plus le temps d'écouter leurs légendes Y'a de quoi prendre 10 ans dans la planque Dieu merci, toujours vesqui la proc' C'est la gambinerie au micro C'est que l'début de la propagand Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulnt toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite You might also like C'est carbo mais ça débite Meilleur joueur, j'mets que des buts Des fois, j'fais des passes de zipette Ils parlent dans mon dos pour salir ma réput' J'fais des millions d'streams et des millions d'vues Mais j'revends toujours la beuh par 30 J'fume que d'la frappe, j'suis dans ma bulle J'pense à ramener le disque d'or à la planque J'pense à ramener le disque d'or à la planque Les rappeurs dans la salle d'attente Et si tu paies pas dans les temps Minimum canon sur ta tempe Le trafic est fluide donc les rats font T.P Dans la zone, c'est moi, j'donne le tempo Si t'es pas d'accord, gros c'est tant pis J'fais même bougé ceux qui m'aiment pas Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite</t>
+          <t>Validé par Zifu et le Kop On a trop longtemps été dans l'ombre Cet année on va finir au top J'suis pas trop doué pour faire des pompes Moi si y'a heja, je sors le glock Cagoulé dans ton salon On attache tout l'monde, c'est pas un prank Non, mon negro c'est pas un prank Ce soir, j'viscère Tanguy et Frank J'manquerai jamais d'respect aux grands Mais j'ai plus le temps d'écouter leurs légendes Y'a de quoi prendre 10 ans dans la planque Dieu merci, toujours vesqui la proc' C'est la gambinerie au micro C'est que l'début de la propagand Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulnt toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite Meilleur joueur, j'mets que des buts Des fois, j'fais des passes de zipette Ils parlent dans mon dos pour salir ma réput' J'fais des millions d'streams et des millions d'vues Mais j'revends toujours la beuh par 30 J'fume que d'la frappe, j'suis dans ma bulle J'pense à ramener le disque d'or à la planque J'pense à ramener le disque d'or à la planque Les rappeurs dans la salle d'attente Et si tu paies pas dans les temps Minimum canon sur ta tempe Le trafic est fluide donc les rats font T.P Dans la zone, c'est moi, j'donne le tempo Si t'es pas d'accord, gros c'est tant pis J'fais même bougé ceux qui m'aiment pas Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous, les fouteurs de trouble, c'est nous C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous Mmh-mmh J'fais bouger des culs, j'fais bouger des têtes Yih-yih, j'augmente le tarot sur la cassette Cassette Ils font les voyous, c'est des tapettes Brr, j'ai le Gucci sur la casquette Eh-eh J'aime pas le tennis mais depuis qu'j'suis tout petit, j'suis dans l'raquette Eh-eh Ils disnt que j'suis pas un kickeur mais pour les ambiancr, j'ai la recette Eh-eh, mmh-mmh Au volant du bolide, ça v'-esqui la sère-mi, ça v'-esqui la police Sa re-su me valide, la cité me valide, toi, on t'a mis d'côté comme le réglisse Mmh-mmh Sur le terrain, ça glisse, j'suis bourré, arrête-toi, faut qu'je pisse Mmh-mmh J'suis venu prendre ma place, on a trop trimé, gros, il faut qu'j'mange ma pièce C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh, eh-eh Mmh-mmh, hi-hi J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Eh-eh, mmh-mmh You might also like Ils s'y connaissent pas en musique mais sur Twitter, ils font les puristes Brr, brr Quand j'me fâche, si tu m'cherches, j'te casse les dents, c'est moi ton dentiste Yih-yih Viens chez moi, ton bigo, j'confisque sauf si tu passes au Garage Coffee Qui veut quoi ? Brr Qui est qui ? Brr J'sais plus qui est là juste par profit Uh-uh J'veux soulever tous les trophées, j'suis dans la végétale comme Truffaut Elle mérite pas d'monter dans l'Fe-Fe, j'lui prends un Uber, direction F1 Moi, j'suis un charo, ça vient du 9.1, arrête de mentir, t'as rien sous l'coussin Moi, si y a heja, j'ramène mes cousins, vas-y rre-Pie, mets le pré-refrain C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh</t>
+          <t>C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous, les fouteurs de trouble, c'est nous C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous Mmh-mmh J'fais bouger des culs, j'fais bouger des têtes Yih-yih, j'augmente le tarot sur la cassette Cassette Ils font les voyous, c'est des tapettes Brr, j'ai le Gucci sur la casquette Eh-eh J'aime pas le tennis mais depuis qu'j'suis tout petit, j'suis dans l'raquette Eh-eh Ils disnt que j'suis pas un kickeur mais pour les ambiancr, j'ai la recette Eh-eh, mmh-mmh Au volant du bolide, ça v'-esqui la sère-mi, ça v'-esqui la police Sa re-su me valide, la cité me valide, toi, on t'a mis d'côté comme le réglisse Mmh-mmh Sur le terrain, ça glisse, j'suis bourré, arrête-toi, faut qu'je pisse Mmh-mmh J'suis venu prendre ma place, on a trop trimé, gros, il faut qu'j'mange ma pièce C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh, eh-eh Mmh-mmh, hi-hi J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Eh-eh, mmh-mmh Ils s'y connaissent pas en musique mais sur Twitter, ils font les puristes Brr, brr Quand j'me fâche, si tu m'cherches, j'te casse les dents, c'est moi ton dentiste Yih-yih Viens chez moi, ton bigo, j'confisque sauf si tu passes au Garage Coffee Qui veut quoi ? Brr Qui est qui ? Brr J'sais plus qui est là juste par profit Uh-uh J'veux soulever tous les trophées, j'suis dans la végétale comme Truffaut Elle mérite pas d'monter dans l'Fe-Fe, j'lui prends un Uber, direction F1 Moi, j'suis un charo, ça vient du 9.1, arrête de mentir, t'as rien sous l'coussin Moi, si y a heja, j'ramène mes cousins, vas-y rre-Pie, mets le pré-refrain C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gambi' et L.A, j'vois vos culs zouker Gambi', Larry, Snoop, Eminem Shee, shee, shee J'ai, j'ai le charass qui rends imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh, mmh-mmh, yih-yih Je retourne pas ma veste, j'suis pas Tenshinhan 'shinhan On change pas une équipe qui gagne, trafic à l'école comme dans Breaking Bad Bad Je la bai-, baise devant son chat Chat, j'attire les abeilles, bzz-bzz, j'bois du Jack miel Yih-yih J'suis dans le BM quand j'aperçois à la base sur la bep-bep à l'arrêt Haut-Plaine Uh-uh Eux-, eux c'est des kadhaab, faut pas les croire Mmh-mmh, N118, j'mets les pleins phares Mmh-mmh Celui qu'a l'papel, c'est le plus fort mais il devient tout mou devant le fer Et maintenant qu'j'suis une star d'la drill La drill, tout le monde me suce, j'trouve ça drôle Ça drôle Y avait pas tout c'monde sous la grêle La grêle, j'ai tout encaisser comme un goal Uh-uh On est v'nus tout piller comme des vikings Charcle, sorbé court, on voit son string Yih-yih Elle m'suit partout, c'est moi le king, ma bite, ça bouge dans l'parking Mmh-mmh Elle a des kilomètres, elle me l'a pas dit, c'est pas une fille honnête On est v'nus tout casser sur le net, Gambi', Larry, Snoop, Eminem You might also like J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Sheesh, sheesh, sheesh, han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh J'vais pas à Phuket, d'où j'viens, tout s'paye, Gambi' et L.A, j'vois vos culs zouker Pah, pah J'suis dans la surface du terrain d'zipette, j'étais dans la course mais j'ai mis vitesse La-, la pute, elle veut se faire pimper, bipe-moi, j'suis dans l'gros moteur, tout ça, tout ça Vroum Elle écarte ses jambes comme un compas mais des mini-moi, j'veux pas, j'veux pas Coup d'couteau, coup d'cutter, gamberge, trois points, Curry, c'est en lég' Comme Ragnar, tout per-ta en temps d'guerre Oh ouais, que des coups d'hachette, barre de fer Ça a niqué la tantine, Disney en bomber, bah-, bah ouais, ouais, Yappi au murder In Da Club comme Fifty, big pec', pec' Uh-uh, j'ai du buzz, elle m'appelle mon babe Blablater, pas la peine, j'nage où t'as pas pied, parle-nous de papers, paie même en PayPal BU, d'Pays-Bas, sous bloc, N.I.B , Men-, Men In Black, c'est moi l'agent J J'fais pas partie de ces suiveurs, j'ai la moula couleur turtle Woaw J'suis éméché, d'mauvaise humeur Pah, pah, j'parle au baby, j'parle au compteur J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel</t>
+          <t>Gambi' et L.A, j'vois vos culs zouker Gambi', Larry, Snoop, Eminem Shee, shee, shee J'ai, j'ai le charass qui rends imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh, mmh-mmh, yih-yih Je retourne pas ma veste, j'suis pas Tenshinhan 'shinhan On change pas une équipe qui gagne, trafic à l'école comme dans Breaking Bad Bad Je la bai-, baise devant son chat Chat, j'attire les abeilles, bzz-bzz, j'bois du Jack miel Yih-yih J'suis dans le BM quand j'aperçois à la base sur la bep-bep à l'arrêt Haut-Plaine Uh-uh Eux-, eux c'est des kadhaab, faut pas les croire Mmh-mmh, N118, j'mets les pleins phares Mmh-mmh Celui qu'a l'papel, c'est le plus fort mais il devient tout mou devant le fer Et maintenant qu'j'suis une star d'la drill La drill, tout le monde me suce, j'trouve ça drôle Ça drôle Y avait pas tout c'monde sous la grêle La grêle, j'ai tout encaisser comme un goal Uh-uh On est v'nus tout piller comme des vikings Charcle, sorbé court, on voit son string Yih-yih Elle m'suit partout, c'est moi le king, ma bite, ça bouge dans l'parking Mmh-mmh Elle a des kilomètres, elle me l'a pas dit, c'est pas une fille honnête On est v'nus tout casser sur le net, Gambi', Larry, Snoop, Eminem J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Sheesh, sheesh, sheesh, han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh J'vais pas à Phuket, d'où j'viens, tout s'paye, Gambi' et L.A, j'vois vos culs zouker Pah, pah J'suis dans la surface du terrain d'zipette, j'étais dans la course mais j'ai mis vitesse La-, la pute, elle veut se faire pimper, bipe-moi, j'suis dans l'gros moteur, tout ça, tout ça Vroum Elle écarte ses jambes comme un compas mais des mini-moi, j'veux pas, j'veux pas Coup d'couteau, coup d'cutter, gamberge, trois points, Curry, c'est en lég' Comme Ragnar, tout per-ta en temps d'guerre Oh ouais, que des coups d'hachette, barre de fer Ça a niqué la tantine, Disney en bomber, bah-, bah ouais, ouais, Yappi au murder In Da Club comme Fifty, big pec', pec' Uh-uh, j'ai du buzz, elle m'appelle mon babe Blablater, pas la peine, j'nage où t'as pas pied, parle-nous de papers, paie même en PayPal BU, d'Pays-Bas, sous bloc, N.I.B , Men-, Men In Black, c'est moi l'agent J J'fais pas partie de ces suiveurs, j'ai la moula couleur turtle Woaw J'suis éméché, d'mauvaise humeur Pah, pah, j'parle au baby, j'parle au compteur J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2K on the track! Bébé veut mon cur mais j'peux pas lui donner Donner, elle voudrait être ma Donna Imma Même si je le voulais, pour l'instant, j'peux pas aimer qui qu'ce soit À la maison, c'est la sère-mi Sère-mi, petit frère s'est fait enfermé Traffic de stup' comme pas permis, c'est vrai qu'pour maman, faut dormir Elle veut être ma Donna Imma 'mma, j'pense à mes entrées du mois J'ai de la drogue dans les mains Mains, la recharge du hazi sur moi Moi Beaucoup trop de bougs en moins, rien de mieux que l'anonymat Je ne remets rien à demain, j'suis pas à l'abri d'caner ce soir Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fait patiner, j'aime trop quand elle parle pas chinois You might also like La nuit, j'dors que d'un il comme Fetty Wap Brr, j'compte sur personnes, j'utilise mes dix oitg-d Brr, brr Les shooters sont précis, vont jamais stresser, si tu fautes, j'ai la solution adéquate Grosse descente de condés, montée d'adrénaline Hum, les porcs sont v'nus avec la brigade canine Hum, hum Un coup de bigo, ta carrière, on l'annule mais y aura pas d'problèmes si nous deux, on s'allume Les cassages de portes ont recommencé, les condés ont fouillé la chambre et le salon Ils ont pas trouvé de gent-ar, pas d'coca', pas d'pilon, même sur les photos d'la CR, j'suis canon T'as pas de canon, t'as pas de balles, on vend du pilon, on fait des tales Chargé dans l'auto, il vient juste d'récupérer la ppe-fra, c'est miné, faut pas que je canne Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fais patiner, j'aime trop quand elle parle pas chinois Hum, j'ai trop d'mmes-gra sur moi Même si je le voulais C'est miné en bas d'chez moi J'aime les pépettes empilées Les pneus, j'les fais patiner On va pas filer J'aime trop quand elle parle pas chinois Tu sais qu'on peut pas tout laisser</t>
+          <t>2K on the track! Bébé veut mon cur mais j'peux pas lui donner Donner, elle voudrait être ma Donna Imma Même si je le voulais, pour l'instant, j'peux pas aimer qui qu'ce soit À la maison, c'est la sère-mi Sère-mi, petit frère s'est fait enfermé Traffic de stup' comme pas permis, c'est vrai qu'pour maman, faut dormir Elle veut être ma Donna Imma 'mma, j'pense à mes entrées du mois J'ai de la drogue dans les mains Mains, la recharge du hazi sur moi Moi Beaucoup trop de bougs en moins, rien de mieux que l'anonymat Je ne remets rien à demain, j'suis pas à l'abri d'caner ce soir Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fait patiner, j'aime trop quand elle parle pas chinois La nuit, j'dors que d'un il comme Fetty Wap Brr, j'compte sur personnes, j'utilise mes dix oitg-d Brr, brr Les shooters sont précis, vont jamais stresser, si tu fautes, j'ai la solution adéquate Grosse descente de condés, montée d'adrénaline Hum, les porcs sont v'nus avec la brigade canine Hum, hum Un coup de bigo, ta carrière, on l'annule mais y aura pas d'problèmes si nous deux, on s'allume Les cassages de portes ont recommencé, les condés ont fouillé la chambre et le salon Ils ont pas trouvé de gent-ar, pas d'coca', pas d'pilon, même sur les photos d'la CR, j'suis canon T'as pas de canon, t'as pas de balles, on vend du pilon, on fait des tales Chargé dans l'auto, il vient juste d'récupérer la ppe-fra, c'est miné, faut pas que je canne Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fais patiner, j'aime trop quand elle parle pas chinois Hum, j'ai trop d'mmes-gra sur moi Même si je le voulais C'est miné en bas d'chez moi J'aime les pépettes empilées Les pneus, j'les fais patiner On va pas filer J'aime trop quand elle parle pas chinois Tu sais qu'on peut pas tout laisser</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Yo Deux-, deux-trois boulettes dans l'jean, j'vais visser vers le Sénat Sénat J'm'excuse le soir au Seigneur Seigneur, j'supporte même pas le sauna Yih-yih On t'a taper, vas t'soigner Soigner, mmh-mmh, ton visage est saignant Woaw On mets la fuite au signal Signal, sur le té-cô comme Sagna Ouais, PU On t'a jamais vu dans la tess, arrête de dire que tu t'es retiré Des armes, on a tous brandis mais qui aura le cran de tirer ? Pah, pah, pah J'prends l'pouvoir comme un tyran Pfiou, trop d'pécher, j'suis à La Criée Crr La foule m'acclame en criant, j'peux pas m'empêcher de sauter J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh You might also like Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal - Notre avantage, c'est un produit pur qu'on vends à un prix plancher Mmh-mh - C'est là d'ssus qu'on va s'concentrer Mmh-mmh-mmh - À part de maintenant, on accepte que des dealers qui achètent par kilos Ok, eh-eh J'sais-, j'sais même plus combien de joints j'ai fumé dans ma vie Yih-yih J'sais même plus combien de boloss j'ai d'jà visser dans la ville Shopping une fois par semaine Mmh-mmh, ça dépends d'mes streams J'ai même plus d'souvenir de quand j'voyais pas d'souvenir Eh-eh On adore que Dieu, non, moi, j'veux pas qu'on m'idolâtre Viens pas faire le fou chez nous ou ton bras fini dans un plâtre Han-han Le-, le prochain qui touche un mec de chez moi, on l'castre Mmh-mmh La seule bonbonne que t'as tenue, toi, c'est celle remplie de gaz J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal Ils ont retiré l'bracelet à Soum' Yih-yih mais ils veulent le mettre à Bobo Bobo Ils veulent le mettre à Bobo Bobo, ils veulent le mettre à Bobo Bobo Ils ont retiré l'bracelet à Soum' Ok mais ils veulent le mettre à Bobo Ok Ils veulent le mettre à Bobo Ok, ils veulent le mettre à Bobo Eh-eh</t>
+          <t>Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Yo Deux-, deux-trois boulettes dans l'jean, j'vais visser vers le Sénat Sénat J'm'excuse le soir au Seigneur Seigneur, j'supporte même pas le sauna Yih-yih On t'a taper, vas t'soigner Soigner, mmh-mmh, ton visage est saignant Woaw On mets la fuite au signal Signal, sur le té-cô comme Sagna Ouais, PU On t'a jamais vu dans la tess, arrête de dire que tu t'es retiré Des armes, on a tous brandis mais qui aura le cran de tirer ? Pah, pah, pah J'prends l'pouvoir comme un tyran Pfiou, trop d'pécher, j'suis à La Criée Crr La foule m'acclame en criant, j'peux pas m'empêcher de sauter J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal - Notre avantage, c'est un produit pur qu'on vends à un prix plancher Mmh-mh - C'est là d'ssus qu'on va s'concentrer Mmh-mmh-mmh - À part de maintenant, on accepte que des dealers qui achètent par kilos Ok, eh-eh J'sais-, j'sais même plus combien de joints j'ai fumé dans ma vie Yih-yih J'sais même plus combien de boloss j'ai d'jà visser dans la ville Shopping une fois par semaine Mmh-mmh, ça dépends d'mes streams J'ai même plus d'souvenir de quand j'voyais pas d'souvenir Eh-eh On adore que Dieu, non, moi, j'veux pas qu'on m'idolâtre Viens pas faire le fou chez nous ou ton bras fini dans un plâtre Han-han Le-, le prochain qui touche un mec de chez moi, on l'castre Mmh-mmh La seule bonbonne que t'as tenue, toi, c'est celle remplie de gaz J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal Ils ont retiré l'bracelet à Soum' Yih-yih mais ils veulent le mettre à Bobo Bobo Ils veulent le mettre à Bobo Bobo, ils veulent le mettre à Bobo Bobo Ils ont retiré l'bracelet à Soum' Ok mais ils veulent le mettre à Bobo Ok Ils veulent le mettre à Bobo Ok, ils veulent le mettre à Bobo Eh-eh</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>J'ai l'impression de te faire fuir H8MKRZ Ne vois-tu pas que de toi, que de toi, que de toi, que de toi Hey Zepol, you knocked Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décollr Dis-moi qu'entre toi et moi, toi t moi Un jour ça va coller Uh-uh Elle préfère les dates en voiture, elle sait qu'j'tartine, elle accroche sa ceinture D'entrée d'jeu, elle est d'mauvaise humeur, j'ai pas remarqué sa nouvelle coiffure Elle m'trouve distant, elle dis qu'je fuis Je fuis, que j'la calcule que quand j'm'ennuie J'm'ennuie Mais comment t'écrire quand j'suis occupé Hein ? Des fois, elles sont trop bêtes les filles Hmh-hmh Mon bébé, fais-moi bisous Bisous, si tu m'vois pas le jour, c'est pour que t'ai tout ces bijoux Yih-yih Tu sais qu'faut qu't'attends ton tour et que y a ma mère aussi Mère aussi Tu m'parle que d'ce que tu veux Tu veux mais sait tu d'quoi j'ai envie ? Uh-uh You might also like Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Mon style de vie l'a rends parano Parano, ses potes ne m'aident pas non plus Donnent des conseils mais ne trouvent pas l'amour Pas l'amour, tu te trompe d'ennemis Yih-yih J'essaye d'faire du bien autour de moi, y a pas que toi, faut qu'tu l'sache, c'est délicat Uh-uh Je sais que j't'ai fait perde espoir mais ne t'en fait pas Ma chérie, je sais qu'tôt ou tard, nous deux, ça va aller Ça va aller On t'a dis si, on t'a dis ça mais n'écoute pas, baby, crois-moi Ils veulent nous nuire, il faut juste les ignorer Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Parle-moi de tes peurs Pourquoi tout ces changements d'humeurs ? J'ai l'impression de te faire fuir Ne vois-tu pas que de toi, que de toi, que de toi, que de toi, j'ai envie</t>
+          <t>J'ai l'impression de te faire fuir H8MKRZ Ne vois-tu pas que de toi, que de toi, que de toi, que de toi Hey Zepol, you knocked Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décollr Dis-moi qu'entre toi et moi, toi t moi Un jour ça va coller Uh-uh Elle préfère les dates en voiture, elle sait qu'j'tartine, elle accroche sa ceinture D'entrée d'jeu, elle est d'mauvaise humeur, j'ai pas remarqué sa nouvelle coiffure Elle m'trouve distant, elle dis qu'je fuis Je fuis, que j'la calcule que quand j'm'ennuie J'm'ennuie Mais comment t'écrire quand j'suis occupé Hein ? Des fois, elles sont trop bêtes les filles Hmh-hmh Mon bébé, fais-moi bisous Bisous, si tu m'vois pas le jour, c'est pour que t'ai tout ces bijoux Yih-yih Tu sais qu'faut qu't'attends ton tour et que y a ma mère aussi Mère aussi Tu m'parle que d'ce que tu veux Tu veux mais sait tu d'quoi j'ai envie ? Uh-uh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Mon style de vie l'a rends parano Parano, ses potes ne m'aident pas non plus Donnent des conseils mais ne trouvent pas l'amour Pas l'amour, tu te trompe d'ennemis Yih-yih J'essaye d'faire du bien autour de moi, y a pas que toi, faut qu'tu l'sache, c'est délicat Uh-uh Je sais que j't'ai fait perde espoir mais ne t'en fait pas Ma chérie, je sais qu'tôt ou tard, nous deux, ça va aller Ça va aller On t'a dis si, on t'a dis ça mais n'écoute pas, baby, crois-moi Ils veulent nous nuire, il faut juste les ignorer Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Parle-moi de tes peurs Pourquoi tout ces changements d'humeurs ? J'ai l'impression de te faire fuir Ne vois-tu pas que de toi, que de toi, que de toi, que de toi, j'ai envie</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J'me rappelle avec Zeno et Isko dehors Isko dehors, on zonait même dans le brouillard Yih, yih Fier de moi, j'ai aucun remord, j'dois m'écarter de tous ces trouillards Hum, hum Y a du violet sur mon foulard Hum, hum, c'est tragique comme un polar Hum, hum J'décompresse dans un boulard Hum, hum, j'ai tout craché dans sa ge-gor Eh, eh Gambino LaM, tu connais, dès que j'arrive, elle est d'jà en string Elle est déjà en string J'suis avec Kepler l'oseille dans la go-va, j'lui demande de ramener des copines De ramener des copines Fais belek, chez moi, ça tire Han, han, fais belek, chez moi, ça tire Belek, chez moi, ça tire Aqua de fumée dans la kitchen, y a rien à manger mais ça sent l'cheese Mais ça sent l'cheese Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh C'est-c'est Kepler l'oseille dans la place, han, gros joint de ppe-f' qui m'apaise, han, j'cours que derrière les mapessas Tout-tout est déjà dans le sac, han, à l'affût si ça attaque, han Oh, j'les fuck tous, gang, j't'ai dis, c'est Kepler l'oseille dans la place Kepler l'oseille dans la kitchen, elle se déplace pour me faire un kiss MAC eleven dans mon pah, baby ressemble à Alicia Keys Rends pas fou, j'suis pas bien ce soir, j'crois bien que je vais commettre un crime Drogue, sexe, chill, oh, ramène Alicia Keys You might also like Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh</t>
+          <t>J'me rappelle avec Zeno et Isko dehors Isko dehors, on zonait même dans le brouillard Yih, yih Fier de moi, j'ai aucun remord, j'dois m'écarter de tous ces trouillards Hum, hum Y a du violet sur mon foulard Hum, hum, c'est tragique comme un polar Hum, hum J'décompresse dans un boulard Hum, hum, j'ai tout craché dans sa ge-gor Eh, eh Gambino LaM, tu connais, dès que j'arrive, elle est d'jà en string Elle est déjà en string J'suis avec Kepler l'oseille dans la go-va, j'lui demande de ramener des copines De ramener des copines Fais belek, chez moi, ça tire Han, han, fais belek, chez moi, ça tire Belek, chez moi, ça tire Aqua de fumée dans la kitchen, y a rien à manger mais ça sent l'cheese Mais ça sent l'cheese Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh C'est-c'est Kepler l'oseille dans la place, han, gros joint de ppe-f' qui m'apaise, han, j'cours que derrière les mapessas Tout-tout est déjà dans le sac, han, à l'affût si ça attaque, han Oh, j'les fuck tous, gang, j't'ai dis, c'est Kepler l'oseille dans la place Kepler l'oseille dans la kitchen, elle se déplace pour me faire un kiss MAC eleven dans mon pah, baby ressemble à Alicia Keys Rends pas fou, j'suis pas bien ce soir, j'crois bien que je vais commettre un crime Drogue, sexe, chill, oh, ramène Alicia Keys Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eh, c'est rien c'est la rue mon pote Grr U.L.I.S Gang gang, ça bosse de Berger à Chantraine Chantraine Tu passes de Gaza à Harlem donc chercher la merde, c'est pas la peine hi, yih J'rappe pour les sous, pas pour le fun ah mais j'suis boycotté comme le FN FN J'enchaîne les joints, j'suis rarement à jeun et j'revends celle qui s'prend par le ze-n eh, eh 9.1.9.4.0 sur la carte eh, eh, j'sors pas un euro si j'suis en perte eh, eh Karting dans la ville comme dans Mario Kart, on vend d'la moula, on vend d'la zipette hi, yih Le pilon mousseux rend bête, aqua d'fumée, j'suis dans la choupette On t'rackette comme la Team Rocket, en espérant trouver la recette C'est ton plan cul qui a donné l'go go, j'le trouve ligoter comme un con con J'avais pas encore les réseaux quand j'ai vendu mon premier pochon pochon C'est l'monde à l'envers, c'est les loups qui v'-esqui les cochons ouh, ouh Hier, j'étais en roue arrière, Zoulou, Amadou, Léo, tombent Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédo J'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' You might also like La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh J'baisserai pas l'tarot, ça fait paw-paw si tu ramènes pas la monnaie mmh, mmh En bas, on fait pas d'cadeau, faut défendre nos intérêts mmh, mmh Calmate, c'est juste un son, j'vois que t'as prévenu ton patron mmh, mmh À la guerre comme à la guerre, il pour il, nous on parle pas trop shoo, shoo, shoo Andalé, ouais, on y va les gars, EL m'a dit Faut esquiver les go oh, oh J'ai ton liquide dans la gov', et tu le sais, c'est deux boss Trafiquante, train de vie alimenté par les nombres faits commis, ganté, j'v'-esqui l'comi' Train de vie ah pas trop facile oh, j'encaisse des sous, tu crains le pire eh, tout était dit oh T'as fait le sourd, ouais, j't'ai j'visser eh des 10 à 50 eh, tes quun ient-cli Tu sympathises shoo, j'ai tourné la roue shoo, tu crains le pire Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédoJ'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh C'est rien, c'est la rue Ils nous ont fait du mal mais bon, elle va tourner la roue J't'ai déjà dit qu'la rue, c'est cru On en a tellement mangé qu'on a plus peur de prendre des coups</t>
+          <t>Eh, c'est rien c'est la rue mon pote Grr U.L.I.S Gang gang, ça bosse de Berger à Chantraine Chantraine Tu passes de Gaza à Harlem donc chercher la merde, c'est pas la peine hi, yih J'rappe pour les sous, pas pour le fun ah mais j'suis boycotté comme le FN FN J'enchaîne les joints, j'suis rarement à jeun et j'revends celle qui s'prend par le ze-n eh, eh 9.1.9.4.0 sur la carte eh, eh, j'sors pas un euro si j'suis en perte eh, eh Karting dans la ville comme dans Mario Kart, on vend d'la moula, on vend d'la zipette hi, yih Le pilon mousseux rend bête, aqua d'fumée, j'suis dans la choupette On t'rackette comme la Team Rocket, en espérant trouver la recette C'est ton plan cul qui a donné l'go go, j'le trouve ligoter comme un con con J'avais pas encore les réseaux quand j'ai vendu mon premier pochon pochon C'est l'monde à l'envers, c'est les loups qui v'-esqui les cochons ouh, ouh Hier, j'étais en roue arrière, Zoulou, Amadou, Léo, tombent Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédo J'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh J'baisserai pas l'tarot, ça fait paw-paw si tu ramènes pas la monnaie mmh, mmh En bas, on fait pas d'cadeau, faut défendre nos intérêts mmh, mmh Calmate, c'est juste un son, j'vois que t'as prévenu ton patron mmh, mmh À la guerre comme à la guerre, il pour il, nous on parle pas trop shoo, shoo, shoo Andalé, ouais, on y va les gars, EL m'a dit Faut esquiver les go oh, oh J'ai ton liquide dans la gov', et tu le sais, c'est deux boss Trafiquante, train de vie alimenté par les nombres faits commis, ganté, j'v'-esqui l'comi' Train de vie ah pas trop facile oh, j'encaisse des sous, tu crains le pire eh, tout était dit oh T'as fait le sourd, ouais, j't'ai j'visser eh des 10 à 50 eh, tes quun ient-cli Tu sympathises shoo, j'ai tourné la roue shoo, tu crains le pire Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédoJ'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh C'est rien, c'est la rue Ils nous ont fait du mal mais bon, elle va tourner la roue J't'ai déjà dit qu'la rue, c'est cru On en a tellement mangé qu'on a plus peur de prendre des coups</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LeTempsDuPiano J'ai l'habitude de m'faire ser-cour Ser-cour, j'ai l'habitude de trottiner 'ttiner J'livrais les adresses que j'recevais sur signal en trottinette 'nette J'ai l'habitude de faire des sous Des sous, j'ai l'habitude de recompter Mmh-mmh Je jouer au gangster pendant que mes surs jouait à la dinette Puni d'sortie, j'voyais mes potos s'amuser par la fnêtre Tu finira en prison, c'est c'qu m'avait dit la maîtresse Dix ans plus tard, madame, j'suis encore là, j'suis toujours dans la tess J'ai plein d'sous dans mon compte en banque, pourtant, j'ai pas eu BTS BTS Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh You might also like Quand j'prie, j'demande au Seigneur de vivre assez longtemps pour me repentir Pour me repentir J'ai peur du châtiment, j'ai pas peur de mourir J'ai pas peur de mourir J'hésiter pas à dérober pour me nourrir On est ensemble pour le meilleur, on a déjà connu le pire Eh-eh Parano, j'confonds les Hitch et les bacqueux Et les bacqueux J'ai ma codéine en guise d'anti-pâteuse D'anti-pâteuse Ton entourage est faible, tes négros sont pas fiables Négros sont pas fiables J'suis dans mon lit, j'écris des rimes, j'écris des fables Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh</t>
+          <t>LeTempsDuPiano J'ai l'habitude de m'faire ser-cour Ser-cour, j'ai l'habitude de trottiner 'ttiner J'livrais les adresses que j'recevais sur signal en trottinette 'nette J'ai l'habitude de faire des sous Des sous, j'ai l'habitude de recompter Mmh-mmh Je jouer au gangster pendant que mes surs jouait à la dinette Puni d'sortie, j'voyais mes potos s'amuser par la fnêtre Tu finira en prison, c'est c'qu m'avait dit la maîtresse Dix ans plus tard, madame, j'suis encore là, j'suis toujours dans la tess J'ai plein d'sous dans mon compte en banque, pourtant, j'ai pas eu BTS BTS Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh Quand j'prie, j'demande au Seigneur de vivre assez longtemps pour me repentir Pour me repentir J'ai peur du châtiment, j'ai pas peur de mourir J'ai pas peur de mourir J'hésiter pas à dérober pour me nourrir On est ensemble pour le meilleur, on a déjà connu le pire Eh-eh Parano, j'confonds les Hitch et les bacqueux Et les bacqueux J'ai ma codéine en guise d'anti-pâteuse D'anti-pâteuse Ton entourage est faible, tes négros sont pas fiables Négros sont pas fiables J'suis dans mon lit, j'écris des rimes, j'écris des fables Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Je suis dans limport-export export, jaugmente le flux du teh On vient cagoulés devant ta porte si tu tarde à rabouler ma part Ils entendent les Ulis, ils ont peur, ya que si ya les bleus que tu me vois fuir que tu me vois fuir On ma toujours apprit de méchapper quand il y a les gyrophares Bre-sim comme les rues de Fulham Fulham, dangereux comme les rues de Tottenham, McNey, Beckham Beckham Rappeur international depuis que je suis suivi par Virgil Abloh et Martial Envoie une feuille slim, j'fais du pe-ra pas du slam, j'tournais sur Paris pour faire rentrer des sommes sommes, sommes J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants You might also like Cest moi le numéro 10 donc comme Dozla, minimum doublée On revend de lherbe pour gagner du blé, on découpe le savon sur la planche en bois Dans les faits divers on est souvent cité, si le buzz vient pas on va insister Insister jamais désister désister, rester sous-coté cest insultant Les abonnés montent sur Instagram, je lavais prédis sur Jack Daniel Ouais de blé, jenverrais plus de moneygram quand je serais payé par la Sacem la Sacem Jai grandi dans les cités les cités pour sen sortir en était des Pourtant personne nous incitait, on a connu trop tôt le goût des llets-bi J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants</t>
+          <t>J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Je suis dans limport-export export, jaugmente le flux du teh On vient cagoulés devant ta porte si tu tarde à rabouler ma part Ils entendent les Ulis, ils ont peur, ya que si ya les bleus que tu me vois fuir que tu me vois fuir On ma toujours apprit de méchapper quand il y a les gyrophares Bre-sim comme les rues de Fulham Fulham, dangereux comme les rues de Tottenham, McNey, Beckham Beckham Rappeur international depuis que je suis suivi par Virgil Abloh et Martial Envoie une feuille slim, j'fais du pe-ra pas du slam, j'tournais sur Paris pour faire rentrer des sommes sommes, sommes J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Cest moi le numéro 10 donc comme Dozla, minimum doublée On revend de lherbe pour gagner du blé, on découpe le savon sur la planche en bois Dans les faits divers on est souvent cité, si le buzz vient pas on va insister Insister jamais désister désister, rester sous-coté cest insultant Les abonnés montent sur Instagram, je lavais prédis sur Jack Daniel Ouais de blé, jenverrais plus de moneygram quand je serais payé par la Sacem la Sacem Jai grandi dans les cités les cités pour sen sortir en était des Pourtant personne nous incitait, on a connu trop tôt le goût des llets-bi J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mmh-mmh La go, là, est jolie Han-han, seize ans, elle pensé trouver son mari Han-han Elle a finie dans sont lit Han-han, dix-huit ans, plus aucune nouvelles de lui Han-han Ça l'a rendu impoli, insolente, han Yih-yih Peur d'être déçu Mmh-mmh, déchu, han À chaque relation, obligé d'être collante Pfiou, pfiou, han L'impression qu'tout l'monde veut sa chute, han Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Ell voulait se marier à vingt-deux ans Vingt-dux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah You might also like À vingt ans, elle a rencontrait Gambi' Mmh-mmh Dommage pour elle, il courait qu'après les ients-cli Les règlement de comptes et les descente de police Si il s'fait choper, elle est complice Y a pas meilleur comme alibi, même si elle en a marre de ses bêtises, eh Eh-eh Si ça sonne à six heures, prends mon téléphone Mon téléphone C'est pour notre avenir si j'encaisse les sommes Si j'encaisse les sommes Ah, mama na ngai, j'suis impliqué 'pliqué Ah, mama na ngai, j'suis abonné Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Elle voulait se marier à vingt-deux ans Vingt-deux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Eh-eh Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah, une vie différent Han, han, han, han Han, han, han, han Han, han, han, han Han, han, han, han</t>
+          <t>Mmh-mmh La go, là, est jolie Han-han, seize ans, elle pensé trouver son mari Han-han Elle a finie dans sont lit Han-han, dix-huit ans, plus aucune nouvelles de lui Han-han Ça l'a rendu impoli, insolente, han Yih-yih Peur d'être déçu Mmh-mmh, déchu, han À chaque relation, obligé d'être collante Pfiou, pfiou, han L'impression qu'tout l'monde veut sa chute, han Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Ell voulait se marier à vingt-deux ans Vingt-dux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah À vingt ans, elle a rencontrait Gambi' Mmh-mmh Dommage pour elle, il courait qu'après les ients-cli Les règlement de comptes et les descente de police Si il s'fait choper, elle est complice Y a pas meilleur comme alibi, même si elle en a marre de ses bêtises, eh Eh-eh Si ça sonne à six heures, prends mon téléphone Mon téléphone C'est pour notre avenir si j'encaisse les sommes Si j'encaisse les sommes Ah, mama na ngai, j'suis impliqué 'pliqué Ah, mama na ngai, j'suis abonné Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Elle voulait se marier à vingt-deux ans Vingt-deux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Eh-eh Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah, une vie différent Han, han, han, han Han, han, han, han Han, han, han, han Han, han, han, han</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nardey, c'est chaud ça, ah, ah Scar Eh, eh Tout c'que j'prends, c'est un chef d'uvre Hi, hi, début d'séance, j'suis d'jà ivre Quand elle m'suce, elle parle d'son ce-m, j'm'en bats les couilles d'sa ie-v Tu vas finir fauchée comme ton ce-m Han, han, tu t'manges deux balles pour d'la came Tou-tou-tou-touh Dans la cabine, le micro, j'crame Wow, c'est Jackson Five sur d'la drill C'est Mozart, Capitaine Jackson J'suis sur la piste en Versace, hein Eh, eh, vers chez moi, ça tire Quand j'suis à jeun, faut pas m'faire chier, moi, pour un rien, j'te gifle Oh, Cendrillon Baby, monte dans l'gamos, ouverture papillon Baby On te baise ta grand-mère si t'as payé Bah, des affaires j't'ai poussé, hier après-midi Tou-tou-tou-touh,eh, eh Mmh, mmh, j'suis moins serein quand j'sors de la ville sans bourge Woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Eh, eh J'suis moins serein quand j'sors de la ville sans bourge Hi, hi, woaw, woaw, woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Han, han, han, han, c'est mon plan cul mais elle s'attache Han, han, han, han, j'me désape, ses veux-ch', elle attache Han, han, han, han, vocal est le braquage Han, han, han, han, j'fais du fric, tu pointes au chômage Uh, uh You might also like Toute la stup' est dans mon cul Mon cul, toute la stup' est dans mon cul Hi, hi Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Akha Toute la stup' est dans mon cul La stup', toute la stup' est dans mon cul La gue-dro Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Le boss C'est Porte de Saint-Ouen, là Mufasa, the bad producer Oh, va là-bas Eh, eh, han, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Ah, breh Han Han, ça, c'est pour toutes les babys, shake ton booty Shake, shake, shake Dans la vie, y a rien d'facile, personne est invincible Tou-tou-tou-touh, eh, eh Ma baby ne boit plus d'Sky, elle veut du champagne Du champagne Elle veut tout acquérir sur l'avenue Montaigne Gucci, Fendi, Louis' Pour Zyed et Bouna, fuck la po'-po' Fuck, fuck On tolère aucun faux pas, j'mange l'instrumentale comme un repas T'es un opps, on t'encule même sans défense Hi, hi, faut assumer les conséquences C'est l'dix-septième et l'quatre-vingt onze Mmh, mmh, c'est nous, on fait bouger la France J't'en-, j't'en-, j't'envoie une mousso pour te chopper, dans le labo' comme Tony Chopper Baw Patate gauch, j'suis pas NLE Choppa, broliqué, j'ai pas besoin d'shooter Paw C'est p't-être une meuf trop bonne qui va donner l'go Le go, j'veux le gâteau, tout l'magot Magot Drive-by, mentale, Chicago, là, c'est Porte de Saint-Ouen, Parigot Eh, eh, paw Eh, eh, paw, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Oh, vas là-bas Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Tou-tou-tou-tou-tou-tou-touh</t>
+          <t>Nardey, c'est chaud ça, ah, ah Scar Eh, eh Tout c'que j'prends, c'est un chef d'uvre Hi, hi, début d'séance, j'suis d'jà ivre Quand elle m'suce, elle parle d'son ce-m, j'm'en bats les couilles d'sa ie-v Tu vas finir fauchée comme ton ce-m Han, han, tu t'manges deux balles pour d'la came Tou-tou-tou-touh Dans la cabine, le micro, j'crame Wow, c'est Jackson Five sur d'la drill C'est Mozart, Capitaine Jackson J'suis sur la piste en Versace, hein Eh, eh, vers chez moi, ça tire Quand j'suis à jeun, faut pas m'faire chier, moi, pour un rien, j'te gifle Oh, Cendrillon Baby, monte dans l'gamos, ouverture papillon Baby On te baise ta grand-mère si t'as payé Bah, des affaires j't'ai poussé, hier après-midi Tou-tou-tou-touh,eh, eh Mmh, mmh, j'suis moins serein quand j'sors de la ville sans bourge Woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Eh, eh J'suis moins serein quand j'sors de la ville sans bourge Hi, hi, woaw, woaw, woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Han, han, han, han, c'est mon plan cul mais elle s'attache Han, han, han, han, j'me désape, ses veux-ch', elle attache Han, han, han, han, vocal est le braquage Han, han, han, han, j'fais du fric, tu pointes au chômage Uh, uh Toute la stup' est dans mon cul Mon cul, toute la stup' est dans mon cul Hi, hi Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Akha Toute la stup' est dans mon cul La stup', toute la stup' est dans mon cul La gue-dro Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Le boss C'est Porte de Saint-Ouen, là Mufasa, the bad producer Oh, va là-bas Eh, eh, han, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Ah, breh Han Han, ça, c'est pour toutes les babys, shake ton booty Shake, shake, shake Dans la vie, y a rien d'facile, personne est invincible Tou-tou-tou-touh, eh, eh Ma baby ne boit plus d'Sky, elle veut du champagne Du champagne Elle veut tout acquérir sur l'avenue Montaigne Gucci, Fendi, Louis' Pour Zyed et Bouna, fuck la po'-po' Fuck, fuck On tolère aucun faux pas, j'mange l'instrumentale comme un repas T'es un opps, on t'encule même sans défense Hi, hi, faut assumer les conséquences C'est l'dix-septième et l'quatre-vingt onze Mmh, mmh, c'est nous, on fait bouger la France J't'en-, j't'en-, j't'envoie une mousso pour te chopper, dans le labo' comme Tony Chopper Baw Patate gauch, j'suis pas NLE Choppa, broliqué, j'ai pas besoin d'shooter Paw C'est p't-être une meuf trop bonne qui va donner l'go Le go, j'veux le gâteau, tout l'magot Magot Drive-by, mentale, Chicago, là, c'est Porte de Saint-Ouen, Parigot Eh, eh, paw Eh, eh, paw, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Oh, vas là-bas Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Tou-tou-tou-tou-tou-tou-touh</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mmh, mmh Mmh, mmh Mmh, mmh Yih-yih Mmh, mmh J'prend tout même si tu m'payes en centimes Centimes, j'ai d'quoi t'faire planer dans mon jean Mon jean C'que j'ressens, personne peut l'sentir Sentir, personne, même les mecs de ma team Ma team On court tous après les thunes Les thunes, j'peux rien faire pour ce qui veulent dormir Dormir Plus lsuccès augmente, plus, ça s'empire S'mpire, j'dors plus la nuit, comme un vampire J'suis dans ls bagailles depuis longtemps, j'ai jamais changé de camp Camp Tout pour le plata, tout pour le gang Gang, de la rue, j'suis un militant Ton Glock, tu compte l'utiliser quand ? J'suis avec ta go, j'la mougoupan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Ah ouais J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'peux pas finir en maison d'arrêt mais GDR a pris du ferme Mmh, mmh Ça fait mal au cur de perdre un frère, faut qu'je reste en vie jusqu'à c'qu'on y perd Mmh, mmh Je check tout l'monde d'la même façon mais c'est pas tout l'monde que je considère Mon vu le plus cher, c'est d'v-'esqui l'enfer, le second, c'est de devenir millionnaire Uh-uh Si y a pas d'pote-ca, elle va me lécher lgland, après ça, elle pourra plus m'gué-lan Gué-lan On est plus des p'tits, c'est nous les grands Les grands, les anciens ont fait leur temps Leur temps T'as un truc à faire qu'est-ce t'attends Qu'est-ce t'attends ? ? Tu sais où j'vis et où j'traine tout l'temps Tout l'temps Mon négro, dis-moi, qu'est-ce t'attends ? Qu'est-ce tattends ? Ah ouais You might also like J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt Yih-yih J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh2</t>
+          <t>Mmh, mmh Mmh, mmh Mmh, mmh Yih-yih Mmh, mmh J'prend tout même si tu m'payes en centimes Centimes, j'ai d'quoi t'faire planer dans mon jean Mon jean C'que j'ressens, personne peut l'sentir Sentir, personne, même les mecs de ma team Ma team On court tous après les thunes Les thunes, j'peux rien faire pour ce qui veulent dormir Dormir Plus lsuccès augmente, plus, ça s'empire S'mpire, j'dors plus la nuit, comme un vampire J'suis dans ls bagailles depuis longtemps, j'ai jamais changé de camp Camp Tout pour le plata, tout pour le gang Gang, de la rue, j'suis un militant Ton Glock, tu compte l'utiliser quand ? J'suis avec ta go, j'la mougoupan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Ah ouais J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'peux pas finir en maison d'arrêt mais GDR a pris du ferme Mmh, mmh Ça fait mal au cur de perdre un frère, faut qu'je reste en vie jusqu'à c'qu'on y perd Mmh, mmh Je check tout l'monde d'la même façon mais c'est pas tout l'monde que je considère Mon vu le plus cher, c'est d'v-'esqui l'enfer, le second, c'est de devenir millionnaire Uh-uh Si y a pas d'pote-ca, elle va me lécher lgland, après ça, elle pourra plus m'gué-lan Gué-lan On est plus des p'tits, c'est nous les grands Les grands, les anciens ont fait leur temps Leur temps T'as un truc à faire qu'est-ce t'attends Qu'est-ce t'attends ? ? Tu sais où j'vis et où j'traine tout l'temps Tout l'temps Mon négro, dis-moi, qu'est-ce t'attends ? Qu'est-ce tattends ? Ah ouais J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt Yih-yih J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh2</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Favé, Gambino Couplets Si la fatigue tirerais Tu sais que je serai déjà mort depuis deux piges Jsens mon cerveau mes cernes tirer Les soucis gros si ce nest les sommes que jempile Beaucoup de soucis mais les sommes sempilent Dans mon tiroir ya que des liasses de mille Jfais de la musique mais jsuis encore dans le deal Jai des frères baptisés, des frères dans le deal Jai des trucs à vous raconter A la base on était dans le hall Ils sont bizarre depuis que jsuis compté Ils aimeraient bien inverser les rôles Toi et moi yaura aucun rapport Tu saura pas combien les streams rapportent Tu saura pas tout ce quon aura pu faire Si un jour devant la baraque ya un Porsche You might also likePre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais Couplets Des fois jsuis gentil des fois jsuis méchant Cest de toi que ça dépends Nerveux, est le tempérament Jolie fille, pour les sommes sapprête Ah quelle bombe quand elle snap sa tête La dans le bed Favé tire sa tresse Jme délaisse elle minsulte de sale traitre Trop souvent entouré de baby Elle me répète tous les jours que jsuis un connard Elle dis que jsuis entrain de gâcher ma vie Entouré de fumeurs et danciens tolars Le couteau senfonce et se retire Je rate lobjectif, je retire Pas besoin de le redire Jsuis lancé, impossible que je me retire Pre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais</t>
+          <t>Favé, Gambino Couplets Si la fatigue tirerais Tu sais que je serai déjà mort depuis deux piges Jsens mon cerveau mes cernes tirer Les soucis gros si ce nest les sommes que jempile Beaucoup de soucis mais les sommes sempilent Dans mon tiroir ya que des liasses de mille Jfais de la musique mais jsuis encore dans le deal Jai des frères baptisés, des frères dans le deal Jai des trucs à vous raconter A la base on était dans le hall Ils sont bizarre depuis que jsuis compté Ils aimeraient bien inverser les rôles Toi et moi yaura aucun rapport Tu saura pas combien les streams rapportent Tu saura pas tout ce quon aura pu faire Si un jour devant la baraque ya un Porsche Pre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais Couplets Des fois jsuis gentil des fois jsuis méchant Cest de toi que ça dépends Nerveux, est le tempérament Jolie fille, pour les sommes sapprête Ah quelle bombe quand elle snap sa tête La dans le bed Favé tire sa tresse Jme délaisse elle minsulte de sale traitre Trop souvent entouré de baby Elle me répète tous les jours que jsuis un connard Elle dis que jsuis entrain de gâcher ma vie Entouré de fumeurs et danciens tolars Le couteau senfonce et se retire Je rate lobjectif, je retire Pas besoin de le redire Jsuis lancé, impossible que je me retire Pre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yeah, eh Ouh-ouh-ouh-ouh-ouh La muerte La muerte Uh-uh Yeah, let's get it Encore toi Uh-uh Ça fait trop longtemps que j'suis dans l'ghetto, baby me fait sortir sur les Champs Champs J'étais sur l'terrain, c'était trop miné, donc j'ai vite commencer le chant Yih-yih Elle kiffe les faux bandits, les mecs à histoire Mmh-mmh qui raconte les story au bigo, le soir Mais moi, j'suis posé dans l'bloc le soir, obligé d'faire les tes-com' Let's get it Pull up, skrt, la Rover en bas de la maison, fais-toi belle, j't'emmène dans un restau' Eh, eh Pull up, skrt, plusieurs couleurs dans la che-po, baby, j'achète pas Window Shope Pourquoi t'as peur ? En face, y a rien de méchant No, j'suis prêt même si j'chante la romance Du bling-bling Yes, j'en ai autour du cou Mmh, j'en ai sur les poignets, no Let's go Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non You might also like Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh En une seule rencontre, y a le eyes contact, très souvent, c'est elle qui m'contacte Avant moi, tout était intact, dans sa vie, j'ai eu beaucoup d'impacts Ouais, j'avoue, dans sa vie, j'ai eu trop d'impact, j'ai les plugs, dans la ville, j'ai les contacts Ranger ma kichta, c'est dans la boîte, j'sais qu'elle s'inquiète pour moi tous les soirs Uh-uh Hey, bébé, j'suis méfiant, j'suis sorti, j'ai laissé l'cur à la maison Motema na ndaku Me demande pas pourquoi si j'te raconte ça, t'auras des frissons J'sais qu'tu vas trembler Pour qu'j'reste avec toi, faut que tu me montres, donne-moi les bonnes raisons Faut que tu donnes tout Oh-oh-oh-oh Tout, tout, yeah, eh Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Let's go No Eh-eh-eh Yeah, yeah, yeah Si t'es faites pour moi, reste pas là, non Eh-eh-eh-eh-eh-eh Uh-uh Si t'es faites pour moi, reste pas là, non</t>
+          <t>Yeah, eh Ouh-ouh-ouh-ouh-ouh La muerte La muerte Uh-uh Yeah, let's get it Encore toi Uh-uh Ça fait trop longtemps que j'suis dans l'ghetto, baby me fait sortir sur les Champs Champs J'étais sur l'terrain, c'était trop miné, donc j'ai vite commencer le chant Yih-yih Elle kiffe les faux bandits, les mecs à histoire Mmh-mmh qui raconte les story au bigo, le soir Mais moi, j'suis posé dans l'bloc le soir, obligé d'faire les tes-com' Let's get it Pull up, skrt, la Rover en bas de la maison, fais-toi belle, j't'emmène dans un restau' Eh, eh Pull up, skrt, plusieurs couleurs dans la che-po, baby, j'achète pas Window Shope Pourquoi t'as peur ? En face, y a rien de méchant No, j'suis prêt même si j'chante la romance Du bling-bling Yes, j'en ai autour du cou Mmh, j'en ai sur les poignets, no Let's go Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh En une seule rencontre, y a le eyes contact, très souvent, c'est elle qui m'contacte Avant moi, tout était intact, dans sa vie, j'ai eu beaucoup d'impacts Ouais, j'avoue, dans sa vie, j'ai eu trop d'impact, j'ai les plugs, dans la ville, j'ai les contacts Ranger ma kichta, c'est dans la boîte, j'sais qu'elle s'inquiète pour moi tous les soirs Uh-uh Hey, bébé, j'suis méfiant, j'suis sorti, j'ai laissé l'cur à la maison Motema na ndaku Me demande pas pourquoi si j'te raconte ça, t'auras des frissons J'sais qu'tu vas trembler Pour qu'j'reste avec toi, faut que tu me montres, donne-moi les bonnes raisons Faut que tu donnes tout Oh-oh-oh-oh Tout, tout, yeah, eh Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Let's go No Eh-eh-eh Yeah, yeah, yeah Si t'es faites pour moi, reste pas là, non Eh-eh-eh-eh-eh-eh Uh-uh Si t'es faites pour moi, reste pas là, non</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu You might also like Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons T'es prêt à gouter même si c'est pas ta gamme J'suis prêt à t'faire gouter c'qu'il y a dans l'métal Comme avant, postiché sur la dalle Papa sait pas qu'on fait tout ça pour les thalles Elle m'appelle, veut que j'sorte du local J'sais plus c'qui est légal, c'qui est illégal En voiture méchante, j'ai dégainé Dégaine fâchée comme Gambino Vol de vélo, pince monseigneur Revente immédiate chez l'drogueur Devant mon couteau tu fais l'pasteur Pourtant tu parles beaucoup sur Twitter Attention aux âmes sensibles, toujours extensible Finir bredouille, non c'est pas possible Tu vas rien faire, range tes ustensiles 9.1, les Ulis c'est l'asile J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son Ta gadji dit écoute mes sons, ça crie akha, y a les pimpons C'est bon, c'est la fin du jeu C'est bon, avec un silencieux C'est bon, c'est la fin du jeu</t>
+          <t>J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons T'es prêt à gouter même si c'est pas ta gamme J'suis prêt à t'faire gouter c'qu'il y a dans l'métal Comme avant, postiché sur la dalle Papa sait pas qu'on fait tout ça pour les thalles Elle m'appelle, veut que j'sorte du local J'sais plus c'qui est légal, c'qui est illégal En voiture méchante, j'ai dégainé Dégaine fâchée comme Gambino Vol de vélo, pince monseigneur Revente immédiate chez l'drogueur Devant mon couteau tu fais l'pasteur Pourtant tu parles beaucoup sur Twitter Attention aux âmes sensibles, toujours extensible Finir bredouille, non c'est pas possible Tu vas rien faire, range tes ustensiles 9.1, les Ulis c'est l'asile J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son Ta gadji dit écoute mes sons, ça crie akha, y a les pimpons C'est bon, c'est la fin du jeu C'est bon, avec un silencieux C'est bon, c'est la fin du jeu</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nelly encore à la prod' Nelly encore à la prod' Brr Hum, hum Mig Moula GLM Gang Gang, gang Opps à l'hôpital, on fait la fête On fait la fête, on trouve le milieu, sur la 'quette, on fait la croix La croix Pour un re-fou, dans la vie, faut faire des choix Des choix, ma treizième années, j'ai choisi d'aller ché-rra' Brr, bang Deux ans après, j'ai commencé l'terrain Le terrain, le terrain, freiné par le gain, il fait froid, j'suis dehors, j'mets les gants Les gants 02 Géné', mon gang Mig Moula, Gambino La M', hum, hum, uh-uh Gambino La M', Mig Moula Mig Moula, brr, quand j'étais à terre, t'étais où, là T'étais où, là ? Uh-uh ? J'ai des hallucinations quand j'suis saoul Quand j'suis saoul, gang, envie de tous casser quand j'suis soûlé Pa-pa-pah, uh-uh Les p'tits reufs sont libérables que chez Sully Sully, bicrave plus d'bracelets, Timoune est sorti Pah T'as pookie, t'as v'-esqui la té-ci comme Brr, la plupart de tes rappeurs, c'est des Dober' Uh-uh Si t'écoutes pas du GLM, t'es foiré Foiré, si t'écoutes pas du Mig, t'es foiré Foiré Si y a pas d'sous à prendre, c'est foiré Foiré, le client ne veut pas attendre, c't'enfoiré Brr Si t'écoutes pas du GLM, t'es foiré Brr, si t'écoutes pas du Mig, t'es foiré Gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Uh-uh Ils font les voyous mais ils font pas peur Non, nous, c'est vrai zaza, y a pas d'jeu d'acteur Brr J'la ramène au tel-hô, j'ramène pas d'fleurs Non, j'ramène pas d'fleurs, j'lui sors que ma queue Brr On avance, on mène la cadence La cadence, c'est nous, on représente le neuf-un en France En France On avance, on mène la cadence La cadence, brr, c'est l'quatre-vingt onze, c'est la violence Pa-pah, brr Vacances à Venise, elle est ravis au lit Ravis au lit, la sacoche est remplie de billets violets Billets violets Au mortier, ça canarder la police La police, mets tes gants si tu veux pas t'faire soulever Soulever, bah Impasse de la délinquance, gros, y a pas d'virage Jamais, jamais, tout est organisé, vas voir au garage Vas voir Tout est organisé, vas voir aux Roses Vas voir, chez toi, sa tourne pas si c'est pas carré Brr Liasse de 10K sous céllo' Sous céllo', j'peux pas t'expliquer, c'est trop long Brr J'comptes pas sur tre-l'au, tout seul, j'découpe tron-li, pas d'ralentir, j'regardes pas les rétro' Pa-pa-pah J'peux pas ralentir, j'suis en RSQ3 Gang, j'peux pas tout dire, c'est trop délicat Jamais À part qu'y avait beaucoup d'contacts dans ma Lyca' Brr et qu'le garage coffee se rapproches des 20K Gang You might also like Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Yih-yih Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Gang Fin d'journée, j'éteins mon tél' Gang, brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi Gang, j'la connais pas là-celle Gang, brr Fin d'journée, j'éteins mon tél' Brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi, j'la connais pas là-celle Gang Si t'écoutes pas du GLM, t'es foiré Brr, foiré, si t'écoutes pas du Mig, t'es foiré T'es foiré, gang Si y a pas d'sous à prendre, c'est foiré C'est foiré, le client ne veut pas attendre, c't'enfoiré Brr, yih-yih Si t'écoutes pas du GLM, t'es foiré Gang, uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, c'est foiré Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Hum, hum, gang Brr</t>
+          <t>Nelly encore à la prod' Nelly encore à la prod' Brr Hum, hum Mig Moula GLM Gang Gang, gang Opps à l'hôpital, on fait la fête On fait la fête, on trouve le milieu, sur la 'quette, on fait la croix La croix Pour un re-fou, dans la vie, faut faire des choix Des choix, ma treizième années, j'ai choisi d'aller ché-rra' Brr, bang Deux ans après, j'ai commencé l'terrain Le terrain, le terrain, freiné par le gain, il fait froid, j'suis dehors, j'mets les gants Les gants 02 Géné', mon gang Mig Moula, Gambino La M', hum, hum, uh-uh Gambino La M', Mig Moula Mig Moula, brr, quand j'étais à terre, t'étais où, là T'étais où, là ? Uh-uh ? J'ai des hallucinations quand j'suis saoul Quand j'suis saoul, gang, envie de tous casser quand j'suis soûlé Pa-pa-pah, uh-uh Les p'tits reufs sont libérables que chez Sully Sully, bicrave plus d'bracelets, Timoune est sorti Pah T'as pookie, t'as v'-esqui la té-ci comme Brr, la plupart de tes rappeurs, c'est des Dober' Uh-uh Si t'écoutes pas du GLM, t'es foiré Foiré, si t'écoutes pas du Mig, t'es foiré Foiré Si y a pas d'sous à prendre, c'est foiré Foiré, le client ne veut pas attendre, c't'enfoiré Brr Si t'écoutes pas du GLM, t'es foiré Brr, si t'écoutes pas du Mig, t'es foiré Gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Uh-uh Ils font les voyous mais ils font pas peur Non, nous, c'est vrai zaza, y a pas d'jeu d'acteur Brr J'la ramène au tel-hô, j'ramène pas d'fleurs Non, j'ramène pas d'fleurs, j'lui sors que ma queue Brr On avance, on mène la cadence La cadence, c'est nous, on représente le neuf-un en France En France On avance, on mène la cadence La cadence, brr, c'est l'quatre-vingt onze, c'est la violence Pa-pah, brr Vacances à Venise, elle est ravis au lit Ravis au lit, la sacoche est remplie de billets violets Billets violets Au mortier, ça canarder la police La police, mets tes gants si tu veux pas t'faire soulever Soulever, bah Impasse de la délinquance, gros, y a pas d'virage Jamais, jamais, tout est organisé, vas voir au garage Vas voir Tout est organisé, vas voir aux Roses Vas voir, chez toi, sa tourne pas si c'est pas carré Brr Liasse de 10K sous céllo' Sous céllo', j'peux pas t'expliquer, c'est trop long Brr J'comptes pas sur tre-l'au, tout seul, j'découpe tron-li, pas d'ralentir, j'regardes pas les rétro' Pa-pa-pah J'peux pas ralentir, j'suis en RSQ3 Gang, j'peux pas tout dire, c'est trop délicat Jamais À part qu'y avait beaucoup d'contacts dans ma Lyca' Brr et qu'le garage coffee se rapproches des 20K Gang Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Yih-yih Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Gang Fin d'journée, j'éteins mon tél' Gang, brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi Gang, j'la connais pas là-celle Gang, brr Fin d'journée, j'éteins mon tél' Brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi, j'la connais pas là-celle Gang Si t'écoutes pas du GLM, t'es foiré Brr, foiré, si t'écoutes pas du Mig, t'es foiré T'es foiré, gang Si y a pas d'sous à prendre, c'est foiré C'est foiré, le client ne veut pas attendre, c't'enfoiré Brr, yih-yih Si t'écoutes pas du GLM, t'es foiré Gang, uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, c'est foiré Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Hum, hum, gang Brr</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ok, Booska-P, grosse dédicace à toute l'équipe de Booska-P C'est que d'la musique, hein, hein Ah Top départ, tu pourras jamais capter oh, oh, brassard, gros, j'le donne au capitaine J'aurais jamais assez palpé, j'suis l'coach des 11, j'démarre à la vingtaine On a squatté les bâtiments, p'tit frère, le but c'est pas d'cantiner encore J'ai attaché mes sentiments encore, pour la bécane, j'donnerais pas 10 000 pah Faut pas modifier l'plan, j'dois sortir un GLE pour mon vieux Zéro feat dans l'premier album, j'attends déjà un diamant, j'ai étranglé l'jeu On va t'la placer en finsse, le Uzave, il maîtris la vitesse J'vais gratter les grandes et les p'tites pièces, ma te-tê dans tous les business Ok, Booska-P oh Si t'as d'la plata, on s'arrange Faut qu'le sac de sous suive Faut pas que mon cul dans un Range eh, eh Si t'as d'la plata, on s'arrange You might also like Igniti0n Hey, hey, hey Hey Ils disent que j'ai percé parce que j'suis passé sur Booska-P mais moi, j'veux le cash à Mbappé, hey Ouais, j'ai d'la coke et j'la revends le soir, j'connais beaucoup d'personnes qui l'ont tapé, hey J'apparais dans tes cauchemars, cauchemars, 2-2, tu peux pas me zapper, hey J'envoie des merdeux t'faire, j'ai plus l'temps de me taper, brr Échec scolaire, j'levais la main sur le CPE spla, spla Ils racontent des trucs dans leurs sons ces fufus, comme si c'était eux c'était eux Faut qu'ça dure, j'vends d'la ce-dou et d'la pure Pète-moi dans le trafic, boy, que j'v'-esqui leurs filatures Hey, hey, 22 pour Booska-P Sur l'ter', j'vois des ges-sh' pour un demi d'coke s'taper Tête brulée comme Jose Aldo, brr Quand j'suis au poste, j'en dis pas trop hey, hey J'sors de 72 heures, cherche ta femelle dans le Quattro Nierche Ma vie n'tient qu'à un fil un fil et en c'moment, j'sens qu'il m'étrangle Pas du genre à jouer les marionnettes donc forcément, j'trouve ça étrange c'est che-lou, che-lou Mais bon, j'm'en bats les reins ouais, des amis d'venus étrangers étrangers Faites pas les fous pour rien, ça commence à prier quand ça sent l'danger quand ça pue Une vie, un 100 G' une vie, 100 G', les temps ont changé ouais, les temps ont changé Dans ma zone, les armes à feu parlent beaucoup plus qu'une poucave ces temps-ci pa-pa-pa-pah Dehors, c'est tendu, l'hiver est là, beaucoup vont glisser, y a du verglas partout J'marche prudemment, j'regarde plus derrière, j'en ai plus rien à foutre Et j'avoue que j'suis grotesque envers vous, j'ai mon joint qui agit sur l'cerveau Donc j'prends le mic', que des piques envers tous ceux qui m'obligent à toucher mon dos Ceux qui oublient qui étaient dans l'trou comme nous, qui m'disent que c'est pour bientôt Alors qu'hier, ils étaient même pas là, 2021, j'suis dans l'équipe, titulaire, que il faut mettre des buts Tous les jours, j'fais rentrer du liquide, on prend les sous même si ça vient d'une pute D'une pute juste ou encore du studio skch, skch J'mets des fringues usés mais tu sais qu'la dégaine est jdid J'ai pris du retard, j'ai jamais pris d'avance, carrément, j'me voyais dans les 11 d'avant Pour Booska-P Nierche Ouais, ouais Hiou, hou, hou, hou, hou, hou, hou Ocho Arriba, arriba Alors les gars ? Eh, eh, eh Eh Sayonara coucou, c'est l'retour de Pippo Inzaghi ocho Le porc a le mort contre moi parce que j'nique son salaire dans d'la bouffe et des habits ouh J'insulte que des surs, j'avoue, j'abuse ouh, j'suis dans les 11 parce que je joue bien ouh J'viens d'Clamart, du 100-8i, là où toi et tes putes de copains vous jouez pas ouh J'veux liasses en euros et en dollars ouh, la grand-mère à cette pute de donneuse va tomber J'suis fiable à mes gars, tu peux d'mander, j'ai jamais demandé retour quand j'ai donné, moi La Vegas qui allume un missile ouh, deux kil' de beuh sur la mesa brr Elle me dit que j'lui manque en message, j'lui tue la foufoune, le lit s'transforme en piscine Dans mon gang, bilaye, on est , gros, SDM sur Booska-P ouh J'suis comme Ryu, j'leur envoie que des putains d'combos, j'leur envoie des sons, t'as peur Hadouken Ouais, ouais, j'leur prépare une putain d'embuscade ouh SDM, 100-8, numéro 10 dans le 11 type à Booska-P, ocho 11 rappeurs à suivre sur Booska-P Combien d'entre eux seront rescapés ? Oh, Baker, t'as dead ça Deux-trois appels, j'attends toujours la paye, j'mise tout quitte à perdre quitte à perdre J'suis pas sûre d'le faire, j'réfléchis à perte, j'suis toujours déter' toujours déter' J'suis bien trop sévère eh, c'est jamais très clair jamais très clair C'est jamais très bien eh, eh, c'est toujours à r'faire ah, ah C'était l'année à personne nan, nan, c'était l'année au COVID COVID C'était l'année à TikTok oh, oh, c'était l'année à Netflix oh ouais J'ai besoin de personne, nan, nan, toujours été de-spi Demi sur le terre plein, nan, nan, flash et on sourit, eh On veut du cash, cash, cash, cash, sur la route, je trace, trace, trace, trace Ça v'-esqui le trash, trash, trash, trash, on est là pour le taff, taff, taff, taff La vie qui défile, on est focal' sur le trajet eh Y a plus d'espoir, que de profit sur le carnet eh Le temps me poursuit, c'est les preuves qui font le blase Après la mi-temps, on est gagnants dans le match, eh Après la mi-temps, on est gagnants dans le match So le Flem Fuck la misère, pour le biffzer, dans la streetzer, souvent, on s'est retrouvé dans des traqu'nards J'veux savoir si j'l'aime, elle, elle veut savoir quand est-ce que j'sortirais Ragnar La vie n'tient qu'à un fil, fuck les bleus donc si t'es d'mèche avec eux, tu finis wanted shoo Prince de la ville, je n'suis pas comme eux, j'ai même pas fait la queue et j'ai fini en tête Dans la sacoche blanche, j'ai l'arme qui se frotte à ma kichta et mes lunettes Cartier Beaucoup trop ghetto pour faire du zgar, si j'deviens une star, tu m'verras toujours au quartier wow Tu fais pas l'ancien si c'est un d'mes gars qui te vend la drogua qui te passe sous l'pif chargé, on reviendra si tu manques de respect ou qu'tu nous dois du biff Tellement hood que j'dis quand même 11 quand on m'demande de donner une note sur 10 Faut pas qu'tu t'inquiètes pour moi, maman, car le ciel a réactivé le mode furtif Dans les rues, c'est le chaos, hein, donc faire de l'oseille, c'est tout c'que j'veux La voix dans ma tête me répète sans arrêt que j'pourrais briser la glace si j'ouvre le feu grww La voix dans ma tête me dit Cogne ça cogne ça Dehors, on s'fait du mal pour s'mettre bien, c'est trash, c'est triste mais c'est comme ça comme ça En mauvaise compagnie, même courtois, nos sentiments sèment toujours le bazar Donc si l'homme a été banni du jardin d'Eden, ma chérie, c'est sûrement pas un hasard Elle ne veut pas lâcher prise, elle me piste sur les réseaux et m'appelle pour s'capter Mec du 11 dans les 11 rappeurs à suivre, armé comme Zé Pequ', j'passe sur Booska-P j'passe sur Booska-P Deuspi Mmh, mmh Mmh, mmh Mmh, mmh J'fume du kamas, j'fais pas de sport j'fume du kamas, j'fais pas de sport J'fais partie des 11 rappeurs à suivre j'fais parti des 11 rappeurs à suivre Ils entendent les Ulis, ils ont peur, viens dans ma ville, attends-toi au pire Guetteur posté, à l'affût des porcs, faut faire des sous, j'suis pas là pour plaire Fin d'se'-con sur une 'quette à moi mmh, mmh, le shit vient de Ketama mmh, mmh Elle twerke sur ma bite mais j'bande mou mmh, mmh, moi, j'pense qu'à arrondir mes fins d'mois J'suis dans un gros bolide noir mate, côté passager, j'suis khabat Et si tu payes pas avant la date, on descend chez toi comme à Kattegat ok Ça visser de la neige à toutes les saisons toutes les saisons J'suis à l'aise dans les rues d'ma ville comme à la maison comme à la maison Quand y avait heja, j'étais là, t'étais pas présent t'étais pas présent Libérez Zoulou, y en a marre d'la prison Rabattez pour faire d'la monnaie, on avait rien donc j'allais voler eh, eh On vend du doré, on veut du vert, on veut du violet eh, eh Après les cours, c'était sur l'terrain que j'étais collé eh On s'installe chez toi comme les Colons Colons Les gars d'chez toi, c'est tous des connards mmh, mmh Ouh, ouh Ah, ah, ah NV, NV Dièse, NV, NV Dièse Hey, hey Paire de gants noirs près d'bécane ah ouais, ouais J'vendais d'la came ah ouais, ouais pour du Designer L'oseille fait l'bonheur donc j'en veux plein ouh, ouh J'me couche à six heures, j'vois pas l'matin ouh, ouh Tout est blue, blue, dans l'appart' dans l'appart', y a la nounou d'vant la porte devant la porte Pas de quoi être fier, j'vends la mort j'vends la mort mais bon, chaque jour, j'fais des tales j'fais des tales J'veux du LV sur mes sur mes , j'veux du LV sur le sac sur le sac En moins d'une s'maine, j'fais 1K j'fais 1K et le week-end, je le claque le claque en cash en cash Eh, eh, eyah T'es fake, vas-y, bouge, s'te-plaît Tu m'dis que le travail paye quand tu m'vois sur Booska-P T'es fake, vas-y, bouge, s'te-plaît C'est l'refrain, y a rien d'nouveau C'est l'refrain, y a rien d'nouveau, hey, hey, hey Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh Entre le vol et le deal, mes gars te l'ont dit, fumée dans l'appartement J'vais pas rentrer de la nuit, ma chérie me dit que je vis n'importe comment Enculé, j'voulais la vida, j'voulais la loca, grâce à la coca' à la coca' Quand j'ai sauté dans le vide avec ma paire de cojo', un Toka' cojo', un Toka' Avec dit , rentre chez Gucci pour s'habiller yeah, yeah, yeah J'reviens du chantier avec du sang sur le tablier yeah, yeah, yeah J'ai assez de papier, le malheur est maquillé maquillé Des billets par milliers par milliers, s'ils m'ont pas mis l'il Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh J'm'en rappelle, j'étais pas coté, aujourd'hui, j'ai un peu d'buzz, j'passe sur Booska-P Faut qu'j'mette des sous d'côté parce que demain j'sais qu'tout ça peut s'arrêter ça peut s'arrêter Tous les jours, c'est la même, à la recherche des loves, j'connais pas la gaieté Tous les jours, c'est la merde, à 11 heures et d'mi, j'suis capuché dans l'ghetto Ghetto Youth depuis la Nintendo, j'suis dans une auto et j'ai les vitres teintées Tourne à droite, j'ai vu les gyro', c'est pour nous, j'ai pas envie d'me faire péter Non, j'suis pas pressé d'percer, y a d'la frappe de beuh dans l'pays d'Van Persie Si on joue, c'est pour gagner, si on perd, on va pas partir d'ici Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie C'est la folie c'est la folie Mmh, ouh pah, pah Booska, wow wow, wow, on est beaux ouais, ouais Et ma baby mama, j'tape pendant que j'roule mmh, mmh On prend l'extendo, rafale, j'en ramène ok Bitch, stock, riche, on la blesse cette bitch mmh, mmh Ouais, pan, snitch pan, nous on fuck cette bitch bang Triste, plein de fric ouais, double waka, j'vise eh Té-ma ce tocard , té-ma l', on n'fait pas de pitch mmh, mmh Oh, j'canalise eh, Flako LaM, j'mise eh T'as bien vu ma tête, il faut qu'tu t'souviennes bien d'moi Moteur coupé, le bas côté gé-char, c'est la merde ouais Ennemis dans le tas ouais, misère devient K blindée pour 1K, il m'faut mes gues-dro, j'en ai pas J'viens tout stopper, j'tabasse prod', stocker les balles dans son corps Gue-dro blistée, nous on fuck ces bitches, des sous, j'm'en fait déjà Shooter, dégaine donc il t'blesse, t'entends Waka, bang, bang Et comme j'suis dopé, ils m'portent l'il, j'suis trop gang, gang Sinon bref, j'laisse, t'encaisse, fric, yes, grosse caisse D'la cess pour mon fils, gros, là tes yeux s'plissent Sur leurs avis, j'pisse, futur rockstar, là j'tise Va falloir presser, t'es sous pression, p'tit imbécile Booska, Booska-P2</t>
+          <t>Ok, Booska-P, grosse dédicace à toute l'équipe de Booska-P C'est que d'la musique, hein, hein Ah Top départ, tu pourras jamais capter oh, oh, brassard, gros, j'le donne au capitaine J'aurais jamais assez palpé, j'suis l'coach des 11, j'démarre à la vingtaine On a squatté les bâtiments, p'tit frère, le but c'est pas d'cantiner encore J'ai attaché mes sentiments encore, pour la bécane, j'donnerais pas 10 000 pah Faut pas modifier l'plan, j'dois sortir un GLE pour mon vieux Zéro feat dans l'premier album, j'attends déjà un diamant, j'ai étranglé l'jeu On va t'la placer en finsse, le Uzave, il maîtris la vitesse J'vais gratter les grandes et les p'tites pièces, ma te-tê dans tous les business Ok, Booska-P oh Si t'as d'la plata, on s'arrange Faut qu'le sac de sous suive Faut pas que mon cul dans un Range eh, eh Si t'as d'la plata, on s'arrange Igniti0n Hey, hey, hey Hey Ils disent que j'ai percé parce que j'suis passé sur Booska-P mais moi, j'veux le cash à Mbappé, hey Ouais, j'ai d'la coke et j'la revends le soir, j'connais beaucoup d'personnes qui l'ont tapé, hey J'apparais dans tes cauchemars, cauchemars, 2-2, tu peux pas me zapper, hey J'envoie des merdeux t'faire, j'ai plus l'temps de me taper, brr Échec scolaire, j'levais la main sur le CPE spla, spla Ils racontent des trucs dans leurs sons ces fufus, comme si c'était eux c'était eux Faut qu'ça dure, j'vends d'la ce-dou et d'la pure Pète-moi dans le trafic, boy, que j'v'-esqui leurs filatures Hey, hey, 22 pour Booska-P Sur l'ter', j'vois des ges-sh' pour un demi d'coke s'taper Tête brulée comme Jose Aldo, brr Quand j'suis au poste, j'en dis pas trop hey, hey J'sors de 72 heures, cherche ta femelle dans le Quattro Nierche Ma vie n'tient qu'à un fil un fil et en c'moment, j'sens qu'il m'étrangle Pas du genre à jouer les marionnettes donc forcément, j'trouve ça étrange c'est che-lou, che-lou Mais bon, j'm'en bats les reins ouais, des amis d'venus étrangers étrangers Faites pas les fous pour rien, ça commence à prier quand ça sent l'danger quand ça pue Une vie, un 100 G' une vie, 100 G', les temps ont changé ouais, les temps ont changé Dans ma zone, les armes à feu parlent beaucoup plus qu'une poucave ces temps-ci pa-pa-pa-pah Dehors, c'est tendu, l'hiver est là, beaucoup vont glisser, y a du verglas partout J'marche prudemment, j'regarde plus derrière, j'en ai plus rien à foutre Et j'avoue que j'suis grotesque envers vous, j'ai mon joint qui agit sur l'cerveau Donc j'prends le mic', que des piques envers tous ceux qui m'obligent à toucher mon dos Ceux qui oublient qui étaient dans l'trou comme nous, qui m'disent que c'est pour bientôt Alors qu'hier, ils étaient même pas là, 2021, j'suis dans l'équipe, titulaire, que il faut mettre des buts Tous les jours, j'fais rentrer du liquide, on prend les sous même si ça vient d'une pute D'une pute juste ou encore du studio skch, skch J'mets des fringues usés mais tu sais qu'la dégaine est jdid J'ai pris du retard, j'ai jamais pris d'avance, carrément, j'me voyais dans les 11 d'avant Pour Booska-P Nierche Ouais, ouais Hiou, hou, hou, hou, hou, hou, hou Ocho Arriba, arriba Alors les gars ? Eh, eh, eh Eh Sayonara coucou, c'est l'retour de Pippo Inzaghi ocho Le porc a le mort contre moi parce que j'nique son salaire dans d'la bouffe et des habits ouh J'insulte que des surs, j'avoue, j'abuse ouh, j'suis dans les 11 parce que je joue bien ouh J'viens d'Clamart, du 100-8i, là où toi et tes putes de copains vous jouez pas ouh J'veux liasses en euros et en dollars ouh, la grand-mère à cette pute de donneuse va tomber J'suis fiable à mes gars, tu peux d'mander, j'ai jamais demandé retour quand j'ai donné, moi La Vegas qui allume un missile ouh, deux kil' de beuh sur la mesa brr Elle me dit que j'lui manque en message, j'lui tue la foufoune, le lit s'transforme en piscine Dans mon gang, bilaye, on est , gros, SDM sur Booska-P ouh J'suis comme Ryu, j'leur envoie que des putains d'combos, j'leur envoie des sons, t'as peur Hadouken Ouais, ouais, j'leur prépare une putain d'embuscade ouh SDM, 100-8, numéro 10 dans le 11 type à Booska-P, ocho 11 rappeurs à suivre sur Booska-P Combien d'entre eux seront rescapés ? Oh, Baker, t'as dead ça Deux-trois appels, j'attends toujours la paye, j'mise tout quitte à perdre quitte à perdre J'suis pas sûre d'le faire, j'réfléchis à perte, j'suis toujours déter' toujours déter' J'suis bien trop sévère eh, c'est jamais très clair jamais très clair C'est jamais très bien eh, eh, c'est toujours à r'faire ah, ah C'était l'année à personne nan, nan, c'était l'année au COVID COVID C'était l'année à TikTok oh, oh, c'était l'année à Netflix oh ouais J'ai besoin de personne, nan, nan, toujours été de-spi Demi sur le terre plein, nan, nan, flash et on sourit, eh On veut du cash, cash, cash, cash, sur la route, je trace, trace, trace, trace Ça v'-esqui le trash, trash, trash, trash, on est là pour le taff, taff, taff, taff La vie qui défile, on est focal' sur le trajet eh Y a plus d'espoir, que de profit sur le carnet eh Le temps me poursuit, c'est les preuves qui font le blase Après la mi-temps, on est gagnants dans le match, eh Après la mi-temps, on est gagnants dans le match So le Flem Fuck la misère, pour le biffzer, dans la streetzer, souvent, on s'est retrouvé dans des traqu'nards J'veux savoir si j'l'aime, elle, elle veut savoir quand est-ce que j'sortirais Ragnar La vie n'tient qu'à un fil, fuck les bleus donc si t'es d'mèche avec eux, tu finis wanted shoo Prince de la ville, je n'suis pas comme eux, j'ai même pas fait la queue et j'ai fini en tête Dans la sacoche blanche, j'ai l'arme qui se frotte à ma kichta et mes lunettes Cartier Beaucoup trop ghetto pour faire du zgar, si j'deviens une star, tu m'verras toujours au quartier wow Tu fais pas l'ancien si c'est un d'mes gars qui te vend la drogua qui te passe sous l'pif chargé, on reviendra si tu manques de respect ou qu'tu nous dois du biff Tellement hood que j'dis quand même 11 quand on m'demande de donner une note sur 10 Faut pas qu'tu t'inquiètes pour moi, maman, car le ciel a réactivé le mode furtif Dans les rues, c'est le chaos, hein, donc faire de l'oseille, c'est tout c'que j'veux La voix dans ma tête me répète sans arrêt que j'pourrais briser la glace si j'ouvre le feu grww La voix dans ma tête me dit Cogne ça cogne ça Dehors, on s'fait du mal pour s'mettre bien, c'est trash, c'est triste mais c'est comme ça comme ça En mauvaise compagnie, même courtois, nos sentiments sèment toujours le bazar Donc si l'homme a été banni du jardin d'Eden, ma chérie, c'est sûrement pas un hasard Elle ne veut pas lâcher prise, elle me piste sur les réseaux et m'appelle pour s'capter Mec du 11 dans les 11 rappeurs à suivre, armé comme Zé Pequ', j'passe sur Booska-P j'passe sur Booska-P Deuspi Mmh, mmh Mmh, mmh Mmh, mmh J'fume du kamas, j'fais pas de sport j'fume du kamas, j'fais pas de sport J'fais partie des 11 rappeurs à suivre j'fais parti des 11 rappeurs à suivre Ils entendent les Ulis, ils ont peur, viens dans ma ville, attends-toi au pire Guetteur posté, à l'affût des porcs, faut faire des sous, j'suis pas là pour plaire Fin d'se'-con sur une 'quette à moi mmh, mmh, le shit vient de Ketama mmh, mmh Elle twerke sur ma bite mais j'bande mou mmh, mmh, moi, j'pense qu'à arrondir mes fins d'mois J'suis dans un gros bolide noir mate, côté passager, j'suis khabat Et si tu payes pas avant la date, on descend chez toi comme à Kattegat ok Ça visser de la neige à toutes les saisons toutes les saisons J'suis à l'aise dans les rues d'ma ville comme à la maison comme à la maison Quand y avait heja, j'étais là, t'étais pas présent t'étais pas présent Libérez Zoulou, y en a marre d'la prison Rabattez pour faire d'la monnaie, on avait rien donc j'allais voler eh, eh On vend du doré, on veut du vert, on veut du violet eh, eh Après les cours, c'était sur l'terrain que j'étais collé eh On s'installe chez toi comme les Colons Colons Les gars d'chez toi, c'est tous des connards mmh, mmh Ouh, ouh Ah, ah, ah NV, NV Dièse, NV, NV Dièse Hey, hey Paire de gants noirs près d'bécane ah ouais, ouais J'vendais d'la came ah ouais, ouais pour du Designer L'oseille fait l'bonheur donc j'en veux plein ouh, ouh J'me couche à six heures, j'vois pas l'matin ouh, ouh Tout est blue, blue, dans l'appart' dans l'appart', y a la nounou d'vant la porte devant la porte Pas de quoi être fier, j'vends la mort j'vends la mort mais bon, chaque jour, j'fais des tales j'fais des tales J'veux du LV sur mes sur mes , j'veux du LV sur le sac sur le sac En moins d'une s'maine, j'fais 1K j'fais 1K et le week-end, je le claque le claque en cash en cash Eh, eh, eyah T'es fake, vas-y, bouge, s'te-plaît Tu m'dis que le travail paye quand tu m'vois sur Booska-P T'es fake, vas-y, bouge, s'te-plaît C'est l'refrain, y a rien d'nouveau C'est l'refrain, y a rien d'nouveau, hey, hey, hey Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh Entre le vol et le deal, mes gars te l'ont dit, fumée dans l'appartement J'vais pas rentrer de la nuit, ma chérie me dit que je vis n'importe comment Enculé, j'voulais la vida, j'voulais la loca, grâce à la coca' à la coca' Quand j'ai sauté dans le vide avec ma paire de cojo', un Toka' cojo', un Toka' Avec dit , rentre chez Gucci pour s'habiller yeah, yeah, yeah J'reviens du chantier avec du sang sur le tablier yeah, yeah, yeah J'ai assez de papier, le malheur est maquillé maquillé Des billets par milliers par milliers, s'ils m'ont pas mis l'il Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh J'm'en rappelle, j'étais pas coté, aujourd'hui, j'ai un peu d'buzz, j'passe sur Booska-P Faut qu'j'mette des sous d'côté parce que demain j'sais qu'tout ça peut s'arrêter ça peut s'arrêter Tous les jours, c'est la même, à la recherche des loves, j'connais pas la gaieté Tous les jours, c'est la merde, à 11 heures et d'mi, j'suis capuché dans l'ghetto Ghetto Youth depuis la Nintendo, j'suis dans une auto et j'ai les vitres teintées Tourne à droite, j'ai vu les gyro', c'est pour nous, j'ai pas envie d'me faire péter Non, j'suis pas pressé d'percer, y a d'la frappe de beuh dans l'pays d'Van Persie Si on joue, c'est pour gagner, si on perd, on va pas partir d'ici Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie C'est la folie c'est la folie Mmh, ouh pah, pah Booska, wow wow, wow, on est beaux ouais, ouais Et ma baby mama, j'tape pendant que j'roule mmh, mmh On prend l'extendo, rafale, j'en ramène ok Bitch, stock, riche, on la blesse cette bitch mmh, mmh Ouais, pan, snitch pan, nous on fuck cette bitch bang Triste, plein de fric ouais, double waka, j'vise eh Té-ma ce tocard , té-ma l', on n'fait pas de pitch mmh, mmh Oh, j'canalise eh, Flako LaM, j'mise eh T'as bien vu ma tête, il faut qu'tu t'souviennes bien d'moi Moteur coupé, le bas côté gé-char, c'est la merde ouais Ennemis dans le tas ouais, misère devient K blindée pour 1K, il m'faut mes gues-dro, j'en ai pas J'viens tout stopper, j'tabasse prod', stocker les balles dans son corps Gue-dro blistée, nous on fuck ces bitches, des sous, j'm'en fait déjà Shooter, dégaine donc il t'blesse, t'entends Waka, bang, bang Et comme j'suis dopé, ils m'portent l'il, j'suis trop gang, gang Sinon bref, j'laisse, t'encaisse, fric, yes, grosse caisse D'la cess pour mon fils, gros, là tes yeux s'plissent Sur leurs avis, j'pisse, futur rockstar, là j'tise Va falloir presser, t'es sous pression, p'tit imbécile Booska, Booska-P2</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jallume un pét, jattire lattention 'ttention, surtout lodorat des passants passants Ici-bas, on nest que d'passage mais faire du pe-ra, cest ma passion Pense à garder lil sur tes rejetons, ils viennent nous acheter des pochons Et le terrain fait des réductions si, dans ta playlist, y a mes chansons uh, uh J'conduis avec précaution, faut pas qu'je fasse sauter la caution Moi, j'contrôle pas mes émotions donc très courtes sont les relations Moi, jsuis doué dans la rédaction et matrixé par les films daction Quand jécoute mes sons, jai des frissons à la concu', jmets la pression uh, uh Quand, quand, quand jétait p'tit, jétais un pickpocket 'pocket Cétait pas pour zouker mais pour per-ta si tu nous voyais venir à ta fête ta fête Que des hagar comme la Team Rocket, jfaisais des TP sur une chaise Maintenant, jfais des millions de vues sur ma chaîne, jmaîtrise la mélo' comme T-Pain uh, uh Dans lappart', jsuis ganté, j'leur laisse aucune chance de m'péter Dans le bloc avec mes brigantés, y a l'buzz mais Dieu merci, y a la santé Jconnais des mecs connus pour les armes à feu et jconnais dautres mecs connus pour shlasser Par les condés, jme suis fait pourchasser, y avait plusieurs pochons dans un sachet uh, uh Remets, remets, remets du Jack dans ma bouteille dEvian Jsuis pas un rookie, j'rappe depuis longtemps mais j'refourguais des dix et des vingt des trentes aussi Si ça dérape, man, on sort le nine, grâce aux auditeurs sur Spotify Toute la nuit sur moi, elle whine, toute la nuit, sur moi, elle whine Sa robe fait des vagues comme ma grande line Deux piles par jour, ça fait 10 balles, les bails veulent tous faire comme le drive comme le drive Sous piche avec Lifsa, jsuis au ze-quin, mon frère est matrixé, il suit mes pas On ma dit lavoir déjà vu fumer des guinzes, jlui mettrai des baffes quand je laurai en flag You might also like P'tit con va</t>
+          <t>Jallume un pét, jattire lattention 'ttention, surtout lodorat des passants passants Ici-bas, on nest que d'passage mais faire du pe-ra, cest ma passion Pense à garder lil sur tes rejetons, ils viennent nous acheter des pochons Et le terrain fait des réductions si, dans ta playlist, y a mes chansons uh, uh J'conduis avec précaution, faut pas qu'je fasse sauter la caution Moi, j'contrôle pas mes émotions donc très courtes sont les relations Moi, jsuis doué dans la rédaction et matrixé par les films daction Quand jécoute mes sons, jai des frissons à la concu', jmets la pression uh, uh Quand, quand, quand jétait p'tit, jétais un pickpocket 'pocket Cétait pas pour zouker mais pour per-ta si tu nous voyais venir à ta fête ta fête Que des hagar comme la Team Rocket, jfaisais des TP sur une chaise Maintenant, jfais des millions de vues sur ma chaîne, jmaîtrise la mélo' comme T-Pain uh, uh Dans lappart', jsuis ganté, j'leur laisse aucune chance de m'péter Dans le bloc avec mes brigantés, y a l'buzz mais Dieu merci, y a la santé Jconnais des mecs connus pour les armes à feu et jconnais dautres mecs connus pour shlasser Par les condés, jme suis fait pourchasser, y avait plusieurs pochons dans un sachet uh, uh Remets, remets, remets du Jack dans ma bouteille dEvian Jsuis pas un rookie, j'rappe depuis longtemps mais j'refourguais des dix et des vingt des trentes aussi Si ça dérape, man, on sort le nine, grâce aux auditeurs sur Spotify Toute la nuit sur moi, elle whine, toute la nuit, sur moi, elle whine Sa robe fait des vagues comme ma grande line Deux piles par jour, ça fait 10 balles, les bails veulent tous faire comme le drive comme le drive Sous piche avec Lifsa, jsuis au ze-quin, mon frère est matrixé, il suit mes pas On ma dit lavoir déjà vu fumer des guinzes, jlui mettrai des baffes quand je laurai en flag P'tit con va</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Scar Nardey, c'est chaud ça, eh, eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Elle veut balloné sur ma bon-bon-bonbonne, j'vais pas payer mais elle est pas bonne Donc elle ballone pas sur bon-bon-bonbonne, y a rien a gratter, c'est une folles J'suis sous lean, donc j'peux pas boire d'alcool Ce soir, j'y vais à la cool J'ramène les plus timides à l'hôtel car j'aime pas trop celles qui me colle Elle est gé-char, elle va tout caler Mmh-mmh, au marteau, je détaille le caillou Mmh-mmh C'étais moi, j'bossais quand il caillé Mmh-mmh, maman savait pas qu'j'étais un voyou Mmh-mmh La vie était dur mais j'étais joyeux, j'récup' tout mon bénéf' dans l'studio J'étais pas un élève studieux j'préférer vendre au étudiants Uh-uh You might also like J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh Ma racli n'aime pas La promo Promo, y a pas moyen d'percer Y a pas moyen Ma chérie, c'est soit ça, soit j'retourne revendre la C Les mousso, j'les connais pas mais elles croient que j'vais les castée J'vais les castée Bon, j'avoue qu'au chaud, à Lyon, j'me suis fait sucer Oups Quand, quand ça part en couille, on est full up Mmh-mmh Trop d'inspi', j'fais d'la pop, ils m'ont négligée, j'ai finis au top Le DJ pull up Pull up, j'suis dans l'fond du bloc Minimum deux bouteille de cîroc De cîroc, j'ai moula dans le froc J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh</t>
+          <t>Scar Nardey, c'est chaud ça, eh, eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Elle veut balloné sur ma bon-bon-bonbonne, j'vais pas payer mais elle est pas bonne Donc elle ballone pas sur bon-bon-bonbonne, y a rien a gratter, c'est une folles J'suis sous lean, donc j'peux pas boire d'alcool Ce soir, j'y vais à la cool J'ramène les plus timides à l'hôtel car j'aime pas trop celles qui me colle Elle est gé-char, elle va tout caler Mmh-mmh, au marteau, je détaille le caillou Mmh-mmh C'étais moi, j'bossais quand il caillé Mmh-mmh, maman savait pas qu'j'étais un voyou Mmh-mmh La vie était dur mais j'étais joyeux, j'récup' tout mon bénéf' dans l'studio J'étais pas un élève studieux j'préférer vendre au étudiants Uh-uh J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh Ma racli n'aime pas La promo Promo, y a pas moyen d'percer Y a pas moyen Ma chérie, c'est soit ça, soit j'retourne revendre la C Les mousso, j'les connais pas mais elles croient que j'vais les castée J'vais les castée Bon, j'avoue qu'au chaud, à Lyon, j'me suis fait sucer Oups Quand, quand ça part en couille, on est full up Mmh-mmh Trop d'inspi', j'fais d'la pop, ils m'ont négligée, j'ai finis au top Le DJ pull up Pull up, j'suis dans l'fond du bloc Minimum deux bouteille de cîroc De cîroc, j'ai moula dans le froc J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gaza, Beriz Arc en ciel dans les chepo j'suis refait Tous mes négros comptent et on refait Gambinerie, eh paw paw paw paw Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refait Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refaitYou might also like</t>
+          <t>Gaza, Beriz Arc en ciel dans les chepo j'suis refait Tous mes négros comptent et on refait Gambinerie, eh paw paw paw paw Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refait Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refait</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>That is really legendary over here Jona Yihihh Mi street, mi causaille, j'ai l'attitude Attitude Devant moi les moussaux titubent Titubent, depuis qu'je suis sur YouTube YouTube Au HP j'ai fait des thunes Des thunes Merci à Mac et Bitume Bitume petit j'volais des Between Course poursuite j'avais l'habitude Huh huhh La street et ses phases j'ai l'habitude Han han C'est pas pour autant qu'j'péte les plombs Oui Un jour on prendra de l'altitude De l'altitud Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Mon-mon, Mon chemin j'ai tracé Tracé, certains sont de passage Huh huh Certains sont de passage Huh huh, mon chemin j'ai tracé Tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage Yeah, mon chemin j'ai tracé Le tartin est matinal, il arrive avant le facteur La famille c'est le principal, dehors y'a trop d'acteurs Ils pensaient m'la faire je les connais par cur Brr C'est des acteurs Brr, c'est des menteurs Brr, des profiteurs On reste vrai, on a pas sucé, vaillant depuis l'époque du BP Milau J'veux faire du shopping à Milan, j'lâche rien tant qu'j'ai pas un million You might also like Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yeah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Huh, huh, Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Yeah, mon chemin j'ai tracé Brr J'ai fait plusieurs passés Yeah, j'ai reçu très peu de passes Passes Certains sont de passage Yeah, mon chemin j'ai tracé Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Huh, huh, mon chemin j'ai tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage, mon chemin j'ai tracé Dehors y'a trop d'acteurs1</t>
+          <t>That is really legendary over here Jona Yihihh Mi street, mi causaille, j'ai l'attitude Attitude Devant moi les moussaux titubent Titubent, depuis qu'je suis sur YouTube YouTube Au HP j'ai fait des thunes Des thunes Merci à Mac et Bitume Bitume petit j'volais des Between Course poursuite j'avais l'habitude Huh huhh La street et ses phases j'ai l'habitude Han han C'est pas pour autant qu'j'péte les plombs Oui Un jour on prendra de l'altitude De l'altitud Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Mon-mon, Mon chemin j'ai tracé Tracé, certains sont de passage Huh huh Certains sont de passage Huh huh, mon chemin j'ai tracé Tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage Yeah, mon chemin j'ai tracé Le tartin est matinal, il arrive avant le facteur La famille c'est le principal, dehors y'a trop d'acteurs Ils pensaient m'la faire je les connais par cur Brr C'est des acteurs Brr, c'est des menteurs Brr, des profiteurs On reste vrai, on a pas sucé, vaillant depuis l'époque du BP Milau J'veux faire du shopping à Milan, j'lâche rien tant qu'j'ai pas un million Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yeah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Huh, huh, Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Yeah, mon chemin j'ai tracé Brr J'ai fait plusieurs passés Yeah, j'ai reçu très peu de passes Passes Certains sont de passage Yeah, mon chemin j'ai tracé Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Huh, huh, mon chemin j'ai tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage, mon chemin j'ai tracé Dehors y'a trop d'acteurs1</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C'est incroyable, comment il arrive à faire ça? Noxious Eh-eh Je minimise les pêchers Je pense à quand on finira sous terre sous terre Devant l'OPJ j'ai rien lâché Moi au comico j'ai su me taire me taire Je suis là pour le blé pas pour plaire Moi j'ai toujours été vulgaire mmh-mmh Ils font les chauds en temps de paix mmh-mmh Mais je les voyais pas quand c'était la guerre mmh-mmh J'étais en seconde mais je revendais Même aux terminales et aux premières première Un an plus tard j'avais de quoi me vanter Sti2d c'était ma filière Je suis un pure produit de la calle calle Ils connaissent Gambino mais pas Warren Warren J'écrivais mes textes dans mes cahiers cahiers Je faisais même mes devoirs sur le R Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut J'ai tout donné pour ma ville J'ai tout donné pour ma zone brrr Passe au garage coffee Si tu veux pécho ta dose huh-huh Je viens là où t'habite Si tu me rends pas mes loves Dans ma tête j'ai trop de soucis Je les oublie grâce au bédo huh-huh A-arrêtes ton ciné rentre dans le bat Pas besoin de crier parle pas trop Et viens on se rentre Je suis skinny mais je peux t'enculer Gauche droite balayette Écrasement, mais si je perds Tous mes gavas vont rentrer dedans Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut mmh-mmh Mmh-mmhYou might also like</t>
+          <t>C'est incroyable, comment il arrive à faire ça? Noxious Eh-eh Je minimise les pêchers Je pense à quand on finira sous terre sous terre Devant l'OPJ j'ai rien lâché Moi au comico j'ai su me taire me taire Je suis là pour le blé pas pour plaire Moi j'ai toujours été vulgaire mmh-mmh Ils font les chauds en temps de paix mmh-mmh Mais je les voyais pas quand c'était la guerre mmh-mmh J'étais en seconde mais je revendais Même aux terminales et aux premières première Un an plus tard j'avais de quoi me vanter Sti2d c'était ma filière Je suis un pure produit de la calle calle Ils connaissent Gambino mais pas Warren Warren J'écrivais mes textes dans mes cahiers cahiers Je faisais même mes devoirs sur le R Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut J'ai tout donné pour ma ville J'ai tout donné pour ma zone brrr Passe au garage coffee Si tu veux pécho ta dose huh-huh Je viens là où t'habite Si tu me rends pas mes loves Dans ma tête j'ai trop de soucis Je les oublie grâce au bédo huh-huh A-arrêtes ton ciné rentre dans le bat Pas besoin de crier parle pas trop Et viens on se rentre Je suis skinny mais je peux t'enculer Gauche droite balayette Écrasement, mais si je perds Tous mes gavas vont rentrer dedans Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut mmh-mmh Mmh-mmh</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Elle veut qu'le soir, jl'appelle, de base, moi, j'voulais juste la baisé Elle mfait mal à la tête, donc j'roule un pétou pour m'apaiser Grandis loin des milieux aisées, fidèle aux HLM J'en ai connu des visites d'huissiers, comprends-tu pourquoi cette haine ? Haine Et toi, pour des textos, tu me fait chier toute la semaine Tu vas dire à tes potes que j'te dis pas souvent Je t'aime J'fais des nuits blanches au studio, elle pense que jles passe à lhôtel Comment pourrais-je calculer des folles si j'ai même pas le temps pour elle ? Temps pour elle Non, jy peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je nvis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh Elle voit mes story Snap, elle crois qu'jsuis comme Kirby Kirby C'est vrai qu'j'suis mignon et qu'je plaît au filles Elle est trop exigeante, elle se crois dans un film Un film J'suis trop ghetto, ma belle, c'est pas facile Quand elle entends mes sons, elle s'met à chantonnait Chantonnait T'es Bonnie, moi, j'suis Clyde, on va tout dérober Tout dérober Sur un cheval, à deux, on ira galoper Galoper Pour l'instant, laisse-moi faire mes billets You might also like Non, j'y peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je n'vis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh</t>
+          <t>Elle veut qu'le soir, jl'appelle, de base, moi, j'voulais juste la baisé Elle mfait mal à la tête, donc j'roule un pétou pour m'apaiser Grandis loin des milieux aisées, fidèle aux HLM J'en ai connu des visites d'huissiers, comprends-tu pourquoi cette haine ? Haine Et toi, pour des textos, tu me fait chier toute la semaine Tu vas dire à tes potes que j'te dis pas souvent Je t'aime J'fais des nuits blanches au studio, elle pense que jles passe à lhôtel Comment pourrais-je calculer des folles si j'ai même pas le temps pour elle ? Temps pour elle Non, jy peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je nvis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh Elle voit mes story Snap, elle crois qu'jsuis comme Kirby Kirby C'est vrai qu'j'suis mignon et qu'je plaît au filles Elle est trop exigeante, elle se crois dans un film Un film J'suis trop ghetto, ma belle, c'est pas facile Quand elle entends mes sons, elle s'met à chantonnait Chantonnait T'es Bonnie, moi, j'suis Clyde, on va tout dérober Tout dérober Sur un cheval, à deux, on ira galoper Galoper Pour l'instant, laisse-moi faire mes billets Non, j'y peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je n'vis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dans ma tête on est plusieurs J'raconte ma vie sur Deezer Le terrain tourne comme mes teasers Donc faut que tous soit détaillé à 10h La sauce va monté ça va pas tarder Jappelle GD pour venir les pétarder Coup d'cross sur la tête du physio si il laisse pas passer toute la cité Même au froid ça durcit pas Même au chaud ça noircit pas Viens pécho c'est dla peufra Les freestyles sont impeccables L'haut de couture vient de chez Lifsa Pour remplir mes poches j'vid le c-sa Pour faire de l'osille j'passe par le sale Si tu dois de l'oseille on sort le shhhhhh Que des gros kamas On roule pas de stick J'achète un famas Sisi t'es trop stock Beaucoup trop de follasses grâce à la musique Jles laisse à Kirby elles finissent sous le choc Ya la Cali et Jo lacoste Ju2, B2, Brazo, LaDoz T'es un intru donne ta sacoche sauf si tu viens pour pécho ta dose Jsuis dans le block avec mes mmmmmmmmh x2 J'fais de l'oseille j'fume la mmmmmmmh x2 Ça bicrave que dla mmmmmmmmmh x2 Ça bédave que d'la mmmmmmmmmh x2You might also like</t>
+          <t>Dans ma tête on est plusieurs J'raconte ma vie sur Deezer Le terrain tourne comme mes teasers Donc faut que tous soit détaillé à 10h La sauce va monté ça va pas tarder Jappelle GD pour venir les pétarder Coup d'cross sur la tête du physio si il laisse pas passer toute la cité Même au froid ça durcit pas Même au chaud ça noircit pas Viens pécho c'est dla peufra Les freestyles sont impeccables L'haut de couture vient de chez Lifsa Pour remplir mes poches j'vid le c-sa Pour faire de l'osille j'passe par le sale Si tu dois de l'oseille on sort le shhhhhh Que des gros kamas On roule pas de stick J'achète un famas Sisi t'es trop stock Beaucoup trop de follasses grâce à la musique Jles laisse à Kirby elles finissent sous le choc Ya la Cali et Jo lacoste Ju2, B2, Brazo, LaDoz T'es un intru donne ta sacoche sauf si tu viens pour pécho ta dose Jsuis dans le block avec mes mmmmmmmmh x2 J'fais de l'oseille j'fume la mmmmmmmh x2 Ça bicrave que dla mmmmmmmmmh x2 Ça bédave que d'la mmmmmmmmmh x2</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La-LaSource on the beat Mets-moi l'volume dans l'casque s'te plaît BLN À fonds, à fonds, à fonds Shh Uh-uh Depuis tout p'tit, j'détaille des plaquettes, han Plaquettes, han, j'revends CD et cassettes Brr, cassettes, poh J'repense à quand j'avais sept ans Han, han, j'aurais dû coffrer à cet instant Bou-bou-bou-bou-bouh J'suis quelqu'un dans la cité Cité, Ma-Mano visser à côté Eh-eh-eh Les gars n'ont plus de pitié mais faites gaffes à ne pas plonger J'sais pas zouker, moi, j'fais que du rap Hum-hum, j'sais tout faire, drill, afro et trap Hum-hum J'ai des sons cut de ceux qui dérapent Hum-hum, on vends plus de chocolat qu'à patte Toute la nuit, son cavu, il claque Han, uh-uh Avant d'chanter, je n'ai plus le traque, j'fais turn-up la fosse, la salle, elle craque J'passe la soirée sous pétou Pétou Ramène une clope, une feuille, pour dormir, j'ai pas b'soin de snus Graah, graah, uh-uh Dans l'game, y a trop d'requins mais moi, les TN, j'les mets aux pieds Aux pieds J'suis dans l'pe-ra pour mon pain mais beaucoup trop d'éco veulent croquer Des fois, ça fait chier d'être à la mode Yih-yih, j'préfère voir les ients-cli venir au bloc Uh-uh Dans la cité, il est garé le Porsche, on est chez nous, ils vont rien dire les porcs Ah-ah Tous les jours, je loue Yessih Massilia Amen, comme je rappe, ils pensent tous que je prie pas Poh Écouté d'Alésia jusqu'à Massilia, on s'enfuit quand on voit la famille à Peppa J'ai fait tout cette merde pour le magot et aussi, pour me remplir le frigo Toi, tu dépense tout ton wari pour les go et sur Insta', tu joue les ssistes-gro, ssistes-gro J'suis défoncé dans le Pack M, Pack M, j'te-cla un gros joint de paki, paki J'me fait larhsa pas un paquet, paquet, en plein milieu de son parking, parking Y a que des babys dans la party, on les entasse dans le Viano à Kirby J'finis dans ma bre-cham seule et tranquille, j'peux plus donner ma bite à n'importe qui Yih-yih Passe au six-cent quinze si tu veux ta dose, la tenue est noir et le foulard est mauve T'es pas dans les travaux, mon négro, dose, on a grandi entouré de reptiles et d'fauves You might also like J'te fais danser le makosa, j't'ai sorti le 11.43 J'voulais finir sur Canalsat, j'veux pas finir comme Kalasa Tu m'té-ma bizzard, Que pasa? T'aimeras avoir mes mapessas, 'ssas Non, négro, c'est pas comme ça, faut bosser si tu veux tout ça Uh-uh J'fume un pétou devant la piscine Piscine, j'l'imagine rempli de billet Hum-hum Mon but, c'est de faire des millions Hum-hum, pour l'instant, j'suis dans les milliers Uh-uh J'fume un pétou devant la piscine Hum-hum, j'l'imagine rempli de billets Hum-hum J'l'imagine remplie de billets Hum-hum, j'l'imagine remplie de billets Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Hum-hum Eh, Kirby, dis-leur, dis-leur, dis-leur Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi Eh-eh-eh Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi</t>
+          <t>La-LaSource on the beat Mets-moi l'volume dans l'casque s'te plaît BLN À fonds, à fonds, à fonds Shh Uh-uh Depuis tout p'tit, j'détaille des plaquettes, han Plaquettes, han, j'revends CD et cassettes Brr, cassettes, poh J'repense à quand j'avais sept ans Han, han, j'aurais dû coffrer à cet instant Bou-bou-bou-bou-bouh J'suis quelqu'un dans la cité Cité, Ma-Mano visser à côté Eh-eh-eh Les gars n'ont plus de pitié mais faites gaffes à ne pas plonger J'sais pas zouker, moi, j'fais que du rap Hum-hum, j'sais tout faire, drill, afro et trap Hum-hum J'ai des sons cut de ceux qui dérapent Hum-hum, on vends plus de chocolat qu'à patte Toute la nuit, son cavu, il claque Han, uh-uh Avant d'chanter, je n'ai plus le traque, j'fais turn-up la fosse, la salle, elle craque J'passe la soirée sous pétou Pétou Ramène une clope, une feuille, pour dormir, j'ai pas b'soin de snus Graah, graah, uh-uh Dans l'game, y a trop d'requins mais moi, les TN, j'les mets aux pieds Aux pieds J'suis dans l'pe-ra pour mon pain mais beaucoup trop d'éco veulent croquer Des fois, ça fait chier d'être à la mode Yih-yih, j'préfère voir les ients-cli venir au bloc Uh-uh Dans la cité, il est garé le Porsche, on est chez nous, ils vont rien dire les porcs Ah-ah Tous les jours, je loue Yessih Massilia Amen, comme je rappe, ils pensent tous que je prie pas Poh Écouté d'Alésia jusqu'à Massilia, on s'enfuit quand on voit la famille à Peppa J'ai fait tout cette merde pour le magot et aussi, pour me remplir le frigo Toi, tu dépense tout ton wari pour les go et sur Insta', tu joue les ssistes-gro, ssistes-gro J'suis défoncé dans le Pack M, Pack M, j'te-cla un gros joint de paki, paki J'me fait larhsa pas un paquet, paquet, en plein milieu de son parking, parking Y a que des babys dans la party, on les entasse dans le Viano à Kirby J'finis dans ma bre-cham seule et tranquille, j'peux plus donner ma bite à n'importe qui Yih-yih Passe au six-cent quinze si tu veux ta dose, la tenue est noir et le foulard est mauve T'es pas dans les travaux, mon négro, dose, on a grandi entouré de reptiles et d'fauves J'te fais danser le makosa, j't'ai sorti le 11.43 J'voulais finir sur Canalsat, j'veux pas finir comme Kalasa Tu m'té-ma bizzard, Que pasa? T'aimeras avoir mes mapessas, 'ssas Non, négro, c'est pas comme ça, faut bosser si tu veux tout ça Uh-uh J'fume un pétou devant la piscine Piscine, j'l'imagine rempli de billet Hum-hum Mon but, c'est de faire des millions Hum-hum, pour l'instant, j'suis dans les milliers Uh-uh J'fume un pétou devant la piscine Hum-hum, j'l'imagine rempli de billets Hum-hum J'l'imagine remplie de billets Hum-hum, j'l'imagine remplie de billets Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Hum-hum Eh, Kirby, dis-leur, dis-leur, dis-leur Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi Eh-eh-eh Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ok Jenchaîne les pétous jsuis rarement à jeun Bienvenue à Gaza ici cest la jungle Jraquettais les intrus quand jétais jeune Et quand jsuis dans la cabine on dirais un jnoun Jai promis un Tmax à GDR jai promis un bolide à Glorie Jai promis une villa pour ma mère au jours de la mer en Floride Jsuis pas trop actif donc les abonnés baissent mais bon cest pas trop dur de les faire monter Ya du doré ya du soké Jfais du pera jsais pas zouker Jfais du bon son jsuis toujours à la cité Donc jsuis soutenu par les mecs de la cité Jsuis pas un exemple pour les tipeu d la cite Mais jsuis écouter par les mc de ta cité Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel You might also like Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Jack pomme jack noir jack rouge jack miel Jack pomme jack noir jack rouge jack miel</t>
+          <t>Ok Jenchaîne les pétous jsuis rarement à jeun Bienvenue à Gaza ici cest la jungle Jraquettais les intrus quand jétais jeune Et quand jsuis dans la cabine on dirais un jnoun Jai promis un Tmax à GDR jai promis un bolide à Glorie Jai promis une villa pour ma mère au jours de la mer en Floride Jsuis pas trop actif donc les abonnés baissent mais bon cest pas trop dur de les faire monter Ya du doré ya du soké Jfais du pera jsais pas zouker Jfais du bon son jsuis toujours à la cité Donc jsuis soutenu par les mecs de la cité Jsuis pas un exemple pour les tipeu d la cite Mais jsuis écouter par les mc de ta cité Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Jack pomme jack noir jack rouge jack miel Jack pomme jack noir jack rouge jack miel</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hum, hum Hum, hum Junior Alaprod, zanmé! Hum, hum Uh, uh Les mecs d'à côté veulent nous ressembler, c'qui est bien dans ma ville, c'est qu'on est tous en ble-' On est tous en ble-' Si tu viens ici, tu r'part avec des bleus, à l'école, j'notais pas c'qu'y avait sur l'tableau Yih-yih Quand j'avais pas d'buzz, des fois, les gows m'laissais en plan une fois après avoir payer la bre-' Payer la bre-' J'ai préféré revendre le shit et la beuh Le shit et la beuh, j'savais qu'un jours, j'f'rais l'million sur YouTube Uh, uh J'fais des millions d'vues, j'roule en Clio 3 Shoo, j'ai des inspirations venues d'autre part Pah La meuf est piqué mais j'ai pas de Audemars, si j'l'a baises, c'est que j'l'ai fait rire comme Omar Sy Hein J'abrège quand j'suis devant la victime, j'ai cassé des têtes, jamais cassé d'vitrines Bang, bang Fuck le dix-sept mais pas Vitinha Fuck, fuck, la mort t'appelles quand la vie t'ignores Je savais qu'j'étais fais pour l'dehors, vingt-quatre ans, j'ai d'l'oseilles mais je traîne encore Hum, hum Les condés sont passées, ça ne-tour encore Hum, hum, j'fais d'la pub' au re-fou pour augmenter l'score Augmenter le score Eh, mettre que des trois points Switch, je baisse les stores quand j'l'amène dans la Troup House Grr Les keufs t'attrape, donc tu passe à la trap Grr, j'peux t'piéger mais j'fais pas d'la trap Uh, uh J'prenais le métro pour que ces gues-shla tapent leurs rails Uh, uh J'fais du pe-ra, pas du Raï Du Raï, la cassette, c'est moi j'la détaille Uh, uh Les meufs me coursent, elle s'mettent à mes trousses Beendo, ta pé-ta des stylos, j'ai pé-ta des trousses Ouh Je compte pas sur la CAF, j'compte pas sur l'CROUS Nan, nan, elle veut m'envouter, je mange pas son couscous Shoo You might also like L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo Recharger le R, fissa, fissa Shoo, shoo, elle a un string mais elle fais la fille sage C'est des salades J'ai des cicatrices qu'on voient pas sur l'visage Savent, une montagne de fric, voilà mon paysage J'ai tiré une taffe, j'm'envoles sans le visa, la police m'as toujours eu dans le viseur Eh J'me dis qu'c'est des shooters sans visière, j'me dis que j'peux tuer un ient-cli quand je visser Brr, brr C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu Beendo, uh, uh En amour, j'm'attache pas trop, j'vais la tromper, dans tous les cas Cas J'attire que les les meufs aux gros pétards Pétards, kiffent que les mecs de tess comme moi Comme moi La vie d'artiste, c'est éphémère, j'suis dans mon coin, j'm'y attache pas Nan, nan Tous les soirs, j'suis dans un block Yih-yih, poser avec Rando, Isco et Da' Gang Adrénaline quand j'che-rra' son tél' Tél', j'enlevais la SIM et j'le revendais Vendais J'les visser vers la Rue Vendôme, y en avait à Bastille qui m'attendais Hum Dans le Sud, dans le Nord, neuf-un, neuf-cinq, embrouilles de cités, couteaux, extinct' Hum, hum Ils font la cité, ils portent plaintes, détaillé, emballé pour le butin Hum, hum L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo</t>
+          <t>Hum, hum Hum, hum Junior Alaprod, zanmé! Hum, hum Uh, uh Les mecs d'à côté veulent nous ressembler, c'qui est bien dans ma ville, c'est qu'on est tous en ble-' On est tous en ble-' Si tu viens ici, tu r'part avec des bleus, à l'école, j'notais pas c'qu'y avait sur l'tableau Yih-yih Quand j'avais pas d'buzz, des fois, les gows m'laissais en plan une fois après avoir payer la bre-' Payer la bre-' J'ai préféré revendre le shit et la beuh Le shit et la beuh, j'savais qu'un jours, j'f'rais l'million sur YouTube Uh, uh J'fais des millions d'vues, j'roule en Clio 3 Shoo, j'ai des inspirations venues d'autre part Pah La meuf est piqué mais j'ai pas de Audemars, si j'l'a baises, c'est que j'l'ai fait rire comme Omar Sy Hein J'abrège quand j'suis devant la victime, j'ai cassé des têtes, jamais cassé d'vitrines Bang, bang Fuck le dix-sept mais pas Vitinha Fuck, fuck, la mort t'appelles quand la vie t'ignores Je savais qu'j'étais fais pour l'dehors, vingt-quatre ans, j'ai d'l'oseilles mais je traîne encore Hum, hum Les condés sont passées, ça ne-tour encore Hum, hum, j'fais d'la pub' au re-fou pour augmenter l'score Augmenter le score Eh, mettre que des trois points Switch, je baisse les stores quand j'l'amène dans la Troup House Grr Les keufs t'attrape, donc tu passe à la trap Grr, j'peux t'piéger mais j'fais pas d'la trap Uh, uh J'prenais le métro pour que ces gues-shla tapent leurs rails Uh, uh J'fais du pe-ra, pas du Raï Du Raï, la cassette, c'est moi j'la détaille Uh, uh Les meufs me coursent, elle s'mettent à mes trousses Beendo, ta pé-ta des stylos, j'ai pé-ta des trousses Ouh Je compte pas sur la CAF, j'compte pas sur l'CROUS Nan, nan, elle veut m'envouter, je mange pas son couscous Shoo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo Recharger le R, fissa, fissa Shoo, shoo, elle a un string mais elle fais la fille sage C'est des salades J'ai des cicatrices qu'on voient pas sur l'visage Savent, une montagne de fric, voilà mon paysage J'ai tiré une taffe, j'm'envoles sans le visa, la police m'as toujours eu dans le viseur Eh J'me dis qu'c'est des shooters sans visière, j'me dis que j'peux tuer un ient-cli quand je visser Brr, brr C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu Beendo, uh, uh En amour, j'm'attache pas trop, j'vais la tromper, dans tous les cas Cas J'attire que les les meufs aux gros pétards Pétards, kiffent que les mecs de tess comme moi Comme moi La vie d'artiste, c'est éphémère, j'suis dans mon coin, j'm'y attache pas Nan, nan Tous les soirs, j'suis dans un block Yih-yih, poser avec Rando, Isco et Da' Gang Adrénaline quand j'che-rra' son tél' Tél', j'enlevais la SIM et j'le revendais Vendais J'les visser vers la Rue Vendôme, y en avait à Bastille qui m'attendais Hum Dans le Sud, dans le Nord, neuf-un, neuf-cinq, embrouilles de cités, couteaux, extinct' Hum, hum Ils font la cité, ils portent plaintes, détaillé, emballé pour le butin Hum, hum L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Han Mais dis-moi, t'as peur de quoi Han ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Mmh-mmh, mes gavas baisent plus que moi Mmh-mmh Mais dis-moi, t'as peur de quoi Mmh-mmh ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi, hein ? J'ai laissé mon fer chez moi Raah J'répète Depuis qu'j fais des K Depuis qu'je fais ds K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi De quoi ? ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas Dix dans l'bloc, on a tous un cup, la substance, elle est blue C'est bleu Su-, sur de moi, on a tous un Glock, au cas-où tu fait le fou Au cas-où tu fait le fou On fait que de laisser court C'est court, ils viennent plus au rendez-vous 'dez-vous, drr, drr Y a Joe Lacoste et GDR, à tout moment, ça fait boum Eh-eh Quand, quand j'monte sur un plav', j'suis ganter Yih-yih, dans l'bloc, j'me nique la santé J'voulais juste me remplir les ches-po, donc j'me suis mis à servir les drogués Brr Donc j'me suis mis à visser la drogua, allez-retour, Paris-Meuda Dans la vie, y a des hauts et y a des bas mais j'peux pas tomber plus bas qu'en bas du bât' Eh-eh J'y étais déjà tout l'année L'année, j'enchaîné studio toute la nuit La nuit J'fumais d'la moula pour planer, overbooké, jamais j'm'ennuie Yih-yih J'étais là sous la neige, sous la pluie, j'suis sous pilon, j'suis sous lean Han-han Merco, j'tartine dans la ville Han-han, j'vise le million, pas dans l'mille Han-han Si elle fait des manières, elle déguerpie 'guerpie J'pers plus mon temps depuis qu'j'sais qu'y a des meufs qui rêve de sucer ma bite Ma , mmh-mmh Sur le terrain, y a pas d'arbitre D'arbitre, mmh-mmh, quand ça sifflait, j'mettais la fuite La fuite, mmh-mmh C'est vraiment punie, était les fautes, le mec en survêt' c'est harceler aux cravates Cravates Y a des armes, pourquoi faire d'la savate D'la savate ? You might also like Comme un plombier, j'ai des bons tuyaux Tuyaux Aqua d'fumée dans l'Airbnb, miskina, le proprio' Y a que des los-ki dans l'Clio Clio, Clio Qu'est-ce qu'on f'rai pas pour un client Un client ? Dans mon secteur, y a trop d'condés, c'est plus miné qu'un taille-crayon C'est plus miné qu'un taille-crayon Le guetteur alerte en criant Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi, Hein ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Eh ? J'ai laissé mon fer chez moi Raah Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Woaw ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas1</t>
+          <t>Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Han Mais dis-moi, t'as peur de quoi Han ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Mmh-mmh, mes gavas baisent plus que moi Mmh-mmh Mais dis-moi, t'as peur de quoi Mmh-mmh ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi, hein ? J'ai laissé mon fer chez moi Raah J'répète Depuis qu'j fais des K Depuis qu'je fais ds K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi De quoi ? ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas Dix dans l'bloc, on a tous un cup, la substance, elle est blue C'est bleu Su-, sur de moi, on a tous un Glock, au cas-où tu fait le fou Au cas-où tu fait le fou On fait que de laisser court C'est court, ils viennent plus au rendez-vous 'dez-vous, drr, drr Y a Joe Lacoste et GDR, à tout moment, ça fait boum Eh-eh Quand, quand j'monte sur un plav', j'suis ganter Yih-yih, dans l'bloc, j'me nique la santé J'voulais juste me remplir les ches-po, donc j'me suis mis à servir les drogués Brr Donc j'me suis mis à visser la drogua, allez-retour, Paris-Meuda Dans la vie, y a des hauts et y a des bas mais j'peux pas tomber plus bas qu'en bas du bât' Eh-eh J'y étais déjà tout l'année L'année, j'enchaîné studio toute la nuit La nuit J'fumais d'la moula pour planer, overbooké, jamais j'm'ennuie Yih-yih J'étais là sous la neige, sous la pluie, j'suis sous pilon, j'suis sous lean Han-han Merco, j'tartine dans la ville Han-han, j'vise le million, pas dans l'mille Han-han Si elle fait des manières, elle déguerpie 'guerpie J'pers plus mon temps depuis qu'j'sais qu'y a des meufs qui rêve de sucer ma bite Ma , mmh-mmh Sur le terrain, y a pas d'arbitre D'arbitre, mmh-mmh, quand ça sifflait, j'mettais la fuite La fuite, mmh-mmh C'est vraiment punie, était les fautes, le mec en survêt' c'est harceler aux cravates Cravates Y a des armes, pourquoi faire d'la savate D'la savate ? Comme un plombier, j'ai des bons tuyaux Tuyaux Aqua d'fumée dans l'Airbnb, miskina, le proprio' Y a que des los-ki dans l'Clio Clio, Clio Qu'est-ce qu'on f'rai pas pour un client Un client ? Dans mon secteur, y a trop d'condés, c'est plus miné qu'un taille-crayon C'est plus miné qu'un taille-crayon Le guetteur alerte en criant Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi, Hein ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Eh ? J'ai laissé mon fer chez moi Raah Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Woaw ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>La muerte La muerte Envoie ton RIB SG ou caisse d'épargne, y a que si tu viens d'ma ville que j't'épargne Beaucoup trop sous côté, ça m'fout en rogne, de retour avec des textes plein de hargne J'suis posé avec le Da', Isco, Nine Gan-gang, gang, gang, tu peux toujours me croiser dans la ville en Nike, j'visser clients en r'tard toute la night J'le connais par cur le bâtiment, sur-écoute comme à Baltimore On vend le te-shi qui vient d'Nador, nique sa grand-mère la Fauna Flor' On en a laisser des corps à terre, on fait pas d'tchitchi, on vend la mort, bébé, chupa mi poya, por flavor Grah, grah, suck my dick De base, j'rappe la rue, c'est pas d'ma faute si j'suis devenu archi viral sur TikTok J'peux pas m'permettre de finir en taule, met tout dans les chiottes, y a les flics qui Toc, toc J'ai pas de gamos, j'fais que des locations, pour clipper chez moi, pas b'soin d'autorisations J'suis doué pour coffrer les pesetas, j'suis BG, pas b'soin d'impressionner les 'tasses Impressionner les 'tasses J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied You might also like Tes ches-po sont vides et mon coffre et plein, tu peux parler, ça m'atteint pas J'étais tout seule, j'faisais temps plein, c'est pour ça qu'j'étais pas sympa J'ai rajouté l'bédo à la SIM et trop d'pétou, j'en suis à la décima J'dégaine l'Opi' si tu joues les sumos, quand y avait plus d'Lyca', j'prenais Syma Y a les favos, j'ai d'jà tout caler, mon gamos, il fait du bruit, donc avec moi, elle peut pas bomber, j'ai plus b'soin d'la séduire C'est sous l'porche que mes locks ont poussées, j'vendais des barrettes, j'étais encore puceau Ça y est, faut qu'j'arrête de m'venter de tout ça, si on continues, on va tous y passés J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied Ouh J'suis dans la street, toi, personne t'as vu Mmh-mmh Han Sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Yih-yih Han Uh-uh</t>
+          <t>La muerte La muerte Envoie ton RIB SG ou caisse d'épargne, y a que si tu viens d'ma ville que j't'épargne Beaucoup trop sous côté, ça m'fout en rogne, de retour avec des textes plein de hargne J'suis posé avec le Da', Isco, Nine Gan-gang, gang, gang, tu peux toujours me croiser dans la ville en Nike, j'visser clients en r'tard toute la night J'le connais par cur le bâtiment, sur-écoute comme à Baltimore On vend le te-shi qui vient d'Nador, nique sa grand-mère la Fauna Flor' On en a laisser des corps à terre, on fait pas d'tchitchi, on vend la mort, bébé, chupa mi poya, por flavor Grah, grah, suck my dick De base, j'rappe la rue, c'est pas d'ma faute si j'suis devenu archi viral sur TikTok J'peux pas m'permettre de finir en taule, met tout dans les chiottes, y a les flics qui Toc, toc J'ai pas de gamos, j'fais que des locations, pour clipper chez moi, pas b'soin d'autorisations J'suis doué pour coffrer les pesetas, j'suis BG, pas b'soin d'impressionner les 'tasses Impressionner les 'tasses J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied Tes ches-po sont vides et mon coffre et plein, tu peux parler, ça m'atteint pas J'étais tout seule, j'faisais temps plein, c'est pour ça qu'j'étais pas sympa J'ai rajouté l'bédo à la SIM et trop d'pétou, j'en suis à la décima J'dégaine l'Opi' si tu joues les sumos, quand y avait plus d'Lyca', j'prenais Syma Y a les favos, j'ai d'jà tout caler, mon gamos, il fait du bruit, donc avec moi, elle peut pas bomber, j'ai plus b'soin d'la séduire C'est sous l'porche que mes locks ont poussées, j'vendais des barrettes, j'étais encore puceau Ça y est, faut qu'j'arrête de m'venter de tout ça, si on continues, on va tous y passés J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied Ouh J'suis dans la street, toi, personne t'as vu Mmh-mmh Han Sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Yih-yih Han Uh-uh</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Yo, Joshy, Joshy J'manigance tout à l'avance pour savoir comment faire à chacune des réactions Ça fait deux été qu'j'ai pas pris d'vacances, y a trop sous à faire dans le tiekson Les grands nous envoyer au grecs chaque jours Chaque jours, c'est c'qui m'as donner le goût du charbon Charbon Pourtant, quand j'rentrais à la maison Maison, on disait que traînait n'était pas bon Non On disait que traînait n'était pas bon Non, qui fallait qu'j'aille relire mes leçons Mais comme un con, j'ai mordue à l'hameçon L'hameçon, j'ai fait le PU sur le R à bifton J'ai fait le PU sur le R à bifton, sur le pont, affamé par le bifton Yih-yih Et comme j'étais pas l'seule affamé, à midi, il fallait que j'hauss le ton Eh-eh Les potos avant ls raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse You might also like Entourer d'baby, j'suis en folie Yih-yih, à la base, tout ça, c'est ma phobie Mmh-mmh J'fais l'con que dans les Snap à Kirby Mmh-mmh, j'te mets une tate-pa, tu réalises Mmh-mhh Moi, j'suis dans la cité pour de vrai C'est vrai et même juste pour zoner, j'suis frais J'suis frais On te piétine si tu fait l'fou Fais l'fou, en B22 ou en Nike Air Eh-eh J'a-, j'allais chercher les sous, j'avais pas d'grands reufs Non J'avais trop d'soucis, j'ai acheté un neuf Neuf, pour faire de la plata, faut bi-bi la ppe-f' Eh-eh GD, le traceur, il le fait pleurer Fait pleurer, des fois, il revend du doré Doré Donc, sa lui arrive de s'faire courser, c'est les aléas d'la cité Pfiou, mmh-mhh Les potos avant les raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse</t>
+          <t>Mmh-mmh Mmh-mmh Yo, Joshy, Joshy J'manigance tout à l'avance pour savoir comment faire à chacune des réactions Ça fait deux été qu'j'ai pas pris d'vacances, y a trop sous à faire dans le tiekson Les grands nous envoyer au grecs chaque jours Chaque jours, c'est c'qui m'as donner le goût du charbon Charbon Pourtant, quand j'rentrais à la maison Maison, on disait que traînait n'était pas bon Non On disait que traînait n'était pas bon Non, qui fallait qu'j'aille relire mes leçons Mais comme un con, j'ai mordue à l'hameçon L'hameçon, j'ai fait le PU sur le R à bifton J'ai fait le PU sur le R à bifton, sur le pont, affamé par le bifton Yih-yih Et comme j'étais pas l'seule affamé, à midi, il fallait que j'hauss le ton Eh-eh Les potos avant ls raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse Entourer d'baby, j'suis en folie Yih-yih, à la base, tout ça, c'est ma phobie Mmh-mmh J'fais l'con que dans les Snap à Kirby Mmh-mmh, j'te mets une tate-pa, tu réalises Mmh-mhh Moi, j'suis dans la cité pour de vrai C'est vrai et même juste pour zoner, j'suis frais J'suis frais On te piétine si tu fait l'fou Fais l'fou, en B22 ou en Nike Air Eh-eh J'a-, j'allais chercher les sous, j'avais pas d'grands reufs Non J'avais trop d'soucis, j'ai acheté un neuf Neuf, pour faire de la plata, faut bi-bi la ppe-f' Eh-eh GD, le traceur, il le fait pleurer Fait pleurer, des fois, il revend du doré Doré Donc, sa lui arrive de s'faire courser, c'est les aléas d'la cité Pfiou, mmh-mhh Les potos avant les raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby Comment tu bouge, baby Elle bouge son gros cul, bouge sa tte-ch' Oh ouais Elle veut du sérieux ? Garde la pêche Airbnb, elle, ses fesses Charcle, pour un gadaye qui vend d'la fraîche Vendredi, samedi, j'fait pas la fête Wow, j'suis dans l'tiekson, shit, be-her Pas pour moi, pas pour moi, pas pour moi Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby WouhYou might also like</t>
+          <t>Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby Comment tu bouge, baby Elle bouge son gros cul, bouge sa tte-ch' Oh ouais Elle veut du sérieux ? Garde la pêche Airbnb, elle, ses fesses Charcle, pour un gadaye qui vend d'la fraîche Vendredi, samedi, j'fait pas la fête Wow, j'suis dans l'tiekson, shit, be-her Pas pour moi, pas pour moi, pas pour moi Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby Wouh</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Négro, négro, c'est Negri' Mmh-mmh, mmh-mmh avec Gambino, eh Mmh-mmh Négro, négro, c'est Negri' Oui, oui avec Ferme la po-po-porte, hi J'viens-, j'viens d'là où tu trouves d'la drogue Mmh-mmh, plus vite qu'une pharmacie Mmh-mmh Et les clients veulent que du jaune, pas du noir, je crois qu'c'est des racistes Ouh, oui, oui J'suis posé sur le hazi Mmh-mmh, les Ulis, c'est l'asile Mmh-mmh Faire d'la Drill, c'est trop facile, biso nde toza ba mokonzii Uh-uh C'était moi l'guetteur après les cours Les cours, j'veux la fortune aux Bettncourt Brr La ne-zo était trop sous tension, donc on achetait ds armes à Clignancourt Eh-eh J'viens d'là où c'est pas cool, donc on monte sur des coups Ouh, ouh On peut t'sortir une lame Ouh, ouh, te faire une nouvelle coupe Ouh, ouh On peut t'sortir une lame, te faire une nouvelle coupe Y a pas que chez Pampers qu'tu peux trouver d'la kush Uh-uh Voler, c'est pas bon Mmh-mmh et la misère, c'est pas bon Nan, nan Donc on monte sur des plavons Mmh-mmh ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey You might also like J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh On est dix dans le bloc, ils savent pas qui péter Oui, oui, sous tise mais y a rien à fêter Brr Faut qu'j'déclare un Audi TT Oui, j'passe les rapports, j'réveille la cité Mmh-mmh T'inquiète, j'ai l'pétard, j'peux pas m'inquiéter, par les p'tits d'chez moi, tu t'fais racketter Uh-uh Par les p'tits d'chez moi, tu t'fais piétiner Brr, par les armes à feu, on est fascinés Pah, pah, pah J'ai charbonné tard le soir Mmh-mmh, j'ai plus peur dans le noir Mmh-mmh J'ai toujours gardé espoir Mmh-mmh, aujourd'hui, c'est moi la star Uh-uh J'rem-, j'rempli pas mes polos Han, han mais-, mais j'ai rempli mes poches Mmh-mmh On-, on a visser des bollosses Oui, oui, han, han, même quand il faisait moche Brr Voler, c'est pas bon Han, han et la misère, c'est pas bon Han, nan Donc on monte sur des plavons Han, han ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh Négro, négro, c'est Negri' avec Gambi' Mmh, mmh Négro, négro, c'est Negri' Mmh, mmh avec Gambi' Mmh Gambino La M Mmh, mmh, grr, grr, grr Mmh, mmh Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Hey, hey Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Pah, pah Tesla, mwana mon boug, eh Uh, uh B2, mwana mon boug Uh, uh Mmh-mmh, mmh-mmh, mmh-mmh , mmh</t>
+          <t>Négro, négro, c'est Negri' Mmh-mmh, mmh-mmh avec Gambino, eh Mmh-mmh Négro, négro, c'est Negri' Oui, oui avec Ferme la po-po-porte, hi J'viens-, j'viens d'là où tu trouves d'la drogue Mmh-mmh, plus vite qu'une pharmacie Mmh-mmh Et les clients veulent que du jaune, pas du noir, je crois qu'c'est des racistes Ouh, oui, oui J'suis posé sur le hazi Mmh-mmh, les Ulis, c'est l'asile Mmh-mmh Faire d'la Drill, c'est trop facile, biso nde toza ba mokonzii Uh-uh C'était moi l'guetteur après les cours Les cours, j'veux la fortune aux Bettncourt Brr La ne-zo était trop sous tension, donc on achetait ds armes à Clignancourt Eh-eh J'viens d'là où c'est pas cool, donc on monte sur des coups Ouh, ouh On peut t'sortir une lame Ouh, ouh, te faire une nouvelle coupe Ouh, ouh On peut t'sortir une lame, te faire une nouvelle coupe Y a pas que chez Pampers qu'tu peux trouver d'la kush Uh-uh Voler, c'est pas bon Mmh-mmh et la misère, c'est pas bon Nan, nan Donc on monte sur des plavons Mmh-mmh ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh On est dix dans le bloc, ils savent pas qui péter Oui, oui, sous tise mais y a rien à fêter Brr Faut qu'j'déclare un Audi TT Oui, j'passe les rapports, j'réveille la cité Mmh-mmh T'inquiète, j'ai l'pétard, j'peux pas m'inquiéter, par les p'tits d'chez moi, tu t'fais racketter Uh-uh Par les p'tits d'chez moi, tu t'fais piétiner Brr, par les armes à feu, on est fascinés Pah, pah, pah J'ai charbonné tard le soir Mmh-mmh, j'ai plus peur dans le noir Mmh-mmh J'ai toujours gardé espoir Mmh-mmh, aujourd'hui, c'est moi la star Uh-uh J'rem-, j'rempli pas mes polos Han, han mais-, mais j'ai rempli mes poches Mmh-mmh On-, on a visser des bollosses Oui, oui, han, han, même quand il faisait moche Brr Voler, c'est pas bon Han, han et la misère, c'est pas bon Han, nan Donc on monte sur des plavons Han, han ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh Négro, négro, c'est Negri' avec Gambi' Mmh, mmh Négro, négro, c'est Negri' Mmh, mmh avec Gambi' Mmh Gambino La M Mmh, mmh, grr, grr, grr Mmh, mmh Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Hey, hey Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Pah, pah Tesla, mwana mon boug, eh Uh, uh B2, mwana mon boug Uh, uh Mmh-mmh, mmh-mmh, mmh-mmh , mmh</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BLN Hufel on the beat Uh-uh Pour la belle vie, j'vends la mort La mort mais y a que Dieu qu'on adore Jesus Remplit est le coffre-fort De thunes, le te-shi vient de Nador Hi-hi J'suis chrétien, j'mange du cochon mais toute l'année, je v'-esqui les porcs Les pu Mon gava, fait attention, pour du seill-o, j'peux cribler ton corps J'suis dans le street, j'ai pas gé-chan Gé-chan, j'suis juste entouré de méchants Méchants Celui qui vient jouer au con, j'lui fait les dents à Didir Deschamps Uh-uh J'suis avec Kirby toute la nuit, y a qu des putes dans la bre-cham À part GDR et B2, personne prend mes patins, c'est inquiétant Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Uh-uh You might also like L'assoc' m'appelle, il m'dit qu'y a six milles euros à prendre Et quand j'fais pas rentrer de papel, j'te jure qu'j'ai une envie de me pendre Hmm-hmm À chaque teaser, j'me dit qu'c'est l'bon C'est l'bon, le te-shi que j'fume, il me rend con Il me rend con Le guetteur est posté sur le pont Le pont, il n'a pas intérêt d'jouer aux cons Non, non Libérez Djodji-Djodji, j'veux la vie de Zac Cody-Cody Hmm-hmm J'suis sur scène, tout l'monde m'applaudis, demain, j'suis au tieks assis sur un caddie-caddie Caddie Elle a mit un body-body, j'ai du mal à voir son booty, booty C'est Gambino, chouchou des mommy-mommy Hmm-hmm Who can test me ? Nobody-body Hi-hi Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce</t>
+          <t>BLN Hufel on the beat Uh-uh Pour la belle vie, j'vends la mort La mort mais y a que Dieu qu'on adore Jesus Remplit est le coffre-fort De thunes, le te-shi vient de Nador Hi-hi J'suis chrétien, j'mange du cochon mais toute l'année, je v'-esqui les porcs Les pu Mon gava, fait attention, pour du seill-o, j'peux cribler ton corps J'suis dans le street, j'ai pas gé-chan Gé-chan, j'suis juste entouré de méchants Méchants Celui qui vient jouer au con, j'lui fait les dents à Didir Deschamps Uh-uh J'suis avec Kirby toute la nuit, y a qu des putes dans la bre-cham À part GDR et B2, personne prend mes patins, c'est inquiétant Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Uh-uh L'assoc' m'appelle, il m'dit qu'y a six milles euros à prendre Et quand j'fais pas rentrer de papel, j'te jure qu'j'ai une envie de me pendre Hmm-hmm À chaque teaser, j'me dit qu'c'est l'bon C'est l'bon, le te-shi que j'fume, il me rend con Il me rend con Le guetteur est posté sur le pont Le pont, il n'a pas intérêt d'jouer aux cons Non, non Libérez Djodji-Djodji, j'veux la vie de Zac Cody-Cody Hmm-hmm J'suis sur scène, tout l'monde m'applaudis, demain, j'suis au tieks assis sur un caddie-caddie Caddie Elle a mit un body-body, j'ai du mal à voir son booty, booty C'est Gambino, chouchou des mommy-mommy Hmm-hmm Who can test me ? Nobody-body Hi-hi Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'mange de la musique il était temps j'suis dans le trafic depuis longtemps J'aurais pu bé-tom à tout moment J'restais sur mes gardes quand j'sortais de la ville J'volais les brises glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux de la résine On visser tout le monde même les femmes enceintes J'suis avec Ju sé-po à la pente J'ai mit les gants donc j'laisse aucune empreinte Si tu veux m'avoir faut passer par la science Le compte est rempli mais j'fais toujours la pince J'lai baisé toute la nuit mais j'ai pas craché J'prends même plus de plaisir à baiser des timps Quand j'bossais j'me faisais cramer par mes tantes Canon sur la tempe si tu portes plainte J'te refais le portrait mais j'suis pas un peintre Sur le rrain-té j'fais des passes et des feintes J'suis bien entouré donc j'ai aucune crainte je peux pas me plaindre Je tourne dans la ville le bosseur m'appelle pour ravitailleYou might also like</t>
+          <t>J'mange de la musique il était temps j'suis dans le trafic depuis longtemps J'aurais pu bé-tom à tout moment J'restais sur mes gardes quand j'sortais de la ville J'volais les brises glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux de la résine On visser tout le monde même les femmes enceintes J'suis avec Ju sé-po à la pente J'ai mit les gants donc j'laisse aucune empreinte Si tu veux m'avoir faut passer par la science Le compte est rempli mais j'fais toujours la pince J'lai baisé toute la nuit mais j'ai pas craché J'prends même plus de plaisir à baiser des timps Quand j'bossais j'me faisais cramer par mes tantes Canon sur la tempe si tu portes plainte J'te refais le portrait mais j'suis pas un peintre Sur le rrain-té j'fais des passes et des feintes J'suis bien entouré donc j'ai aucune crainte je peux pas me plaindre Je tourne dans la ville le bosseur m'appelle pour ravitaille</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>On fait parti des plus détestés surtout par les villes d'a côté On s'en bat les couilles on fait du blé en cas de pépin y'a la B7G Le prix du 100G a augmenté Qu'ce soit du doré ou du soké Solide est la mentalité car j'ai très bien été éduqué La j'suis avec Nova je gigote mes pieds dans les rues d'Edmonton Toi ta fan-base elle est trop conne On sait que ta jamais vendu des tonnes Elle veut du sérieux elle est trop conne Moi j'suis comme Kirby j'veux que ds folles Ça vient du 9.1.9.4.0 les Ulis capital d'la vente de drogue yiih, yiih Paris, London on est connecté, le terrain tourne parce qu'il est alimenté T'es pire qu'une feumeu qui fait que jacter Y'a de la frappe qui revient d'Alicante Ici tout est bresom igo c'est normal hmmm Sous la puche-ca j'ai les yeux cernés Tout ceux qui doivent des sous crois moi qui dorment mal Le business est carré et le cercle est fermé Parle pas d'la rue si ta pointer qu'une fois ou 2 Les pédales font les fous sa m'donne des idées Tu mérites pas la dote t'a un passé douteux Ma tête va surchauffer à force de méditer C'est pour le papier qu'on prend des risques Tu veux t'faire allumer sur la terrasse J'veux la même fortune que Thomas Burberry Si tu rapportes 0 de toi j'me débarrasseYou might also like</t>
+          <t>On fait parti des plus détestés surtout par les villes d'a côté On s'en bat les couilles on fait du blé en cas de pépin y'a la B7G Le prix du 100G a augmenté Qu'ce soit du doré ou du soké Solide est la mentalité car j'ai très bien été éduqué La j'suis avec Nova je gigote mes pieds dans les rues d'Edmonton Toi ta fan-base elle est trop conne On sait que ta jamais vendu des tonnes Elle veut du sérieux elle est trop conne Moi j'suis comme Kirby j'veux que ds folles Ça vient du 9.1.9.4.0 les Ulis capital d'la vente de drogue yiih, yiih Paris, London on est connecté, le terrain tourne parce qu'il est alimenté T'es pire qu'une feumeu qui fait que jacter Y'a de la frappe qui revient d'Alicante Ici tout est bresom igo c'est normal hmmm Sous la puche-ca j'ai les yeux cernés Tout ceux qui doivent des sous crois moi qui dorment mal Le business est carré et le cercle est fermé Parle pas d'la rue si ta pointer qu'une fois ou 2 Les pédales font les fous sa m'donne des idées Tu mérites pas la dote t'a un passé douteux Ma tête va surchauffer à force de méditer C'est pour le papier qu'on prend des risques Tu veux t'faire allumer sur la terrasse J'veux la même fortune que Thomas Burberry Si tu rapportes 0 de toi j'me débarrasse</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J'suis dans la rue, sa mère Rue, sa mère Hum-hum-hum, ih-ih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mèr, dans le caleçon, la moula est calé Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes Et le bitume, comme casse-pipe, les keufs sont chauds, c'est casse-tête Tous les jours, j'vends la frappe et j'fais partir des cassettes Visser dans le bendo, fais la guerre dans le bendo, c'est pas un jeu Prêt à sortir l'Extendo, si tu joue le Rondo, si t'es trop costaud On baisse pas les yeux, gros, j'ai pas les mots, j'entends des balivernes Odeur de White Widow, fais l'boulot ou baise tes morts J'enfile mon banda' quand j'pars en mission, je mets les gants J'consume mon bédo, gros, c'est moi B2, j'suis élégant You might also like Mon gars, fais doucement, j'aime pas comment tu parles, v'-esqui les bacqueux et la municipale C'est toutes des putes, j'veux pas leur ressembler, tant que l'argent rentre, pour moi, c'est l'principale On vient du ghetto, on veut notre part du gâteau, c'est évident À fond dans l'vaisseau, j'ai quitter le berceau, j'suis dans l'bâtiment J'suis dans la zone, sa mère, quatre-vingt onze, les Uliss, zone à risque Yih-yih Que la frappe qu'on visser, j'suis dans le bât', j'ai pas la vie d'artiste J'suis dans l'blocko Blocko, survêtement croco' Croco', j'suis dans les temps J'suis avec ma pine-co Pine-co, j'la ramène au tel-hô, c'est pas pour gue-lan Yih-yih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la tess, sa mère, j'suis dans les grosses affaires, pour mettre à l'abri ma mère Sur ma mère, j'vais les faire taire, gros, j'les enterres, oh ouais Et même nous, on a les armes, au cas-où c'est la guerre, pour tous les enterrer Sur ma mère, j'vais les faire taire, gros, j'les enterres Ton équipe, elle fait que de nous té-ma et ne joue pas la mafia ou on t'démarre Et en c'moment, les keufs font le ménage, six heures pile, ils ont bloqué le quartier J'suis avec mes sins-cou et fais belek car si t'en touches un, négro, on va t'masser Yih-yih J'vends du doré et du soké mais quelques fois, j'ai des clients d'C J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes</t>
+          <t>J'suis dans la rue, sa mère Rue, sa mère Hum-hum-hum, ih-ih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mèr, dans le caleçon, la moula est calé Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes Et le bitume, comme casse-pipe, les keufs sont chauds, c'est casse-tête Tous les jours, j'vends la frappe et j'fais partir des cassettes Visser dans le bendo, fais la guerre dans le bendo, c'est pas un jeu Prêt à sortir l'Extendo, si tu joue le Rondo, si t'es trop costaud On baisse pas les yeux, gros, j'ai pas les mots, j'entends des balivernes Odeur de White Widow, fais l'boulot ou baise tes morts J'enfile mon banda' quand j'pars en mission, je mets les gants J'consume mon bédo, gros, c'est moi B2, j'suis élégant Mon gars, fais doucement, j'aime pas comment tu parles, v'-esqui les bacqueux et la municipale C'est toutes des putes, j'veux pas leur ressembler, tant que l'argent rentre, pour moi, c'est l'principale On vient du ghetto, on veut notre part du gâteau, c'est évident À fond dans l'vaisseau, j'ai quitter le berceau, j'suis dans l'bâtiment J'suis dans la zone, sa mère, quatre-vingt onze, les Uliss, zone à risque Yih-yih Que la frappe qu'on visser, j'suis dans le bât', j'ai pas la vie d'artiste J'suis dans l'blocko Blocko, survêtement croco' Croco', j'suis dans les temps J'suis avec ma pine-co Pine-co, j'la ramène au tel-hô, c'est pas pour gue-lan Yih-yih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la tess, sa mère, j'suis dans les grosses affaires, pour mettre à l'abri ma mère Sur ma mère, j'vais les faire taire, gros, j'les enterres, oh ouais Et même nous, on a les armes, au cas-où c'est la guerre, pour tous les enterrer Sur ma mère, j'vais les faire taire, gros, j'les enterres Ton équipe, elle fait que de nous té-ma et ne joue pas la mafia ou on t'démarre Et en c'moment, les keufs font le ménage, six heures pile, ils ont bloqué le quartier J'suis avec mes sins-cou et fais belek car si t'en touches un, négro, on va t'masser Yih-yih J'vends du doré et du soké mais quelques fois, j'ai des clients d'C J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Eh, c'est quoi l'boulot ? J'suis dans la surface comme mon gars Dedinho Débrouillard comme le p'tit N.O.C Reste à l'affût, hendek y'a les gyros Sé-po avec Isma ça compte le liquide Défenseur du tier-quar comme Anas et Abdou Raconte pas tes bobards, on t'croit pas ici Comme Zizou sur un coup d'tête ça monte au charbon Mélange pas c'qu'il faut pas T'as pris KO ? Bah c'est Jobar À la Pogba, j'mets des top buts Zaïrois donc léopard Casse ta mère t'as pas les reins Ma chérie ce soir j'vais t'les casser C'est d'la frappe donc fais le M Comme Martial ou comme MG Ulissiens comme Anthony On veut être connu de Paname à Manchester Passement de jambes ça va trop vite Devant les gardiens rares sont les erreurs Enroulé, petit filet ou lucarne Tu sais qu'on attrape le taureau par les cornes Entre la concu' et nous y'a un écart Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony Snapchat en leuleu devant la télé-lé Elle mérite pas l'tel-hô, que j'dépense Des tas de billets c'est c'qu'on veut-veut Mais faut éviter-ter case prison, les condés et l'tribunal You might also like J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Sur le terrain on est attaquant C'est mort pour toi si tu goales On manie la mélo', on manie le flow Comme Anthony j'la mets offensif si tu m'donnes Et tchek de l'épaule si t'es un négro du tieks tieks Fais ton argent, ne les calcule pas La mala, la hagra, ça ne paie pas pas, pas, pas, pas Titulaire sur le terrain Demande à Zaki, on a trop tourné On a frappé toutes sortes de balle Toutes sortes de bougs, toutes sortes de 'tasses Midi-minuit dans le bloc bloc Midi-minuit dans le bloc bloc J'tape une gestu' pour les négros du gang Pas pour ceux qui donnent le corps J't'l'ai d'jà dit y'a d'la frappe dans le binks Donc si tu veux passe, t'inquiète nous on est peace L'inspi' elle vient on n'a pas besoin d'bédave On dit c'qu'on vit, on n'a pas besoin d'pénave Si t'es pas des U, igo t'es un intrus Tout comme Martial on efface la concu', eh Tout comme Martial on efface la concu' J't'avertis là c'est parti La MG 2K18 dans la partie On vient tout niquer, on est r'parti Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Brazo, La MG c'est bon déjà Toi tu fais l'ancien et t'es qui déjà ? On est reconnu pour faire des dégâts Sur l'terrain des passeurs, et ceux qui détaillent Ta tête la balle aux 6 mètres je dégage Toujours offensif, je contrôle, je décale Je cavale, j'ai du souffle pour éviter la flicaille Y'a mon gars Krims dans la surface La mettre au fond faut qu'il fasse Parle pas sur nous, viens en face Ou bien t'as peur qu'on t'fasse Ou bien t'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse Gambi-Gambino Faut qu'je rentabilise donc il faut qu'je perce Pour faire des sous j'ai tenu l'sac Aujourd'hui c'est moi qui l'ramène C'est moi qui fait les comptes, c'est moi qui détaille Y'a du te-shi couleur abeille Si tu veux pécho rentre dans le bât' On veut plus de biff que la veille Quand j'avais pas un rond j'arrachais des sacs Tous les jours avec les mêmes négros Tu vends pas de C espèce de mytho Tout le monde snap à la Mélanie da Cruz Et sur scène je fous le feu au micro Et sur scène je fous le feu au micro Fais l'fou dans ma ville j'envoie les microbes Sur l'terrain y'a la frappe de Martial Antho' J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony</t>
+          <t>Eh, c'est quoi l'boulot ? J'suis dans la surface comme mon gars Dedinho Débrouillard comme le p'tit N.O.C Reste à l'affût, hendek y'a les gyros Sé-po avec Isma ça compte le liquide Défenseur du tier-quar comme Anas et Abdou Raconte pas tes bobards, on t'croit pas ici Comme Zizou sur un coup d'tête ça monte au charbon Mélange pas c'qu'il faut pas T'as pris KO ? Bah c'est Jobar À la Pogba, j'mets des top buts Zaïrois donc léopard Casse ta mère t'as pas les reins Ma chérie ce soir j'vais t'les casser C'est d'la frappe donc fais le M Comme Martial ou comme MG Ulissiens comme Anthony On veut être connu de Paname à Manchester Passement de jambes ça va trop vite Devant les gardiens rares sont les erreurs Enroulé, petit filet ou lucarne Tu sais qu'on attrape le taureau par les cornes Entre la concu' et nous y'a un écart Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony Snapchat en leuleu devant la télé-lé Elle mérite pas l'tel-hô, que j'dépense Des tas de billets c'est c'qu'on veut-veut Mais faut éviter-ter case prison, les condés et l'tribunal J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Sur le terrain on est attaquant C'est mort pour toi si tu goales On manie la mélo', on manie le flow Comme Anthony j'la mets offensif si tu m'donnes Et tchek de l'épaule si t'es un négro du tieks tieks Fais ton argent, ne les calcule pas La mala, la hagra, ça ne paie pas pas, pas, pas, pas Titulaire sur le terrain Demande à Zaki, on a trop tourné On a frappé toutes sortes de balle Toutes sortes de bougs, toutes sortes de 'tasses Midi-minuit dans le bloc bloc Midi-minuit dans le bloc bloc J'tape une gestu' pour les négros du gang Pas pour ceux qui donnent le corps J't'l'ai d'jà dit y'a d'la frappe dans le binks Donc si tu veux passe, t'inquiète nous on est peace L'inspi' elle vient on n'a pas besoin d'bédave On dit c'qu'on vit, on n'a pas besoin d'pénave Si t'es pas des U, igo t'es un intrus Tout comme Martial on efface la concu', eh Tout comme Martial on efface la concu' J't'avertis là c'est parti La MG 2K18 dans la partie On vient tout niquer, on est r'parti Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Brazo, La MG c'est bon déjà Toi tu fais l'ancien et t'es qui déjà ? On est reconnu pour faire des dégâts Sur l'terrain des passeurs, et ceux qui détaillent Ta tête la balle aux 6 mètres je dégage Toujours offensif, je contrôle, je décale Je cavale, j'ai du souffle pour éviter la flicaille Y'a mon gars Krims dans la surface La mettre au fond faut qu'il fasse Parle pas sur nous, viens en face Ou bien t'as peur qu'on t'fasse Ou bien t'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse Gambi-Gambino Faut qu'je rentabilise donc il faut qu'je perce Pour faire des sous j'ai tenu l'sac Aujourd'hui c'est moi qui l'ramène C'est moi qui fait les comptes, c'est moi qui détaille Y'a du te-shi couleur abeille Si tu veux pécho rentre dans le bât' On veut plus de biff que la veille Quand j'avais pas un rond j'arrachais des sacs Tous les jours avec les mêmes négros Tu vends pas de C espèce de mytho Tout le monde snap à la Mélanie da Cruz Et sur scène je fous le feu au micro Et sur scène je fous le feu au micro Fais l'fou dans ma ville j'envoie les microbes Sur l'terrain y'a la frappe de Martial Antho' J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Avant d'faire j'analyse, j'suis dans l'binks j'gère le bizz J'ai le flaire pour les flouses, sous pillave je dérive Le p-ra je maitrise, le buzz grimpe j'réalise J'connais tout le monde dans la ville, je sais à qui prendre les Pour faire du sale on me , pour faire des sous j'ai la solution Faire d'la musique c'est ma seule issue, j'ai échappé belle à la commission Que des va et vient dans l'escalier les voisins ont même fait une pétition Mais bon tout les jours c'est le même récit les clients défilent en répétition Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuh You might also like De janvier à décembre décembre, les différents postes sont répartis partis Et si tu dois des sommes j'serais posé chaque soir dans ton parking parking J'suis posé dans la gari yiih yiih j'fume la frappe du Garage Coffee J'viens d'signer chez Sony En fait j'en revendrai juste un peu un peu, histoire de vesqui les impôts impôts Si y'a les condés sauve qui peut c'est pas le moment de finir en mandat de dépôt J'vends la dur au riche et la douce au pauvre ok Pour des billets mauves pour des billets mauves, négro on t'arrose. négro on t'arrose Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuuh</t>
+          <t>Avant d'faire j'analyse, j'suis dans l'binks j'gère le bizz J'ai le flaire pour les flouses, sous pillave je dérive Le p-ra je maitrise, le buzz grimpe j'réalise J'connais tout le monde dans la ville, je sais à qui prendre les Pour faire du sale on me , pour faire des sous j'ai la solution Faire d'la musique c'est ma seule issue, j'ai échappé belle à la commission Que des va et vient dans l'escalier les voisins ont même fait une pétition Mais bon tout les jours c'est le même récit les clients défilent en répétition Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuh De janvier à décembre décembre, les différents postes sont répartis partis Et si tu dois des sommes j'serais posé chaque soir dans ton parking parking J'suis posé dans la gari yiih yiih j'fume la frappe du Garage Coffee J'viens d'signer chez Sony En fait j'en revendrai juste un peu un peu, histoire de vesqui les impôts impôts Si y'a les condés sauve qui peut c'est pas le moment de finir en mandat de dépôt J'vends la dur au riche et la douce au pauvre ok Pour des billets mauves pour des billets mauves, négro on t'arrose. négro on t'arrose Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuuh</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ah-ah Mmh-mmh Ay J1, that's flames, my bro Whey, whey, whey Eh-eh Ceux qui sont méchants, c'est qu'ils font semblant d'être méchants Mmh-mmh Louis made it Ils nous connaissent même pas, ces bâtards, ils parlent trop Okay Uh-uh Mmh-mmh Brr CNLM, no cap, CNLM, no cap Yih-yih Okay Mmh-mmh CNLM, no cap, CNLM, no cap Chaud, chaud, chaud, chaud Mmh-mmh Kodes La Barrière, Kodes La Barrière, Kodes La Barrière Hey, hey, hey, brr Uh-uh J'arrive les bras ballants Hey, j'le pète au milieu du salon Hey, hey J'les vois qu'ils s'allongent Han depuis qu'on a prit du galon Hey, hey, hey J'connais la zone, j'ai tourné comme un ballon Han-han, j'suis dans la street, j'vais pas t'acheter tes talons Han, why Le travail paye plus que l talent Whey, il va falloir montrer c'que nous valons Ouh, okay J'les croisais déjà, eux, c'est des groupies, tu vois pas l'visage Han-han, on a l'air groupé Han-han C'est nous les méchants Brr, eux, c'est des pookies Han-han, on va les faire goûter Brr, brr si tu veux goûter Han-han Ouh, holà, d'puis qu'j'ai du buzz, elle est collante Eh Faut faire doucement sur la relance Whey, quatre-vingt onze, c'est la violence Whey, whey You might also like C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh J'suis pompette, j'me roule un pét' Pét', j'suis au sept, avec des-Ko Pal Des-Ko Pal Tu tires une barre, t'es tout pâle T'es tout pâle, tu bouges plus comme si t'avais l'palu' Palu' J'étais au trou, faut qu'j'demande un parlu Parlu, les condés, chez moi, sont pas venus Ils ont pété les armes chez Chino, putain, surtout qu'y avait mes paluches Yih-yih J'étais sous l'porche, les p'tits me voyaient Voyaient, matrixé, j'faisais le voyou J'peux pas ronfler, j'dois payer l'loyer Mmh-mmh, comme mon daron, toujours au caillou Pas b'soin d'être trop fort, j'suis trop beau, d'mande à Kirby, c'est comment les go Mmh-mmh On les wipe toutes, même celles qui ont des gars Whey, whey alors qu'ils ont mes sons dans l'bigo Mmh-mmh C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh Louis Made iT</t>
+          <t>Ah-ah Mmh-mmh Ay J1, that's flames, my bro Whey, whey, whey Eh-eh Ceux qui sont méchants, c'est qu'ils font semblant d'être méchants Mmh-mmh Louis made it Ils nous connaissent même pas, ces bâtards, ils parlent trop Okay Uh-uh Mmh-mmh Brr CNLM, no cap, CNLM, no cap Yih-yih Okay Mmh-mmh CNLM, no cap, CNLM, no cap Chaud, chaud, chaud, chaud Mmh-mmh Kodes La Barrière, Kodes La Barrière, Kodes La Barrière Hey, hey, hey, brr Uh-uh J'arrive les bras ballants Hey, j'le pète au milieu du salon Hey, hey J'les vois qu'ils s'allongent Han depuis qu'on a prit du galon Hey, hey, hey J'connais la zone, j'ai tourné comme un ballon Han-han, j'suis dans la street, j'vais pas t'acheter tes talons Han, why Le travail paye plus que l talent Whey, il va falloir montrer c'que nous valons Ouh, okay J'les croisais déjà, eux, c'est des groupies, tu vois pas l'visage Han-han, on a l'air groupé Han-han C'est nous les méchants Brr, eux, c'est des pookies Han-han, on va les faire goûter Brr, brr si tu veux goûter Han-han Ouh, holà, d'puis qu'j'ai du buzz, elle est collante Eh Faut faire doucement sur la relance Whey, quatre-vingt onze, c'est la violence Whey, whey C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh J'suis pompette, j'me roule un pét' Pét', j'suis au sept, avec des-Ko Pal Des-Ko Pal Tu tires une barre, t'es tout pâle T'es tout pâle, tu bouges plus comme si t'avais l'palu' Palu' J'étais au trou, faut qu'j'demande un parlu Parlu, les condés, chez moi, sont pas venus Ils ont pété les armes chez Chino, putain, surtout qu'y avait mes paluches Yih-yih J'étais sous l'porche, les p'tits me voyaient Voyaient, matrixé, j'faisais le voyou J'peux pas ronfler, j'dois payer l'loyer Mmh-mmh, comme mon daron, toujours au caillou Pas b'soin d'être trop fort, j'suis trop beau, d'mande à Kirby, c'est comment les go Mmh-mmh On les wipe toutes, même celles qui ont des gars Whey, whey alors qu'ils ont mes sons dans l'bigo Mmh-mmh C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh Louis Made iT</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Uh-uh Uh À midi sur le hazi, pas eu l'temps d'prendre mon p'tit déj' Prendre mon p'tit déj' Les condés font l'tour d'la ville, ils ne'-tour comme un manège Comme un manège J'ai cogité toute la nuit, j'leur ai promis qu'j'allais finir au sommet Elle kiffe, elle remue son boule, elle kiffe, elle remue son boule Ma bella, fait tes valises, on part une semaine à Venise Et pétasse, fait la cuisine, pendant que je fais mes vocalises Depuis que j'recompte les kichtas, michto ne regarde plus la mocheté J'ai toujours pas réponse en mes questions, casse toi, baby, j'vais jamais t'accoster Ça fait déjà longtemps qu'on est maudit Ça fait déjà longtemps, tu nous connais À deux cents cinquante dans le Audi Longtemps qu'on fait d'la monnaie M'aimeras-tu autant quand j's'rai plus à la mode ? M'aimeras-tu autant ? M'aimeras-tu autant ? T'étais où quand j'détailler dans le taudis ? Dis-moi, t'étais où ? Dis-moi, t'étais où ? SHK SHK Okay Oui, oui Brr CNLM, no cap, CNLM, no cap CNLM, no cap Han Kodes La Barrière, Kodes La Barrière Oui, oui, oui, oui Chaud, chaud Brr, han You might also like Rien n'a changé sauf le prix du 100G Sauf le prix du 100G, j'me suis pas assagi Hey La bouteille et son gros cul s'agite Hey mais l'temps passe, il s'rait temps d'y songer Hey, hey, hey Les autres, c'est des jaloux, j'vendaient dehors, les mains gelé Shh, à onze heures, j'étais déjà là J'étais déjà là Il m'faut Rolex pour leur donner l'heure, comme d'habitude, c'est moi, j'ai le Okay J'suis dans la calle, j'recompte la kichta du showcase et je récupère en she-ca Je récupère en waye Ils savent déjà qu'on va les choqué, quand on arrive, ils sont chés-ca J'enlève pour chacun d'entre d'eux, j'te le dis d'entrée, même en jogging, faut pas rentré Tu connais mes chacals, chacals Chaud, mets-toi en retrait, j'ai la concu' dans un rétro Bye, bye, bye, bye Elle s'rappelle de moi, j'l'ai même pas regardé, si la beuh sent trop fort, j'pourrais pas la garder Hey, hey, hey Ma nouvelle kichta n'est pas bien accordée, j'fais d'la moula, y en a un plein qui sont pas ccord-d'a Bye, bye, bye, bye Charismatique, j'suis entouré d'ma team, on pourrait t'faire des trous et des hématomes Brr J'suis bourré d'malade, j'me suis fait la madame, la cocaïna revient tout droit d'Mada Y a du doré si tu veux fumar, tous les jours, j'suis bourré, j'suis comme Homer Ma vie a changé, je mange du homard, j'ai du Gucci, du Moncler dans mes inserts Yi-yih J'aime que les sous, j'ai pas trouvé l'âme sur Uh-uh, j'ai trop d'argent, elle va m'jeter un sort Uh-uh Baby me suce la bite dans l'ascenseur Uh-uh, le buzz évolue comme un escalator J'ai la coupe à Pucca Pucca, de-ze comme Fally Ipupa 'pupa Tu crois qu'tu peux nous la mettre ? T'es timbré, comme ceux qui fument le shit au ton-car, tocard Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM J'suis là que pour les dineros, toi, arrête ton numéro Y a que d'la moussos, j'ai assez d'gars pour chaque mytho Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM Uh-uh Uh-uh</t>
+          <t>Uh-uh Uh À midi sur le hazi, pas eu l'temps d'prendre mon p'tit déj' Prendre mon p'tit déj' Les condés font l'tour d'la ville, ils ne'-tour comme un manège Comme un manège J'ai cogité toute la nuit, j'leur ai promis qu'j'allais finir au sommet Elle kiffe, elle remue son boule, elle kiffe, elle remue son boule Ma bella, fait tes valises, on part une semaine à Venise Et pétasse, fait la cuisine, pendant que je fais mes vocalises Depuis que j'recompte les kichtas, michto ne regarde plus la mocheté J'ai toujours pas réponse en mes questions, casse toi, baby, j'vais jamais t'accoster Ça fait déjà longtemps qu'on est maudit Ça fait déjà longtemps, tu nous connais À deux cents cinquante dans le Audi Longtemps qu'on fait d'la monnaie M'aimeras-tu autant quand j's'rai plus à la mode ? M'aimeras-tu autant ? M'aimeras-tu autant ? T'étais où quand j'détailler dans le taudis ? Dis-moi, t'étais où ? Dis-moi, t'étais où ? SHK SHK Okay Oui, oui Brr CNLM, no cap, CNLM, no cap CNLM, no cap Han Kodes La Barrière, Kodes La Barrière Oui, oui, oui, oui Chaud, chaud Brr, han Rien n'a changé sauf le prix du 100G Sauf le prix du 100G, j'me suis pas assagi Hey La bouteille et son gros cul s'agite Hey mais l'temps passe, il s'rait temps d'y songer Hey, hey, hey Les autres, c'est des jaloux, j'vendaient dehors, les mains gelé Shh, à onze heures, j'étais déjà là J'étais déjà là Il m'faut Rolex pour leur donner l'heure, comme d'habitude, c'est moi, j'ai le Okay J'suis dans la calle, j'recompte la kichta du showcase et je récupère en she-ca Je récupère en waye Ils savent déjà qu'on va les choqué, quand on arrive, ils sont chés-ca J'enlève pour chacun d'entre d'eux, j'te le dis d'entrée, même en jogging, faut pas rentré Tu connais mes chacals, chacals Chaud, mets-toi en retrait, j'ai la concu' dans un rétro Bye, bye, bye, bye Elle s'rappelle de moi, j'l'ai même pas regardé, si la beuh sent trop fort, j'pourrais pas la garder Hey, hey, hey Ma nouvelle kichta n'est pas bien accordée, j'fais d'la moula, y en a un plein qui sont pas ccord-d'a Bye, bye, bye, bye Charismatique, j'suis entouré d'ma team, on pourrait t'faire des trous et des hématomes Brr J'suis bourré d'malade, j'me suis fait la madame, la cocaïna revient tout droit d'Mada Y a du doré si tu veux fumar, tous les jours, j'suis bourré, j'suis comme Homer Ma vie a changé, je mange du homard, j'ai du Gucci, du Moncler dans mes inserts Yi-yih J'aime que les sous, j'ai pas trouvé l'âme sur Uh-uh, j'ai trop d'argent, elle va m'jeter un sort Uh-uh Baby me suce la bite dans l'ascenseur Uh-uh, le buzz évolue comme un escalator J'ai la coupe à Pucca Pucca, de-ze comme Fally Ipupa 'pupa Tu crois qu'tu peux nous la mettre ? T'es timbré, comme ceux qui fument le shit au ton-car, tocard Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM J'suis là que pour les dineros, toi, arrête ton numéro Y a que d'la moussos, j'ai assez d'gars pour chaque mytho Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM Uh-uh Uh-uh</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J'viens du côté du 91 réputé pour la vente de guedro Entouré de files de baptou donc logiquement y'a que des potos Que des potos en moins de 24 heures ça liquide que des kilos J'suis dans l'auto avec l'Ojozo y'a GD sur la moto J'arrondi mes fins de mois au pilon mais des fois j'ai des clients de zipette Y'a que du nau-je y'a pas de marron Rondo et Boseil dans la tchoupette Et j'ai du doré planqué sous mon cul On connait la rue tu crois la faire à qui Il parle dans mon dos pour salir ma répu Mais en face ils sont bons qu'à sucr ma bite J'suis dans le fond du binks le gérant fait ls comptes J'ai fais que du benef il s'en est même pas rendu compte Déterminé depuis le collège j'suis dans tout les charbons J'ai l'pétard gros pas besoin de faire de pompes Le keus est planqué au cas où y'aurait les condés Y'a que d'la qualité en plus de quantité Tout le monde est posté bosseur, guetteur Midi minuit dans l'binks J'ai ma conso Midi minuit dans l'binks Mes clopes, mes feuilles Midi minuit dans l'binks Faut faire des sous Midi minuit dans l'binks Les condés tournent Midi minuit dans l'binksYou might also like</t>
+          <t>J'viens du côté du 91 réputé pour la vente de guedro Entouré de files de baptou donc logiquement y'a que des potos Que des potos en moins de 24 heures ça liquide que des kilos J'suis dans l'auto avec l'Ojozo y'a GD sur la moto J'arrondi mes fins de mois au pilon mais des fois j'ai des clients de zipette Y'a que du nau-je y'a pas de marron Rondo et Boseil dans la tchoupette Et j'ai du doré planqué sous mon cul On connait la rue tu crois la faire à qui Il parle dans mon dos pour salir ma répu Mais en face ils sont bons qu'à sucr ma bite J'suis dans le fond du binks le gérant fait ls comptes J'ai fais que du benef il s'en est même pas rendu compte Déterminé depuis le collège j'suis dans tout les charbons J'ai l'pétard gros pas besoin de faire de pompes Le keus est planqué au cas où y'aurait les condés Y'a que d'la qualité en plus de quantité Tout le monde est posté bosseur, guetteur Midi minuit dans l'binks J'ai ma conso Midi minuit dans l'binks Mes clopes, mes feuilles Midi minuit dans l'binks Faut faire des sous Midi minuit dans l'binks Les condés tournent Midi minuit dans l'binks</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Elle a pas de boul donc je l'as mets sur le tec Y'a pépin, j'ai l'pe-pom, gros y'a pas besoin de pec On fout l'feu au club, ce soir on fait la bringue Fais le fou, je t'éclate une bouteille sur la tête Y'a d'la haine dans mes textes beaucoup d'négros m'ont déçus Y'a le glock sur la table ta reu-seu est en dessous Elle mettait des vues, aujourd'hui j'lui mets dans l'cul J'pense aux gars des U qui sont toujours sous écrous J'en place là-bas comme Lotchi Louis Vuitton, Kenzo et Gucci La mala sans faire exprès comme Isma Sur la ble-ta, y'a l'salaire à ta tantine La teille fais la taille de la teub à ton tonton Fais belek ce soir, j'repars avec ta copine Tu cherches la merde, j't'allume chez ton daron Et j'prends ta reu-seu en leu-leu dans la cuisine J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné J'fais des passes d, j'suis attaquant Pas défenseur, j'vends d'la pasta Pas des pastèques, et quand y'a pépin, tu deviens pasteur De temps en temps, j'suis sur l'rainté J'cache le détail, dans l'ascenseur Fais attention, j'vais t'allumer Si tu t'approches sur un peu trop de mes p'tites surs D'la moula à gogo, je te rassures Ils ont pas d'oseille, c'est des grands bluffeurs Moi j'fais mes sous, j'fais mes études À mes heures perdues, je deviens rappeur Les têtes de ta cité m'en veulent Et les ti-peu d'chez toi m'envient À trop faire le fou tu peux finir seul Et un plus fou que toi t'enlèvera la vie You might also like J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné</t>
+          <t>Elle a pas de boul donc je l'as mets sur le tec Y'a pépin, j'ai l'pe-pom, gros y'a pas besoin de pec On fout l'feu au club, ce soir on fait la bringue Fais le fou, je t'éclate une bouteille sur la tête Y'a d'la haine dans mes textes beaucoup d'négros m'ont déçus Y'a le glock sur la table ta reu-seu est en dessous Elle mettait des vues, aujourd'hui j'lui mets dans l'cul J'pense aux gars des U qui sont toujours sous écrous J'en place là-bas comme Lotchi Louis Vuitton, Kenzo et Gucci La mala sans faire exprès comme Isma Sur la ble-ta, y'a l'salaire à ta tantine La teille fais la taille de la teub à ton tonton Fais belek ce soir, j'repars avec ta copine Tu cherches la merde, j't'allume chez ton daron Et j'prends ta reu-seu en leu-leu dans la cuisine J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné J'fais des passes d, j'suis attaquant Pas défenseur, j'vends d'la pasta Pas des pastèques, et quand y'a pépin, tu deviens pasteur De temps en temps, j'suis sur l'rainté J'cache le détail, dans l'ascenseur Fais attention, j'vais t'allumer Si tu t'approches sur un peu trop de mes p'tites surs D'la moula à gogo, je te rassures Ils ont pas d'oseille, c'est des grands bluffeurs Moi j'fais mes sous, j'fais mes études À mes heures perdues, je deviens rappeur Les têtes de ta cité m'en veulent Et les ti-peu d'chez toi m'envient À trop faire le fou tu peux finir seul Et un plus fou que toi t'enlèvera la vie J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mmh-mmh Piou-piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah-yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Les condés enchaînent les bavures Bavures, ils veulent nous en faire baver Baver Si tu t'fais choper, sois pas bavard Bavard, il faudra juste payer le baveux Hi, hi Moi, j'faisais pas souvent mes devoirs Devoirs, j'préférais revendre du re-ve Re-ve J'voulais faire des billets violets Violets, viens dans ma zone, on est violents Eh-eh On joue d'la guitare, du violon, l'argent rend beau, de base, j'suis vilain Mmh-mmh J'veux juste me rapprocher du million Mmh-mmh, être populaire, ça, j'l'ai pas voulu Hi-hi J'té-cla un gros pét' au volant Volant, souvent pisté par la flicaille Non, j'me prends pas pour un dit-ban mais les grands te slashent comme des samouraïs Eh-eh You might also like J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Hi-hi J'vendais la moula dans la Ciudad 'dad, j'suis dans la tchoupette aux gars J'coffee, j'me roule un pét' avec Dad Dad, j'ai trop fumé, je bad Je bad Tous les recoins d'la ville sont crades Sont crades, petit à petit, je monte en grade Mais il faut pas qu'je baisse ma garde Hi-hi, j'suis avec bandits, j'suis aux arcades Les tits-pe à la gare prennent tes AirPods, on m'dit Gambino, comment tu fais pour kicker sur n'importe quelle prod' ? J'fais la fête dans le cul d'ta folle D'ta folle Un peu de bédo, un peu d'alcool Mmh-mmh, si tu veux pé-cho, tu fais la file Mmh-mmh Deux par deux comme à l'école Mmh-mmh, eh-eh J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala J'vendais la moulalalala J'vendais la moulalalala</t>
+          <t>Mmh-mmh Piou-piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah-yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Les condés enchaînent les bavures Bavures, ils veulent nous en faire baver Baver Si tu t'fais choper, sois pas bavard Bavard, il faudra juste payer le baveux Hi, hi Moi, j'faisais pas souvent mes devoirs Devoirs, j'préférais revendre du re-ve Re-ve J'voulais faire des billets violets Violets, viens dans ma zone, on est violents Eh-eh On joue d'la guitare, du violon, l'argent rend beau, de base, j'suis vilain Mmh-mmh J'veux juste me rapprocher du million Mmh-mmh, être populaire, ça, j'l'ai pas voulu Hi-hi J'té-cla un gros pét' au volant Volant, souvent pisté par la flicaille Non, j'me prends pas pour un dit-ban mais les grands te slashent comme des samouraïs Eh-eh J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Hi-hi J'vendais la moula dans la Ciudad 'dad, j'suis dans la tchoupette aux gars J'coffee, j'me roule un pét' avec Dad Dad, j'ai trop fumé, je bad Je bad Tous les recoins d'la ville sont crades Sont crades, petit à petit, je monte en grade Mais il faut pas qu'je baisse ma garde Hi-hi, j'suis avec bandits, j'suis aux arcades Les tits-pe à la gare prennent tes AirPods, on m'dit Gambino, comment tu fais pour kicker sur n'importe quelle prod' ? J'fais la fête dans le cul d'ta folle D'ta folle Un peu de bédo, un peu d'alcool Mmh-mmh, si tu veux pé-cho, tu fais la file Mmh-mmh Deux par deux comme à l'école Mmh-mmh, eh-eh J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala J'vendais la moulalalala J'vendais la moulalalala</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Mmh-mmh J'prends tout même si tu m'payes en centimes, j'ai d'quoi t'faire planer dans mon jean C'que j'ressens, personne peut l'sentir, personne, même les mecs de ma team On court tous après les thunes, j'suis bon qu'à l'faire pour ceux qui veulent dormir Plus l'succès augmente, plus ça s'empire, j'dors plus la nuit comme vampire J'suis dans les bagayes depuis longtemps, j'ai jamais changé de camp Tout pour le plata, tout pour le gang, de la rue, j'suis un militant Ton Glock, tu comptes l'utiliser quand ? J'suis avec ta go, j'la mugu, pan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Oh J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt D'arrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt You might also like Les Ulis, c'est pas Disney Land Ça vient d'où ?, j'te l'répète depuis 2017 Yih-yih Ramène-moi une cassette, j'te la dissèque J'te la dissèque, à l'époque, t'en n'avais pas pour plus 2.5 Plus 2.5 Ceux qui viennent pper-cho mes sons dans leurs enceintes, occupe-toi bien du lot s'il va t'en ramener cinq Y a zéro concurrence depuis qu'Tiakola a parlé du coffee, il est passé à quinze J'passe un coup d'fil à Camélia Camélia, sa pote demande si Kirby est là Est là J'lui dis que Kirby est là Est là mais qu'on reste pas toute la nuit là-bas Nan, nan J'fais ton salaire en trois pubs Snap', tu comprends pourquoi j'ai grave des sapes Tu comprends pourquoi j'fais grave des Snap', tu comprends pourquoi je n'tiens plus l'sac Eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Drogue, monnaie, violence Violence, c'est mon quotidien Quotidien J'vais finir comme Fredo Santana Santana, je bois trop de lin Je bois trop de lin Si y a pas de Jolly Rancher Rancher, j'mets des Arlequins Harlequin J'volais partout où j'allais car j'viens du 9.1 Ouh-ouh Il a juste fait un vol portière Yih-yih, il nous parle de vol, de voiture Mmh-mmh Tu dois du djé, on te capture Mmh-mmh, tu vas tout cracher sous torture Mmh-mmh Et si tu veux t'faire la belle, j'envoie mon frère en filature Oh J'passe un traqueur dans ta voiture, imagine pas pouvoir t'enfuir Nan, nan, brr, brr J'aime trop le bédo, j'suis comme Homer et sa Duff Duff, Duff, brr Et jusqu'à mes dix-neuf, j'dépouillais toutes les teufs Teufs, teufs, gra-grah Ils m'contrôlent plus les keufs, sur moi, j'avais un neuf Neuf, neuf On vend la ppe-f', ppe-f', c'est pas du bluff, bluff Eh-eh Faut fidéliser la clientèle Clientèle et si mon bosseur veut m'la mettre, j'ai d'jà tout copié dans plusieurs tél' Plusieurs tél' Je les relance chaque fin d'semaine Fin d'semaine et ouais, gros, j'm'y connais dans c'domaine Dans l'game, j'fais partie d'ceux qui dominent Grah donc chaque matin, je dis Amen Gra-gra-grah J'suis dedans, j'ai capté l'truc Le truc, faut plus qu'je lâche le steak car il faut qu'je fasse croquer ma clique Ma clique Faut qu'je fasse gonfler ma cote Ma cote, tête de beau-gosse dans les clips Ah ouais ? mais si tu savais c'que j'ai en tête Ah ouais ? J'dois faire une passe d'un kil' Gra-gra-boum, eh-eh Comme Dougie B, j'danse le sturdy, j'm'en bats les couilles des schmitts J'dis tout dans mes textes comme Bobby, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous, les écoute pas, c'est des conneries Comme Dougie B, j'danse le sturdy Mmh-mmh, j'm'en bats les couilles des schmitts Mmh-mmh J'dis tout dans mes textes comme Bobby Mmh-mmh, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous Mmh-mmh, les écoute pas, c'est des conneries Mmh-mmh, gra-gra-boum</t>
+          <t>Mmh-mmh Mmh-mmh Mmh-mmh J'prends tout même si tu m'payes en centimes, j'ai d'quoi t'faire planer dans mon jean C'que j'ressens, personne peut l'sentir, personne, même les mecs de ma team On court tous après les thunes, j'suis bon qu'à l'faire pour ceux qui veulent dormir Plus l'succès augmente, plus ça s'empire, j'dors plus la nuit comme vampire J'suis dans les bagayes depuis longtemps, j'ai jamais changé de camp Tout pour le plata, tout pour le gang, de la rue, j'suis un militant Ton Glock, tu comptes l'utiliser quand ? J'suis avec ta go, j'la mugu, pan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Oh J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt D'arrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt Les Ulis, c'est pas Disney Land Ça vient d'où ?, j'te l'répète depuis 2017 Yih-yih Ramène-moi une cassette, j'te la dissèque J'te la dissèque, à l'époque, t'en n'avais pas pour plus 2.5 Plus 2.5 Ceux qui viennent pper-cho mes sons dans leurs enceintes, occupe-toi bien du lot s'il va t'en ramener cinq Y a zéro concurrence depuis qu'Tiakola a parlé du coffee, il est passé à quinze J'passe un coup d'fil à Camélia Camélia, sa pote demande si Kirby est là Est là J'lui dis que Kirby est là Est là mais qu'on reste pas toute la nuit là-bas Nan, nan J'fais ton salaire en trois pubs Snap', tu comprends pourquoi j'ai grave des sapes Tu comprends pourquoi j'fais grave des Snap', tu comprends pourquoi je n'tiens plus l'sac Eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Drogue, monnaie, violence Violence, c'est mon quotidien Quotidien J'vais finir comme Fredo Santana Santana, je bois trop de lin Je bois trop de lin Si y a pas de Jolly Rancher Rancher, j'mets des Arlequins Harlequin J'volais partout où j'allais car j'viens du 9.1 Ouh-ouh Il a juste fait un vol portière Yih-yih, il nous parle de vol, de voiture Mmh-mmh Tu dois du djé, on te capture Mmh-mmh, tu vas tout cracher sous torture Mmh-mmh Et si tu veux t'faire la belle, j'envoie mon frère en filature Oh J'passe un traqueur dans ta voiture, imagine pas pouvoir t'enfuir Nan, nan, brr, brr J'aime trop le bédo, j'suis comme Homer et sa Duff Duff, Duff, brr Et jusqu'à mes dix-neuf, j'dépouillais toutes les teufs Teufs, teufs, gra-grah Ils m'contrôlent plus les keufs, sur moi, j'avais un neuf Neuf, neuf On vend la ppe-f', ppe-f', c'est pas du bluff, bluff Eh-eh Faut fidéliser la clientèle Clientèle et si mon bosseur veut m'la mettre, j'ai d'jà tout copié dans plusieurs tél' Plusieurs tél' Je les relance chaque fin d'semaine Fin d'semaine et ouais, gros, j'm'y connais dans c'domaine Dans l'game, j'fais partie d'ceux qui dominent Grah donc chaque matin, je dis Amen Gra-gra-grah J'suis dedans, j'ai capté l'truc Le truc, faut plus qu'je lâche le steak car il faut qu'je fasse croquer ma clique Ma clique Faut qu'je fasse gonfler ma cote Ma cote, tête de beau-gosse dans les clips Ah ouais ? mais si tu savais c'que j'ai en tête Ah ouais ? J'dois faire une passe d'un kil' Gra-gra-boum, eh-eh Comme Dougie B, j'danse le sturdy, j'm'en bats les couilles des schmitts J'dis tout dans mes textes comme Bobby, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous, les écoute pas, c'est des conneries Comme Dougie B, j'danse le sturdy Mmh-mmh, j'm'en bats les couilles des schmitts Mmh-mmh J'dis tout dans mes textes comme Bobby Mmh-mmh, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous Mmh-mmh, les écoute pas, c'est des conneries Mmh-mmh, gra-gra-boum</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Xanxuss... Yihi J'découpe en tranche la baguette de pain pour récupérer du blé du blé J'viens du côté du 91 réputé pour la revente de doré, quand y a seille-o, on y va d'emblée d'emblée, d'emblée grrr pah La drill Fr on va la faire trembler, le rap-game ouvre un nouvel onglet Si tu me dois des sous, j'vais t'étrangler si tu me dois des sous j'vais t'étrangler Le buzz augmente comme le prix du 100g J'veux la fortune à Gold D. Roger mais les condés veulent nous faire plonger On gratte partout comme des rongeurs hmm hmm Faut des billets toutes les couleurs couleurs Co-comme les power rangers hmm hmm C'est-c'est moi j'ai l'brassard brassard, j'vous laisse les dossards dossards Zoulou et Brazo m'ont dit qu'on remplirait des concerts J'ai du mal à y croire, j'suis encore forcé à vi-ser vi-ser Depuis tit-peu on est des poissards poissards, pourquoi pas vendre la poussière yihi, euheeeu Avec Mano et Nail SmithWesson au niveau de la taille anhan Dans la caille j'suis fonce-dé sous weed Bécane en i comme dans la cité à Creed Posté quand il fait chaud et quand il caille On est dans tout les plans on a faim on veut graille Les illes-cou chargées comme Beyoncé J'sors la guitare pour les faire danser. uuuuh You might also like J'porte mes couilles depuis l'époque d'la marelle Depuis les ça vient d'où ? à Massy-Pal' J'reprenais la mi-temps en sortant de l'école J'ai ves-qui la nat' et la municipale Laisse moi terminer tout mes dièses hmm hmm Terminer tout mes bails Le temps c'est de l'argent faut que tu pèses Depuis p'tit matrixer par l'oseille J'suis au tel' avec Mac Ten au placard Il dit qu'ça m'écoute en promenade Quand j'arrive ses jambes elle écarte yihi Gambino fait pas d'accolade J'suis free j'ai trop picolé j'fume la beuh verte comme Piccolo Nan j'suis pas un serial killer j'ai juste liquidé des kilos Nan le cartel fait pas d'pause et le guetteur crie ça passe J'ai la pefra sur ma paume quand j'la fume j'suis dans l'espace Et le client veut sa dose ouais dans l'escalier il s'gratte nan Pas d'marron que du jaune oui j'la fume j'suis dans l'espace Dans l'bâtiment 0 stress no stress dans la bre-cham j'tire ses tresses yihi Elle pompe que ma bite pas mon espèce hmm hmm J'fume que d'la moula j'suis dans l'espace hmm hmm Me fait pas d'coup d'crasse sa part en coup d'cross J'roule un kamas une fois dans l'carrosse Trop compétent pour être dans la sauce uuuuh Et mes teasers tournent comme la puce Ils ont retiré le bracelet à Soum Faut charbonner pour pas finir au sol Pour faire des sous nous on passe par le sale Revente de brocolis, de sable et de sel Elle kiffe le négro à ce qu'il paraît j'suis stylé Pourtant j'suis pas plus épais qu'un stylo Oh la pute elle veut mon buzz ou mon blé Elle aura rien c'est balo</t>
+          <t>Xanxuss... Yihi J'découpe en tranche la baguette de pain pour récupérer du blé du blé J'viens du côté du 91 réputé pour la revente de doré, quand y a seille-o, on y va d'emblée d'emblée, d'emblée grrr pah La drill Fr on va la faire trembler, le rap-game ouvre un nouvel onglet Si tu me dois des sous, j'vais t'étrangler si tu me dois des sous j'vais t'étrangler Le buzz augmente comme le prix du 100g J'veux la fortune à Gold D. Roger mais les condés veulent nous faire plonger On gratte partout comme des rongeurs hmm hmm Faut des billets toutes les couleurs couleurs Co-comme les power rangers hmm hmm C'est-c'est moi j'ai l'brassard brassard, j'vous laisse les dossards dossards Zoulou et Brazo m'ont dit qu'on remplirait des concerts J'ai du mal à y croire, j'suis encore forcé à vi-ser vi-ser Depuis tit-peu on est des poissards poissards, pourquoi pas vendre la poussière yihi, euheeeu Avec Mano et Nail SmithWesson au niveau de la taille anhan Dans la caille j'suis fonce-dé sous weed Bécane en i comme dans la cité à Creed Posté quand il fait chaud et quand il caille On est dans tout les plans on a faim on veut graille Les illes-cou chargées comme Beyoncé J'sors la guitare pour les faire danser. uuuuh J'porte mes couilles depuis l'époque d'la marelle Depuis les ça vient d'où ? à Massy-Pal' J'reprenais la mi-temps en sortant de l'école J'ai ves-qui la nat' et la municipale Laisse moi terminer tout mes dièses hmm hmm Terminer tout mes bails Le temps c'est de l'argent faut que tu pèses Depuis p'tit matrixer par l'oseille J'suis au tel' avec Mac Ten au placard Il dit qu'ça m'écoute en promenade Quand j'arrive ses jambes elle écarte yihi Gambino fait pas d'accolade J'suis free j'ai trop picolé j'fume la beuh verte comme Piccolo Nan j'suis pas un serial killer j'ai juste liquidé des kilos Nan le cartel fait pas d'pause et le guetteur crie ça passe J'ai la pefra sur ma paume quand j'la fume j'suis dans l'espace Et le client veut sa dose ouais dans l'escalier il s'gratte nan Pas d'marron que du jaune oui j'la fume j'suis dans l'espace Dans l'bâtiment 0 stress no stress dans la bre-cham j'tire ses tresses yihi Elle pompe que ma bite pas mon espèce hmm hmm J'fume que d'la moula j'suis dans l'espace hmm hmm Me fait pas d'coup d'crasse sa part en coup d'cross J'roule un kamas une fois dans l'carrosse Trop compétent pour être dans la sauce uuuuh Et mes teasers tournent comme la puce Ils ont retiré le bracelet à Soum Faut charbonner pour pas finir au sol Pour faire des sous nous on passe par le sale Revente de brocolis, de sable et de sel Elle kiffe le négro à ce qu'il paraît j'suis stylé Pourtant j'suis pas plus épais qu'un stylo Oh la pute elle veut mon buzz ou mon blé Elle aura rien c'est balo</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Comme un boug qui s'fait qué-bra a J'peux pas baisser les bras a SI j'marie ta soeur y'aura pas de sang sur les draps a Moi baisé toi, lui, elle etc a Sur ta clique j'mise pas 1 franc CFA a J'suis sombre j'ai l'coeur couleur vitre teintée Quand le chat n'est pas la les souris volent sur le rrain-té J'veux du Prada, Christian Dior Dior si tu veux pas baiser dans la villa tu dors dehors Sur les semelles de mes loubous y'a des points noirs a force d'écraser ses cafards Tu m'as insulté quand j'vais niquer tes grands morts Tu vas dire que j'suis un hagar Mxique, Brésil j'déchire des fills sexy Eh p'tit débile j'débite j'évite les flics Technique précis j'écris des rimes terribles Trop d'appétit j'maitrise depuis petit J'ai fais un rêve yii yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh You might also like A la base j'suis pas mauvais j'ai eu mon bac et mon brevet J'vends le ne-jau et le rt-ve vient à Gaza si tu veux m'trouver Jm'enfui pas car j'suis bien entouré aqua j'ai du mal à respirer Faire du buzz c'est bien beau mais faut durer Si j'sors le pétard tu vas vibrer Plus d'inspi j'tire une barre sur le doré J'rentre chez toi masqué comme Obito Arrête de faire le narcotraficante on sait que t'a rien fais espèce de mytho Six du mat les condés font toc toc toc J'fais du p-ra pas du pop pop pop Paye moi ou tu finis comme Pop Smoke Trop d'clients le verraient en rupture de stock J'ai fais un rêve yiih yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh</t>
+          <t>Comme un boug qui s'fait qué-bra a J'peux pas baisser les bras a SI j'marie ta soeur y'aura pas de sang sur les draps a Moi baisé toi, lui, elle etc a Sur ta clique j'mise pas 1 franc CFA a J'suis sombre j'ai l'coeur couleur vitre teintée Quand le chat n'est pas la les souris volent sur le rrain-té J'veux du Prada, Christian Dior Dior si tu veux pas baiser dans la villa tu dors dehors Sur les semelles de mes loubous y'a des points noirs a force d'écraser ses cafards Tu m'as insulté quand j'vais niquer tes grands morts Tu vas dire que j'suis un hagar Mxique, Brésil j'déchire des fills sexy Eh p'tit débile j'débite j'évite les flics Technique précis j'écris des rimes terribles Trop d'appétit j'maitrise depuis petit J'ai fais un rêve yii yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh A la base j'suis pas mauvais j'ai eu mon bac et mon brevet J'vends le ne-jau et le rt-ve vient à Gaza si tu veux m'trouver Jm'enfui pas car j'suis bien entouré aqua j'ai du mal à respirer Faire du buzz c'est bien beau mais faut durer Si j'sors le pétard tu vas vibrer Plus d'inspi j'tire une barre sur le doré J'rentre chez toi masqué comme Obito Arrête de faire le narcotraficante on sait que t'a rien fais espèce de mytho Six du mat les condés font toc toc toc J'fais du p-ra pas du pop pop pop Paye moi ou tu finis comme Pop Smoke Trop d'clients le verraient en rupture de stock J'ai fais un rêve yiih yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Mmh-mmh Je suis dans la playlist de ta grande sur Grande sur Cétait un délire, ça prend d'lampleur D'lampleur On n'a fait des délits pour avoir du beurre Yih-hi On n'a connu lété gelé et la sueur La sueur Devant l'pe-pom, tu deviens pasteur Pasteur J'découpe, j'revends, j'fume la pasta Pasta Cest les cités, pourquoi tas peur ? Yih-hi Y a du sable bleu comme le sol dAlabasta J'traine avec des requins méchants comme Arlong Au comico', tout l'monde a perdu sa langue J'suis aux HP posé sur ma chaise Décathlon J'té-fri, jenroule, j'mets un coup de langue Yih-hi J'suis sur l'terrain, j'fais que des passements d'jambes J'fais un créneau, faut pas que je raye les jantes En c'moment, j'vois le vrai visage des gens, je vais couper les ponts et faire du 'gen' Rapide, efficace, quand cest pour le ness-bi, il faut pas trop faire, attendre les loss-bo Que des grosses folasses dans lAirbnb, j'vous mets tous R1, je taye avec bobo Rando et Posec sont dans la compo', tablette de ping-pong, glissé de sur yo Un peu de détail dans mon sac à dos J'faisais du bénef pour manger au McDo' Ok You might also like Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Huu-hu Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Yih-hi Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Arrêtez d'gratter des mesures dans vos textes, nous quand on écrit on remplit toute la feuille Toute la feuilles Cest pareil quand on roule des bédos Des bédos Qand on roule on remplit toute la feuille Toute la feuille Pour percer dans le rap faut trouver la faille Plaquette mais pas d'conso' dans ma fouille Bon il a rien trouver moi je taille, il sait pas qu'tout était bien calé dans mes couilles Couilles Je suis dans la cabine tout est noir Noir Les potos avant les meufs cest la loi Loi Jen aurai encore envie alléluia Alléluia Quand les keufs passent on leur fait que des doigts J'suis dans un gros fer, j'suis plus dans l'four Yih-hi Pour loseille on n'a le flair nous, on lèche pas de fouf' Tous les jours sous terre mais je suis vif Je suis dans les passes de plaquettes, je trouve pas de taff' Quelques fois je revends la zipette à des keush Jessaye d'faire ma marge par rapport au prix d'touche Par rapport au prix d'touche Pour aller faire le pu, j'disais à ma mère qu'jallais faire mes devoirs au clash Je suis dans la cité pour de vrai Eux cest la cité pour de faux Je suis dans la cité pour de vrai Eux cest la cité pour de faux Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Négro, insolent comme O-Dog O-Dog Insolent comme O-Dog On revendique le trafic de drogue De drogue Le trafic de drogue Négro, insolent comme O-Dog Yih-hi Négro, insolent comme O-Dog Yih-hi On revendique le trafic de drogue Négro, insolent comme O-Dog Eh-hee</t>
+          <t>Mmh-mmh Mmh-mmh Mmh-mmh Je suis dans la playlist de ta grande sur Grande sur Cétait un délire, ça prend d'lampleur D'lampleur On n'a fait des délits pour avoir du beurre Yih-hi On n'a connu lété gelé et la sueur La sueur Devant l'pe-pom, tu deviens pasteur Pasteur J'découpe, j'revends, j'fume la pasta Pasta Cest les cités, pourquoi tas peur ? Yih-hi Y a du sable bleu comme le sol dAlabasta J'traine avec des requins méchants comme Arlong Au comico', tout l'monde a perdu sa langue J'suis aux HP posé sur ma chaise Décathlon J'té-fri, jenroule, j'mets un coup de langue Yih-hi J'suis sur l'terrain, j'fais que des passements d'jambes J'fais un créneau, faut pas que je raye les jantes En c'moment, j'vois le vrai visage des gens, je vais couper les ponts et faire du 'gen' Rapide, efficace, quand cest pour le ness-bi, il faut pas trop faire, attendre les loss-bo Que des grosses folasses dans lAirbnb, j'vous mets tous R1, je taye avec bobo Rando et Posec sont dans la compo', tablette de ping-pong, glissé de sur yo Un peu de détail dans mon sac à dos J'faisais du bénef pour manger au McDo' Ok Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Huu-hu Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Yih-hi Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Arrêtez d'gratter des mesures dans vos textes, nous quand on écrit on remplit toute la feuille Toute la feuilles Cest pareil quand on roule des bédos Des bédos Qand on roule on remplit toute la feuille Toute la feuille Pour percer dans le rap faut trouver la faille Plaquette mais pas d'conso' dans ma fouille Bon il a rien trouver moi je taille, il sait pas qu'tout était bien calé dans mes couilles Couilles Je suis dans la cabine tout est noir Noir Les potos avant les meufs cest la loi Loi Jen aurai encore envie alléluia Alléluia Quand les keufs passent on leur fait que des doigts J'suis dans un gros fer, j'suis plus dans l'four Yih-hi Pour loseille on n'a le flair nous, on lèche pas de fouf' Tous les jours sous terre mais je suis vif Je suis dans les passes de plaquettes, je trouve pas de taff' Quelques fois je revends la zipette à des keush Jessaye d'faire ma marge par rapport au prix d'touche Par rapport au prix d'touche Pour aller faire le pu, j'disais à ma mère qu'jallais faire mes devoirs au clash Je suis dans la cité pour de vrai Eux cest la cité pour de faux Je suis dans la cité pour de vrai Eux cest la cité pour de faux Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Négro, insolent comme O-Dog O-Dog Insolent comme O-Dog On revendique le trafic de drogue De drogue Le trafic de drogue Négro, insolent comme O-Dog Yih-hi Négro, insolent comme O-Dog Yih-hi On revendique le trafic de drogue Négro, insolent comme O-Dog Eh-hee</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>On est dans le binks on fait le bénéf, on fait le pain les jaloux chenef On fait le cash express on consomme la somme importe peu, la cuenta n'effraie plus personne La petite aime quand le bolide fait vroum que le profil est louche que le CV est lourd Les petits ont des couilles, la petite a du gout, Chanel Gucci semelle rouge Le four tourne midi minuit non-stop, drogue store veni vidi block story Grosse douille les gosses tourne en I8, grosses couilles on règle tout avant minuit Tu les écoutes y a tout qui s'écroule, ils m'dégoutent respect aux vrais couz' comme Jul tes couilles faut tout j'découpe Chaud comme Sampaoli on a fait cent fois Holine, on vit des temps chaotiques beaucoup de cents pas hors line C'est le grand Classico bienvenue au hazi rho, on a c'qui faut Que du sale niveau pour les tchikita et les carlito Y a Stone Black Sheïr As Gambino La MG grosse frappe Ryad Mahrez on pilote l'AMG Aketo Naps Aladin Kalsh l'Afro couplet tar sahr à la fin tu tires l'chapeau Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je traverse le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant Les affaires vont pas trop mal, j'dois recompter la moula Grosse comme la Taj Maal j'sais pas quoi faire Cambrée comme la bécane la petite veut le Macan Les DM sur Instagram j'sais pas quoi faire You might also like On se connait on se comprend, mon collègue mon sang du Nord vient la puissance carré rouge flip ça fait nuit blanche Petite chaise pliante petite cliente t'as fait le browhing et la petite frange Sur la XXX on me confond avec le Naps, la rue c'est sombre on danse avec le diable Et l'état pour la vendetta, j'fais les tasses pour la grande mi-fa Kiffe-nous le zin fais caler le joint, tu m'vois dans la joie mais la street c'est la jungle Merci le J mc's j'suis pas à jeun merci le bon Dieu je sais que j'suis pas à plaindre Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'ai soti le berrta je sais pas si tu comprends, c'est l'époque carré rouge l'époque tar l'Afgan Et moi je suis un sniper on a tout vu du balcon, j'suis avec la chica elle a le sourire des balcans Sur moi j'ai de la popo, on a jamais fait les totos, va dire au gendarme y'a son fiston qui veut une photo Toi j'tavais cala mais en fait t'as la boco, dans la merde t'étais pas là quand je dormais dans la clio Et ça fait mal au cur t'es plus le sang on se croise de temps en temps Comme le brinks à côté de Font vert j'écoutais Puissance Nord, retour dans le temps L'humain a quadrillé le secteur caméras projecteurs l'équipe est chaude organisée c'est le danger Derrière nous y a que des braqueurs des dealers et des gratteurs y a que des gros tu vois le mzé c'est mélangé Ouais comme le J, on parle pas, on agit, on dort, t'imagine, on perd pas la magie On m'a dit pourquoi tu perces pas, à ton avis cherche pas c'est la vie mais j'reste dans l'anthologie T'as vu le hebs, y a trop de serpents crocodiles ne sers pas j'te le dis tu sors quand vendredi Y a les khos qui m'attendent, j'traine pas mon ami, gauche, droite ça va vite bang, bang Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'suis dans le RS non-man, je l'intéresse la nuit on fait nos vies on va peut-être mourir à l'adresse J'suis dans le film y a le reflet dans ses yeux, ils sont plus là ceux qui disent que hier c'était mieux Ça danse le mia dans la calle c'est ma jolie, elle sourit, elle donne du bonheur même au bord de l'agonie Malgrès les cicatrices elle sort avec le dos nu, elle fume le filtre et la peufra de Lucas tony Elle m'a tué elle m'a réanimé la rue toute seule nous a contaminé Ils me disent comment comme si c'était inné, j'suis seul dans le noir mon âme est abîmée On se connait depuis l'époque du bas à sable, du coup aujourd'hui il boude il voulait gratter la Sacem Ce projet va péter de Marseille à Paname et dans les rues de Felix piat y'a GDR en KTM Je compte pas de la même façon que Jean de La Fontaine, ma chérie accroupie toi j'ai pas l'habitude de dire je t'aime J'ai dû faire le chouf pour mes premiers TN, sur la bonbonne je voulais pas laisser d'ADN La juge l'a condamné il est bé-tom pour port d'arme, elle a même trouvé des photos dans son portable Force aux frères enfermés aux Baumettes ou à Bois d'Ar', même après des années ils mendient pas les mandats Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant</t>
+          <t>On est dans le binks on fait le bénéf, on fait le pain les jaloux chenef On fait le cash express on consomme la somme importe peu, la cuenta n'effraie plus personne La petite aime quand le bolide fait vroum que le profil est louche que le CV est lourd Les petits ont des couilles, la petite a du gout, Chanel Gucci semelle rouge Le four tourne midi minuit non-stop, drogue store veni vidi block story Grosse douille les gosses tourne en I8, grosses couilles on règle tout avant minuit Tu les écoutes y a tout qui s'écroule, ils m'dégoutent respect aux vrais couz' comme Jul tes couilles faut tout j'découpe Chaud comme Sampaoli on a fait cent fois Holine, on vit des temps chaotiques beaucoup de cents pas hors line C'est le grand Classico bienvenue au hazi rho, on a c'qui faut Que du sale niveau pour les tchikita et les carlito Y a Stone Black Sheïr As Gambino La MG grosse frappe Ryad Mahrez on pilote l'AMG Aketo Naps Aladin Kalsh l'Afro couplet tar sahr à la fin tu tires l'chapeau Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je traverse le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant Les affaires vont pas trop mal, j'dois recompter la moula Grosse comme la Taj Maal j'sais pas quoi faire Cambrée comme la bécane la petite veut le Macan Les DM sur Instagram j'sais pas quoi faire On se connait on se comprend, mon collègue mon sang du Nord vient la puissance carré rouge flip ça fait nuit blanche Petite chaise pliante petite cliente t'as fait le browhing et la petite frange Sur la XXX on me confond avec le Naps, la rue c'est sombre on danse avec le diable Et l'état pour la vendetta, j'fais les tasses pour la grande mi-fa Kiffe-nous le zin fais caler le joint, tu m'vois dans la joie mais la street c'est la jungle Merci le J mc's j'suis pas à jeun merci le bon Dieu je sais que j'suis pas à plaindre Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'ai soti le berrta je sais pas si tu comprends, c'est l'époque carré rouge l'époque tar l'Afgan Et moi je suis un sniper on a tout vu du balcon, j'suis avec la chica elle a le sourire des balcans Sur moi j'ai de la popo, on a jamais fait les totos, va dire au gendarme y'a son fiston qui veut une photo Toi j'tavais cala mais en fait t'as la boco, dans la merde t'étais pas là quand je dormais dans la clio Et ça fait mal au cur t'es plus le sang on se croise de temps en temps Comme le brinks à côté de Font vert j'écoutais Puissance Nord, retour dans le temps L'humain a quadrillé le secteur caméras projecteurs l'équipe est chaude organisée c'est le danger Derrière nous y a que des braqueurs des dealers et des gratteurs y a que des gros tu vois le mzé c'est mélangé Ouais comme le J, on parle pas, on agit, on dort, t'imagine, on perd pas la magie On m'a dit pourquoi tu perces pas, à ton avis cherche pas c'est la vie mais j'reste dans l'anthologie T'as vu le hebs, y a trop de serpents crocodiles ne sers pas j'te le dis tu sors quand vendredi Y a les khos qui m'attendent, j'traine pas mon ami, gauche, droite ça va vite bang, bang Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'suis dans le RS non-man, je l'intéresse la nuit on fait nos vies on va peut-être mourir à l'adresse J'suis dans le film y a le reflet dans ses yeux, ils sont plus là ceux qui disent que hier c'était mieux Ça danse le mia dans la calle c'est ma jolie, elle sourit, elle donne du bonheur même au bord de l'agonie Malgrès les cicatrices elle sort avec le dos nu, elle fume le filtre et la peufra de Lucas tony Elle m'a tué elle m'a réanimé la rue toute seule nous a contaminé Ils me disent comment comme si c'était inné, j'suis seul dans le noir mon âme est abîmée On se connait depuis l'époque du bas à sable, du coup aujourd'hui il boude il voulait gratter la Sacem Ce projet va péter de Marseille à Paname et dans les rues de Felix piat y'a GDR en KTM Je compte pas de la même façon que Jean de La Fontaine, ma chérie accroupie toi j'ai pas l'habitude de dire je t'aime J'ai dû faire le chouf pour mes premiers TN, sur la bonbonne je voulais pas laisser d'ADN La juge l'a condamné il est bé-tom pour port d'arme, elle a même trouvé des photos dans son portable Force aux frères enfermés aux Baumettes ou à Bois d'Ar', même après des années ils mendient pas les mandats Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tchiki, tchiki, tchiki, tchikita Mmh-mmh On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Mmh-mmh Yo, Joshi Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mmh-mmh Mais demain, ça ira A-avant d'être au Ulis, on était dehors avec maman Maman Donc, soit pas étonné quand j'dit qu'je revends depuis tout enfant Yih-yih Quand j'te donne, j'attends rien en retour Rien mais soit juste un peu reconnaissant Y a deux-trois bécanes dans tes pes-cli, tu nous parle de Baltimore 'timore A-arrête de dire de la merde, tu mens Tu mens, moi, j'ai bosser, j'ai pas eu d'chances Non Quand tu fait du papier, les gens, ils changent Ils changent J'fais des concerts dans tout l'hexagone, elle m'as vu sur scène, donc elle s'abonne S'abonne Elle monte dans l'Viano, elle se la donne S'la donne, j'vais lui faire plaisir, donc je m'abonne J'm'abonne À midi, faut libérer l'hôtel L'hôtel, une fois parti, j'me désabonne Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais-, mais demain, ça ira You might also like Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh J'ai charbonné tard, la nuit La nuit, sur la route y a les vils-ci, donc je me la cale ici Ici Que des pirates à bord quand j'navigue J'navigue, visser pas d'vant les tantines Les tantines J'la vends, tu mets dans tes narines Tes narines, mon baveux vient de Tel-Aviv Tel-Aviv J'peux laisser ton corps dans la rive Dans la rive, oint-j de Kétama quand j'déprime Quand j'déprime J'crois en Dieu, j'peux pas faire de crime Non mais si j'avais pas fait du pe-ra, j'aurais fini chasseur de primes Yih-yih Tu pourra pas m'mettre dans la sauce, ma belle, tout l'monde sait que j'suis un charo Charo De base, j'arracher des téléphones, soit contentes que j'veuilles ton numéro Numéro, eh-eh Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais demain, ça ira</t>
+          <t>Tchiki, tchiki, tchiki, tchikita Mmh-mmh On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Mmh-mmh Yo, Joshi Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mmh-mmh Mais demain, ça ira A-avant d'être au Ulis, on était dehors avec maman Maman Donc, soit pas étonné quand j'dit qu'je revends depuis tout enfant Yih-yih Quand j'te donne, j'attends rien en retour Rien mais soit juste un peu reconnaissant Y a deux-trois bécanes dans tes pes-cli, tu nous parle de Baltimore 'timore A-arrête de dire de la merde, tu mens Tu mens, moi, j'ai bosser, j'ai pas eu d'chances Non Quand tu fait du papier, les gens, ils changent Ils changent J'fais des concerts dans tout l'hexagone, elle m'as vu sur scène, donc elle s'abonne S'abonne Elle monte dans l'Viano, elle se la donne S'la donne, j'vais lui faire plaisir, donc je m'abonne J'm'abonne À midi, faut libérer l'hôtel L'hôtel, une fois parti, j'me désabonne Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais-, mais demain, ça ira Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh J'ai charbonné tard, la nuit La nuit, sur la route y a les vils-ci, donc je me la cale ici Ici Que des pirates à bord quand j'navigue J'navigue, visser pas d'vant les tantines Les tantines J'la vends, tu mets dans tes narines Tes narines, mon baveux vient de Tel-Aviv Tel-Aviv J'peux laisser ton corps dans la rive Dans la rive, oint-j de Kétama quand j'déprime Quand j'déprime J'crois en Dieu, j'peux pas faire de crime Non mais si j'avais pas fait du pe-ra, j'aurais fini chasseur de primes Yih-yih Tu pourra pas m'mettre dans la sauce, ma belle, tout l'monde sait que j'suis un charo Charo De base, j'arracher des téléphones, soit contentes que j'veuilles ton numéro Numéro, eh-eh Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais demain, ça ira</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Grr Pas pour moi, pas pour moi, pas là pour moi Mafia, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, eh Sectra Mmh, mmh, eh, eh Genius Ouh oui Kepler, Gambino, c'est bête et méchant Oui, c'est l'oseille qui encaisse les mapesas Oh oui J'viens d'finir la 'teille, j'ai des pulsions Sheesh, Obélix, rajoute de la potion Putain d'merde, j'suis bourré comme un gars die Gars die, c'est ma paire de TN dans la gadoue Merde Les p'tits te demandent T'es un gars d'où ? Merde, j'baise re-noi, rebeu, gindou Han, shit, beuh, gue-dro, han, j'suis stylé mais j'traîne dans le ghetto, han Ouais On dégaine même pendant la genda Rrah, Opinel, on t'charcle et c'est comme a-ç Pas pour moi J'suis fonce-dé mais j'rallume un kamas balaise, la ppe-fra na ngai attire les boloss Viens Pour toi, j'suis trop savage, Kepler arrive comme une bastos Mafia Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh You might also like J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me testPas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi J'rap trop la rue parce que j'connais que ça Hi, hi, à la cité, validé par les vrais Mmh, mmh Pilon qui brûle la beuh dans la massa, Rondo roule mon joint car j'ai les mains givrées Eh, eh Pour vider mon sac, j'mets tout dans ma sacoche et je vide ma sacoche pour me remplir les poches Brr, brr, brr J'suis avec Shelby au volant du Porsche Ok, on veut chiffrer mais les porcs nous empêchent Ok Que du tac au tac, j'peux pas t'push Mmh, mmh, on vend tout, coke, hasch' Mmh, mmh J'suis avec Kepler vers P.S.O Mmh, mmh, j'relance un autre flash Mmh, mmh Y a pas d'marron, y a que du jaune Mmh, mmh et du vert pistache Mmh, mmh Et si tu nous dois des dollars Mmh, mmh, avec ton sang, on t'tâche Eh, eh Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me test Pas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, mmh, mmh Mmh, mmh Mmh, mmh</t>
+          <t>Grr Pas pour moi, pas pour moi, pas là pour moi Mafia, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, eh Sectra Mmh, mmh, eh, eh Genius Ouh oui Kepler, Gambino, c'est bête et méchant Oui, c'est l'oseille qui encaisse les mapesas Oh oui J'viens d'finir la 'teille, j'ai des pulsions Sheesh, Obélix, rajoute de la potion Putain d'merde, j'suis bourré comme un gars die Gars die, c'est ma paire de TN dans la gadoue Merde Les p'tits te demandent T'es un gars d'où ? Merde, j'baise re-noi, rebeu, gindou Han, shit, beuh, gue-dro, han, j'suis stylé mais j'traîne dans le ghetto, han Ouais On dégaine même pendant la genda Rrah, Opinel, on t'charcle et c'est comme a-ç Pas pour moi J'suis fonce-dé mais j'rallume un kamas balaise, la ppe-fra na ngai attire les boloss Viens Pour toi, j'suis trop savage, Kepler arrive comme une bastos Mafia Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me testPas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi J'rap trop la rue parce que j'connais que ça Hi, hi, à la cité, validé par les vrais Mmh, mmh Pilon qui brûle la beuh dans la massa, Rondo roule mon joint car j'ai les mains givrées Eh, eh Pour vider mon sac, j'mets tout dans ma sacoche et je vide ma sacoche pour me remplir les poches Brr, brr, brr J'suis avec Shelby au volant du Porsche Ok, on veut chiffrer mais les porcs nous empêchent Ok Que du tac au tac, j'peux pas t'push Mmh, mmh, on vend tout, coke, hasch' Mmh, mmh J'suis avec Kepler vers P.S.O Mmh, mmh, j'relance un autre flash Mmh, mmh Y a pas d'marron, y a que du jaune Mmh, mmh et du vert pistache Mmh, mmh Et si tu nous dois des dollars Mmh, mmh, avec ton sang, on t'tâche Eh, eh Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me test Pas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, mmh, mmh Mmh, mmh Mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li, Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Samy Lrzo Eh eeh Ah c'est des incapables C'est qu'avec moi bébé que toi tu t'vois Elle veut pas mlâcher Elle a cru que j'étais une star La veille pourtant elle voulait pas de moi, Han Han T'as beau t'mettre mutakala hum hum hum T'as beau t'mttre mutakala mon cur bébé non tu ne l'auras pas, tu l'auras pas Mes sntiments t'auras pas Mes sentiments t'auras pas, Hiy Hiy Elle veut finir avec moi Elle veut finir avec moi, Han Han Sac Chanel, Louis Vuitton la t'auras pas ça Elle m'dit qu'j'bombe aujourd'hui, elle m'dit qu' j'fais trop la star, Han Han T'aime trop parler devant les gens Hum hum Devant les gens You might also like Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli, Hum Hum Pilon zapata Pilonli pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Hunh hunh Gambino La MG, Samy Lrzo Elle m'dit qu'j'traîne trop dehors pire qu'un Sheguey J'valide ses paniers PLT, SHEIN Elle a trop de flow j'peux dead Chaque fin de mois elle change de wig Elle s'demande pourquoi j'fume autant d'weed Elle veut une histoire d'amour comme dans Creed Elle s'demande pourquoi j'aime autant la street Pour avoir mon attention elle enlève son string Gambino elle fait mal à la tête, Han han J'la connais c'est une meuf bien Samy t'inquiète La petite a grandi donc veut dire que sima ekoli Hayaya Amoroso amoroso, Oh la vie est belle Nabala kabibi T'aime trop parler devant les gens T'aime trop parler devant les gens Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Samy Lrzo, Gambino La MG Samy Lrzo le chouchou des mamans Gambino La M le chouchou des petites Pussy Pussy Pussy Dj MKZ Hin hin hin Pow ! Samy Lrzo c'est moi</t>
+          <t>Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li, Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Samy Lrzo Eh eeh Ah c'est des incapables C'est qu'avec moi bébé que toi tu t'vois Elle veut pas mlâcher Elle a cru que j'étais une star La veille pourtant elle voulait pas de moi, Han Han T'as beau t'mettre mutakala hum hum hum T'as beau t'mttre mutakala mon cur bébé non tu ne l'auras pas, tu l'auras pas Mes sntiments t'auras pas Mes sentiments t'auras pas, Hiy Hiy Elle veut finir avec moi Elle veut finir avec moi, Han Han Sac Chanel, Louis Vuitton la t'auras pas ça Elle m'dit qu'j'bombe aujourd'hui, elle m'dit qu' j'fais trop la star, Han Han T'aime trop parler devant les gens Hum hum Devant les gens Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli, Hum Hum Pilon zapata Pilonli pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Hunh hunh Gambino La MG, Samy Lrzo Elle m'dit qu'j'traîne trop dehors pire qu'un Sheguey J'valide ses paniers PLT, SHEIN Elle a trop de flow j'peux dead Chaque fin de mois elle change de wig Elle s'demande pourquoi j'fume autant d'weed Elle veut une histoire d'amour comme dans Creed Elle s'demande pourquoi j'aime autant la street Pour avoir mon attention elle enlève son string Gambino elle fait mal à la tête, Han han J'la connais c'est une meuf bien Samy t'inquiète La petite a grandi donc veut dire que sima ekoli Hayaya Amoroso amoroso, Oh la vie est belle Nabala kabibi T'aime trop parler devant les gens T'aime trop parler devant les gens Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Samy Lrzo, Gambino La MG Samy Lrzo le chouchou des mamans Gambino La M le chouchou des petites Pussy Pussy Pussy Dj MKZ Hin hin hin Pow ! Samy Lrzo c'est moi</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9.1.9.4.0 Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Si tu veux barber ma part Ensemble tout noir Under Armour J'ai le six coups dans mon armoire Deux mecs sur un T-Max, ça fait un mort J'ai raison même quand j'ai tord Mais ces putains veulent me faire taire J'fume du kamas, j'fais pas de sport C'est pas les abdos qui font la guerre J'fais la fête dans le cul de ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école Trahir ses copains, c'est pas cool Crache sur son dos mais tu check de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Et dans la kitchen C'est Blacky qui cook Beuh, Shit, Coke Comme Pop Smoke You might also like Nos ennemis on va les corriger Tant qu'ils ont pas compris la lecon J'fais ta guele la peufra au lycee J'ai pas de temps de reviser mes lecons A la cite, il y a tellement d'attaques de la BAC Qu'on en devient parano J'recup a 500G, j'fais mon benef d'argent le-sa Mais je m'eloigne du paradis Tu nous vois toute l'annee dans le bendo Quand le guetteur cri plus on benda Mon objectif c'est de ne pas finir pauvre Donc j'investis pas si c'est pas rentable Pour les faire caval j'ai trouve la methode Il en faut peu, juste on degaine un metal Nous racontes pas ta vie on sait que tu mythonnes T'es une bonhomme sur snap mais en vrai une pedale J'suis en Versacce, uh-huh Juns cantine sur le shit, uh-huh J'baise</t>
+          <t>9.1.9.4.0 Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Si tu veux barber ma part Ensemble tout noir Under Armour J'ai le six coups dans mon armoire Deux mecs sur un T-Max, ça fait un mort J'ai raison même quand j'ai tord Mais ces putains veulent me faire taire J'fume du kamas, j'fais pas de sport C'est pas les abdos qui font la guerre J'fais la fête dans le cul de ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école Trahir ses copains, c'est pas cool Crache sur son dos mais tu check de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Et dans la kitchen C'est Blacky qui cook Beuh, Shit, Coke Comme Pop Smoke Nos ennemis on va les corriger Tant qu'ils ont pas compris la lecon J'fais ta guele la peufra au lycee J'ai pas de temps de reviser mes lecons A la cite, il y a tellement d'attaques de la BAC Qu'on en devient parano J'recup a 500G, j'fais mon benef d'argent le-sa Mais je m'eloigne du paradis Tu nous vois toute l'annee dans le bendo Quand le guetteur cri plus on benda Mon objectif c'est de ne pas finir pauvre Donc j'investis pas si c'est pas rentable Pour les faire caval j'ai trouve la methode Il en faut peu, juste on degaine un metal Nous racontes pas ta vie on sait que tu mythonnes T'es une bonhomme sur snap mais en vrai une pedale J'suis en Versacce, uh-huh Juns cantine sur le shit, uh-huh J'baise</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J'ai fait chanter Bédo à tes parents Non, non Y a pas de magie, j'y vais au talent Non, non Mmh-mmh Wesh, bande d'enculée 'culée, j'traîne qu'avec des tarés Tarés J'bouyave que des traînées, viens pas chez moi, c'est trop miné Yih-yih Tu t'faits hagar par des mineurs qui font rien d'autre à part zoner À part zoner Devant personnes j'vais m'incliner, j'ai mon , j'te fait saigner Eh-eh Dans-, dans le bât' pour des mapessas 'pessas, faire du sale, on est bon qu'à ça Qu'à ça Sur le trrain, j'mets des transversal Eh-eh T'a-, t'a rien vécu, donc parle pas d'rafales D'rafales De ma bite, ces putes ont raffole La notoriété attire les femmes Yih-yih, mmh-mmh, eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai fait chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta You might also like Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard Ils ont libérez Zoulou du placard, sisse-Nar, bis-Cra, Skofra, j'bouge pas, j'suis dans l'ffic-tra Eh-eh Visser pas dehors, y a des caméras Elle veut m'voir quand j'suis dans l'Audi, pas dans le mi-cra Eh-eh Ma-, malgré la signature, je mange des grecs dans ma voiture Je sors le truc, on fait pas d'lutte Ah ouais ? J'suis dans la planque, on fait des trucs T'entends les Ulis, t'as le traque, tu veux pé-cho ? Vas sur le té-c' Vas sur le té-c' J'suis avec H, j'vis sous le porche, j'paye tout au bec Eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai faits chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard</t>
+          <t>J'ai fait chanter Bédo à tes parents Non, non Y a pas de magie, j'y vais au talent Non, non Mmh-mmh Wesh, bande d'enculée 'culée, j'traîne qu'avec des tarés Tarés J'bouyave que des traînées, viens pas chez moi, c'est trop miné Yih-yih Tu t'faits hagar par des mineurs qui font rien d'autre à part zoner À part zoner Devant personnes j'vais m'incliner, j'ai mon , j'te fait saigner Eh-eh Dans-, dans le bât' pour des mapessas 'pessas, faire du sale, on est bon qu'à ça Qu'à ça Sur le trrain, j'mets des transversal Eh-eh T'a-, t'a rien vécu, donc parle pas d'rafales D'rafales De ma bite, ces putes ont raffole La notoriété attire les femmes Yih-yih, mmh-mmh, eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai fait chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard Ils ont libérez Zoulou du placard, sisse-Nar, bis-Cra, Skofra, j'bouge pas, j'suis dans l'ffic-tra Eh-eh Visser pas dehors, y a des caméras Elle veut m'voir quand j'suis dans l'Audi, pas dans le mi-cra Eh-eh Ma-, malgré la signature, je mange des grecs dans ma voiture Je sors le truc, on fait pas d'lutte Ah ouais ? J'suis dans la planque, on fait des trucs T'entends les Ulis, t'as le traque, tu veux pé-cho ? Vas sur le té-c' Vas sur le té-c' J'suis avec H, j'vis sous le porche, j'paye tout au bec Eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai faits chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hmm Hmm Yiih Uh Uh Uh Uh Ma bite sur le palet des agents de la police Que des grosses têtes de beuh remplis de pollen Croco sur le polo, dehors ta beaucoup damis Mais au shtar peu de gens pourront tépauler Tu peux bluffer les ti-peus de la cité dans la ville Mais quand yavait pépin tétait pas la Tout les moyens sont bon pour faire de la skalape Nos chemins se séparent car ya trop de salopes Si cest pas lucratif tu vois pas ma tête Si on fait pas rentrer de biff ont fait pas la fête Elles sont pesées au me-gras les barrettes Gros tes venu pour pêche ou pour faire la cossette Le coffee fait 10 balles de recettes donc les cops et veulent trouver la recette Cest de la peu-fra les clients achètent Descente de bleus on se replie a la chatte Déconnecte toi de snap , regarde tes che-pos Ferme bien ta gueule une fois au ste-po Pour le respect jai pas eu besoin dêtre costaud Temps plein dans la cage non je suis pas claustro' Deuxième cercle big-up a Fianso Ils essayent en vain de me mettre dans la sauce Posés dans le bâtiment avec mes assos Un clicos vaut 10 pesos Ya assez de terrain pour que tout le monde bosse donc essaye pas trouver dexcuses Si tu fais pas 1 euro tabuses, même les 2005 font du flouz Loseille et le shit mapaisent donc le four ne fait pas d'pause En GAV faut que tu te taise ou a ta sortie on tarrose Uh uh A la base jétais bon a lécole sur le r jeffectuais mes heures de colles Argent facile quand la mi-temps est calme Mais quand les condés descendent cest pas cool Dans mon tieks ça plante comme a lescrime Touche un membre de léquipe yaura un drame Depuis que je fais des millions de streams Je connais plus léchec au près des dames Je suis chargée je reviens de dam' Jai déjà passé la douane Jarrive dans la ville cest trop rodave Donc je ralentis sur les dos d'ânes On vissers pas les même choses Pas les même doses On prend tes boloss tu vas rien faire Largent a de la saveur Donc mon bénéfice je le savoureYou might also like</t>
+          <t>Hmm Hmm Yiih Uh Uh Uh Uh Ma bite sur le palet des agents de la police Que des grosses têtes de beuh remplis de pollen Croco sur le polo, dehors ta beaucoup damis Mais au shtar peu de gens pourront tépauler Tu peux bluffer les ti-peus de la cité dans la ville Mais quand yavait pépin tétait pas la Tout les moyens sont bon pour faire de la skalape Nos chemins se séparent car ya trop de salopes Si cest pas lucratif tu vois pas ma tête Si on fait pas rentrer de biff ont fait pas la fête Elles sont pesées au me-gras les barrettes Gros tes venu pour pêche ou pour faire la cossette Le coffee fait 10 balles de recettes donc les cops et veulent trouver la recette Cest de la peu-fra les clients achètent Descente de bleus on se replie a la chatte Déconnecte toi de snap , regarde tes che-pos Ferme bien ta gueule une fois au ste-po Pour le respect jai pas eu besoin dêtre costaud Temps plein dans la cage non je suis pas claustro' Deuxième cercle big-up a Fianso Ils essayent en vain de me mettre dans la sauce Posés dans le bâtiment avec mes assos Un clicos vaut 10 pesos Ya assez de terrain pour que tout le monde bosse donc essaye pas trouver dexcuses Si tu fais pas 1 euro tabuses, même les 2005 font du flouz Loseille et le shit mapaisent donc le four ne fait pas d'pause En GAV faut que tu te taise ou a ta sortie on tarrose Uh uh A la base jétais bon a lécole sur le r jeffectuais mes heures de colles Argent facile quand la mi-temps est calme Mais quand les condés descendent cest pas cool Dans mon tieks ça plante comme a lescrime Touche un membre de léquipe yaura un drame Depuis que je fais des millions de streams Je connais plus léchec au près des dames Je suis chargée je reviens de dam' Jai déjà passé la douane Jarrive dans la ville cest trop rodave Donc je ralentis sur les dos d'ânes On vissers pas les même choses Pas les même doses On prend tes boloss tu vas rien faire Largent a de la saveur Donc mon bénéfice je le savoure</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Jsuis dans limport-export Jmenfuis que si jvois les porcs Cest les poches pleines et les glocks qui commandent Chez nous ya pas de loi du plus fort Jai raison même quand jai tord Dans sa chatte jtrouve du réconfort Elle veut plus de moi mais tellement jla tord Elle revient comme le marteau de Thor Pour les sous jpasse par le sale Et non jte parle pas des Gunners quand jte dis quon a lArsenal Jsuis titulaire comme Martial Pour des billets couleur Lakers jfaisais la toupie sur Paname Les Ulis cest summerhouse tout le monde veut faire écouter sa came Refrain Ya dla moula qui vient dEspagne Là beu-her vient de Dam Jnique pas doseille pour plaire aux femmes Oui jai tout mis dans lcellophane Tout est pesé au gramme Touche à Jody jvais faire un drame Faut qujencaisse AutomneHiver jsuis dans ltieks On est fullop dans la caisse On va descendre dans ta tess You might also likeCest la merde ÉtéPrintemps jsuis dans ltieks Jfais tout pour vesqui la hess Mais les jaloux veulent que jy reste</t>
+          <t>Jsuis dans limport-export Jmenfuis que si jvois les porcs Cest les poches pleines et les glocks qui commandent Chez nous ya pas de loi du plus fort Jai raison même quand jai tord Dans sa chatte jtrouve du réconfort Elle veut plus de moi mais tellement jla tord Elle revient comme le marteau de Thor Pour les sous jpasse par le sale Et non jte parle pas des Gunners quand jte dis quon a lArsenal Jsuis titulaire comme Martial Pour des billets couleur Lakers jfaisais la toupie sur Paname Les Ulis cest summerhouse tout le monde veut faire écouter sa came Refrain Ya dla moula qui vient dEspagne Là beu-her vient de Dam Jnique pas doseille pour plaire aux femmes Oui jai tout mis dans lcellophane Tout est pesé au gramme Touche à Jody jvais faire un drame Faut qujencaisse AutomneHiver jsuis dans ltieks On est fullop dans la caisse On va descendre dans ta tess Cest la merde ÉtéPrintemps jsuis dans ltieks Jfais tout pour vesqui la hess Mais les jaloux veulent que jy reste</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Hii-Hii Si j'sors le pétard ils vont sursauter, gros j'suis dans les diez Faut pas venir a Gaza c'est trop risqué, les p'tits t'arrachent si tu pèse Barod' a fond dans la Merco-Benz La miss veut toujours que je la baise Si je suis pas au studio je fais des passes Negro prêt a tout pour faire de l'espèce Viens chez nous tu te fais masser comme au kiné On fait pas de pause on est pas dans le mannequinat J'passe à la télé mais j'fais pas de ciné J'suis passé sur L'équipe, Trace Urban et Canal Ca bibi dans la tour et à la puce Ya ceux dans la dur et ceux dans la douce Ca rabat ls potos à l'arrêt de bus Si y a heja y a Brazo à la rescousse J'suis dans le bat' pour faire des sous, dans le bat' faut faire des sous Grosse file indienne, dans l'fond du binks et tous les yenclis s'poussent J'veux sortir de l'anonymat, le pestu c'est trop miné Au cas où ca finit mal, heureusement pour moi que j'ai étudié Il m'faut du seille-o, plein de zéros dans mon ptecom J'suis dans le merco, elle veut venir me pépom Il faut que ca pète Oooh, faut faire vivre le tiekson Il me faut du seille-o, plein de zéros dans mon ptecomYou might also like</t>
+          <t>Hii-Hii Si j'sors le pétard ils vont sursauter, gros j'suis dans les diez Faut pas venir a Gaza c'est trop risqué, les p'tits t'arrachent si tu pèse Barod' a fond dans la Merco-Benz La miss veut toujours que je la baise Si je suis pas au studio je fais des passes Negro prêt a tout pour faire de l'espèce Viens chez nous tu te fais masser comme au kiné On fait pas de pause on est pas dans le mannequinat J'passe à la télé mais j'fais pas de ciné J'suis passé sur L'équipe, Trace Urban et Canal Ca bibi dans la tour et à la puce Ya ceux dans la dur et ceux dans la douce Ca rabat ls potos à l'arrêt de bus Si y a heja y a Brazo à la rescousse J'suis dans le bat' pour faire des sous, dans le bat' faut faire des sous Grosse file indienne, dans l'fond du binks et tous les yenclis s'poussent J'veux sortir de l'anonymat, le pestu c'est trop miné Au cas où ca finit mal, heureusement pour moi que j'ai étudié Il m'faut du seille-o, plein de zéros dans mon ptecom J'suis dans le merco, elle veut venir me pépom Il faut que ca pète Oooh, faut faire vivre le tiekson Il me faut du seille-o, plein de zéros dans mon ptecom</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ça dit quoi ma beauté ? T'es mimi Hey, hey Hey, hey, hey Ouh eh Ouh, ouh Ça dit quoi ma beauté ? T'es mi- Hey, hey Hey, hey Brr, paw Brr, brr Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile m titille On a fait le trajet, trajt, trajet, trajet Gue-dro dans l'sachet, sachet, sachet, sachet On connaît l'danger, danger, danger, danger Mais on veut manger, manger, manger, manger J'suis avec, il a caché l'fusil sous l'plancher Y a de la, pour animer tes soirées branchées On voulait brasser, bien avant de savoir nager Libérez tous ceux qui ont plongés J'me revois menotter sur le canapé Aujourd'hui, Negrito passe sur Booska-P J'ai dealé pour le papier, pas pour l'raper Si je t'ai donné, c'est pas pour t'le rappeler On m'a dit qu'il faut faire la guerre pour la paix Donc on fait la guerre aux gardiens de la paix Rancunier, tu m'as trahi, j'ai pas zappé La CC, faut la vendre, faut pas la taper Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier hey, hey Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier ouh Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées You might also like Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Ti na Kotazo On n'est pas des mythos</t>
+          <t>Ça dit quoi ma beauté ? T'es mimi Hey, hey Hey, hey, hey Ouh eh Ouh, ouh Ça dit quoi ma beauté ? T'es mi- Hey, hey Hey, hey Brr, paw Brr, brr Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile m titille On a fait le trajet, trajt, trajet, trajet Gue-dro dans l'sachet, sachet, sachet, sachet On connaît l'danger, danger, danger, danger Mais on veut manger, manger, manger, manger J'suis avec, il a caché l'fusil sous l'plancher Y a de la, pour animer tes soirées branchées On voulait brasser, bien avant de savoir nager Libérez tous ceux qui ont plongés J'me revois menotter sur le canapé Aujourd'hui, Negrito passe sur Booska-P J'ai dealé pour le papier, pas pour l'raper Si je t'ai donné, c'est pas pour t'le rappeler On m'a dit qu'il faut faire la guerre pour la paix Donc on fait la guerre aux gardiens de la paix Rancunier, tu m'as trahi, j'ai pas zappé La CC, faut la vendre, faut pas la taper Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier hey, hey Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier ouh Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Ti na Kotazo On n'est pas des mythos</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ghost Killer Track, bébé Mon papa ne veut pas Hum-hum, mon papa ne veut pas Hum-hum Mon papa ne veut pas que je danse, que je danse Mon papa ne veut pas Hum-hum, hum-hum, j'vide la 'teille sur son cavu, mon papa ne veut pas Ha, argh Mon papa ne veut pas que je danse, que je danse Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Hi J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Y a pas d'Netflix, j'viens pour chiller, j'ai chaud, j'enlève mon gilet Cette pute, elle s'appelle Julie, elle est sous ballon, cerveau gelé Elle vient des Antilles, elle sait bien cambrer J'fais que des va-et-vient sur son gros cavu You might also like J'vide ma 'teille sur son gros cavu Mon papa ne veut pas, j'vide ma 'teille sur son gros cavu Mon papa ne veut pas Hum-hum, j'vide ma 'teille sur son gros cavu Hum-hum Mon papa ne veut pas Hum-hum, gros cavu Uh-uh Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Ouh J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Uh-uh Elle veut dance sur ma bite, elle s'colle J'vide ma teille sur son gros cavu, elle whine sur moi sur du Sean Paul Shake, shake, shake, shake J'ai mis sa jambe sur mon épaule Hum-hum, uh-uh, j'la casse comme si elle m'doit des talles J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu</t>
+          <t>Ghost Killer Track, bébé Mon papa ne veut pas Hum-hum, mon papa ne veut pas Hum-hum Mon papa ne veut pas que je danse, que je danse Mon papa ne veut pas Hum-hum, hum-hum, j'vide la 'teille sur son cavu, mon papa ne veut pas Ha, argh Mon papa ne veut pas que je danse, que je danse Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Hi J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Y a pas d'Netflix, j'viens pour chiller, j'ai chaud, j'enlève mon gilet Cette pute, elle s'appelle Julie, elle est sous ballon, cerveau gelé Elle vient des Antilles, elle sait bien cambrer J'fais que des va-et-vient sur son gros cavu J'vide ma 'teille sur son gros cavu Mon papa ne veut pas, j'vide ma 'teille sur son gros cavu Mon papa ne veut pas Hum-hum, j'vide ma 'teille sur son gros cavu Hum-hum Mon papa ne veut pas Hum-hum, gros cavu Uh-uh Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Ouh J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Uh-uh Elle veut dance sur ma bite, elle s'colle J'vide ma teille sur son gros cavu, elle whine sur moi sur du Sean Paul Shake, shake, shake, shake J'ai mis sa jambe sur mon épaule Hum-hum, uh-uh, j'la casse comme si elle m'doit des talles J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdown SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdowns SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles J'suis dans l'ghetto, y'a mes rho Pas de guerre dacides comme à Tottenham J'fais des temps pleins au studio J'me la but pour soulever le totm M.D au volant donc je m'inquiète pas Passager, j'roule un pétard Zaïrois pas trop fêtard C'est dans la zone que je traîne tard J'découpe en tranche la baguette de pain pour récupérer du blé Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doublés Si j'sors le pétard, ils vont sursautés Tes pseudos-rappeurs les sur-côtés Et Crobax me fais la passe Cest le poto va dans le petit filetYou might also like</t>
+          <t>Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdown SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdowns SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles J'suis dans l'ghetto, y'a mes rho Pas de guerre dacides comme à Tottenham J'fais des temps pleins au studio J'me la but pour soulever le totm M.D au volant donc je m'inquiète pas Passager, j'roule un pétard Zaïrois pas trop fêtard C'est dans la zone que je traîne tard J'découpe en tranche la baguette de pain pour récupérer du blé Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doublés Si j'sors le pétard, ils vont sursautés Tes pseudos-rappeurs les sur-côtés Et Crobax me fais la passe Cest le poto va dans le petit filet</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Guetteur crie ça passe à l'affût des gyros On fait tomber d'la neige comme au Jura Si y'a pépin y'a Shelby et Jiren Tu fais moins le gérant tu commences à jurer J'revends le ne-jau depuis que j'suis ne-jeu J'oublie ceux qui m'ont déjà fait manger Demande à RV demande à Barjo Depuis tout p'tit dans l'oseille on veut nager Clope, feuille, briquet chez le pakat 2,2 dans le pocket Et si t'es pas trop sur tes gardes on t'hagar comme la Team Rocket J'suis dans la playlist de ta grande soeur Elle m'suit sur Insta et sur Twitter Eh oui y'a que le travail qui paye J'suis la star local de mon secteur Faire du biff c'est pas compliqué J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'ai bosser à la puce et au block Negro insolent comme O-DOG Negro insolent comme O-DOG Faut m'vesqui si j'sors le shhhh J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski On vend d'la neige les tournées fait du ski On vend d'la neige les tournées fait du ski J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski Et quand y'a les condés qui bravesqui Et quand y'a les condés qui bravesquiYou might also like</t>
+          <t>Guetteur crie ça passe à l'affût des gyros On fait tomber d'la neige comme au Jura Si y'a pépin y'a Shelby et Jiren Tu fais moins le gérant tu commences à jurer J'revends le ne-jau depuis que j'suis ne-jeu J'oublie ceux qui m'ont déjà fait manger Demande à RV demande à Barjo Depuis tout p'tit dans l'oseille on veut nager Clope, feuille, briquet chez le pakat 2,2 dans le pocket Et si t'es pas trop sur tes gardes on t'hagar comme la Team Rocket J'suis dans la playlist de ta grande soeur Elle m'suit sur Insta et sur Twitter Eh oui y'a que le travail qui paye J'suis la star local de mon secteur Faire du biff c'est pas compliqué J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'ai bosser à la puce et au block Negro insolent comme O-DOG Negro insolent comme O-DOG Faut m'vesqui si j'sors le shhhh J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski On vend d'la neige les tournées fait du ski On vend d'la neige les tournées fait du ski J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski Et quand y'a les condés qui bravesqui Et quand y'a les condés qui bravesqui</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>L'argent facile en vrai cest dur Mais à la hess on va pas céder Jveux du papier pour quitter la u-re Mais pour l'instant faut qu' jvende des CD Des CD, pour l'instant faut qu' j'vende des CD Mon negro j'ai trop vendu d' sse-di Pour l'instant faut qu' jvende des CD x2 Le réseau sest fait remonter donc on reprend tout à la case départ Libérez Zoulou, Yougo, Biscra et tous les mecs d'la ville au schtar 9,2 grammes dans le pochtar On se lève tôt pourtant on se couche tard Dans l secteur cest moi la star, donc lle se déshabille et j'baisse les stores Toute l'année à l'affût des porcs, sur les photos de CR on tape la pose On mdit Gambino t'es trop fort, la machine est lancée faut plus faire de pause Vient dans ma zone si tu l'oses, on fait enlever l'iCloud de ton iPhone 11 Jsuis dans le bloc si tu veux ta dose, j'ai mon paquet de masse, mes clopes, ma cons Jsuis pas dans le suçage de bite C'est carbo mais ça débite Chaque jour la flicaille nous embête, j'ai jamais mit les pieds en boîte J'prefere voir GD sur le compet ou voir MD frotter la bavette Ça defourraille des Et si tu détournes on te fait ta fête You might also like L'argent facile en vrai c'est dur Mais à la hess on va pas céder Jveux du papier pour quitter la u-re Mais pour l'instant faut qu' j'vende des CD Des CD, pour l'instant faut qu' j'vende des CD Mon negro j'ai trop vendu d' sse-di Pour l'instant faut qu' j'vende des CD x2</t>
+          <t>L'argent facile en vrai cest dur Mais à la hess on va pas céder Jveux du papier pour quitter la u-re Mais pour l'instant faut qu' jvende des CD Des CD, pour l'instant faut qu' j'vende des CD Mon negro j'ai trop vendu d' sse-di Pour l'instant faut qu' jvende des CD x2 Le réseau sest fait remonter donc on reprend tout à la case départ Libérez Zoulou, Yougo, Biscra et tous les mecs d'la ville au schtar 9,2 grammes dans le pochtar On se lève tôt pourtant on se couche tard Dans l secteur cest moi la star, donc lle se déshabille et j'baisse les stores Toute l'année à l'affût des porcs, sur les photos de CR on tape la pose On mdit Gambino t'es trop fort, la machine est lancée faut plus faire de pause Vient dans ma zone si tu l'oses, on fait enlever l'iCloud de ton iPhone 11 Jsuis dans le bloc si tu veux ta dose, j'ai mon paquet de masse, mes clopes, ma cons Jsuis pas dans le suçage de bite C'est carbo mais ça débite Chaque jour la flicaille nous embête, j'ai jamais mit les pieds en boîte J'prefere voir GD sur le compet ou voir MD frotter la bavette Ça defourraille des Et si tu détournes on te fait ta fête L'argent facile en vrai c'est dur Mais à la hess on va pas céder Jveux du papier pour quitter la u-re Mais pour l'instant faut qu' j'vende des CD Des CD, pour l'instant faut qu' j'vende des CD Mon negro j'ai trop vendu d' sse-di Pour l'instant faut qu' j'vende des CD x2</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir prcé, d'avoir percé Big up à ceux qui m'ont donner la forc big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came J'suis la prochaine pépite du 91 On vend d'la frappe nous pas de CBD On vient tout graille igo on a faim C'est les cités c'est pas une BD Ça vient du côté ouest de l'Essonne-geles Elle est nne-bo mais de son cul j'me lasse J'aime le respect pas la politesse Cette année il faut qu'je brasse Aux Ulis y'a tellement de terrains de be-her Qu'ça déborde même la police Et pour minimum 50 hertz on vient te livrer ton colis J'te voulais juste dans mon lit si j't'ai fais du mal j'suis sorry Ils font tout comme nous ça me fait gol-ri, hmhm Meilleur de notre catégorie You might also like Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir percé, d'avoir percé Big up à ceux qui m'ont donner la force big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came Quand tu l'a té-fri la beuh fait crack GTR la bécane il la cabre J'prends des selfies pendant qu'j'l'a cambre pour ma story X privé sur Snapchat Le bonheur et la mort s'achète Certains négros payent même pour de la chatte Ça sera pas du basket si j'te shoot En primaire je chipper dans les sacs à dos j'étais discret pas comme Chipeur En attendant que ça pète j'suis dans le bendo j'vends la médicinal comme Chopper On fait pas de tiépi si c'est pour du biff on va te chopper Si t'es pas d'ici vide tes che-po Déter depuis l'époque d'la chapka déter depuis l'époque d'la chapka Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir percé, d'avoir percé Big up à ceux qui m'ont donner la force big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came</t>
+          <t>Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir prcé, d'avoir percé Big up à ceux qui m'ont donner la forc big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came J'suis la prochaine pépite du 91 On vend d'la frappe nous pas de CBD On vient tout graille igo on a faim C'est les cités c'est pas une BD Ça vient du côté ouest de l'Essonne-geles Elle est nne-bo mais de son cul j'me lasse J'aime le respect pas la politesse Cette année il faut qu'je brasse Aux Ulis y'a tellement de terrains de be-her Qu'ça déborde même la police Et pour minimum 50 hertz on vient te livrer ton colis J'te voulais juste dans mon lit si j't'ai fais du mal j'suis sorry Ils font tout comme nous ça me fait gol-ri, hmhm Meilleur de notre catégorie Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir percé, d'avoir percé Big up à ceux qui m'ont donner la force big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came Quand tu l'a té-fri la beuh fait crack GTR la bécane il la cabre J'prends des selfies pendant qu'j'l'a cambre pour ma story X privé sur Snapchat Le bonheur et la mort s'achète Certains négros payent même pour de la chatte Ça sera pas du basket si j'te shoot En primaire je chipper dans les sacs à dos j'étais discret pas comme Chipeur En attendant que ça pète j'suis dans le bendo j'vends la médicinal comme Chopper On fait pas de tiépi si c'est pour du biff on va te chopper Si t'es pas d'ici vide tes che-po Déter depuis l'époque d'la chapka déter depuis l'époque d'la chapka Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir percé, d'avoir percé Big up à ceux qui m'ont donner la force big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Quand jétais petit Uhuh Je me rappelle quand j'étais p'tit, j'regardais des films de cul sur l'ordi Au lycée, j'étais à fond dans l'deal, retour du prime, GLM qu'est-ce qu't'en dis? J'ai regardé Menace to Society et j'suis parti braquer une épicerie Je zip, autour de moi, trop d'faux, j'ai fait un tri MDK, si il est sérieux dans les affaires, une fois qu'il a tes accès, y a rien à faire non non Une fois qu'il a tes accès, y a plus rien à faire non non Après ça, t'iras demander des sous à ta mère J'suis dans ma piscine, vu sur la ouh j'suis dans ma piscine, vue sur la mer On les voyait pas quand on faisait la ouh on les voyait pas quand on faisait la guerre J'en, j'envoie un p'tit à la banque, moi, j'suis trop populaire Ils font les lanceurs, c'est des bénéficiaires, le télégramme de Kirby a sauté sa mère mère Faut qu'j'envoie des PCS à mon p'tit frère, il est au D1 avec les mecs de Zola de Zola Dans ma famille, y a que des gangsters, tous les pères de famille, c'est des anciens taulards Uhuh En ce moment, j'suis en pétard, j'fais que du son pour les charos, ceux qui s'couchent tard J'me rappelle, j'roulais mes joints au fond du car Aujourd'hui je roule en vélard Ils font d'plata, ils ont pas d'plata plata, que du blabla Zéro tracas, c'est des incapables, avec eux j'suis obligé d'être un bâtard Que des m'bata, j'suis avec le Da, Esko et Nine J'reviens pour tout niquer, j'ai plus le time Obligé de baiser, Willy le Borgne, j'suis à Mobali, j'suis avec la L You might also like J'suis avec le Da, Esko et Nine J'reviens pour tout niquer, j'ai plus le time Obligé de baiser, Willy le Borgne, j'suis à Mobali, j'suis avec la L Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Mais j'l'aime bien, elle est belle c'est un pain Ça finit en goumin, elle vie pour les caméras on s'croirait sur TF1 J'suis un mec du 9-1, quand tu me croises check bien Sinon sinon ça peut en venir aux mains Elle c'est une tana mais j'l'aime bien Elle c'est une tana des tana, tana des tana des tana Mais j'l'aime bien Elle c'est une tana des tana, tana des tana des tana Mais j'l'aime bien Mmh mmh, mmh mmh, mmh mmh Brr, mmh mmh</t>
+          <t>Quand jétais petit Uhuh Je me rappelle quand j'étais p'tit, j'regardais des films de cul sur l'ordi Au lycée, j'étais à fond dans l'deal, retour du prime, GLM qu'est-ce qu't'en dis? J'ai regardé Menace to Society et j'suis parti braquer une épicerie Je zip, autour de moi, trop d'faux, j'ai fait un tri MDK, si il est sérieux dans les affaires, une fois qu'il a tes accès, y a rien à faire non non Une fois qu'il a tes accès, y a plus rien à faire non non Après ça, t'iras demander des sous à ta mère J'suis dans ma piscine, vu sur la ouh j'suis dans ma piscine, vue sur la mer On les voyait pas quand on faisait la ouh on les voyait pas quand on faisait la guerre J'en, j'envoie un p'tit à la banque, moi, j'suis trop populaire Ils font les lanceurs, c'est des bénéficiaires, le télégramme de Kirby a sauté sa mère mère Faut qu'j'envoie des PCS à mon p'tit frère, il est au D1 avec les mecs de Zola de Zola Dans ma famille, y a que des gangsters, tous les pères de famille, c'est des anciens taulards Uhuh En ce moment, j'suis en pétard, j'fais que du son pour les charos, ceux qui s'couchent tard J'me rappelle, j'roulais mes joints au fond du car Aujourd'hui je roule en vélard Ils font d'plata, ils ont pas d'plata plata, que du blabla Zéro tracas, c'est des incapables, avec eux j'suis obligé d'être un bâtard Que des m'bata, j'suis avec le Da, Esko et Nine J'reviens pour tout niquer, j'ai plus le time Obligé de baiser, Willy le Borgne, j'suis à Mobali, j'suis avec la L J'suis avec le Da, Esko et Nine J'reviens pour tout niquer, j'ai plus le time Obligé de baiser, Willy le Borgne, j'suis à Mobali, j'suis avec la L Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Mais j'l'aime bien, elle est belle c'est un pain Ça finit en goumin, elle vie pour les caméras on s'croirait sur TF1 J'suis un mec du 9-1, quand tu me croises check bien Sinon sinon ça peut en venir aux mains Elle c'est une tana mais j'l'aime bien Elle c'est une tana des tana, tana des tana des tana Mais j'l'aime bien Elle c'est une tana des tana, tana des tana des tana Mais j'l'aime bien Mmh mmh, mmh mmh, mmh mmh Brr, mmh mmh</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Et toute l'année on a compté MD s'fait chasser par les motards Et nan c'est pas pour galérer que chaque mois tout les soirs on rentrait tard Les porcs font que de nous embêter donc 14 juillet sortez les pétards La mauvaise graine a bien poussé nan c'est pas du rap on fait de l'art J'suis dans un gros fer allemand dans ma paume j'ai té-ffri la substance J'vide la clope, j'roule mon pétou et j'lèche le collant Sous jack noir, coca cola j'suis free j'ai trop picolé Suce moi j'fais pas d'accolade j'suis pas là pour rigoler Y'a d'la peufra par ici argent facile, paresseux J'vais visser sur Paris 6 prêt à tout pour fair des sous J'suis dans la chatte à ta soeur ou avc les p'tits dans une inser' J'ai plus d' dans ma sacoche sauf quand j'ai tout visser J'baraude à fond dans la caisse elle fait les yeux doux elle veut que j'la baise Biff avant les meufs gros c'est la base donc laisse moi terminer tout mes dièses hanhan Terminer tout mes dièses hmmhmm Terminer tout mes dièses hanhan Terminer tout mes dièses hmmhmm Terminer tout mes dièsesYou might also like</t>
+          <t>Et toute l'année on a compté MD s'fait chasser par les motards Et nan c'est pas pour galérer que chaque mois tout les soirs on rentrait tard Les porcs font que de nous embêter donc 14 juillet sortez les pétards La mauvaise graine a bien poussé nan c'est pas du rap on fait de l'art J'suis dans un gros fer allemand dans ma paume j'ai té-ffri la substance J'vide la clope, j'roule mon pétou et j'lèche le collant Sous jack noir, coca cola j'suis free j'ai trop picolé Suce moi j'fais pas d'accolade j'suis pas là pour rigoler Y'a d'la peufra par ici argent facile, paresseux J'vais visser sur Paris 6 prêt à tout pour fair des sous J'suis dans la chatte à ta soeur ou avc les p'tits dans une inser' J'ai plus d' dans ma sacoche sauf quand j'ai tout visser J'baraude à fond dans la caisse elle fait les yeux doux elle veut que j'la baise Biff avant les meufs gros c'est la base donc laisse moi terminer tout mes dièses hanhan Terminer tout mes dièses hmmhmm Terminer tout mes dièses hanhan Terminer tout mes dièses hmmhmm Terminer tout mes dièses</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mmh-mmh Hey, it's Raedwav Nous, c'est la TH Mmh-mmh Demande à Shh Mmh-mmh Vingt-deux Mmh-mmh C'est mort, eh Mmh-mmh J'ai d'la bonne moula si tu veux ter-ach' Ter-ach', j'suis avec Saamou, mon boug de la TH De la TH J'conduis discrètement, y a la douane au péage Péage, j'vais les semer dans les embouteillages Yih-yih Si aux keufs, t'as dit des noms, faut qu'tu dégages, dégages Mmh-mmh, j'vendais du doré au treizième étage Mmh-mmh Sur la passerelle, quand j'étais au guettage Mmh-mmh, midi pile, c'est moi qui ngage, engage Eh-h J'ai fait des lignes mais j'tape pas d'dans Brr, raconte pas l'histoire si t'es pas d'dans Brr, brr, brr Chaque jours, j'vois le Sheitan qui danse Pah, j'envoie des boum, y a tout l'monde qui tremble Pa-pa-pah Péter l'million d'euros, j'y pense Grr, regarde le vécu de la vie, tu meurt Grr, pah J'visser d'la plante, des fois, d'la banche Pah, soit ça t'allume sinon, ça t'plante Pah, pah, boom, boom Dans la tchop, on attache Mmh-mmh, elle laisse pas de tache quand ses cheveux, elle attache Elle attache, mmh-mmh J'tape pas ses fesses, elle se fâche Fâche, maintenant, tu sais qu'la ne-chaî est ice Ice, ice, yih-yih J'ai les gants en latex, cambu, je laisse pas de trace Trace, y a plus rien à prendre, on se casse Mmh-mmh, casse, brr J'ai déjà mon acheteur pour la Rolex 'lex, j'finis de rouler mon pétou, je tasse, tasse Mmh-mmh, c'est cru You might also like On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' Touch Down, yih-yih Cent pour cent congolais, j'attire toutes les moussos, sur mes sons, elle fait des playbacks, sa re-su, j'allais visser des 'llos à la gare de Sceaux Au pays, j'me douchais avec un seau Seau, brr, force à tous ceux qui envoient des lassos Brr, brr J'ai charbonné, j'ai pas pété avec un son Son, une seule erreur, du bateau, tu sautes, sautes Eh-eh Y a pas d'Netflix, j'viens pour chiller Chiller, la cocaïne vient du Chili Chili La balle transperce ton gilet, t'as pas eu le temps de te repentir Yih-yih Il m'faut le Urus, Lamborghini Vroum, j'lui ai mis une balle, ça fait pas d'guilis Vroum, vroum J'veux voir toutes les bitchies en bikini Pah, les moussos, les moussos, sortez les minis Pa-pa-pah, uh-uh Dans la tchop, on attache Mmh-mmh, elle laisse pas de tache quand ses cheveux, elle attache Elle attache, mmh-mmh J'tape pas ses fesses, elle se fâche Fâche, maintenant, tu sais qu'la ne-chaî est ice Ice, ice, yih-yih J'ai les gants en latex, cambu, je laisse pas de trace Trace, y a plus rien à prendre, on se casse Mmh-mmh, casse, brr J'ai déjà mon acheteur pour la Rolex 'lex, j'finis de rouler mon pétou, je tasse, tasse Mmh-mmh, c'est cru On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' Touch down, yih-yih Ah-ah-ah Eh, j'suis une galère Les bes-jam, bes-jam, les bes-jam, bes-jam Brr Nous, c'est la TH Pah, pa-pa-pah</t>
+          <t>Mmh-mmh Hey, it's Raedwav Nous, c'est la TH Mmh-mmh Demande à Shh Mmh-mmh Vingt-deux Mmh-mmh C'est mort, eh Mmh-mmh J'ai d'la bonne moula si tu veux ter-ach' Ter-ach', j'suis avec Saamou, mon boug de la TH De la TH J'conduis discrètement, y a la douane au péage Péage, j'vais les semer dans les embouteillages Yih-yih Si aux keufs, t'as dit des noms, faut qu'tu dégages, dégages Mmh-mmh, j'vendais du doré au treizième étage Mmh-mmh Sur la passerelle, quand j'étais au guettage Mmh-mmh, midi pile, c'est moi qui ngage, engage Eh-h J'ai fait des lignes mais j'tape pas d'dans Brr, raconte pas l'histoire si t'es pas d'dans Brr, brr, brr Chaque jours, j'vois le Sheitan qui danse Pah, j'envoie des boum, y a tout l'monde qui tremble Pa-pa-pah Péter l'million d'euros, j'y pense Grr, regarde le vécu de la vie, tu meurt Grr, pah J'visser d'la plante, des fois, d'la banche Pah, soit ça t'allume sinon, ça t'plante Pah, pah, boom, boom Dans la tchop, on attache Mmh-mmh, elle laisse pas de tache quand ses cheveux, elle attache Elle attache, mmh-mmh J'tape pas ses fesses, elle se fâche Fâche, maintenant, tu sais qu'la ne-chaî est ice Ice, ice, yih-yih J'ai les gants en latex, cambu, je laisse pas de trace Trace, y a plus rien à prendre, on se casse Mmh-mmh, casse, brr J'ai déjà mon acheteur pour la Rolex 'lex, j'finis de rouler mon pétou, je tasse, tasse Mmh-mmh, c'est cru On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' Touch Down, yih-yih Cent pour cent congolais, j'attire toutes les moussos, sur mes sons, elle fait des playbacks, sa re-su, j'allais visser des 'llos à la gare de Sceaux Au pays, j'me douchais avec un seau Seau, brr, force à tous ceux qui envoient des lassos Brr, brr J'ai charbonné, j'ai pas pété avec un son Son, une seule erreur, du bateau, tu sautes, sautes Eh-eh Y a pas d'Netflix, j'viens pour chiller Chiller, la cocaïne vient du Chili Chili La balle transperce ton gilet, t'as pas eu le temps de te repentir Yih-yih Il m'faut le Urus, Lamborghini Vroum, j'lui ai mis une balle, ça fait pas d'guilis Vroum, vroum J'veux voir toutes les bitchies en bikini Pah, les moussos, les moussos, sortez les minis Pa-pa-pah, uh-uh Dans la tchop, on attache Mmh-mmh, elle laisse pas de tache quand ses cheveux, elle attache Elle attache, mmh-mmh J'tape pas ses fesses, elle se fâche Fâche, maintenant, tu sais qu'la ne-chaî est ice Ice, ice, yih-yih J'ai les gants en latex, cambu, je laisse pas de trace Trace, y a plus rien à prendre, on se casse Mmh-mmh, casse, brr J'ai déjà mon acheteur pour la Rolex 'lex, j'finis de rouler mon pétou, je tasse, tasse Mmh-mmh, c'est cru On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' Touch down, yih-yih Ah-ah-ah Eh, j'suis une galère Les bes-jam, bes-jam, les bes-jam, bes-jam Brr Nous, c'est la TH Pah, pa-pa-pah</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Que l'travail Yah, yah, yah Okay, c'est G, yeah Y a pas d'secret que l'travail, petit, garde ça en tête Yeah Tellement de gens comptent sur oi-m, j'te dis faut faire rentrer Yeah C'est des suceurs, ils avalent avant d'nous boycotter Yeah On les a mis de côté Grr, j'sais pas comment t'expliquer J'suis charismatique, ils disent que j'suis insolent depuis qu'j'ai mis l'single d'or dans mon salon Y a pas d'secret, petit, knde na mousala, le te-comp st blindé, j'attends pas le salaire uhuh Ah-ah, Genezio, si on en est là c'est grâce à la vision, j'passe à la radio, à la télévision Fini l'époque où j'passais sur l'Parisien Et aujourd'hui, dans mes poches, j'ai le prix du Pack M Le prix du Pack M, j'ai même pas la trentaine J'ai même pas la trentaine J'veux une femme comme moi qu'aime, même si elles sont pas fidèles Y a qu'du bon shit à fumer par ici, toute l'année, on prend des risques pour les sous Tu veux pas payer, tu rejoins les cieux, à part faire du son, j'avais pas d'issue uhuh J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain uhuh You might also like J'sais pas comment t'expliquer, j'passe ma nuit à cogiter Yeah, yeah Si demain, gros, ça tire, tire, très peu font les excités Nan On connait la vérité, non tu peux pas m'la mettre à moi, yeah J'connais l'vice d'en bas, yeah, j'connais l'vice d'en bas, yeah J'ai tout donné, j'ai rien lâché uhuh , j'ai charbonné, hiver, été uhuh J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh Demain, c'est loin, faut qu'j'trace mon chemin Yeah, yeah Quand j'm'en souviens, aucun soutien donc j'pars Elle veut qu'j'm'attache, elle oublie tout quand l'soir, j'l'attache N'en parlons peu, parlons en cash, moi y a que l'oseille en qui je m'attache J'ai réalisé mon rêve de collégien, j'y vois plus clair dans c'monde de chiens J'suis en folie, j'ai pas de chaine, à maman, j'paye nouvelle machine À maman, j'paye nouvelle machine Brr, que l'boulot, y a pas d'magie On est en colère dès qu'on agit, avec le temps, on s'assagit uhuh J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain uhuh J'sais pas comment t'expliquer, j'passe ma nuit à cogiter Yeah, yeah Si demain, gros, ça tire, tire, très peu font les excités Nan On connait la vérité, non tu peux pas m'la mettre à moi, yeah J'connais l'vice d'en bas, yeah, j'connais l'vice d'en bas, yeah J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh Okay, c'est G, cest Game Over Na-na-na-na-na-nah, yeah Na-na-na-na-na-nah, yeah</t>
+          <t>Que l'travail Yah, yah, yah Okay, c'est G, yeah Y a pas d'secret que l'travail, petit, garde ça en tête Yeah Tellement de gens comptent sur oi-m, j'te dis faut faire rentrer Yeah C'est des suceurs, ils avalent avant d'nous boycotter Yeah On les a mis de côté Grr, j'sais pas comment t'expliquer J'suis charismatique, ils disent que j'suis insolent depuis qu'j'ai mis l'single d'or dans mon salon Y a pas d'secret, petit, knde na mousala, le te-comp st blindé, j'attends pas le salaire uhuh Ah-ah, Genezio, si on en est là c'est grâce à la vision, j'passe à la radio, à la télévision Fini l'époque où j'passais sur l'Parisien Et aujourd'hui, dans mes poches, j'ai le prix du Pack M Le prix du Pack M, j'ai même pas la trentaine J'ai même pas la trentaine J'veux une femme comme moi qu'aime, même si elles sont pas fidèles Y a qu'du bon shit à fumer par ici, toute l'année, on prend des risques pour les sous Tu veux pas payer, tu rejoins les cieux, à part faire du son, j'avais pas d'issue uhuh J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain uhuh J'sais pas comment t'expliquer, j'passe ma nuit à cogiter Yeah, yeah Si demain, gros, ça tire, tire, très peu font les excités Nan On connait la vérité, non tu peux pas m'la mettre à moi, yeah J'connais l'vice d'en bas, yeah, j'connais l'vice d'en bas, yeah J'ai tout donné, j'ai rien lâché uhuh , j'ai charbonné, hiver, été uhuh J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh Demain, c'est loin, faut qu'j'trace mon chemin Yeah, yeah Quand j'm'en souviens, aucun soutien donc j'pars Elle veut qu'j'm'attache, elle oublie tout quand l'soir, j'l'attache N'en parlons peu, parlons en cash, moi y a que l'oseille en qui je m'attache J'ai réalisé mon rêve de collégien, j'y vois plus clair dans c'monde de chiens J'suis en folie, j'ai pas de chaine, à maman, j'paye nouvelle machine À maman, j'paye nouvelle machine Brr, que l'boulot, y a pas d'magie On est en colère dès qu'on agit, avec le temps, on s'assagit uhuh J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain uhuh J'sais pas comment t'expliquer, j'passe ma nuit à cogiter Yeah, yeah Si demain, gros, ça tire, tire, très peu font les excités Nan On connait la vérité, non tu peux pas m'la mettre à moi, yeah J'connais l'vice d'en bas, yeah, j'connais l'vice d'en bas, yeah J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh Okay, c'est G, cest Game Over Na-na-na-na-na-nah, yeah Na-na-na-na-na-nah, yeah</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Comment tu m'as vu, j'suis pas mécra En mode biture bah Cocorico, machin sous le tricot Je t'emballes comme un cadeau 500 metres, c'est fatiguant Tomber derriere, c'est epuisant Faut le disque d'or a la maison sur la terter Dans la tess, tout les jours dans la tess, toi tu fi J'ai les condes au cul, mais je m'arrete pas J'ai vendu des rrettes-ba, j'etait autant dans la sel3a Si tu fais le fou on t'allumera, on tape pas quand tu tiens tant pas Dans la tess, j'ai vendu du C J'ai sign, mais j'suis toujours dans le sal Dans la tess, tous les jours c'st le zoo c'est le zoo Les histoires, ce doux six-coups six-coups J'ai mal au crane quand j'entends ce patrouille Avant de m'faire canner, j'fais le tour de la zone tour de la zone Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Dans la tess, j'pete le champagne, j'ai pas fini menotte Y a mes illes-cou qui m'accompagnent, si j'dois finir en beaute Y a des sous donc des potes en moins Ca visser dans le batiment On opere quand y a pas d'temoins Et les poucaves connaissent le chatiment eeh eeh You might also like On est les boss de notre categorie categorie On viens tout prendre, reviens pas decorer pas decorer Je vais te planter si tu t'en prends a glory prends a glory On coupe le fromage en quatre comme des rats comme des rats J'ai mon sirop peche-melon, j'ai mon ame pour la melo la melo Il est droit comme Lamela, on n'a vecu pas dans la melee Dans la tess, tous les jours c'est le zoo c'est le zoo Les histoires, ce doux six-coups six-coups J'ai mal au crane quand j'entends ce patrouille Avant de m'faire canner, j'fais le tour de la zone tour de la zone Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Dit moi qui m'a donnee, a manger quand j'avais faim Au quartier abonne, les gens quete, t'inquietes pas Dit moi qui m'a donnee, a manger quand j'avais faim Au quartier abonne, les gens quete, t'inquietes pas</t>
+          <t>Comment tu m'as vu, j'suis pas mécra En mode biture bah Cocorico, machin sous le tricot Je t'emballes comme un cadeau 500 metres, c'est fatiguant Tomber derriere, c'est epuisant Faut le disque d'or a la maison sur la terter Dans la tess, tout les jours dans la tess, toi tu fi J'ai les condes au cul, mais je m'arrete pas J'ai vendu des rrettes-ba, j'etait autant dans la sel3a Si tu fais le fou on t'allumera, on tape pas quand tu tiens tant pas Dans la tess, j'ai vendu du C J'ai sign, mais j'suis toujours dans le sal Dans la tess, tous les jours c'st le zoo c'est le zoo Les histoires, ce doux six-coups six-coups J'ai mal au crane quand j'entends ce patrouille Avant de m'faire canner, j'fais le tour de la zone tour de la zone Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Dans la tess, j'pete le champagne, j'ai pas fini menotte Y a mes illes-cou qui m'accompagnent, si j'dois finir en beaute Y a des sous donc des potes en moins Ca visser dans le batiment On opere quand y a pas d'temoins Et les poucaves connaissent le chatiment eeh eeh On est les boss de notre categorie categorie On viens tout prendre, reviens pas decorer pas decorer Je vais te planter si tu t'en prends a glory prends a glory On coupe le fromage en quatre comme des rats comme des rats J'ai mon sirop peche-melon, j'ai mon ame pour la melo la melo Il est droit comme Lamela, on n'a vecu pas dans la melee Dans la tess, tous les jours c'est le zoo c'est le zoo Les histoires, ce doux six-coups six-coups J'ai mal au crane quand j'entends ce patrouille Avant de m'faire canner, j'fais le tour de la zone tour de la zone Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Dit moi qui m'a donnee, a manger quand j'avais faim Au quartier abonne, les gens quete, t'inquietes pas Dit moi qui m'a donnee, a manger quand j'avais faim Au quartier abonne, les gens quete, t'inquietes pas</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Un, dos, tres, quatro Mmh-mmh Uh-uh Mmh-mmh Yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Han Han, grr Grr, hey Hey Faut qu'j'arrive cée-per, ils vont être sans voix Sans voix, t'entends pas quand j'te dis Envoie tout ? La première fois, c'était dans une tour Yih-yih, la dernière fois d'vant la Eiffel Tour La Tour Eiffel J'me roule un tou-pé, j'arrête les ballons, j'ai failli caner J'ai failli dead C'est devenu banal pour les tits-pe qu'j'leurs prennent des canettes Canettes J'suis au studio avec mes gadayes Gadayes, en pagaille quand le son, il graille Fort Elles m'intéresse pas vos médailles Yih-yih, moi, j'suis juste là pour gagner d'la maille On vient chez vous, on fait pas d'détaille Détaille, j'suis trop gradé comme rival J'suis beaucoup trop croyant, donc j'ai pas peur de l'il des gens Le fait d'avoir des sous m'as rendu plus intelligent J'suis un mec de cité, j'dirais rien d'vant monsieur l'agent J'avais besoin d'argent, j'étais moins hilarant Han-han-han You might also like Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh Même si chanter, c'est pas bien Pas bien, j'm'arrête jamais de pas mbola Mbola Il revient bientôt, faut mais il m'faut les streams de Umbrella Mmh-mmh Y a maman ici, papa là-bas Mmh-mmh, je peux pas m'permettre d'être faucher là Mmh-mmh Every day, j'fais rentrer d'la moula Mmh-mmh, j'mets ma part dans le likelemba Yih-yih Sortez les robes, robes Robes, ça fait mieux ressortir les formes, formes Formes J'calcule pas les gens qui dorment, dorment Dorment, j'ai besoin de garder la forme, forme Uh-uh J'suis entrain d'baisser les stores, stores Uh-uh, après fini, j'le vois nu son corps, corps J'ai raison même quand j'ai tort, tort, c'est Gambino, le marteau de Thor J'suis beaucoup trop croyant, donc j'ai pas peur de l'il des gens Le fait d'avoir des sous m'as rendu plus intelligent J'suis un mec de cité, j'dirais rien d'vant monsieur l'agent J'avais besoin d'argent, j'étais moins hilarant Han-han-han Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh</t>
+          <t>Un, dos, tres, quatro Mmh-mmh Uh-uh Mmh-mmh Yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Han Han, grr Grr, hey Hey Faut qu'j'arrive cée-per, ils vont être sans voix Sans voix, t'entends pas quand j'te dis Envoie tout ? La première fois, c'était dans une tour Yih-yih, la dernière fois d'vant la Eiffel Tour La Tour Eiffel J'me roule un tou-pé, j'arrête les ballons, j'ai failli caner J'ai failli dead C'est devenu banal pour les tits-pe qu'j'leurs prennent des canettes Canettes J'suis au studio avec mes gadayes Gadayes, en pagaille quand le son, il graille Fort Elles m'intéresse pas vos médailles Yih-yih, moi, j'suis juste là pour gagner d'la maille On vient chez vous, on fait pas d'détaille Détaille, j'suis trop gradé comme rival J'suis beaucoup trop croyant, donc j'ai pas peur de l'il des gens Le fait d'avoir des sous m'as rendu plus intelligent J'suis un mec de cité, j'dirais rien d'vant monsieur l'agent J'avais besoin d'argent, j'étais moins hilarant Han-han-han Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh Même si chanter, c'est pas bien Pas bien, j'm'arrête jamais de pas mbola Mbola Il revient bientôt, faut mais il m'faut les streams de Umbrella Mmh-mmh Y a maman ici, papa là-bas Mmh-mmh, je peux pas m'permettre d'être faucher là Mmh-mmh Every day, j'fais rentrer d'la moula Mmh-mmh, j'mets ma part dans le likelemba Yih-yih Sortez les robes, robes Robes, ça fait mieux ressortir les formes, formes Formes J'calcule pas les gens qui dorment, dorment Dorment, j'ai besoin de garder la forme, forme Uh-uh J'suis entrain d'baisser les stores, stores Uh-uh, après fini, j'le vois nu son corps, corps J'ai raison même quand j'ai tort, tort, c'est Gambino, le marteau de Thor J'suis beaucoup trop croyant, donc j'ai pas peur de l'il des gens Le fait d'avoir des sous m'as rendu plus intelligent J'suis un mec de cité, j'dirais rien d'vant monsieur l'agent J'avais besoin d'argent, j'étais moins hilarant Han-han-han Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Les mecs d'à côté veulent nous ressembler C'qui est bien dans ma ville c'est qu'on est tous en bleu Si tu viens ici tu repars avec des bleus A l'école j'notais pas c'qui y'avait sur l'tableau Quand j'avais pas d'buzz des fois les gow me laissaient en plan une fois après avoir payé la bre J'ai préféré revendre le shit et la beuh le million sur YouTube J'fais des millions d'vues j'roule en Clio 3 J'ai des inspirations venues d'autre part La meuf est piquée mais j'ai pas de Audemart Si j'la baise c'est que j'lai fait rire comme Omar Sy J'abrège quand j'suis devant la victime J'ai cassé des têtes jamais cassé de vitrines Fuck le 17 mais pas Vitinha Je savais que j'étais fait pour le dehorsYou might also like</t>
+          <t>Les mecs d'à côté veulent nous ressembler C'qui est bien dans ma ville c'est qu'on est tous en bleu Si tu viens ici tu repars avec des bleus A l'école j'notais pas c'qui y'avait sur l'tableau Quand j'avais pas d'buzz des fois les gow me laissaient en plan une fois après avoir payé la bre J'ai préféré revendre le shit et la beuh le million sur YouTube J'fais des millions d'vues j'roule en Clio 3 J'ai des inspirations venues d'autre part La meuf est piquée mais j'ai pas de Audemart Si j'la baise c'est que j'lai fait rire comme Omar Sy J'abrège quand j'suis devant la victime J'ai cassé des têtes jamais cassé de vitrines Fuck le 17 mais pas Vitinha Je savais que j'étais fait pour le dehors</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rigolades Do you object to working late hours, Mr. Levi? Not at all Ay Lucid Turn That Shit Up Mmm mmm J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous ls jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on st prêt à faire pour faire de l'oseille lalala G-A-M, B-I-N-O Rappeurétudiant, pas gangster J'ai juste revendu un peu de guedro guedro J'ai pas de gros bras, donc il y a les métaux métaux En cas d'pépin, y a GD et Joe eeh eeh Le teuchi rend paro Elle veut que j'aille lui casser son dos Mais c'est niqué faut que j'y aille au studio non De toute facon, j'y vais écouter une autre folle autre folle J'ai beaucoup de nudes dans mon téléphone mon phone On peut même dire que j'les colléctionnes léctionnes Pour chaque match on me sélectionne mmm mmm C'est moi le prochain talent de l'Essonne J'ai même des connéxions dans les cités de London London Trafford, Brixton, Leytonstone mmm mmm J'vais être connu partout comme Werrason J'suis dans l'fond du binks, j'récompte, j'revends J'fais que d'augmenter les stats yah Paie moi avant la date, ou on descend chez toi comme à Kattagat On me dis t'es trop fort ça me flatte Mais ils ne partagent pas mes teaseurs sur Snapchat yah yah J'suis dans sa chatte, j'lui fait du catch, doggy-style, que des smash eeh eeh You might also like J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala Rigolades Do you object to working late hours, Mr. Levi? Not at all Rigolades</t>
+          <t>Rigolades Do you object to working late hours, Mr. Levi? Not at all Ay Lucid Turn That Shit Up Mmm mmm J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous ls jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on st prêt à faire pour faire de l'oseille lalala G-A-M, B-I-N-O Rappeurétudiant, pas gangster J'ai juste revendu un peu de guedro guedro J'ai pas de gros bras, donc il y a les métaux métaux En cas d'pépin, y a GD et Joe eeh eeh Le teuchi rend paro Elle veut que j'aille lui casser son dos Mais c'est niqué faut que j'y aille au studio non De toute facon, j'y vais écouter une autre folle autre folle J'ai beaucoup de nudes dans mon téléphone mon phone On peut même dire que j'les colléctionnes léctionnes Pour chaque match on me sélectionne mmm mmm C'est moi le prochain talent de l'Essonne J'ai même des connéxions dans les cités de London London Trafford, Brixton, Leytonstone mmm mmm J'vais être connu partout comme Werrason J'suis dans l'fond du binks, j'récompte, j'revends J'fais que d'augmenter les stats yah Paie moi avant la date, ou on descend chez toi comme à Kattagat On me dis t'es trop fort ça me flatte Mais ils ne partagent pas mes teaseurs sur Snapchat yah yah J'suis dans sa chatte, j'lui fait du catch, doggy-style, que des smash eeh eeh J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala Rigolades Do you object to working late hours, Mr. Levi? Not at all Rigolades</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Yah, yah, yah, yah J'suis dans ma cité, oh Cité, oh Eh-eh J'arrive par derrière comme Rangers d'hommes pour arracher ta chaîne en or Mmh-mmh J'viens cagouler pour braquer le game Mmh-mmh, j'veux voir tout l'monde les mains en l'air En l'air En direct du hood, j'ai ma paire de TN, j'ai mis mon cache-cou, ma the-Nor Fais pas le vouyou, on t'connaît, c'que tu rap, c'est des paroles en l'air J'me fou qu'tes pas pris mon parti, les hendek, les flics de partout Arrête de mentir, t'es qu'un batteur, reviens pas nous kleh, non, gare à toi Gosse de quartier, karembi, tu vas prendre pour toi, calmi Posée sous ck-Ja, pas On fume le bédo, on touche pas, on nie Aller, bolo ké musique, suck ma dick, ma tchop et mon flingue sont automatique V'-esqui les chickens, très mystique, j'arrive en chaud, ma chérie, prends un ticket J'suis en bas du bât', j'ai gravé mon blase au briquet sur les murs Elle est indépendante et très mature, elle mérite que je paye la manucure Sa mère, là, j'suis mort abusé, j'lèche la djon djou, abusée J'perds tout mes moyens, j'suis bizarre, j'ai sorti l'fer, j'suis busy La djon djou est bizarre Ah, la djon djou est bizarre Les gars, là, j'suis mort abusé Les gars, là, j'suis mort abusé, eh-eh Gambino, Chily, wo, wo, wo J'reste pas toute la nuit, elle est wo, wo, wo J'les vu sur Insta', j'ai cru qu'c'était un paquet J'avais liker toutes ces photos, elle m'as fait craqué Eh-eh You might also like Elle désire la sécurité Sécurité, je passe mon temps a pas dormir Chez moi, c'est déjà trop les ennuies Les ennuies, Paris, la nuit, les zombies Ah-ah Si les hendek déboulent, walaye, c'est la merde, oui Je la prends, j'la retourne et après, je lui demande de kill Uh-uh, hum, pah, pah Dans mon dos, ils m'demandent si ça va, j'suis pas con, j'fais juste comme si j'sais pas J'ai que des terrains sur mon CV, j'vends rien d'légal, à part, des CD Pour la mi-f', je compte pas les dépenses, la Caille, j'la connais, j'suis dedans Chez moi, c'est déjà trop les ennuies, je passe mon temps à pas dormir Aller, bolo ké musique, suck ma dick, ma tchop et mon flingue sont automatique V'-esqui les chickens, très mystique, j'arrive en chaud, ma chérie, prends un ticket J'suis en bas du bât', j'ai gravé mon blase au briquet sur les murs Elle est indépendante et très mature, elle mérite que je paye la manucure Sa mère, là, j'suis mort abusé, j'lèche la djon djou, abusée J'perds tout mes moyens, j'suis bizarre, j'ai sorti l'fer, j'suis busy La djon djou est bizarre Ah, la djon djou est bizarre Les gars, là, j'suis mort abusé Les gars, là, j'suis mort abusé, eh-eh Gambino, Chily, wo, wo, wo J'reste pas toute la nuit, elle est wo, wo, wo J'les vu sur Insta', j'ai cru qu'c'était un paquet J'avais liker toutes ces photos, elle m'as fait craqué Eh-eh Yeh, bébé, t'es un cas Mmh-mmh Gam-, Gambino, tu parle trop de gue-dro Gambino, Chily, wo, wo, wo Yeh, bébé, t'es un cas Mmh-mmh J'ai vécu dans ça, c'est pas d'ma faute Gambino, Chily, wo, wo, wo, eh-eh Sa mère, là, j'suis mort abusé, j'lèche la djon djou, abusée J'perds tout mes moyens, j'suis bizarre, j'ai sorti l'fer, j'suis busy La djon djou est bizarre Ah, la djon djou est bizarre Les gars, là, j'suis mort abusé Les gars, là, j'suis mort abusé, eh-eh Gambino, Chily, wo, wo, wo J'reste pas toute la nuit, elle est wo, wo, wo J'les vu sur Insta', j'ai cru qu'c'était un paquet J'avais liker toutes ces photos, elle m'as fait craqué Gambino, Chily, wo, wo, wo Gam-, Gambino, tu parle trop de gue-dro Gambino, tu parle trop de gue-dro Gambino, Chily, wo, wo, wo J'ai vécu dans ça, c'est pas d'ma faute J'ai vécu dans ça, c'est pas d'ma faute Yeh, bébé, t'es un cas</t>
+          <t>Yah, yah, yah, yah J'suis dans ma cité, oh Cité, oh Eh-eh J'arrive par derrière comme Rangers d'hommes pour arracher ta chaîne en or Mmh-mmh J'viens cagouler pour braquer le game Mmh-mmh, j'veux voir tout l'monde les mains en l'air En l'air En direct du hood, j'ai ma paire de TN, j'ai mis mon cache-cou, ma the-Nor Fais pas le vouyou, on t'connaît, c'que tu rap, c'est des paroles en l'air J'me fou qu'tes pas pris mon parti, les hendek, les flics de partout Arrête de mentir, t'es qu'un batteur, reviens pas nous kleh, non, gare à toi Gosse de quartier, karembi, tu vas prendre pour toi, calmi Posée sous ck-Ja, pas On fume le bédo, on touche pas, on nie Aller, bolo ké musique, suck ma dick, ma tchop et mon flingue sont automatique V'-esqui les chickens, très mystique, j'arrive en chaud, ma chérie, prends un ticket J'suis en bas du bât', j'ai gravé mon blase au briquet sur les murs Elle est indépendante et très mature, elle mérite que je paye la manucure Sa mère, là, j'suis mort abusé, j'lèche la djon djou, abusée J'perds tout mes moyens, j'suis bizarre, j'ai sorti l'fer, j'suis busy La djon djou est bizarre Ah, la djon djou est bizarre Les gars, là, j'suis mort abusé Les gars, là, j'suis mort abusé, eh-eh Gambino, Chily, wo, wo, wo J'reste pas toute la nuit, elle est wo, wo, wo J'les vu sur Insta', j'ai cru qu'c'était un paquet J'avais liker toutes ces photos, elle m'as fait craqué Eh-eh Elle désire la sécurité Sécurité, je passe mon temps a pas dormir Chez moi, c'est déjà trop les ennuies Les ennuies, Paris, la nuit, les zombies Ah-ah Si les hendek déboulent, walaye, c'est la merde, oui Je la prends, j'la retourne et après, je lui demande de kill Uh-uh, hum, pah, pah Dans mon dos, ils m'demandent si ça va, j'suis pas con, j'fais juste comme si j'sais pas J'ai que des terrains sur mon CV, j'vends rien d'légal, à part, des CD Pour la mi-f', je compte pas les dépenses, la Caille, j'la connais, j'suis dedans Chez moi, c'est déjà trop les ennuies, je passe mon temps à pas dormir Aller, bolo ké musique, suck ma dick, ma tchop et mon flingue sont automatique V'-esqui les chickens, très mystique, j'arrive en chaud, ma chérie, prends un ticket J'suis en bas du bât', j'ai gravé mon blase au briquet sur les murs Elle est indépendante et très mature, elle mérite que je paye la manucure Sa mère, là, j'suis mort abusé, j'lèche la djon djou, abusée J'perds tout mes moyens, j'suis bizarre, j'ai sorti l'fer, j'suis busy La djon djou est bizarre Ah, la djon djou est bizarre Les gars, là, j'suis mort abusé Les gars, là, j'suis mort abusé, eh-eh Gambino, Chily, wo, wo, wo J'reste pas toute la nuit, elle est wo, wo, wo J'les vu sur Insta', j'ai cru qu'c'était un paquet J'avais liker toutes ces photos, elle m'as fait craqué Eh-eh Yeh, bébé, t'es un cas Mmh-mmh Gam-, Gambino, tu parle trop de gue-dro Gambino, Chily, wo, wo, wo Yeh, bébé, t'es un cas Mmh-mmh J'ai vécu dans ça, c'est pas d'ma faute Gambino, Chily, wo, wo, wo, eh-eh Sa mère, là, j'suis mort abusé, j'lèche la djon djou, abusée J'perds tout mes moyens, j'suis bizarre, j'ai sorti l'fer, j'suis busy La djon djou est bizarre Ah, la djon djou est bizarre Les gars, là, j'suis mort abusé Les gars, là, j'suis mort abusé, eh-eh Gambino, Chily, wo, wo, wo J'reste pas toute la nuit, elle est wo, wo, wo J'les vu sur Insta', j'ai cru qu'c'était un paquet J'avais liker toutes ces photos, elle m'as fait craqué Gambino, Chily, wo, wo, wo Gam-, Gambino, tu parle trop de gue-dro Gambino, tu parle trop de gue-dro Gambino, Chily, wo, wo, wo J'ai vécu dans ça, c'est pas d'ma faute J'ai vécu dans ça, c'est pas d'ma faute Yeh, bébé, t'es un cas</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Gambino_La_MG_songs.xlsx
+++ b/data/02_intermediate/cleaned_Gambino_La_MG_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rentre dans le 91</t>
+          <t>Reste-là</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP Février - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. Odbussy 2509 JaySoCold - B.T.S - 2509 La Mano 1.9 - I'M SO</t>
+          <t>Shiruken Music J'ai les trucs qui faut et les bons contacts Mmh, mmh, des méchants copains qui s'fâchent Mmh, mmh Qui te découpent à la hache pour du papier, peu importe ton âge C'est le papier qui fait qu'on s'couche tard Han, han, pour contrôler le mitard Han, han J'rabattais même après la mi-temps, j'sais qu'ils reconnaissent le point de vente J'ai commencé comme tout l'monde par la Lyca' Ah, aujourd'hui, le drive, il fait 10K Ah Aujourd'hui, le drive, il fait dix balles, attention au revers de la médaille Eux, ils savent très bien Ah, pu de temps pour qu'on s'expliqu Ah .9 milli' pour un self Ah, chez nous, ça pointe comme à l'escrime Ah Ils m'ont délaissé quand j'avais pas le niveau, j'les ai devancés mais j'leur ai tendus la main En vérité, moi, j'ai toujours fait ce qu'il faut, j't'ai aidé la veille mais t'oublies le lendemain Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Et dans l'bloc, ça sent la fumette, la voisine commence à bouler Sur le jogging, que des trous d'boulettes et les tits-pe commencent à dealer, ouais Commencent à dealer, ouais Ouais, le tit-pe commence à dealer Eh, eh, sacré dilemme, il revend celle qui rend débile Mmh, mmh Le gérant d'à-côté a les boules Mmh, mmh, il songe à lui mettre une balle Mmh, mmh La rue, c'est cru, c'est pas cool Eh, eh A-, après, ça veut graille dans ton salaire Salaire, on s'quitte sur des manières Manières Sans se dire à t'-a l'heure Jamais, jamais j'leur donnerai Jamais, jamais j'pardonnerai Eh, eh Ils m'ont délaissé quand j'avais pas le niveau Eh, eh, j'les ai devancés mais j'leur ai tendus la main Eh, eh En vérité, moi, j'ai toujours fait ce qu'il faut Eh, eh, j't'ai aidé la veille mais t'oublies le lendemain Eh, eh Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Et les tits-pe commencent à dealer, ouais Surveille le bendo Shiruken Music Ouais, les tits-pe commence à dealer Surveille le bendo</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reste-là</t>
+          <t>Pop Smoke #8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shiruken Music J'ai les trucs qui faut et les bons contacts Mmh, mmh, des méchants copains qui s'fâchent Mmh, mmh Qui te découpent à la hache pour du papier, peu importe ton âge C'est le papier qui fait qu'on s'couche tard Han, han, pour contrôler le mitard Han, han J'rabattais même après la mi-temps, j'sais qu'ils reconnaissent le point de vente J'ai commencé comme tout l'monde par la Lyca' Ah, aujourd'hui, le drive, il fait 10K Ah Aujourd'hui, le drive, il fait dix balles, attention au revers de la médaille Eux, ils savent très bien Ah, pu de temps pour qu'on s'expliqu Ah .9 milli' pour un self Ah, chez nous, ça pointe comme à l'escrime Ah Ils m'ont délaissé quand j'avais pas le niveau, j'les ai devancés mais j'leur ai tendus la main En vérité, moi, j'ai toujours fait ce qu'il faut, j't'ai aidé la veille mais t'oublies le lendemain Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Et dans l'bloc, ça sent la fumette, la voisine commence à bouler Sur le jogging, que des trous d'boulettes et les tits-pe commencent à dealer, ouais Commencent à dealer, ouais Ouais, le tit-pe commence à dealer Eh, eh, sacré dilemme, il revend celle qui rend débile Mmh, mmh Le gérant d'à-côté a les boules Mmh, mmh, il songe à lui mettre une balle Mmh, mmh La rue, c'est cru, c'est pas cool Eh, eh A-, après, ça veut graille dans ton salaire Salaire, on s'quitte sur des manières Manières Sans se dire à t'-a l'heure Jamais, jamais j'leur donnerai Jamais, jamais j'pardonnerai Eh, eh Ils m'ont délaissé quand j'avais pas le niveau Eh, eh, j'les ai devancés mais j'leur ai tendus la main Eh, eh En vérité, moi, j'ai toujours fait ce qu'il faut Eh, eh, j't'ai aidé la veille mais t'oublies le lendemain Eh, eh Hein, j'le fais pour les miens Si j'le fais pas, qui le fera à ma ce-pla ? C'est pas de ma faute Eh, eh si j'fais les pesos Si j'fais les pesos, si j'attire les gens Si j'attire les gens Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh J'fais pas exprès de plaire, ils veulent me ressembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Pourtant, j'ai tout essayé pour nous rassembler Vas-y, reste là Vas-y, reste là, surveille le bendo Surveille le bendo, mmh, mmh Et les tits-pe commencent à dealer, ouais Surveille le bendo Shiruken Music Ouais, les tits-pe commence à dealer Surveille le bendo</t>
+          <t>Yih ih, Yih ih 9.1.9.4.0 zéro Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Ok, ok Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Nic-So Yih ih Si tu veux barber ma part ma part Ensemble tout noir Under Armour Armour J'ai le six coups dans mon armoire armoire Deux mecs sur un T-Max, ça fait un mort mort J'ai raison même quand j'ai tord j'ai tord Mais ces putains veulent me faire taire faire taire J'fume du kamas, j'fais pas de sport Ok C'est pas les abdos qui font la guerre Yih ih J'fais la fête dans le cul de ta folle ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école de l'école Trahir ses copains, c'est pas cool Tu crache sur son dos mais tu l'tcheck de l'épaule de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Hm, hm Yih ih Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Smoke Et dans la kitchen C'est Blacki qui cook Beuh, Shit, Coke Coke Comme Pop Smoke Smoke</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pop Smoke #8</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yih ih, Yih ih 9.1.9.4.0 zéro Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Ok, ok Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Nic-So Yih ih Si tu veux barber ma part ma part Ensemble tout noir Under Armour Armour J'ai le six coups dans mon armoire armoire Deux mecs sur un T-Max, ça fait un mort mort J'ai raison même quand j'ai tord j'ai tord Mais ces putains veulent me faire taire faire taire J'fume du kamas, j'fais pas de sport Ok C'est pas les abdos qui font la guerre Yih ih J'fais la fête dans le cul de ta folle ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école de l'école Trahir ses copains, c'est pas cool Tu crache sur son dos mais tu l'tcheck de l'épaule de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Hm, hm Yih ih Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Smoke Et dans la kitchen C'est Blacki qui cook Beuh, Shit, Coke Coke Comme Pop Smoke Smoke</t>
+          <t>C'est Gambino la M, j'ai tous les Ulis derrière moi C'est Gambino la M, j'suis avec le vieux Marufa Posé sur Evry des fois C'est Gambino la M, j'ai tous les Ulis derrière moi J'suis avec le vieux Marufa, posé sur Evry des fois J'ai un zincou canalois, quand y'a heja il parle pas chinois J'ai beaucoup d'collègues à moi à moi vers Saint-Geneviève des bois N104, j'suis vers Corbeil, récupère mon pote à la semi Faut qu'j'ramène la daronne à Gradi, voir son fils au parloir à Fleury C'est violent dans mon 91 oh, oh ça shoot dans mon 91 uhuh C'est violent dans mon 91 hey, hey ça shoot dans mon 91 uhuh C'est violent dans mon 91, brrr, brrr ça shoot dans mon 91 uhuh C'est violent dans mon 91 Yiii ça shoot dans mon 91 uhuh J'veux voir jouer Antony à Old Trafford 'ford à Grigny ça allume les porcs porcs Donc ils appellent des renforts, S.O Kai Du MD-Ru des Comores J'suis à Vigneux avec Machine Machine à Epinay sous Sénart ça tchin ça tchin Dans mon 91 ça trafique, à Etampes ou à Savigny Mm-mm C'est violent dans mon 91 Mm-mm, oh, oh ça shoot dans mon 91 Mm-mm C'est violent dans mon 91 Gang-Gang, ça shoot dans mon 91 uhuh C'est violent dans mon 91 Gang-Gang ça shoot dans mon 91 uhuh C'est violent dans mon 91 Mm-mm, ça shoot dans mon 91 uhuh J'suis au zoo avec Demba et Nigoto J'suis à Ris avec Kamas, ou vers Athis avec Braikho À Chilly ou à Longjumeau, à Massy, y a qu'à Zola qu'j'ai des bons frérots</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C'est Gambino la M, j'ai tous les Ulis derrière moi C'est Gambino la M, j'suis avec le vieux Marufa Posé sur Evry des fois C'est Gambino la M, j'ai tous les Ulis derrière moi J'suis avec le vieux Marufa, posé sur Evry des fois J'ai un zincou canalois, quand y'a heja il parle pas chinois J'ai beaucoup d'collègues à moi à moi vers Saint-Geneviève des bois N104, j'suis vers Corbeil, récupère mon pote à la semi Faut qu'j'ramène la daronne à Gradi, voir son fils au parloir à Fleury C'est violent dans mon 91 oh, oh ça shoot dans mon 91 uhuh C'est violent dans mon 91 hey, hey ça shoot dans mon 91 uhuh C'est violent dans mon 91, brrr, brrr ça shoot dans mon 91 uhuh C'est violent dans mon 91 Yiii ça shoot dans mon 91 uhuh J'veux voir jouer Antony à Old Trafford 'ford à Grigny ça allume les porcs porcs Donc ils appellent des renforts, S.O Kai Du MD-Ru des Comores J'suis à Vigneux avec Machine Machine à Epinay sous Sénart ça tchin ça tchin Dans mon 91 ça trafique, à Etampes ou à Savigny Mm-mm C'est violent dans mon 91 Mm-mm, oh, oh ça shoot dans mon 91 Mm-mm C'est violent dans mon 91 Gang-Gang, ça shoot dans mon 91 uhuh C'est violent dans mon 91 Gang-Gang ça shoot dans mon 91 uhuh C'est violent dans mon 91 Mm-mm, ça shoot dans mon 91 uhuh J'suis au zoo avec Demba et Nigoto J'suis à Ris avec Kamas, ou vers Athis avec Braikho À Chilly ou à Longjumeau, à Massy, y a qu'à Zola qu'j'ai des bons frérots</t>
+          <t>TripleNBeat, tu le sais, maintenant Haze Jsuis au fond du bâtiment, jfume un pète en bas d'chez moi Chez moi Sur moi, jai du Moschino 'schino, jsuis pas dans la magie noir Magie noir Les condés enquête, jai cramé ma tête, jsuis pas dans la zone, ce soir Ce soir Ils font pas dloseille, ils parlent sur le net, jles écoutes pas, ah, jsuis mort Ah, j'suis mort, uh-uh De la Calle, jveux men aller J'veux m'en aller, pour linstant, jvois les clients défilé dans lallée, hey, hey Mmh-mmh Tout à commencer sur Insta' Eh, j'suis lancé, jdois pas me rater Jai même fini sur Booska-P Sur moi, jai l Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Si tu tires pas, sort pas darmes D'armes, on reviendra pour tallumer 'llumer Si tu baises pas, mappel pas Pas, jsuis pas là pour te câliner 'liner Jveux pas m'faire pété quand jramène le sac, jsuis ganté Jaime bien quand les choses sont rangé et quand les boloss sont alignées Grr Le rap, cest du blanchiment 'chiment, on trafic a travers le continent 'tinent On dérange les résidents 'sidents, y a des nouvelles tête a la mi-temps Mi-temps, mi-temps Jveux pas finir sur la paille, donc je vais chercher la maille Maille On peut rien obtenir à lil hey hey Sur moi, jai le Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>Alysha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TripleNBeat, tu le sais, maintenant Haze Jsuis au fond du bâtiment, jfume un pète en bas d'chez moi Chez moi Sur moi, jai du Moschino 'schino, jsuis pas dans la magie noir Magie noir Les condés enquête, jai cramé ma tête, jsuis pas dans la zone, ce soir Ce soir Ils font pas dloseille, ils parlent sur le net, jles écoutes pas, ah, jsuis mort Ah, j'suis mort, uh-uh De la Calle, jveux men aller J'veux m'en aller, pour linstant, jvois les clients défilé dans lallée, hey, hey Mmh-mmh Tout à commencer sur Insta' Eh, j'suis lancé, jdois pas me rater Jai même fini sur Booska-P Sur moi, jai l Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Si tu tires pas, sort pas darmes D'armes, on reviendra pour tallumer 'llumer Si tu baises pas, mappel pas Pas, jsuis pas là pour te câliner 'liner Jveux pas m'faire pété quand jramène le sac, jsuis ganté Jaime bien quand les choses sont rangé et quand les boloss sont alignées Grr Le rap, cest du blanchiment 'chiment, on trafic a travers le continent 'tinent On dérange les résidents 'sidents, y a des nouvelles tête a la mi-temps Mi-temps, mi-temps Jveux pas finir sur la paille, donc je vais chercher la maille Maille On peut rien obtenir à lil hey hey Sur moi, jai le Moschino Moschino Jai mis les affaires dans le sac de sport Sac de sport Ah, jsuis mort Ah, jsuis mort Tout l'monde a glissé, cest la patinoire Y a pas longtemps 'temps, jvolais comme Aladdin Hey, hey Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Y a pas longtemps 'temps, jvolais comme Aladdin Aladdin Ça a changé, je baise Jasmine, cest moi, le prince Hey, hey Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Jv'-esqui les mbilas M'bilas, jai vendu la cocaïna Vendu la cocaïna Jai vendu la cocaïna, jv'-esqui les mbilas M'bilas, jai vendu la cocaïna</t>
+          <t>Ouh-ouh Mmh-mmh Tou-tou-touah Mmh-mmh Eh Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-panTu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi Bébé, attends-moi Han, j'ai un plan Nicki, han-han, le kil' est scotché, on y va quand ? Go La moitié ne rentre pas dans ma valise donc j'cache la moitié dans tes implants Direction Roissy Sur le T, j'suis comme Dickerson À l'affût, accroche tes crampons, woah, woah J'entends des voix, j'bédave pour dix personnes Et mon djinn me chante une chanson, tou-tou-touah, tou-tou-touah, uh-uh Juge pas sans savoir, tu sais pas c'que j'fais quand j'finis mon Tik Tok Hi-hi Si tu fais pas rentrer d'papel, à quoi bon srt de savoir se tape ? Savoir s tape, mmh-mmh Y a que si tu viens pé-cho que je peux te donner l'accès au hall Hall Access J'ai grandi avec des Zinedine, des Bryan et des Souleymane Souleymane Eh, casse le neiman, avec Souleymane Rah, brr, brr, ouh-ouh J'ai les mains dans la coke Ouh, ouh, revends ça depuis môme Ouh, ouh Il est sous hématome Ouh, ouh quand il perd le bail Ouh Tout est parti donc je m'assois, baby, elle sait que j'suis dans ça Brr, brr, brr C'est des acteurs, sortez l'Oscar, moi, j'découpais des pains non-stop Eh Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi J'la vends Go pour amasser un tas de cash Brr, brr, brr, donc pour ça, dehors même quand il vente Han Fais bosser Nikita, de temps en temps Waw afin d'remonter la pente Ouh, wah D'vant l'hall, j'ai pas l'digicode Tou-touh, j'prends pas tout sur moi, j'ai que l'strict minimum Pah Tookah tassée, on décolle Smoke, d'puis l'époque des Kyo, sont sales nos mains Eh, uh-uh Nan, j'écoute pas les On dit On dit, dans l'bloc, j'me crois dans Call of Duty Duty Ients-cli défilent comme dans mode zombie Zombie, shit jaune comme Rolie Polie Olie Holly Ce soir, ma baby, fais toi jolie Jolie, ramène tes potes les plus en folie En folie J'ramène mes gars les plus alcooliques 'cooliques, on va binkser jusqu'au matin Hi-hi On va binkser jusqu'au matin Ah-ah, elle perd ses sens à cause des ballons Tah, tah, tah, tah Nicki me croit alors qu'c'est ma tain-p' Han-han, Nicki, han-han, elle s'cache, son mac rapplique au salon J'écoute, j'écoute, j'écoute pas les on dit, mon cur rebondit quand j'touche ce papier Cash J'aurais dû écouter Agathe, cette pute d'Alysha m'a jamais rappelé Brr, allô ? Nicki, wow, wow Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alysha</t>
+          <t>Armoire</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ouh-ouh Mmh-mmh Tou-tou-touah Mmh-mmh Eh Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-panTu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi Bébé, attends-moi Han, j'ai un plan Nicki, han-han, le kil' est scotché, on y va quand ? Go La moitié ne rentre pas dans ma valise donc j'cache la moitié dans tes implants Direction Roissy Sur le T, j'suis comme Dickerson À l'affût, accroche tes crampons, woah, woah J'entends des voix, j'bédave pour dix personnes Et mon djinn me chante une chanson, tou-tou-touah, tou-tou-touah, uh-uh Juge pas sans savoir, tu sais pas c'que j'fais quand j'finis mon Tik Tok Hi-hi Si tu fais pas rentrer d'papel, à quoi bon srt de savoir se tape ? Savoir s tape, mmh-mmh Y a que si tu viens pé-cho que je peux te donner l'accès au hall Hall Access J'ai grandi avec des Zinedine, des Bryan et des Souleymane Souleymane Eh, casse le neiman, avec Souleymane Rah, brr, brr, ouh-ouh J'ai les mains dans la coke Ouh, ouh, revends ça depuis môme Ouh, ouh Il est sous hématome Ouh, ouh quand il perd le bail Ouh Tout est parti donc je m'assois, baby, elle sait que j'suis dans ça Brr, brr, brr C'est des acteurs, sortez l'Oscar, moi, j'découpais des pains non-stop Eh Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi J'la vends Go pour amasser un tas de cash Brr, brr, brr, donc pour ça, dehors même quand il vente Han Fais bosser Nikita, de temps en temps Waw afin d'remonter la pente Ouh, wah D'vant l'hall, j'ai pas l'digicode Tou-touh, j'prends pas tout sur moi, j'ai que l'strict minimum Pah Tookah tassée, on décolle Smoke, d'puis l'époque des Kyo, sont sales nos mains Eh, uh-uh Nan, j'écoute pas les On dit On dit, dans l'bloc, j'me crois dans Call of Duty Duty Ients-cli défilent comme dans mode zombie Zombie, shit jaune comme Rolie Polie Olie Holly Ce soir, ma baby, fais toi jolie Jolie, ramène tes potes les plus en folie En folie J'ramène mes gars les plus alcooliques 'cooliques, on va binkser jusqu'au matin Hi-hi On va binkser jusqu'au matin Ah-ah, elle perd ses sens à cause des ballons Tah, tah, tah, tah Nicki me croit alors qu'c'est ma tain-p' Han-han, Nicki, han-han, elle s'cache, son mac rapplique au salon J'écoute, j'écoute, j'écoute pas les on dit, mon cur rebondit quand j'touche ce papier Cash J'aurais dû écouter Agathe, cette pute d'Alysha m'a jamais rappelé Brr, allô ? Nicki, wow, wow Uh-uh, le pétard fait pan-pan-pan-pan-pan Ouh-ouh, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han, han Ma pétasse, c'est Alysha Oui, scam, elle videra ma Visa Han-han, Nicki Uh-uh, le pétard fait pan-pan-pan-pan-pan Tu-tu-tu, tu-tu-tu J'ai tout mis dans l'sac, Gambino La MG fait mes backs Uh-uh La pétasse crie Han, han, han, han Han-han-han, han-han-han, han, han, han, han Hi-hi</t>
+          <t>VERSE Montre pas trop ton oseille car dehors yen a qui ont faim Tes venu tout beau tes reparti enflé Jsuis dans lAudi, jai le car play sans fil Violet, jaune, vert faut que jempile Yavait plus de lumière, jai changé dampoule Jfais beaucoup de streams mais elle bouge pas la foule Jsuis en demi-finale tas perdu en poules Jaurais pu tout prendre mais jessaie de vous laisser manger De vous laisser manger Quand javais rien, jvivais chaque jour de la semaine sans mchanger Semaine sans mchanger Nous cherche pas , ça vient du 91, on a lhabitude du danger Pas dantibiotiques quand jai une angine Il suffit de la pe-fra de Tanger PRE-CHORUS Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai CHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire VERSE J'sors mon couteau si tu m'embêtes Elle a vu GLM, elle a perdu la tête Jai perdu la bataille jvais gagner la guerre Avant qula réalité mrattrape Aux Ulysses ça senfume à toute patate Et même les tous ti-pe sadaptent Plus de cardio pour casser des têtes Cest pour ça quils ramènent des battes de base-ball Armés jusquaux dents comme dans Bana Boul Et comme Snoop Dogg en plein Superbowl Partout où jirai, jaurais mon pétou On détaille, on revend tout On détaille, on revend tout Si ten veux, viens dans la tour Te vi-sser, on est là pour CHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amigo</t>
+          <t>A tout moment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>This is a bangerz Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu br-tom à tout moment, han Mmh, mmh J'aime quand c'est trash Brr t quand y a du cash Brr Mon cur est trop noir, je peux pas m'attacher Hi-hi J'avais d'la peine pour les meufs que j'arrachais mais j'en ai moins pour les ennemis que j'vais schlasser Schlasser, brr La conso', dans mes couilles, est cachée Dans mes couilles, est cachée, brr, brr, j'peux pas rater le coche Le coche J'ai rien laissé dans ma sacoche Mmh, mmh, viens faire un tour dans ma cité, c'est un cauchemar Mmh, mmh De quoi veux-tu qu'je parle ? Qu'je parle J'connais rien à part la bicrave Bicrave, mmh, mmh Et si je sors le pétard, j'vais tous les faire zooker comme Kassav Hi-hi J'suis dans la cité et les vrais le savent Mmh, mmh, treize ans j'commence la bédave Mmh, mmh À quinze ans, j'tenais l'sac à sav' Mmh, mmh, dix huit ans ient-cli m'appelle au pénave Eh, eh Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh J'restais sur mes gardes quand j'sortais de la ville Brr, j'volais les brise-glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux d'la résine Brr, brr, on visser tout l'monde, même les femmes enceintes J'suis avec Juby, sés-po à la pente, j'ai mis les gants, donc j'laisse aucune empreinte Mmh, mmh Tu veux m'avoir, faut passer par la science, le compte est remplie mais j'fais toujours la pince Mmh, mmh, eh, eh J'l'ai baisé toute la nuit mais j'ai pas craché, j'prends même plus d'plaisir à baiser des tains-p' Quand j'bossais, j'me faisais cramer par mes tantes, canon sur la tempe si tu portes plainte J'te refais l'portrait mais j'suis pas un peintre, sur le rrain-te, j'fais des passes et des feintes J'suis bien entouré, donc j'ai aucune crainte, je peux pas me plaindre Eh, eh Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Incriminé dans la tour Mmh, mmh, j'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh Il était temps Temps Depuis longtemps Temps À tout moment Han, han, han J'mange de la musique, il était temps Temps, j'suis dans l'trafic depuis longtemps Temps J'aurais pu ber-tom à tout moment Han</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Armoire</t>
+          <t>Bébé</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VERSE Montre pas trop ton oseille car dehors yen a qui ont faim Tes venu tout beau tes reparti enflé Jsuis dans lAudi, jai le car play sans fil Violet, jaune, vert faut que jempile Yavait plus de lumière, jai changé dampoule Jfais beaucoup de streams mais elle bouge pas la foule Jsuis en demi-finale tas perdu en poules Jaurais pu tout prendre mais jessaie de vous laisser manger De vous laisser manger Quand javais rien, jvivais chaque jour de la semaine sans mchanger Semaine sans mchanger Nous cherche pas , ça vient du 91, on a lhabitude du danger Pas dantibiotiques quand jai une angine Il suffit de la pe-fra de Tanger PRE-CHORUS Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai Ya du papier à se faire, quest cque ten dis ? Tu parles du trafic mais quest cten sais ? Ya ma te-tê sur les 30 ladies Mon se-bla tamponné sur ton sang jai CHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire VERSE J'sors mon couteau si tu m'embêtes Elle a vu GLM, elle a perdu la tête Jai perdu la bataille jvais gagner la guerre Avant qula réalité mrattrape Aux Ulysses ça senfume à toute patate Et même les tous ti-pe sadaptent Plus de cardio pour casser des têtes Cest pour ça quils ramènent des battes de base-ball Armés jusquaux dents comme dans Bana Boul Et comme Snoop Dogg en plein Superbowl Partout où jirai, jaurais mon pétou On détaille, on revend tout On détaille, on revend tout Si ten veux, viens dans la tour Te vi-sser, on est là pour CHORUS Tu prendras plus jamais le métro si tes ma nana nan Ils faisaient semblant de maider juste pour pouvoir trainer à côté dmoi Cest bien davoir des sous mais à quoi ça sert, si dans ta vie cest le bazar Sache que tu ne prendras plus jamais le métro si tu deviens ma nana Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Dans lbâtiment tant que tout na pas taillé Jveux plus voir aucune barrette, faut que tout taille Jai dquoi tenlever la vie dans mon armoire Je prends sur moi tous les soirs Tellement tu regardes mon oseille Et des fois jy laisse ma beuh Jai dquoi tenlever la vie dans mon armoire</t>
+          <t>Mmh-mhh J'fais du pe-ra, j'sais pas zouker Non, non, j'suis dans la playlist de Anissa Yih-yih C'est dans mon quartier que tout l'été, j'suis bloqué, j'envoie un tit-pe chez Haller pour un bissap Eh-eh Tout se monnaie, y a pas d'fissa-fissa Mmh-mmh, c'est une te-pu mais elle fait la fille sage Mmh-mmh Les condés, du re-fou prennent des images Mmh-mmh, donc je cache mon visage, même à l'étage Eh-eh Y a rien d'gratuit dans la vie, si o lingi eloko oko futa Na futi chambre mais na mbetu alingi afiba te Y a toute sorte de chose à fumer vers chez moi Dans tout les recoins, ça bicrave, viens chez moi J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Pfiou Bébé me boude, elle sais que j'viens rarement la voir à jeun Pfiou Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis, bébé me rends kizengi Avec ma passion, j'fais d'la monny mais j'suis toujours bloqué dans l'biz Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh J'ai plus l'cur a faire la fête, mon bébé craque, perds la tête J'suis mignon comme mikaté mais nous testée ko méka té Là, j'vais capter ma catin, ce soir, nakotia n'a kati Numéro dix comme Nakata mais j'met au fond comme attaquant Ça négocie sur les tarots mais on fait pas crédit Toi, tu cours quand y a l'canon, frérot, t'es pas crédible Tu me cherche, en vain, j'ai caché le liquide Tu me cherche, en vain, j'suis toujours J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Bébé me boude, elle sais que j'viens rarement la voir à jeun Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis Mmh-mmh, bébé me rends kizengi Mmh-mmh Avec ma passion, j'fais d'la monny Mmh-mmh mais j'suis toujours bloqué dans l'biz Mmh-mmh, eh-eh Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A tout moment</t>
+          <t>Booska 91</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>This is a bangerz Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu br-tom à tout moment, han Mmh, mmh J'aime quand c'est trash Brr t quand y a du cash Brr Mon cur est trop noir, je peux pas m'attacher Hi-hi J'avais d'la peine pour les meufs que j'arrachais mais j'en ai moins pour les ennemis que j'vais schlasser Schlasser, brr La conso', dans mes couilles, est cachée Dans mes couilles, est cachée, brr, brr, j'peux pas rater le coche Le coche J'ai rien laissé dans ma sacoche Mmh, mmh, viens faire un tour dans ma cité, c'est un cauchemar Mmh, mmh De quoi veux-tu qu'je parle ? Qu'je parle J'connais rien à part la bicrave Bicrave, mmh, mmh Et si je sors le pétard, j'vais tous les faire zooker comme Kassav Hi-hi J'suis dans la cité et les vrais le savent Mmh, mmh, treize ans j'commence la bédave Mmh, mmh À quinze ans, j'tenais l'sac à sav' Mmh, mmh, dix huit ans ient-cli m'appelle au pénave Eh, eh Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Midi-minuit dans la tour Mmh, mmh J'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh J'restais sur mes gardes quand j'sortais de la ville Brr, j'volais les brise-glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux d'la résine Brr, brr, on visser tout l'monde, même les femmes enceintes J'suis avec Juby, sés-po à la pente, j'ai mis les gants, donc j'laisse aucune empreinte Mmh, mmh Tu veux m'avoir, faut passer par la science, le compte est remplie mais j'fais toujours la pince Mmh, mmh, eh, eh J'l'ai baisé toute la nuit mais j'ai pas craché, j'prends même plus d'plaisir à baiser des tains-p' Quand j'bossais, j'me faisais cramer par mes tantes, canon sur la tempe si tu portes plainte J'te refais l'portrait mais j'suis pas un peintre, sur le rrain-te, j'fais des passes et des feintes J'suis bien entouré, donc j'ai aucune crainte, je peux pas me plaindre Eh, eh Je tourne dans la ville Mmh, mmh, le bosseur m'appelle pour ravitaille Mmh, mmh Au final, j'ai pris goût à la zone, j'vais sûrement jamais sortir de l'illégal Eh, eh Incriminé dans la tour Mmh, mmh, j'avais froid mais j'avais trop la dalle Mmh, mmh J'en ai vu beaucoup jouer les durs Mmh, mmh, devant le canon, j'les ai vu détale Mmh, mmh, eh, eh J'mange de la musique, il était temps Hi-hi, j'suis dans l'trafic depuis longtemps Longtemps J'aurais pu ber-tom à tout moment, han, han Hi-hi J'mange de la musique, il était temps Eh, eh, j'suis dans l'trafic depuis longtemps Eh, eh J'aurais pu ber-tom à tout moment, han Mmh, mmh Il était temps Temps Depuis longtemps Temps À tout moment Han, han, han J'mange de la musique, il était temps Temps, j'suis dans l'trafic depuis longtemps Temps J'aurais pu ber-tom à tout moment Han</t>
+          <t>Si-Silver Krueger on the track! Gang, gang, pah-pah Brr M.I.G Moula, gang Pah-pah Uuhuh J'arrive tout en noir, Nike Tech, paire de TN, gros, y a que mon Glock qui flingue Poh-poh, brr Y a de la tate-pa si tu veux péch, passe au Coffee, on a la beuh qui schlingue Brr J'ai fais TP toute la semaine, j'fais pas la bringue, même le week-end, ganté, jlaisse pas d'empreintes Les petits ont grandis, aujourd'hui, ils traînent, le sac, il le tiennent et les risques, ils les prennent Gambino La M', M.I.G Moula M.I.G Moula, grr, le terrain tourne comme un moulin Comme un moulin, hein Nous, le maillot, on l'a mouillé On l'a gang, les clients, ils connaissent le menu Ça vient du 9.1, on s'pé-ta depuis minot Minot, les quiproquos, se règle à main nu À main nu Mais depuis qu'on fait rentrer du seille-o Du seille-o, bah pour rien, jpeux sortir un calibre Uuhuh, Grr, pah Les idées sont noires comme la tenue Gang ou comme le T-MAX si jt'accoste à minuit Paris, cest magique, le neuf-un, c'est violent, j'm'arrête au Ulis toucher du bon pilon Jredémarre fort, j'accélère, A86, j'suis pas loin d'Anthony J'suis pas loin Nique sa mère, ces mecs, c'est des thos-my Gang, j'voulais faire comme Tommy, Egan ou Shelby mais j'voulais du papel Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh J'arrive en claquettes, j'ai branché Was, j'fais comme chez oi-m Soninka Lemou, parle pas chinois J'ai sorti la guitare comme Elvis, devant le 6.35 Piou, piou, tu fais des phrases Tu fais des phrases, ma gueule Non, c'est pas c'que tu crois Non, non, à té-cô d'la frontière de Séville, hassoul, tu connais mon CV L'ennemi, on piétine, 9.1 Vite, vite, rixe, trafic, bande organisée Sale C'est des crypto' dans le game, j'analyse, j'annule vite, j'les baise en indé' Bataradé, tu connais les tarifs la capsules de filtre, le spliff est blindé J'ai les deux pieds dans la street, même quand y a pépin, je prends jamais la fuite Fuite, fuite, fuite, fuite Sucer ? Jamais de la vie Jamais de la vie, jamais de la vie, non Enfant violent, jamais on m'invite J'suis dans les back-stage, un peu trop fonce-dé, bientôt, je benda, j'fais plus de feat' Bientôt, je benda, j'fais plus de feat' Tout droit Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh Uh-uh Purchase your tracks today!</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bébé</t>
+          <t>Booska Uuhuh</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mmh-mhh J'fais du pe-ra, j'sais pas zouker Non, non, j'suis dans la playlist de Anissa Yih-yih C'est dans mon quartier que tout l'été, j'suis bloqué, j'envoie un tit-pe chez Haller pour un bissap Eh-eh Tout se monnaie, y a pas d'fissa-fissa Mmh-mmh, c'est une te-pu mais elle fait la fille sage Mmh-mmh Les condés, du re-fou prennent des images Mmh-mmh, donc je cache mon visage, même à l'étage Eh-eh Y a rien d'gratuit dans la vie, si o lingi eloko oko futa Na futi chambre mais na mbetu alingi afiba te Y a toute sorte de chose à fumer vers chez moi Dans tout les recoins, ça bicrave, viens chez moi J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Pfiou Bébé me boude, elle sais que j'viens rarement la voir à jeun Pfiou Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis, bébé me rends kizengi Avec ma passion, j'fais d'la monny mais j'suis toujours bloqué dans l'biz Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh J'ai plus l'cur a faire la fête, mon bébé craque, perds la tête J'suis mignon comme mikaté mais nous testée ko méka té Là, j'vais capter ma catin, ce soir, nakotia n'a kati Numéro dix comme Nakata mais j'met au fond comme attaquant Ça négocie sur les tarots mais on fait pas crédit Toi, tu cours quand y a l'canon, frérot, t'es pas crédible Tu me cherche, en vain, j'ai caché le liquide Tu me cherche, en vain, j'suis toujours J'cala plus les gens, ils font rien, à part dire c'que j'sais déjà Bébé me boude, elle sais que j'viens rarement la voir à jeun Elle sait qu'on fait des sous, bébé, monte dans le quatre annaux Elle veut rentrer dans ma vie Dans la ne-zo, j'ai trop d'ennemis Mmh-mmh, bébé me rends kizengi Mmh-mmh Avec ma passion, j'fais d'la monny Mmh-mmh mais j'suis toujours bloqué dans l'biz Mmh-mmh, eh-eh Ents-cli content Ents-cli content, j'ai mis dedans J'ai mis dedans Des dix, des vingts Des dix, des vingts, la be-her vient d'Meuda Eh-eh Choisis ton camp Choisis ton camp, tends plus la main Me tends plus la main Ça fait longtemps Ça fait longtemps qu'on fait du boucan Eh-eh</t>
+          <t>On s'mêle pas des stories des gens, on croit pas à vos légendes Million Man on the beat J'ai préféré faire du chant, gratter des textes dans ma chambre À gauche Y a Rondo qui a tise, à droite Y a Limsa qui sécurise En haut Y a Blaki qui cuisine, en bas Y a Mano qui tartine Ouh, oui J'écris des textes sur mes propres type beat, ils veulent nous tester, ils sont bêtes Revente de tout c'qui est illicite donc sur nous, les flics enquêtent Hi-hi J'ai encore le temps pour la Patek, faut qu'j'aille avec ma baby en Crête Mais j'peux pas voyager sans mon kit, j'arrache au moins dix grammes sur la 'quette Uh-uh Paye tes dettes, même en affaire, on est quittes, si tu veux une situation adéquate J'me sentais seul, j'ai acheté un pit, au moins, c'est sûr, lui il m'souhaite rien d'mal Hi-hi J'suis un 9.9, ma génération a tout vu les profiteurs et les fils de putes, les grands fauchés qui s'inventent des vies On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c Y a le p'tit, deux taffes, qui prend tes sapes, pourtant, c'est juste un 0.4 Y a mon p'tit frère dans son équipe, ils ont d'jà sauté toutes les étapes Hi-hi Mais bon, c'est un peu à cause de nous que ceux qui suivent sont pas très sages Y avait du bédo à chaque étage, pour survivre, il fallait du courage Hi-hi Embrouille interne, on choisit pas d'camp Hi-hi, on respecte que ceux qui sont respectables De base, on manque pas d'respect aux grands, t'es juste un flocko si on parle mal Eh-eh Eux, ils bluffent, bluffent, on les a jamais vu faire les travaux C'est des mecs à meuf, meuf, moi, j'ai pas la tchatche, j'suis BG, j'attire les gos On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c Son cavu, cavu</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Booska 91</t>
+          <t>Carbo #16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Si-Silver Krueger on the track! Gang, gang, pah-pah Brr M.I.G Moula, gang Pah-pah Uuhuh J'arrive tout en noir, Nike Tech, paire de TN, gros, y a que mon Glock qui flingue Poh-poh, brr Y a de la tate-pa si tu veux péch, passe au Coffee, on a la beuh qui schlingue Brr J'ai fais TP toute la semaine, j'fais pas la bringue, même le week-end, ganté, jlaisse pas d'empreintes Les petits ont grandis, aujourd'hui, ils traînent, le sac, il le tiennent et les risques, ils les prennent Gambino La M', M.I.G Moula M.I.G Moula, grr, le terrain tourne comme un moulin Comme un moulin, hein Nous, le maillot, on l'a mouillé On l'a gang, les clients, ils connaissent le menu Ça vient du 9.1, on s'pé-ta depuis minot Minot, les quiproquos, se règle à main nu À main nu Mais depuis qu'on fait rentrer du seille-o Du seille-o, bah pour rien, jpeux sortir un calibre Uuhuh, Grr, pah Les idées sont noires comme la tenue Gang ou comme le T-MAX si jt'accoste à minuit Paris, cest magique, le neuf-un, c'est violent, j'm'arrête au Ulis toucher du bon pilon Jredémarre fort, j'accélère, A86, j'suis pas loin d'Anthony J'suis pas loin Nique sa mère, ces mecs, c'est des thos-my Gang, j'voulais faire comme Tommy, Egan ou Shelby mais j'voulais du papel Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh J'arrive en claquettes, j'ai branché Was, j'fais comme chez oi-m Soninka Lemou, parle pas chinois J'ai sorti la guitare comme Elvis, devant le 6.35 Piou, piou, tu fais des phrases Tu fais des phrases, ma gueule Non, c'est pas c'que tu crois Non, non, à té-cô d'la frontière de Séville, hassoul, tu connais mon CV L'ennemi, on piétine, 9.1 Vite, vite, rixe, trafic, bande organisée Sale C'est des crypto' dans le game, j'analyse, j'annule vite, j'les baise en indé' Bataradé, tu connais les tarifs la capsules de filtre, le spliff est blindé J'ai les deux pieds dans la street, même quand y a pépin, je prends jamais la fuite Fuite, fuite, fuite, fuite Sucer ? Jamais de la vie Jamais de la vie, jamais de la vie, non Enfant violent, jamais on m'invite J'suis dans les back-stage, un peu trop fonce-dé, bientôt, je benda, j'fais plus de feat' Bientôt, je benda, j'fais plus de feat' Tout droit Eh Banlieue sud de Paris, ça maronne sec 9.1 J'pense réellement à dégainé un 3.5.7 Uh-uh J'fais peur comme un 3.5.7 près d'une tour J'me vois déjà sur l'Boulevard Senseï, j'pète une tour Sale Du 9.1 au 7.7.7.7 sans détours Bronx On va s'faire mais j'suis en écoute en Youssou N'Dour Moi Ça va finir en bar à chut, deux feuilles, grand collage J'suis près pour l'décollage Sale, j'ai mon para' Chut Quand j'me r'tourne, je vois l'tur-fu, pourtant, j'vis l'moment présent Sale Train d'vie épuisant, quotidien stressant Sur le chèque de la fin du mois, j'veux plus de zéro, avant la virgule Ouh, ouh, ouh, ouh Uh-uh Purchase your tracks today!</t>
+          <t>Validé par Zifu et le Kop On a trop longtemps été dans l'ombre Cet année on va finir au top J'suis pas trop doué pour faire des pompes Moi si y'a heja, je sors le glock Cagoulé dans ton salon On attache tout l'monde, c'est pas un prank Non, mon negro c'est pas un prank Ce soir, j'viscère Tanguy et Frank J'manquerai jamais d'respect aux grands Mais j'ai plus le temps d'écouter leurs légendes Y'a de quoi prendre 10 ans dans la planque Dieu merci, toujours vesqui la proc' C'est la gambinerie au micro C'est que l'début de la propagand Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulnt toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite Meilleur joueur, j'mets que des buts Des fois, j'fais des passes de zipette Ils parlent dans mon dos pour salir ma réput' J'fais des millions d'streams et des millions d'vues Mais j'revends toujours la beuh par 30 J'fume que d'la frappe, j'suis dans ma bulle J'pense à ramener le disque d'or à la planque J'pense à ramener le disque d'or à la planque Les rappeurs dans la salle d'attente Et si tu paies pas dans les temps Minimum canon sur ta tempe Le trafic est fluide donc les rats font T.P Dans la zone, c'est moi, j'donne le tempo Si t'es pas d'accord, gros c'est tant pis J'fais même bougé ceux qui m'aiment pas Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Booska Uuhuh</t>
+          <t>C’est nous</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>On s'mêle pas des stories des gens, on croit pas à vos légendes Million Man on the beat J'ai préféré faire du chant, gratter des textes dans ma chambre À gauche Y a Rondo qui a tise, à droite Y a Limsa qui sécurise En haut Y a Blaki qui cuisine, en bas Y a Mano qui tartine Ouh, oui J'écris des textes sur mes propres type beat, ils veulent nous tester, ils sont bêtes Revente de tout c'qui est illicite donc sur nous, les flics enquêtent Hi-hi J'ai encore le temps pour la Patek, faut qu'j'aille avec ma baby en Crête Mais j'peux pas voyager sans mon kit, j'arrache au moins dix grammes sur la 'quette Uh-uh Paye tes dettes, même en affaire, on est quittes, si tu veux une situation adéquate J'me sentais seul, j'ai acheté un pit, au moins, c'est sûr, lui il m'souhaite rien d'mal Hi-hi J'suis un 9.9, ma génération a tout vu les profiteurs et les fils de putes, les grands fauchés qui s'inventent des vies On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c Y a le p'tit, deux taffes, qui prend tes sapes, pourtant, c'est juste un 0.4 Y a mon p'tit frère dans son équipe, ils ont d'jà sauté toutes les étapes Hi-hi Mais bon, c'est un peu à cause de nous que ceux qui suivent sont pas très sages Y avait du bédo à chaque étage, pour survivre, il fallait du courage Hi-hi Embrouille interne, on choisit pas d'camp Hi-hi, on respecte que ceux qui sont respectables De base, on manque pas d'respect aux grands, t'es juste un flocko si on parle mal Eh-eh Eux, ils bluffent, bluffent, on les a jamais vu faire les travaux C'est des mecs à meuf, meuf, moi, j'ai pas la tchatche, j'suis BG, j'attire les gos On s'mêle pas des stories des gens Des gens, on croit pas à vos légendes Légendes J'ai préféré faire du chant Du chant, gratter des textes dans ma chambre À gauche, y a Rondo qui a tise, à droite, y a Limsa qui sécurise En haut, y a Blaki qui cuisine, en bas, y a Mano qui tartine Uh-uh Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, j'suis dans la rue Je vois des trucs et ça m'éduque Hi-hi Booska Uh-uh, j'suis dans l'truc Elle bouge son ul-c, elle bouge son cavu, elle bouge son ul-c Elle bouge son cavu Elle bouge son tinié, elle bouge son ul-c Son cavu, cavu</t>
+          <t>C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous, les fouteurs de trouble, c'est nous C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous Mmh-mmh J'fais bouger des culs, j'fais bouger des têtes Yih-yih, j'augmente le tarot sur la cassette Cassette Ils font les voyous, c'est des tapettes Brr, j'ai le Gucci sur la casquette Eh-eh J'aime pas le tennis mais depuis qu'j'suis tout petit, j'suis dans l'raquette Eh-eh Ils disnt que j'suis pas un kickeur mais pour les ambiancr, j'ai la recette Eh-eh, mmh-mmh Au volant du bolide, ça v'-esqui la sère-mi, ça v'-esqui la police Sa re-su me valide, la cité me valide, toi, on t'a mis d'côté comme le réglisse Mmh-mmh Sur le terrain, ça glisse, j'suis bourré, arrête-toi, faut qu'je pisse Mmh-mmh J'suis venu prendre ma place, on a trop trimé, gros, il faut qu'j'mange ma pièce C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh, eh-eh Mmh-mmh, hi-hi J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Eh-eh, mmh-mmh Ils s'y connaissent pas en musique mais sur Twitter, ils font les puristes Brr, brr Quand j'me fâche, si tu m'cherches, j'te casse les dents, c'est moi ton dentiste Yih-yih Viens chez moi, ton bigo, j'confisque sauf si tu passes au Garage Coffee Qui veut quoi ? Brr Qui est qui ? Brr J'sais plus qui est là juste par profit Uh-uh J'veux soulever tous les trophées, j'suis dans la végétale comme Truffaut Elle mérite pas d'monter dans l'Fe-Fe, j'lui prends un Uber, direction F1 Moi, j'suis un charo, ça vient du 9.1, arrête de mentir, t'as rien sous l'coussin Moi, si y a heja, j'ramène mes cousins, vas-y rre-Pie, mets le pré-refrain C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Carbo #16</t>
+          <t>Charcle</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Validé par Zifu et le Kop On a trop longtemps été dans l'ombre Cet année on va finir au top J'suis pas trop doué pour faire des pompes Moi si y'a heja, je sors le glock Cagoulé dans ton salon On attache tout l'monde, c'est pas un prank Non, mon negro c'est pas un prank Ce soir, j'viscère Tanguy et Frank J'manquerai jamais d'respect aux grands Mais j'ai plus le temps d'écouter leurs légendes Y'a de quoi prendre 10 ans dans la planque Dieu merci, toujours vesqui la proc' C'est la gambinerie au micro C'est que l'début de la propagand Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulnt toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite Meilleur joueur, j'mets que des buts Des fois, j'fais des passes de zipette Ils parlent dans mon dos pour salir ma réput' J'fais des millions d'streams et des millions d'vues Mais j'revends toujours la beuh par 30 J'fume que d'la frappe, j'suis dans ma bulle J'pense à ramener le disque d'or à la planque J'pense à ramener le disque d'or à la planque Les rappeurs dans la salle d'attente Et si tu paies pas dans les temps Minimum canon sur ta tempe Le trafic est fluide donc les rats font T.P Dans la zone, c'est moi, j'donne le tempo Si t'es pas d'accord, gros c'est tant pis J'fais même bougé ceux qui m'aiment pas Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Y'a des gens, j'y crois pas sinon j'aurais déjà canné Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doubler Ils sont méchants que dans les clips C'est carbo mais ça débite C'est carbo mais ça débite Ils sont méchants que dans les clips Dans ma sacoche, j'ai tout mon kit C'est carbo mais ça débite C'est carbo mais ça débite C'est carbo mais ça débite</t>
+          <t>Gambi' et L.A, j'vois vos culs zouker Gambi', Larry, Snoop, Eminem Shee, shee, shee J'ai, j'ai le charass qui rends imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh, mmh-mmh, yih-yih Je retourne pas ma veste, j'suis pas Tenshinhan 'shinhan On change pas une équipe qui gagne, trafic à l'école comme dans Breaking Bad Bad Je la bai-, baise devant son chat Chat, j'attire les abeilles, bzz-bzz, j'bois du Jack miel Yih-yih J'suis dans le BM quand j'aperçois à la base sur la bep-bep à l'arrêt Haut-Plaine Uh-uh Eux-, eux c'est des kadhaab, faut pas les croire Mmh-mmh, N118, j'mets les pleins phares Mmh-mmh Celui qu'a l'papel, c'est le plus fort mais il devient tout mou devant le fer Et maintenant qu'j'suis une star d'la drill La drill, tout le monde me suce, j'trouve ça drôle Ça drôle Y avait pas tout c'monde sous la grêle La grêle, j'ai tout encaisser comme un goal Uh-uh On est v'nus tout piller comme des vikings Charcle, sorbé court, on voit son string Yih-yih Elle m'suit partout, c'est moi le king, ma bite, ça bouge dans l'parking Mmh-mmh Elle a des kilomètres, elle me l'a pas dit, c'est pas une fille honnête On est v'nus tout casser sur le net, Gambi', Larry, Snoop, Eminem J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Sheesh, sheesh, sheesh, han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh J'vais pas à Phuket, d'où j'viens, tout s'paye, Gambi' et L.A, j'vois vos culs zouker Pah, pah J'suis dans la surface du terrain d'zipette, j'étais dans la course mais j'ai mis vitesse La-, la pute, elle veut se faire pimper, bipe-moi, j'suis dans l'gros moteur, tout ça, tout ça Vroum Elle écarte ses jambes comme un compas mais des mini-moi, j'veux pas, j'veux pas Coup d'couteau, coup d'cutter, gamberge, trois points, Curry, c'est en lég' Comme Ragnar, tout per-ta en temps d'guerre Oh ouais, que des coups d'hachette, barre de fer Ça a niqué la tantine, Disney en bomber, bah-, bah ouais, ouais, Yappi au murder In Da Club comme Fifty, big pec', pec' Uh-uh, j'ai du buzz, elle m'appelle mon babe Blablater, pas la peine, j'nage où t'as pas pied, parle-nous de papers, paie même en PayPal BU, d'Pays-Bas, sous bloc, N.I.B , Men-, Men In Black, c'est moi l'agent J J'fais pas partie de ces suiveurs, j'ai la moula couleur turtle Woaw J'suis éméché, d'mauvaise humeur Pah, pah, j'parle au baby, j'parle au compteur J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C’est nous</t>
+          <t>Chinois</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous, les fouteurs de trouble, c'est nous C'est nous qu'tu vois en bas d'la tour Mmh-mmh, mmh-mmh Dans tous les mauvais coups, c'est nous Mmh-mmh J'fais bouger des culs, j'fais bouger des têtes Yih-yih, j'augmente le tarot sur la cassette Cassette Ils font les voyous, c'est des tapettes Brr, j'ai le Gucci sur la casquette Eh-eh J'aime pas le tennis mais depuis qu'j'suis tout petit, j'suis dans l'raquette Eh-eh Ils disnt que j'suis pas un kickeur mais pour les ambiancr, j'ai la recette Eh-eh, mmh-mmh Au volant du bolide, ça v'-esqui la sère-mi, ça v'-esqui la police Sa re-su me valide, la cité me valide, toi, on t'a mis d'côté comme le réglisse Mmh-mmh Sur le terrain, ça glisse, j'suis bourré, arrête-toi, faut qu'je pisse Mmh-mmh J'suis venu prendre ma place, on a trop trimé, gros, il faut qu'j'mange ma pièce C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh, eh-eh Mmh-mmh, hi-hi J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Eh-eh, mmh-mmh Ils s'y connaissent pas en musique mais sur Twitter, ils font les puristes Brr, brr Quand j'me fâche, si tu m'cherches, j'te casse les dents, c'est moi ton dentiste Yih-yih Viens chez moi, ton bigo, j'confisque sauf si tu passes au Garage Coffee Qui veut quoi ? Brr Qui est qui ? Brr J'sais plus qui est là juste par profit Uh-uh J'veux soulever tous les trophées, j'suis dans la végétale comme Truffaut Elle mérite pas d'monter dans l'Fe-Fe, j'lui prends un Uber, direction F1 Moi, j'suis un charo, ça vient du 9.1, arrête de mentir, t'as rien sous l'coussin Moi, si y a heja, j'ramène mes cousins, vas-y rre-Pie, mets le pré-refrain C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous qu'tu vois en bas d'la tour Mmh-mmh, jamais très loin du four Mmh-mmh Dans tous les mauvais coups, c'est nous Eh-eh, les fouteurs de trouble, c'est nous Yih-yih C'est nous les vrais négros, tous tes gars c'est des flockos, ça vend la neige en flocon Uh-uh, mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Uh-uh Mmh-mmh, yih-yih J'ai perdu un tête, négro, on revient à sept négros, on piétine ta tête de con Uh-uh, mmh-mmh Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh Mmh-mmh, yih-yih Hein, hein, hein, hein Mmh-mmh, Gambino La M Mmh-mmh, Ghost Killer Track Mmh-mmh Uh-uh</t>
+          <t>2K on the track! Bébé veut mon cur mais j'peux pas lui donner Donner, elle voudrait être ma Donna Imma Même si je le voulais, pour l'instant, j'peux pas aimer qui qu'ce soit À la maison, c'est la sère-mi Sère-mi, petit frère s'est fait enfermé Traffic de stup' comme pas permis, c'est vrai qu'pour maman, faut dormir Elle veut être ma Donna Imma 'mma, j'pense à mes entrées du mois J'ai de la drogue dans les mains Mains, la recharge du hazi sur moi Moi Beaucoup trop de bougs en moins, rien de mieux que l'anonymat Je ne remets rien à demain, j'suis pas à l'abri d'caner ce soir Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fait patiner, j'aime trop quand elle parle pas chinois La nuit, j'dors que d'un il comme Fetty Wap Brr, j'compte sur personnes, j'utilise mes dix oitg-d Brr, brr Les shooters sont précis, vont jamais stresser, si tu fautes, j'ai la solution adéquate Grosse descente de condés, montée d'adrénaline Hum, les porcs sont v'nus avec la brigade canine Hum, hum Un coup de bigo, ta carrière, on l'annule mais y aura pas d'problèmes si nous deux, on s'allume Les cassages de portes ont recommencé, les condés ont fouillé la chambre et le salon Ils ont pas trouvé de gent-ar, pas d'coca', pas d'pilon, même sur les photos d'la CR, j'suis canon T'as pas de canon, t'as pas de balles, on vend du pilon, on fait des tales Chargé dans l'auto, il vient juste d'récupérer la ppe-fra, c'est miné, faut pas que je canne Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fais patiner, j'aime trop quand elle parle pas chinois Hum, j'ai trop d'mmes-gra sur moi Même si je le voulais C'est miné en bas d'chez moi J'aime les pépettes empilées Les pneus, j'les fais patiner On va pas filer J'aime trop quand elle parle pas chinois Tu sais qu'on peut pas tout laisser</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Charcle</t>
+          <t>Cow-boy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gambi' et L.A, j'vois vos culs zouker Gambi', Larry, Snoop, Eminem Shee, shee, shee J'ai, j'ai le charass qui rends imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh, mmh-mmh, yih-yih Je retourne pas ma veste, j'suis pas Tenshinhan 'shinhan On change pas une équipe qui gagne, trafic à l'école comme dans Breaking Bad Bad Je la bai-, baise devant son chat Chat, j'attire les abeilles, bzz-bzz, j'bois du Jack miel Yih-yih J'suis dans le BM quand j'aperçois à la base sur la bep-bep à l'arrêt Haut-Plaine Uh-uh Eux-, eux c'est des kadhaab, faut pas les croire Mmh-mmh, N118, j'mets les pleins phares Mmh-mmh Celui qu'a l'papel, c'est le plus fort mais il devient tout mou devant le fer Et maintenant qu'j'suis une star d'la drill La drill, tout le monde me suce, j'trouve ça drôle Ça drôle Y avait pas tout c'monde sous la grêle La grêle, j'ai tout encaisser comme un goal Uh-uh On est v'nus tout piller comme des vikings Charcle, sorbé court, on voit son string Yih-yih Elle m'suit partout, c'est moi le king, ma bite, ça bouge dans l'parking Mmh-mmh Elle a des kilomètres, elle me l'a pas dit, c'est pas une fille honnête On est v'nus tout casser sur le net, Gambi', Larry, Snoop, Eminem J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Sheesh, sheesh, sheesh, han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh J'vais pas à Phuket, d'où j'viens, tout s'paye, Gambi' et L.A, j'vois vos culs zouker Pah, pah J'suis dans la surface du terrain d'zipette, j'étais dans la course mais j'ai mis vitesse La-, la pute, elle veut se faire pimper, bipe-moi, j'suis dans l'gros moteur, tout ça, tout ça Vroum Elle écarte ses jambes comme un compas mais des mini-moi, j'veux pas, j'veux pas Coup d'couteau, coup d'cutter, gamberge, trois points, Curry, c'est en lég' Comme Ragnar, tout per-ta en temps d'guerre Oh ouais, que des coups d'hachette, barre de fer Ça a niqué la tantine, Disney en bomber, bah-, bah ouais, ouais, Yappi au murder In Da Club comme Fifty, big pec', pec' Uh-uh, j'ai du buzz, elle m'appelle mon babe Blablater, pas la peine, j'nage où t'as pas pied, parle-nous de papers, paie même en PayPal BU, d'Pays-Bas, sous bloc, N.I.B , Men-, Men In Black, c'est moi l'agent J J'fais pas partie de ces suiveurs, j'ai la moula couleur turtle Woaw J'suis éméché, d'mauvaise humeur Pah, pah, j'parle au baby, j'parle au compteur J'ai, j'ai le charass qui rend imbécile, si ce soir, j'la kiffe, demain, j'suis indécis Pah-pah-pah Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile J'ai, j'ai le charass qui rend imbécile Tou-touh, si ce soir, j'la kiffe, demain, j'suis indécis Shoo, shoo Baby, débarrasse tout dans la cuisine, y a rien qu'est factice, y a rien qu'est facile Han-han Nous, on charcle Uh-uh, remue l'Opinel Uh-uh Nous, on charcle Han-han, remue l'Opinel Uh-uh Nous, on charcle Charcle, charcle, remue l'Opinel Uh-uh Nous, on charcle Tchin, tchin, remue l'Opinel Uh-uh Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel Coup d'couteau, coup d'cutter, gamberge Nous, on charcle, remue l'Opinel</t>
+          <t>Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Yo Deux-, deux-trois boulettes dans l'jean, j'vais visser vers le Sénat Sénat J'm'excuse le soir au Seigneur Seigneur, j'supporte même pas le sauna Yih-yih On t'a taper, vas t'soigner Soigner, mmh-mmh, ton visage est saignant Woaw On mets la fuite au signal Signal, sur le té-cô comme Sagna Ouais, PU On t'a jamais vu dans la tess, arrête de dire que tu t'es retiré Des armes, on a tous brandis mais qui aura le cran de tirer ? Pah, pah, pah J'prends l'pouvoir comme un tyran Pfiou, trop d'pécher, j'suis à La Criée Crr La foule m'acclame en criant, j'peux pas m'empêcher de sauter J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal - Notre avantage, c'est un produit pur qu'on vends à un prix plancher Mmh-mh - C'est là d'ssus qu'on va s'concentrer Mmh-mmh-mmh - À part de maintenant, on accepte que des dealers qui achètent par kilos Ok, eh-eh J'sais-, j'sais même plus combien de joints j'ai fumé dans ma vie Yih-yih J'sais même plus combien de boloss j'ai d'jà visser dans la ville Shopping une fois par semaine Mmh-mmh, ça dépends d'mes streams J'ai même plus d'souvenir de quand j'voyais pas d'souvenir Eh-eh On adore que Dieu, non, moi, j'veux pas qu'on m'idolâtre Viens pas faire le fou chez nous ou ton bras fini dans un plâtre Han-han Le-, le prochain qui touche un mec de chez moi, on l'castre Mmh-mmh La seule bonbonne que t'as tenue, toi, c'est celle remplie de gaz J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal Ils ont retiré l'bracelet à Soum' Yih-yih mais ils veulent le mettre à Bobo Bobo Ils veulent le mettre à Bobo Bobo, ils veulent le mettre à Bobo Bobo Ils ont retiré l'bracelet à Soum' Ok mais ils veulent le mettre à Bobo Ok Ils veulent le mettre à Bobo Ok, ils veulent le mettre à Bobo Eh-eh</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chaud</t>
+          <t>CVC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
+          <t>J'ai l'impression de te faire fuir H8MKRZ Ne vois-tu pas que de toi, que de toi, que de toi, que de toi Hey Zepol, you knocked Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décollr Dis-moi qu'entre toi et moi, toi t moi Un jour ça va coller Uh-uh Elle préfère les dates en voiture, elle sait qu'j'tartine, elle accroche sa ceinture D'entrée d'jeu, elle est d'mauvaise humeur, j'ai pas remarqué sa nouvelle coiffure Elle m'trouve distant, elle dis qu'je fuis Je fuis, que j'la calcule que quand j'm'ennuie J'm'ennuie Mais comment t'écrire quand j'suis occupé Hein ? Des fois, elles sont trop bêtes les filles Hmh-hmh Mon bébé, fais-moi bisous Bisous, si tu m'vois pas le jour, c'est pour que t'ai tout ces bijoux Yih-yih Tu sais qu'faut qu't'attends ton tour et que y a ma mère aussi Mère aussi Tu m'parle que d'ce que tu veux Tu veux mais sait tu d'quoi j'ai envie ? Uh-uh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Mon style de vie l'a rends parano Parano, ses potes ne m'aident pas non plus Donnent des conseils mais ne trouvent pas l'amour Pas l'amour, tu te trompe d'ennemis Yih-yih J'essaye d'faire du bien autour de moi, y a pas que toi, faut qu'tu l'sache, c'est délicat Uh-uh Je sais que j't'ai fait perde espoir mais ne t'en fait pas Ma chérie, je sais qu'tôt ou tard, nous deux, ça va aller Ça va aller On t'a dis si, on t'a dis ça mais n'écoute pas, baby, crois-moi Ils veulent nous nuire, il faut juste les ignorer Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Parle-moi de tes peurs Pourquoi tout ces changements d'humeurs ? J'ai l'impression de te faire fuir Ne vois-tu pas que de toi, que de toi, que de toi, que de toi, j'ai envie</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chinois</t>
+          <t>Dans ses bras</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2K on the track! Bébé veut mon cur mais j'peux pas lui donner Donner, elle voudrait être ma Donna Imma Même si je le voulais, pour l'instant, j'peux pas aimer qui qu'ce soit À la maison, c'est la sère-mi Sère-mi, petit frère s'est fait enfermé Traffic de stup' comme pas permis, c'est vrai qu'pour maman, faut dormir Elle veut être ma Donna Imma 'mma, j'pense à mes entrées du mois J'ai de la drogue dans les mains Mains, la recharge du hazi sur moi Moi Beaucoup trop de bougs en moins, rien de mieux que l'anonymat Je ne remets rien à demain, j'suis pas à l'abri d'caner ce soir Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fait patiner, j'aime trop quand elle parle pas chinois La nuit, j'dors que d'un il comme Fetty Wap Brr, j'compte sur personnes, j'utilise mes dix oitg-d Brr, brr Les shooters sont précis, vont jamais stresser, si tu fautes, j'ai la solution adéquate Grosse descente de condés, montée d'adrénaline Hum, les porcs sont v'nus avec la brigade canine Hum, hum Un coup de bigo, ta carrière, on l'annule mais y aura pas d'problèmes si nous deux, on s'allume Les cassages de portes ont recommencé, les condés ont fouillé la chambre et le salon Ils ont pas trouvé de gent-ar, pas d'coca', pas d'pilon, même sur les photos d'la CR, j'suis canon T'as pas de canon, t'as pas de balles, on vend du pilon, on fait des tales Chargé dans l'auto, il vient juste d'récupérer la ppe-fra, c'est miné, faut pas que je canne Eh-eh Six heures, c'est les keufs qui nous lèvent, ils nous ont barré la route mais ont s'voyait loin On est dedans depuis mineur, t'en fais pas pour moi si tu m'vois de moins en moins Le quotidien n'est pas facile Non, y a beaucoup d'risques, c'est pas facile, non Encore une fois, je casse la SIM Eh Compter, compter, j'le fais rapidement Même si je le voulais Han, même si je le voulais J'aime les pépettes empilées J'aime les pépettes empilées, wouh On va pas filer Filer, tu sais c'qu'on va faire couler Han On va pas filer Non, tu sais qu'on peut pas tout laisser Hum, j'ai trop d'mmes-gra sur moi Han, c'est miné en bas d'chez moi Han Les pneus, j'les fais patiner, j'aime trop quand elle parle pas chinois Psch, psch J'ai trop d'mmes-gra sur moi J'ai trop d'mmes-gra sur moi, c'est miné en bas d'chez moi Miné en bas d'chez moi Les pneus, j'les fais patiner J'les fais patiner, j'aime trop quand elle parle pas chinois Hum, j'ai trop d'mmes-gra sur moi Même si je le voulais C'est miné en bas d'chez moi J'aime les pépettes empilées Les pneus, j'les fais patiner On va pas filer J'aime trop quand elle parle pas chinois Tu sais qu'on peut pas tout laisser</t>
+          <t>J'me rappelle avec Zeno et Isko dehors Isko dehors, on zonait même dans le brouillard Yih, yih Fier de moi, j'ai aucun remord, j'dois m'écarter de tous ces trouillards Hum, hum Y a du violet sur mon foulard Hum, hum, c'est tragique comme un polar Hum, hum J'décompresse dans un boulard Hum, hum, j'ai tout craché dans sa ge-gor Eh, eh Gambino LaM, tu connais, dès que j'arrive, elle est d'jà en string Elle est déjà en string J'suis avec Kepler l'oseille dans la go-va, j'lui demande de ramener des copines De ramener des copines Fais belek, chez moi, ça tire Han, han, fais belek, chez moi, ça tire Belek, chez moi, ça tire Aqua de fumée dans la kitchen, y a rien à manger mais ça sent l'cheese Mais ça sent l'cheese Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh C'est-c'est Kepler l'oseille dans la place, han, gros joint de ppe-f' qui m'apaise, han, j'cours que derrière les mapessas Tout-tout est déjà dans le sac, han, à l'affût si ça attaque, han Oh, j'les fuck tous, gang, j't'ai dis, c'est Kepler l'oseille dans la place Kepler l'oseille dans la kitchen, elle se déplace pour me faire un kiss MAC eleven dans mon pah, baby ressemble à Alicia Keys Rends pas fou, j'suis pas bien ce soir, j'crois bien que je vais commettre un crime Drogue, sexe, chill, oh, ramène Alicia Keys Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cinco Freestyle</t>
+          <t>Deal &amp; Stream</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Eh, c'est rien c'est la rue mon pote Grr U.L.I.S Gang gang, ça bosse de Berger à Chantraine Chantraine Tu passes de Gaza à Harlem donc chercher la merde, c'est pas la peine hi, yih J'rappe pour les sous, pas pour le fun ah mais j'suis boycotté comme le FN FN J'enchaîne les joints, j'suis rarement à jeun et j'revends celle qui s'prend par le ze-n eh, eh 9.1.9.4.0 sur la carte eh, eh, j'sors pas un euro si j'suis en perte eh, eh Karting dans la ville comme dans Mario Kart, on vend d'la moula, on vend d'la zipette hi, yih Le pilon mousseux rend bête, aqua d'fumée, j'suis dans la choupette On t'rackette comme la Team Rocket, en espérant trouver la recette C'est ton plan cul qui a donné l'go go, j'le trouve ligoter comme un con con J'avais pas encore les réseaux quand j'ai vendu mon premier pochon pochon C'est l'monde à l'envers, c'est les loups qui v'-esqui les cochons ouh, ouh Hier, j'étais en roue arrière, Zoulou, Amadou, Léo, tombent Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédo J'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh J'baisserai pas l'tarot, ça fait paw-paw si tu ramènes pas la monnaie mmh, mmh En bas, on fait pas d'cadeau, faut défendre nos intérêts mmh, mmh Calmate, c'est juste un son, j'vois que t'as prévenu ton patron mmh, mmh À la guerre comme à la guerre, il pour il, nous on parle pas trop shoo, shoo, shoo Andalé, ouais, on y va les gars, EL m'a dit Faut esquiver les go oh, oh J'ai ton liquide dans la gov', et tu le sais, c'est deux boss Trafiquante, train de vie alimenté par les nombres faits commis, ganté, j'v'-esqui l'comi' Train de vie ah pas trop facile oh, j'encaisse des sous, tu crains le pire eh, tout était dit oh T'as fait le sourd, ouais, j't'ai j'visser eh des 10 à 50 eh, tes quun ient-cli Tu sympathises shoo, j'ai tourné la roue shoo, tu crains le pire Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédoJ'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh C'est rien, c'est la rue Ils nous ont fait du mal mais bon, elle va tourner la roue J't'ai déjà dit qu'la rue, c'est cru On en a tellement mangé qu'on a plus peur de prendre des coups</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Compliqué</t>
+          <t>Dehors</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>LeTempsDuPiano J'ai l'habitude de m'faire ser-cour Ser-cour, j'ai l'habitude de trottiner 'ttiner J'livrais les adresses que j'recevais sur signal en trottinette 'nette J'ai l'habitude de faire des sous Des sous, j'ai l'habitude de recompter Mmh-mmh Je jouer au gangster pendant que mes surs jouait à la dinette Puni d'sortie, j'voyais mes potos s'amuser par la fnêtre Tu finira en prison, c'est c'qu m'avait dit la maîtresse Dix ans plus tard, madame, j'suis encore là, j'suis toujours dans la tess J'ai plein d'sous dans mon compte en banque, pourtant, j'ai pas eu BTS BTS Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh Quand j'prie, j'demande au Seigneur de vivre assez longtemps pour me repentir Pour me repentir J'ai peur du châtiment, j'ai pas peur de mourir J'ai pas peur de mourir J'hésiter pas à dérober pour me nourrir On est ensemble pour le meilleur, on a déjà connu le pire Eh-eh Parano, j'confonds les Hitch et les bacqueux Et les bacqueux J'ai ma codéine en guise d'anti-pâteuse D'anti-pâteuse Ton entourage est faible, tes négros sont pas fiables Négros sont pas fiables J'suis dans mon lit, j'écris des rimes, j'écris des fables Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cow-boy</t>
+          <t>Diban #15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Mmh-mmh Yo Deux-, deux-trois boulettes dans l'jean, j'vais visser vers le Sénat Sénat J'm'excuse le soir au Seigneur Seigneur, j'supporte même pas le sauna Yih-yih On t'a taper, vas t'soigner Soigner, mmh-mmh, ton visage est saignant Woaw On mets la fuite au signal Signal, sur le té-cô comme Sagna Ouais, PU On t'a jamais vu dans la tess, arrête de dire que tu t'es retiré Des armes, on a tous brandis mais qui aura le cran de tirer ? Pah, pah, pah J'prends l'pouvoir comme un tyran Pfiou, trop d'pécher, j'suis à La Criée Crr La foule m'acclame en criant, j'peux pas m'empêcher de sauter J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal - Notre avantage, c'est un produit pur qu'on vends à un prix plancher Mmh-mh - C'est là d'ssus qu'on va s'concentrer Mmh-mmh-mmh - À part de maintenant, on accepte que des dealers qui achètent par kilos Ok, eh-eh J'sais-, j'sais même plus combien de joints j'ai fumé dans ma vie Yih-yih J'sais même plus combien de boloss j'ai d'jà visser dans la ville Shopping une fois par semaine Mmh-mmh, ça dépends d'mes streams J'ai même plus d'souvenir de quand j'voyais pas d'souvenir Eh-eh On adore que Dieu, non, moi, j'veux pas qu'on m'idolâtre Viens pas faire le fou chez nous ou ton bras fini dans un plâtre Han-han Le-, le prochain qui touche un mec de chez moi, on l'castre Mmh-mmh La seule bonbonne que t'as tenue, toi, c'est celle remplie de gaz J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte J'vends d'la dope, boy Boy, ça débite comme dans Top Boy Ça re-ti comme des cow-boys Boys, c'est pour ça qu'on nous boycotte Eh-eh Quand j'arrive, all eyes on me Mmh-mmh On-, on m'reconnaît partout, la vie que j'mène n'est plus normale Eh-eh Faut faire un max de pognon et v'-esqui la case son-pri Yih-yih J'peux pas rester enfermé, non, j'suis pas un animal Non, non, j'suis pas un animal Ils ont retiré l'bracelet à Soum' Yih-yih mais ils veulent le mettre à Bobo Bobo Ils veulent le mettre à Bobo Bobo, ils veulent le mettre à Bobo Bobo Ils ont retiré l'bracelet à Soum' Ok mais ils veulent le mettre à Bobo Ok Ils veulent le mettre à Bobo Ok, ils veulent le mettre à Bobo Eh-eh</t>
+          <t>J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Je suis dans limport-export export, jaugmente le flux du teh On vient cagoulés devant ta porte si tu tarde à rabouler ma part Ils entendent les Ulis, ils ont peur, ya que si ya les bleus que tu me vois fuir que tu me vois fuir On ma toujours apprit de méchapper quand il y a les gyrophares Bre-sim comme les rues de Fulham Fulham, dangereux comme les rues de Tottenham, McNey, Beckham Beckham Rappeur international depuis que je suis suivi par Virgil Abloh et Martial Envoie une feuille slim, j'fais du pe-ra pas du slam, j'tournais sur Paris pour faire rentrer des sommes sommes, sommes J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Cest moi le numéro 10 donc comme Dozla, minimum doublée On revend de lherbe pour gagner du blé, on découpe le savon sur la planche en bois Dans les faits divers on est souvent cité, si le buzz vient pas on va insister Insister jamais désister désister, rester sous-coté cest insultant Les abonnés montent sur Instagram, je lavais prédis sur Jack Daniel Ouais de blé, jenverrais plus de moneygram quand je serais payé par la Sacem la Sacem Jai grandi dans les cités les cités pour sen sortir en était des Pourtant personne nous incitait, on a connu trop tôt le goût des llets-bi J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CVC</t>
+          <t>Différent</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>J'ai l'impression de te faire fuir H8MKRZ Ne vois-tu pas que de toi, que de toi, que de toi, que de toi Hey Zepol, you knocked Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décollr Dis-moi qu'entre toi et moi, toi t moi Un jour ça va coller Uh-uh Elle préfère les dates en voiture, elle sait qu'j'tartine, elle accroche sa ceinture D'entrée d'jeu, elle est d'mauvaise humeur, j'ai pas remarqué sa nouvelle coiffure Elle m'trouve distant, elle dis qu'je fuis Je fuis, que j'la calcule que quand j'm'ennuie J'm'ennuie Mais comment t'écrire quand j'suis occupé Hein ? Des fois, elles sont trop bêtes les filles Hmh-hmh Mon bébé, fais-moi bisous Bisous, si tu m'vois pas le jour, c'est pour que t'ai tout ces bijoux Yih-yih Tu sais qu'faut qu't'attends ton tour et que y a ma mère aussi Mère aussi Tu m'parle que d'ce que tu veux Tu veux mais sait tu d'quoi j'ai envie ? Uh-uh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Mon style de vie l'a rends parano Parano, ses potes ne m'aident pas non plus Donnent des conseils mais ne trouvent pas l'amour Pas l'amour, tu te trompe d'ennemis Yih-yih J'essaye d'faire du bien autour de moi, y a pas que toi, faut qu'tu l'sache, c'est délicat Uh-uh Je sais que j't'ai fait perde espoir mais ne t'en fait pas Ma chérie, je sais qu'tôt ou tard, nous deux, ça va aller Ça va aller On t'a dis si, on t'a dis ça mais n'écoute pas, baby, crois-moi Ils veulent nous nuire, il faut juste les ignorer Hmh-hmh Dis-moi qu'entre toi et moi, toi et moi, hmh-hmh Un jour, ça va coller, un jour, ça va coller Chérie, tu sais de toi, de toi, hmh-hmh Je n'peux plus me décoller, je n'peux plus me décoller, uh-uh Je me suis ancré à ton port, à ton port Je n'peux plus me décoller, je n'peux plus me décoller Dis-moi qu'entre toi et moi, toi et moi Un jour ça va coller Uh-uh Parle-moi de tes peurs Pourquoi tout ces changements d'humeurs ? J'ai l'impression de te faire fuir Ne vois-tu pas que de toi, que de toi, que de toi, que de toi, j'ai envie</t>
+          <t>Mmh-mmh La go, là, est jolie Han-han, seize ans, elle pensé trouver son mari Han-han Elle a finie dans sont lit Han-han, dix-huit ans, plus aucune nouvelles de lui Han-han Ça l'a rendu impoli, insolente, han Yih-yih Peur d'être déçu Mmh-mmh, déchu, han À chaque relation, obligé d'être collante Pfiou, pfiou, han L'impression qu'tout l'monde veut sa chute, han Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Ell voulait se marier à vingt-deux ans Vingt-dux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah À vingt ans, elle a rencontrait Gambi' Mmh-mmh Dommage pour elle, il courait qu'après les ients-cli Les règlement de comptes et les descente de police Si il s'fait choper, elle est complice Y a pas meilleur comme alibi, même si elle en a marre de ses bêtises, eh Eh-eh Si ça sonne à six heures, prends mon téléphone Mon téléphone C'est pour notre avenir si j'encaisse les sommes Si j'encaisse les sommes Ah, mama na ngai, j'suis impliqué 'pliqué Ah, mama na ngai, j'suis abonné Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Elle voulait se marier à vingt-deux ans Vingt-deux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Eh-eh Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah, une vie différent Han, han, han, han Han, han, han, han Han, han, han, han Han, han, han, han</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dans ses bras</t>
+          <t>Double Hook</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J'me rappelle avec Zeno et Isko dehors Isko dehors, on zonait même dans le brouillard Yih, yih Fier de moi, j'ai aucun remord, j'dois m'écarter de tous ces trouillards Hum, hum Y a du violet sur mon foulard Hum, hum, c'est tragique comme un polar Hum, hum J'décompresse dans un boulard Hum, hum, j'ai tout craché dans sa ge-gor Eh, eh Gambino LaM, tu connais, dès que j'arrive, elle est d'jà en string Elle est déjà en string J'suis avec Kepler l'oseille dans la go-va, j'lui demande de ramener des copines De ramener des copines Fais belek, chez moi, ça tire Han, han, fais belek, chez moi, ça tire Belek, chez moi, ça tire Aqua de fumée dans la kitchen, y a rien à manger mais ça sent l'cheese Mais ça sent l'cheese Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh C'est-c'est Kepler l'oseille dans la place, han, gros joint de ppe-f' qui m'apaise, han, j'cours que derrière les mapessas Tout-tout est déjà dans le sac, han, à l'affût si ça attaque, han Oh, j'les fuck tous, gang, j't'ai dis, c'est Kepler l'oseille dans la place Kepler l'oseille dans la kitchen, elle se déplace pour me faire un kiss MAC eleven dans mon pah, baby ressemble à Alicia Keys Rends pas fou, j'suis pas bien ce soir, j'crois bien que je vais commettre un crime Drogue, sexe, chill, oh, ramène Alicia Keys Mmh, mmh Té-ma la bitch abusé son cavu Mmh, mmh La drogue, le sexe quand j'suis dans ses bras Mmh, mmh J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu Mmh, mmh On fume, on chill, elle est sous mes draps Uh, uh Té-ma la bitch abusé son cavu Té-ma la bitch, elle a baissé son cavu La drogue, le sexe quand j'suis dans ses bras La drogue, le sexe, la drogue, le sexe J'ai sorti la ppe-fra, la ppe-fra, t'a pas vu J'ai sorti la ppe-fra, la ppe-fra t'a pas vu On fume, on chill, elle est sous mes draps Uh, uh</t>
+          <t>Nardey, c'est chaud ça, ah, ah Scar Eh, eh Tout c'que j'prends, c'est un chef d'uvre Hi, hi, début d'séance, j'suis d'jà ivre Quand elle m'suce, elle parle d'son ce-m, j'm'en bats les couilles d'sa ie-v Tu vas finir fauchée comme ton ce-m Han, han, tu t'manges deux balles pour d'la came Tou-tou-tou-touh Dans la cabine, le micro, j'crame Wow, c'est Jackson Five sur d'la drill C'est Mozart, Capitaine Jackson J'suis sur la piste en Versace, hein Eh, eh, vers chez moi, ça tire Quand j'suis à jeun, faut pas m'faire chier, moi, pour un rien, j'te gifle Oh, Cendrillon Baby, monte dans l'gamos, ouverture papillon Baby On te baise ta grand-mère si t'as payé Bah, des affaires j't'ai poussé, hier après-midi Tou-tou-tou-touh,eh, eh Mmh, mmh, j'suis moins serein quand j'sors de la ville sans bourge Woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Eh, eh J'suis moins serein quand j'sors de la ville sans bourge Hi, hi, woaw, woaw, woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Han, han, han, han, c'est mon plan cul mais elle s'attache Han, han, han, han, j'me désape, ses veux-ch', elle attache Han, han, han, han, vocal est le braquage Han, han, han, han, j'fais du fric, tu pointes au chômage Uh, uh Toute la stup' est dans mon cul Mon cul, toute la stup' est dans mon cul Hi, hi Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Akha Toute la stup' est dans mon cul La stup', toute la stup' est dans mon cul La gue-dro Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Le boss C'est Porte de Saint-Ouen, là Mufasa, the bad producer Oh, va là-bas Eh, eh, han, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Ah, breh Han Han, ça, c'est pour toutes les babys, shake ton booty Shake, shake, shake Dans la vie, y a rien d'facile, personne est invincible Tou-tou-tou-touh, eh, eh Ma baby ne boit plus d'Sky, elle veut du champagne Du champagne Elle veut tout acquérir sur l'avenue Montaigne Gucci, Fendi, Louis' Pour Zyed et Bouna, fuck la po'-po' Fuck, fuck On tolère aucun faux pas, j'mange l'instrumentale comme un repas T'es un opps, on t'encule même sans défense Hi, hi, faut assumer les conséquences C'est l'dix-septième et l'quatre-vingt onze Mmh, mmh, c'est nous, on fait bouger la France J't'en-, j't'en-, j't'envoie une mousso pour te chopper, dans le labo' comme Tony Chopper Baw Patate gauch, j'suis pas NLE Choppa, broliqué, j'ai pas besoin d'shooter Paw C'est p't-être une meuf trop bonne qui va donner l'go Le go, j'veux le gâteau, tout l'magot Magot Drive-by, mentale, Chicago, là, c'est Porte de Saint-Ouen, Parigot Eh, eh, paw Eh, eh, paw, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Oh, vas là-bas Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Tou-tou-tou-tou-tou-tou-touh</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Deal &amp; Stream</t>
+          <t>DSQUARED2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eh, c'est rien c'est la rue mon pote Grr U.L.I.S Gang gang, ça bosse de Berger à Chantraine Chantraine Tu passes de Gaza à Harlem donc chercher la merde, c'est pas la peine hi, yih J'rappe pour les sous, pas pour le fun ah mais j'suis boycotté comme le FN FN J'enchaîne les joints, j'suis rarement à jeun et j'revends celle qui s'prend par le ze-n eh, eh 9.1.9.4.0 sur la carte eh, eh, j'sors pas un euro si j'suis en perte eh, eh Karting dans la ville comme dans Mario Kart, on vend d'la moula, on vend d'la zipette hi, yih Le pilon mousseux rend bête, aqua d'fumée, j'suis dans la choupette On t'rackette comme la Team Rocket, en espérant trouver la recette C'est ton plan cul qui a donné l'go go, j'le trouve ligoter comme un con con J'avais pas encore les réseaux quand j'ai vendu mon premier pochon pochon C'est l'monde à l'envers, c'est les loups qui v'-esqui les cochons ouh, ouh Hier, j'étais en roue arrière, Zoulou, Amadou, Léo, tombent Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédo J'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh J'baisserai pas l'tarot, ça fait paw-paw si tu ramènes pas la monnaie mmh, mmh En bas, on fait pas d'cadeau, faut défendre nos intérêts mmh, mmh Calmate, c'est juste un son, j'vois que t'as prévenu ton patron mmh, mmh À la guerre comme à la guerre, il pour il, nous on parle pas trop shoo, shoo, shoo Andalé, ouais, on y va les gars, EL m'a dit Faut esquiver les go oh, oh J'ai ton liquide dans la gov', et tu le sais, c'est deux boss Trafiquante, train de vie alimenté par les nombres faits commis, ganté, j'v'-esqui l'comi' Train de vie ah pas trop facile oh, j'encaisse des sous, tu crains le pire eh, tout était dit oh T'as fait le sourd, ouais, j't'ai j'visser eh des 10 à 50 eh, tes quun ient-cli Tu sympathises shoo, j'ai tourné la roue shoo, tu crains le pire Terrain d'pilon, contrôle, GÀV, j'rêvais de belles villas au volant d'un Clio J'fume un pilon, le regard en dit long, j'suis vers les Ulis avec Gambino J'viens du côté du 91, réputé pour ses footeux et la vente de bédoJ'me promène avec SAF dans les rues des Rosiers et j'passe au hazi prendre de la conso' La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams La kichta grossit grâce au deal et grâce aux streams J'suis posé avec SAF, j'allume pétard dès le matin eh, eh Aller-retour Me'-da, juste histoire de s'alimenter eh, eh J'me demande si c'que j'ai, c'est du talent ou c'est un don mmh, mmh J'déteste le manque de respect, quand tu m'parles, faut baisser d'un ton eh, eh C'est rien, c'est la rue Ils nous ont fait du mal mais bon, elle va tourner la roue J't'ai déjà dit qu'la rue, c'est cru On en a tellement mangé qu'on a plus peur de prendre des coups</t>
+          <t>Mmh, mmh Mmh, mmh Mmh, mmh Yih-yih Mmh, mmh J'prend tout même si tu m'payes en centimes Centimes, j'ai d'quoi t'faire planer dans mon jean Mon jean C'que j'ressens, personne peut l'sentir Sentir, personne, même les mecs de ma team Ma team On court tous après les thunes Les thunes, j'peux rien faire pour ce qui veulent dormir Dormir Plus lsuccès augmente, plus, ça s'empire S'mpire, j'dors plus la nuit, comme un vampire J'suis dans ls bagailles depuis longtemps, j'ai jamais changé de camp Camp Tout pour le plata, tout pour le gang Gang, de la rue, j'suis un militant Ton Glock, tu compte l'utiliser quand ? J'suis avec ta go, j'la mougoupan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Ah ouais J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'peux pas finir en maison d'arrêt mais GDR a pris du ferme Mmh, mmh Ça fait mal au cur de perdre un frère, faut qu'je reste en vie jusqu'à c'qu'on y perd Mmh, mmh Je check tout l'monde d'la même façon mais c'est pas tout l'monde que je considère Mon vu le plus cher, c'est d'v-'esqui l'enfer, le second, c'est de devenir millionnaire Uh-uh Si y a pas d'pote-ca, elle va me lécher lgland, après ça, elle pourra plus m'gué-lan Gué-lan On est plus des p'tits, c'est nous les grands Les grands, les anciens ont fait leur temps Leur temps T'as un truc à faire qu'est-ce t'attends Qu'est-ce t'attends ? ? Tu sais où j'vis et où j'traine tout l'temps Tout l'temps Mon négro, dis-moi, qu'est-ce t'attends ? Qu'est-ce tattends ? Ah ouais J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt Yih-yih J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dehors</t>
+          <t>[EXCLU] Lovés (ft. Gambino la mg)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LeTempsDuPiano J'ai l'habitude de m'faire ser-cour Ser-cour, j'ai l'habitude de trottiner 'ttiner J'livrais les adresses que j'recevais sur signal en trottinette 'nette J'ai l'habitude de faire des sous Des sous, j'ai l'habitude de recompter Mmh-mmh Je jouer au gangster pendant que mes surs jouait à la dinette Puni d'sortie, j'voyais mes potos s'amuser par la fnêtre Tu finira en prison, c'est c'qu m'avait dit la maîtresse Dix ans plus tard, madame, j'suis encore là, j'suis toujours dans la tess J'ai plein d'sous dans mon compte en banque, pourtant, j'ai pas eu BTS BTS Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh Quand j'prie, j'demande au Seigneur de vivre assez longtemps pour me repentir Pour me repentir J'ai peur du châtiment, j'ai pas peur de mourir J'ai pas peur de mourir J'hésiter pas à dérober pour me nourrir On est ensemble pour le meilleur, on a déjà connu le pire Eh-eh Parano, j'confonds les Hitch et les bacqueux Et les bacqueux J'ai ma codéine en guise d'anti-pâteuse D'anti-pâteuse Ton entourage est faible, tes négros sont pas fiables Négros sont pas fiables J'suis dans mon lit, j'écris des rimes, j'écris des fables Han Christian Dior, Dior Christian Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors Han Christian Dior, Dior Dior, Dior, j'suis en Prada, Gucci ou en Nike dehors Nike dehors J'aime trop la zone Mmh-mmh, j'aime trop la zone Le bruit des bécanes qui résonne Mmh-mmh, le bruit des bécanes qui résonne Elle veut Gucci et Christian Dior, moi, j'rêve de tomber sur une tonne Mmh-mmh, uh-uh, han J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio J'suis en Louis Vui', Prada, Fendi, juste pour traînait dehors J'veux la SACEM à P. Diddy, je passe à la radio Eh-eh</t>
+          <t>Favé, Gambino Couplets Si la fatigue tirerais Tu sais que je serai déjà mort depuis deux piges Jsens mon cerveau mes cernes tirer Les soucis gros si ce nest les sommes que jempile Beaucoup de soucis mais les sommes sempilent Dans mon tiroir ya que des liasses de mille Jfais de la musique mais jsuis encore dans le deal Jai des frères baptisés, des frères dans le deal Jai des trucs à vous raconter A la base on était dans le hall Ils sont bizarre depuis que jsuis compté Ils aimeraient bien inverser les rôles Toi et moi yaura aucun rapport Tu saura pas combien les streams rapportent Tu saura pas tout ce quon aura pu faire Si un jour devant la baraque ya un Porsche Pre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais Couplets Des fois jsuis gentil des fois jsuis méchant Cest de toi que ça dépends Nerveux, est le tempérament Jolie fille, pour les sommes sapprête Ah quelle bombe quand elle snap sa tête La dans le bed Favé tire sa tresse Jme délaisse elle minsulte de sale traitre Trop souvent entouré de baby Elle me répète tous les jours que jsuis un connard Elle dis que jsuis entrain de gâcher ma vie Entouré de fumeurs et danciens tolars Le couteau senfonce et se retire Je rate lobjectif, je retire Pas besoin de le redire Jsuis lancé, impossible que je me retire Pre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Diban #15</t>
+          <t>Eyes contact</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Je suis dans limport-export export, jaugmente le flux du teh On vient cagoulés devant ta porte si tu tarde à rabouler ma part Ils entendent les Ulis, ils ont peur, ya que si ya les bleus que tu me vois fuir que tu me vois fuir On ma toujours apprit de méchapper quand il y a les gyrophares Bre-sim comme les rues de Fulham Fulham, dangereux comme les rues de Tottenham, McNey, Beckham Beckham Rappeur international depuis que je suis suivi par Virgil Abloh et Martial Envoie une feuille slim, j'fais du pe-ra pas du slam, j'tournais sur Paris pour faire rentrer des sommes sommes, sommes J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Cest moi le numéro 10 donc comme Dozla, minimum doublée On revend de lherbe pour gagner du blé, on découpe le savon sur la planche en bois Dans les faits divers on est souvent cité, si le buzz vient pas on va insister Insister jamais désister désister, rester sous-coté cest insultant Les abonnés montent sur Instagram, je lavais prédis sur Jack Daniel Ouais de blé, jenverrais plus de moneygram quand je serais payé par la Sacem la Sacem Jai grandi dans les cités les cités pour sen sortir en était des Pourtant personne nous incitait, on a connu trop tôt le goût des llets-bi J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban pour un diban J'suis dans la vente de dix balles vente de dix balles Je raconte ce que jai fait, moi je me prend pas pour un diban Toujours prêt pour faire des tals des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants Toujours prêt pour faire des tals mais quelques fois je suis hésitant Les petits de la zone ont la dalle, pour des sous ça rabat les passants rabat les passants</t>
+          <t>Yeah, eh Ouh-ouh-ouh-ouh-ouh La muerte La muerte Uh-uh Yeah, let's get it Encore toi Uh-uh Ça fait trop longtemps que j'suis dans l'ghetto, baby me fait sortir sur les Champs Champs J'étais sur l'terrain, c'était trop miné, donc j'ai vite commencer le chant Yih-yih Elle kiffe les faux bandits, les mecs à histoire Mmh-mmh qui raconte les story au bigo, le soir Mais moi, j'suis posé dans l'bloc le soir, obligé d'faire les tes-com' Let's get it Pull up, skrt, la Rover en bas de la maison, fais-toi belle, j't'emmène dans un restau' Eh, eh Pull up, skrt, plusieurs couleurs dans la che-po, baby, j'achète pas Window Shope Pourquoi t'as peur ? En face, y a rien de méchant No, j'suis prêt même si j'chante la romance Du bling-bling Yes, j'en ai autour du cou Mmh, j'en ai sur les poignets, no Let's go Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh En une seule rencontre, y a le eyes contact, très souvent, c'est elle qui m'contacte Avant moi, tout était intact, dans sa vie, j'ai eu beaucoup d'impacts Ouais, j'avoue, dans sa vie, j'ai eu trop d'impact, j'ai les plugs, dans la ville, j'ai les contacts Ranger ma kichta, c'est dans la boîte, j'sais qu'elle s'inquiète pour moi tous les soirs Uh-uh Hey, bébé, j'suis méfiant, j'suis sorti, j'ai laissé l'cur à la maison Motema na ndaku Me demande pas pourquoi si j'te raconte ça, t'auras des frissons J'sais qu'tu vas trembler Pour qu'j'reste avec toi, faut que tu me montres, donne-moi les bonnes raisons Faut que tu donnes tout Oh-oh-oh-oh Tout, tout, yeah, eh Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Let's go No Eh-eh-eh Yeah, yeah, yeah Si t'es faites pour moi, reste pas là, non Eh-eh-eh-eh-eh-eh Uh-uh Si t'es faites pour moi, reste pas là, non</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Différent</t>
+          <t>Fin du jeu</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mmh-mmh La go, là, est jolie Han-han, seize ans, elle pensé trouver son mari Han-han Elle a finie dans sont lit Han-han, dix-huit ans, plus aucune nouvelles de lui Han-han Ça l'a rendu impoli, insolente, han Yih-yih Peur d'être déçu Mmh-mmh, déchu, han À chaque relation, obligé d'être collante Pfiou, pfiou, han L'impression qu'tout l'monde veut sa chute, han Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Ell voulait se marier à vingt-deux ans Vingt-dux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah À vingt ans, elle a rencontrait Gambi' Mmh-mmh Dommage pour elle, il courait qu'après les ients-cli Les règlement de comptes et les descente de police Si il s'fait choper, elle est complice Y a pas meilleur comme alibi, même si elle en a marre de ses bêtises, eh Eh-eh Si ça sonne à six heures, prends mon téléphone Mon téléphone C'est pour notre avenir si j'encaisse les sommes Si j'encaisse les sommes Ah, mama na ngai, j'suis impliqué 'pliqué Ah, mama na ngai, j'suis abonné Évidemment Évidemment, elle sentait dans mes bras, quelque chose de différent De différent Elle voulait se marier à vingt-deux ans Vingt-deux ans Mais ça va ce passer différent Différent, eh-eh Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Les poches J'ai fais le tour du tiekson Du tiekson, j'suis devant le porche Elle veux faire le tour du monde Le tour du monde, j'ai rien dans les poches Rien dans les poches Je fais le tour du tiekson Tour du tiekson, j'suis devant le porche Eh-eh Hi, hi, ah, différent Hi, hi, ah, une vie différent Hi, hi, ah, ah, différent Hi, hi, ah, une vie différent Han, han, han, han Han, han, han, han Han, han, han, han Han, han, han, han</t>
+          <t>J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons T'es prêt à gouter même si c'est pas ta gamme J'suis prêt à t'faire gouter c'qu'il y a dans l'métal Comme avant, postiché sur la dalle Papa sait pas qu'on fait tout ça pour les thalles Elle m'appelle, veut que j'sorte du local J'sais plus c'qui est légal, c'qui est illégal En voiture méchante, j'ai dégainé Dégaine fâchée comme Gambino Vol de vélo, pince monseigneur Revente immédiate chez l'drogueur Devant mon couteau tu fais l'pasteur Pourtant tu parles beaucoup sur Twitter Attention aux âmes sensibles, toujours extensible Finir bredouille, non c'est pas possible Tu vas rien faire, range tes ustensiles 9.1, les Ulis c'est l'asile J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son Ta gadji dit écoute mes sons, ça crie akha, y a les pimpons C'est bon, c'est la fin du jeu C'est bon, avec un silencieux C'est bon, c'est la fin du jeu</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Double Hook</t>
+          <t>Foiré</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nardey, c'est chaud ça, ah, ah Scar Eh, eh Tout c'que j'prends, c'est un chef d'uvre Hi, hi, début d'séance, j'suis d'jà ivre Quand elle m'suce, elle parle d'son ce-m, j'm'en bats les couilles d'sa ie-v Tu vas finir fauchée comme ton ce-m Han, han, tu t'manges deux balles pour d'la came Tou-tou-tou-touh Dans la cabine, le micro, j'crame Wow, c'est Jackson Five sur d'la drill C'est Mozart, Capitaine Jackson J'suis sur la piste en Versace, hein Eh, eh, vers chez moi, ça tire Quand j'suis à jeun, faut pas m'faire chier, moi, pour un rien, j'te gifle Oh, Cendrillon Baby, monte dans l'gamos, ouverture papillon Baby On te baise ta grand-mère si t'as payé Bah, des affaires j't'ai poussé, hier après-midi Tou-tou-tou-touh,eh, eh Mmh, mmh, j'suis moins serein quand j'sors de la ville sans bourge Woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Eh, eh J'suis moins serein quand j'sors de la ville sans bourge Hi, hi, woaw, woaw, woaw Cache tout, y a les flics autour, si ils trouvent le sac, tu prends une gratuit Han, han, han, han, c'est mon plan cul mais elle s'attache Han, han, han, han, j'me désape, ses veux-ch', elle attache Han, han, han, han, vocal est le braquage Han, han, han, han, j'fais du fric, tu pointes au chômage Uh, uh Toute la stup' est dans mon cul Mon cul, toute la stup' est dans mon cul Hi, hi Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Akha Toute la stup' est dans mon cul La stup', toute la stup' est dans mon cul La gue-dro Toute la stup' est dans mon cul Han, han, oui, je suis le meilleur dans ça Le boss C'est Porte de Saint-Ouen, là Mufasa, the bad producer Oh, va là-bas Eh, eh, han, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Ah, breh Han Han, ça, c'est pour toutes les babys, shake ton booty Shake, shake, shake Dans la vie, y a rien d'facile, personne est invincible Tou-tou-tou-touh, eh, eh Ma baby ne boit plus d'Sky, elle veut du champagne Du champagne Elle veut tout acquérir sur l'avenue Montaigne Gucci, Fendi, Louis' Pour Zyed et Bouna, fuck la po'-po' Fuck, fuck On tolère aucun faux pas, j'mange l'instrumentale comme un repas T'es un opps, on t'encule même sans défense Hi, hi, faut assumer les conséquences C'est l'dix-septième et l'quatre-vingt onze Mmh, mmh, c'est nous, on fait bouger la France J't'en-, j't'en-, j't'envoie une mousso pour te chopper, dans le labo' comme Tony Chopper Baw Patate gauch, j'suis pas NLE Choppa, broliqué, j'ai pas besoin d'shooter Paw C'est p't-être une meuf trop bonne qui va donner l'go Le go, j'veux le gâteau, tout l'magot Magot Drive-by, mentale, Chicago, là, c'est Porte de Saint-Ouen, Parigot Eh, eh, paw Eh, eh, paw, j'la prends dans tous les sens sur du Aya Nakamura J'aime trop J'la prends dans tous les sens sur du Aya Nakamura Dans la vie, y a rien d'facile Rien, j'en connais qui assassinent Charcle Zaïrois comme Koffi, y a qu'au bon Dieu que j'peux m'confier Uh-uh, uh-uh, uh-uh, merci Jackson Five, Gambino La M', la mélodie du ghetto Eh, eh T'es excité dans l'Viano Hi, hi, attends qu'on arrive au tel-hô Oh Jackson Five, Gambino La M', la mélodie du ghetto Ah, ah T'es excité dans l'Viano, attends qu'on arrive au tel-hô Oh, vas là-bas Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Han, ça, c'est pour toutes les babys, shake ton booty Uh-uh, uh-uh, uh-uh Tou-tou-tou-tou-tou-tou-touh</t>
+          <t>Nelly encore à la prod' Nelly encore à la prod' Brr Hum, hum Mig Moula GLM Gang Gang, gang Opps à l'hôpital, on fait la fête On fait la fête, on trouve le milieu, sur la 'quette, on fait la croix La croix Pour un re-fou, dans la vie, faut faire des choix Des choix, ma treizième années, j'ai choisi d'aller ché-rra' Brr, bang Deux ans après, j'ai commencé l'terrain Le terrain, le terrain, freiné par le gain, il fait froid, j'suis dehors, j'mets les gants Les gants 02 Géné', mon gang Mig Moula, Gambino La M', hum, hum, uh-uh Gambino La M', Mig Moula Mig Moula, brr, quand j'étais à terre, t'étais où, là T'étais où, là ? Uh-uh ? J'ai des hallucinations quand j'suis saoul Quand j'suis saoul, gang, envie de tous casser quand j'suis soûlé Pa-pa-pah, uh-uh Les p'tits reufs sont libérables que chez Sully Sully, bicrave plus d'bracelets, Timoune est sorti Pah T'as pookie, t'as v'-esqui la té-ci comme Brr, la plupart de tes rappeurs, c'est des Dober' Uh-uh Si t'écoutes pas du GLM, t'es foiré Foiré, si t'écoutes pas du Mig, t'es foiré Foiré Si y a pas d'sous à prendre, c'est foiré Foiré, le client ne veut pas attendre, c't'enfoiré Brr Si t'écoutes pas du GLM, t'es foiré Brr, si t'écoutes pas du Mig, t'es foiré Gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Uh-uh Ils font les voyous mais ils font pas peur Non, nous, c'est vrai zaza, y a pas d'jeu d'acteur Brr J'la ramène au tel-hô, j'ramène pas d'fleurs Non, j'ramène pas d'fleurs, j'lui sors que ma queue Brr On avance, on mène la cadence La cadence, c'est nous, on représente le neuf-un en France En France On avance, on mène la cadence La cadence, brr, c'est l'quatre-vingt onze, c'est la violence Pa-pah, brr Vacances à Venise, elle est ravis au lit Ravis au lit, la sacoche est remplie de billets violets Billets violets Au mortier, ça canarder la police La police, mets tes gants si tu veux pas t'faire soulever Soulever, bah Impasse de la délinquance, gros, y a pas d'virage Jamais, jamais, tout est organisé, vas voir au garage Vas voir Tout est organisé, vas voir aux Roses Vas voir, chez toi, sa tourne pas si c'est pas carré Brr Liasse de 10K sous céllo' Sous céllo', j'peux pas t'expliquer, c'est trop long Brr J'comptes pas sur tre-l'au, tout seul, j'découpe tron-li, pas d'ralentir, j'regardes pas les rétro' Pa-pa-pah J'peux pas ralentir, j'suis en RSQ3 Gang, j'peux pas tout dire, c'est trop délicat Jamais À part qu'y avait beaucoup d'contacts dans ma Lyca' Brr et qu'le garage coffee se rapproches des 20K Gang Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Yih-yih Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Gang Fin d'journée, j'éteins mon tél' Gang, brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi Gang, j'la connais pas là-celle Gang, brr Fin d'journée, j'éteins mon tél' Brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi, j'la connais pas là-celle Gang Si t'écoutes pas du GLM, t'es foiré Brr, foiré, si t'écoutes pas du Mig, t'es foiré T'es foiré, gang Si y a pas d'sous à prendre, c'est foiré C'est foiré, le client ne veut pas attendre, c't'enfoiré Brr, yih-yih Si t'écoutes pas du GLM, t'es foiré Gang, uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, c'est foiré Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Hum, hum, gang Brr</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DSQUARED2</t>
+          <t>Freestyle #11RappeursASuivre2021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mmh, mmh Mmh, mmh Mmh, mmh Yih-yih Mmh, mmh J'prend tout même si tu m'payes en centimes Centimes, j'ai d'quoi t'faire planer dans mon jean Mon jean C'que j'ressens, personne peut l'sentir Sentir, personne, même les mecs de ma team Ma team On court tous après les thunes Les thunes, j'peux rien faire pour ce qui veulent dormir Dormir Plus lsuccès augmente, plus, ça s'empire S'mpire, j'dors plus la nuit, comme un vampire J'suis dans ls bagailles depuis longtemps, j'ai jamais changé de camp Camp Tout pour le plata, tout pour le gang Gang, de la rue, j'suis un militant Ton Glock, tu compte l'utiliser quand ? J'suis avec ta go, j'la mougoupan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Ah ouais J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'peux pas finir en maison d'arrêt mais GDR a pris du ferme Mmh, mmh Ça fait mal au cur de perdre un frère, faut qu'je reste en vie jusqu'à c'qu'on y perd Mmh, mmh Je check tout l'monde d'la même façon mais c'est pas tout l'monde que je considère Mon vu le plus cher, c'est d'v-'esqui l'enfer, le second, c'est de devenir millionnaire Uh-uh Si y a pas d'pote-ca, elle va me lécher lgland, après ça, elle pourra plus m'gué-lan Gué-lan On est plus des p'tits, c'est nous les grands Les grands, les anciens ont fait leur temps Leur temps T'as un truc à faire qu'est-ce t'attends Qu'est-ce t'attends ? ? Tu sais où j'vis et où j'traine tout l'temps Tout l'temps Mon négro, dis-moi, qu'est-ce t'attends ? Qu'est-ce tattends ? Ah ouais J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon DSQUARED DSQUARED Gyro', ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison darrêt Yih-yih J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh J'suis défoncé toute la soirée Mmh, mmh, j'ai d'la coke dans mon DSQUARED Mmh, mmh Gyro', ma mère la pute si j'm'arrête Mmh, mmh, j'peux pas finir en maison darrêt Mmh, mmh2</t>
+          <t>Ok, Booska-P, grosse dédicace à toute l'équipe de Booska-P C'est que d'la musique, hein, hein Ah Top départ, tu pourras jamais capter oh, oh, brassard, gros, j'le donne au capitaine J'aurais jamais assez palpé, j'suis l'coach des 11, j'démarre à la vingtaine On a squatté les bâtiments, p'tit frère, le but c'est pas d'cantiner encore J'ai attaché mes sentiments encore, pour la bécane, j'donnerais pas 10 000 pah Faut pas modifier l'plan, j'dois sortir un GLE pour mon vieux Zéro feat dans l'premier album, j'attends déjà un diamant, j'ai étranglé l'jeu On va t'la placer en finsse, le Uzave, il maîtris la vitesse J'vais gratter les grandes et les p'tites pièces, ma te-tê dans tous les business Ok, Booska-P oh Si t'as d'la plata, on s'arrange Faut qu'le sac de sous suive Faut pas que mon cul dans un Range eh, eh Si t'as d'la plata, on s'arrange Igniti0n Hey, hey, hey Hey Ils disent que j'ai percé parce que j'suis passé sur Booska-P mais moi, j'veux le cash à Mbappé, hey Ouais, j'ai d'la coke et j'la revends le soir, j'connais beaucoup d'personnes qui l'ont tapé, hey J'apparais dans tes cauchemars, cauchemars, 2-2, tu peux pas me zapper, hey J'envoie des merdeux t'faire, j'ai plus l'temps de me taper, brr Échec scolaire, j'levais la main sur le CPE spla, spla Ils racontent des trucs dans leurs sons ces fufus, comme si c'était eux c'était eux Faut qu'ça dure, j'vends d'la ce-dou et d'la pure Pète-moi dans le trafic, boy, que j'v'-esqui leurs filatures Hey, hey, 22 pour Booska-P Sur l'ter', j'vois des ges-sh' pour un demi d'coke s'taper Tête brulée comme Jose Aldo, brr Quand j'suis au poste, j'en dis pas trop hey, hey J'sors de 72 heures, cherche ta femelle dans le Quattro Nierche Ma vie n'tient qu'à un fil un fil et en c'moment, j'sens qu'il m'étrangle Pas du genre à jouer les marionnettes donc forcément, j'trouve ça étrange c'est che-lou, che-lou Mais bon, j'm'en bats les reins ouais, des amis d'venus étrangers étrangers Faites pas les fous pour rien, ça commence à prier quand ça sent l'danger quand ça pue Une vie, un 100 G' une vie, 100 G', les temps ont changé ouais, les temps ont changé Dans ma zone, les armes à feu parlent beaucoup plus qu'une poucave ces temps-ci pa-pa-pa-pah Dehors, c'est tendu, l'hiver est là, beaucoup vont glisser, y a du verglas partout J'marche prudemment, j'regarde plus derrière, j'en ai plus rien à foutre Et j'avoue que j'suis grotesque envers vous, j'ai mon joint qui agit sur l'cerveau Donc j'prends le mic', que des piques envers tous ceux qui m'obligent à toucher mon dos Ceux qui oublient qui étaient dans l'trou comme nous, qui m'disent que c'est pour bientôt Alors qu'hier, ils étaient même pas là, 2021, j'suis dans l'équipe, titulaire, que il faut mettre des buts Tous les jours, j'fais rentrer du liquide, on prend les sous même si ça vient d'une pute D'une pute juste ou encore du studio skch, skch J'mets des fringues usés mais tu sais qu'la dégaine est jdid J'ai pris du retard, j'ai jamais pris d'avance, carrément, j'me voyais dans les 11 d'avant Pour Booska-P Nierche Ouais, ouais Hiou, hou, hou, hou, hou, hou, hou Ocho Arriba, arriba Alors les gars ? Eh, eh, eh Eh Sayonara coucou, c'est l'retour de Pippo Inzaghi ocho Le porc a le mort contre moi parce que j'nique son salaire dans d'la bouffe et des habits ouh J'insulte que des surs, j'avoue, j'abuse ouh, j'suis dans les 11 parce que je joue bien ouh J'viens d'Clamart, du 100-8i, là où toi et tes putes de copains vous jouez pas ouh J'veux liasses en euros et en dollars ouh, la grand-mère à cette pute de donneuse va tomber J'suis fiable à mes gars, tu peux d'mander, j'ai jamais demandé retour quand j'ai donné, moi La Vegas qui allume un missile ouh, deux kil' de beuh sur la mesa brr Elle me dit que j'lui manque en message, j'lui tue la foufoune, le lit s'transforme en piscine Dans mon gang, bilaye, on est , gros, SDM sur Booska-P ouh J'suis comme Ryu, j'leur envoie que des putains d'combos, j'leur envoie des sons, t'as peur Hadouken Ouais, ouais, j'leur prépare une putain d'embuscade ouh SDM, 100-8, numéro 10 dans le 11 type à Booska-P, ocho 11 rappeurs à suivre sur Booska-P Combien d'entre eux seront rescapés ? Oh, Baker, t'as dead ça Deux-trois appels, j'attends toujours la paye, j'mise tout quitte à perdre quitte à perdre J'suis pas sûre d'le faire, j'réfléchis à perte, j'suis toujours déter' toujours déter' J'suis bien trop sévère eh, c'est jamais très clair jamais très clair C'est jamais très bien eh, eh, c'est toujours à r'faire ah, ah C'était l'année à personne nan, nan, c'était l'année au COVID COVID C'était l'année à TikTok oh, oh, c'était l'année à Netflix oh ouais J'ai besoin de personne, nan, nan, toujours été de-spi Demi sur le terre plein, nan, nan, flash et on sourit, eh On veut du cash, cash, cash, cash, sur la route, je trace, trace, trace, trace Ça v'-esqui le trash, trash, trash, trash, on est là pour le taff, taff, taff, taff La vie qui défile, on est focal' sur le trajet eh Y a plus d'espoir, que de profit sur le carnet eh Le temps me poursuit, c'est les preuves qui font le blase Après la mi-temps, on est gagnants dans le match, eh Après la mi-temps, on est gagnants dans le match So le Flem Fuck la misère, pour le biffzer, dans la streetzer, souvent, on s'est retrouvé dans des traqu'nards J'veux savoir si j'l'aime, elle, elle veut savoir quand est-ce que j'sortirais Ragnar La vie n'tient qu'à un fil, fuck les bleus donc si t'es d'mèche avec eux, tu finis wanted shoo Prince de la ville, je n'suis pas comme eux, j'ai même pas fait la queue et j'ai fini en tête Dans la sacoche blanche, j'ai l'arme qui se frotte à ma kichta et mes lunettes Cartier Beaucoup trop ghetto pour faire du zgar, si j'deviens une star, tu m'verras toujours au quartier wow Tu fais pas l'ancien si c'est un d'mes gars qui te vend la drogua qui te passe sous l'pif chargé, on reviendra si tu manques de respect ou qu'tu nous dois du biff Tellement hood que j'dis quand même 11 quand on m'demande de donner une note sur 10 Faut pas qu'tu t'inquiètes pour moi, maman, car le ciel a réactivé le mode furtif Dans les rues, c'est le chaos, hein, donc faire de l'oseille, c'est tout c'que j'veux La voix dans ma tête me répète sans arrêt que j'pourrais briser la glace si j'ouvre le feu grww La voix dans ma tête me dit Cogne ça cogne ça Dehors, on s'fait du mal pour s'mettre bien, c'est trash, c'est triste mais c'est comme ça comme ça En mauvaise compagnie, même courtois, nos sentiments sèment toujours le bazar Donc si l'homme a été banni du jardin d'Eden, ma chérie, c'est sûrement pas un hasard Elle ne veut pas lâcher prise, elle me piste sur les réseaux et m'appelle pour s'capter Mec du 11 dans les 11 rappeurs à suivre, armé comme Zé Pequ', j'passe sur Booska-P j'passe sur Booska-P Deuspi Mmh, mmh Mmh, mmh Mmh, mmh J'fume du kamas, j'fais pas de sport j'fume du kamas, j'fais pas de sport J'fais partie des 11 rappeurs à suivre j'fais parti des 11 rappeurs à suivre Ils entendent les Ulis, ils ont peur, viens dans ma ville, attends-toi au pire Guetteur posté, à l'affût des porcs, faut faire des sous, j'suis pas là pour plaire Fin d'se'-con sur une 'quette à moi mmh, mmh, le shit vient de Ketama mmh, mmh Elle twerke sur ma bite mais j'bande mou mmh, mmh, moi, j'pense qu'à arrondir mes fins d'mois J'suis dans un gros bolide noir mate, côté passager, j'suis khabat Et si tu payes pas avant la date, on descend chez toi comme à Kattegat ok Ça visser de la neige à toutes les saisons toutes les saisons J'suis à l'aise dans les rues d'ma ville comme à la maison comme à la maison Quand y avait heja, j'étais là, t'étais pas présent t'étais pas présent Libérez Zoulou, y en a marre d'la prison Rabattez pour faire d'la monnaie, on avait rien donc j'allais voler eh, eh On vend du doré, on veut du vert, on veut du violet eh, eh Après les cours, c'était sur l'terrain que j'étais collé eh On s'installe chez toi comme les Colons Colons Les gars d'chez toi, c'est tous des connards mmh, mmh Ouh, ouh Ah, ah, ah NV, NV Dièse, NV, NV Dièse Hey, hey Paire de gants noirs près d'bécane ah ouais, ouais J'vendais d'la came ah ouais, ouais pour du Designer L'oseille fait l'bonheur donc j'en veux plein ouh, ouh J'me couche à six heures, j'vois pas l'matin ouh, ouh Tout est blue, blue, dans l'appart' dans l'appart', y a la nounou d'vant la porte devant la porte Pas de quoi être fier, j'vends la mort j'vends la mort mais bon, chaque jour, j'fais des tales j'fais des tales J'veux du LV sur mes sur mes , j'veux du LV sur le sac sur le sac En moins d'une s'maine, j'fais 1K j'fais 1K et le week-end, je le claque le claque en cash en cash Eh, eh, eyah T'es fake, vas-y, bouge, s'te-plaît Tu m'dis que le travail paye quand tu m'vois sur Booska-P T'es fake, vas-y, bouge, s'te-plaît C'est l'refrain, y a rien d'nouveau C'est l'refrain, y a rien d'nouveau, hey, hey, hey Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh Entre le vol et le deal, mes gars te l'ont dit, fumée dans l'appartement J'vais pas rentrer de la nuit, ma chérie me dit que je vis n'importe comment Enculé, j'voulais la vida, j'voulais la loca, grâce à la coca' à la coca' Quand j'ai sauté dans le vide avec ma paire de cojo', un Toka' cojo', un Toka' Avec dit , rentre chez Gucci pour s'habiller yeah, yeah, yeah J'reviens du chantier avec du sang sur le tablier yeah, yeah, yeah J'ai assez de papier, le malheur est maquillé maquillé Des billets par milliers par milliers, s'ils m'ont pas mis l'il Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh J'm'en rappelle, j'étais pas coté, aujourd'hui, j'ai un peu d'buzz, j'passe sur Booska-P Faut qu'j'mette des sous d'côté parce que demain j'sais qu'tout ça peut s'arrêter ça peut s'arrêter Tous les jours, c'est la même, à la recherche des loves, j'connais pas la gaieté Tous les jours, c'est la merde, à 11 heures et d'mi, j'suis capuché dans l'ghetto Ghetto Youth depuis la Nintendo, j'suis dans une auto et j'ai les vitres teintées Tourne à droite, j'ai vu les gyro', c'est pour nous, j'ai pas envie d'me faire péter Non, j'suis pas pressé d'percer, y a d'la frappe de beuh dans l'pays d'Van Persie Si on joue, c'est pour gagner, si on perd, on va pas partir d'ici Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie C'est la folie c'est la folie Mmh, ouh pah, pah Booska, wow wow, wow, on est beaux ouais, ouais Et ma baby mama, j'tape pendant que j'roule mmh, mmh On prend l'extendo, rafale, j'en ramène ok Bitch, stock, riche, on la blesse cette bitch mmh, mmh Ouais, pan, snitch pan, nous on fuck cette bitch bang Triste, plein de fric ouais, double waka, j'vise eh Té-ma ce tocard , té-ma l', on n'fait pas de pitch mmh, mmh Oh, j'canalise eh, Flako LaM, j'mise eh T'as bien vu ma tête, il faut qu'tu t'souviennes bien d'moi Moteur coupé, le bas côté gé-char, c'est la merde ouais Ennemis dans le tas ouais, misère devient K blindée pour 1K, il m'faut mes gues-dro, j'en ai pas J'viens tout stopper, j'tabasse prod', stocker les balles dans son corps Gue-dro blistée, nous on fuck ces bitches, des sous, j'm'en fait déjà Shooter, dégaine donc il t'blesse, t'entends Waka, bang, bang Et comme j'suis dopé, ils m'portent l'il, j'suis trop gang, gang Sinon bref, j'laisse, t'encaisse, fric, yes, grosse caisse D'la cess pour mon fils, gros, là tes yeux s'plissent Sur leurs avis, j'pisse, futur rockstar, là j'tise Va falloir presser, t'es sous pression, p'tit imbécile Booska, Booska-P2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[EXCLU] Lovés (ft. Gambino la mg)</t>
+          <t>Freestyle No Hook</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Favé, Gambino Couplets Si la fatigue tirerais Tu sais que je serai déjà mort depuis deux piges Jsens mon cerveau mes cernes tirer Les soucis gros si ce nest les sommes que jempile Beaucoup de soucis mais les sommes sempilent Dans mon tiroir ya que des liasses de mille Jfais de la musique mais jsuis encore dans le deal Jai des frères baptisés, des frères dans le deal Jai des trucs à vous raconter A la base on était dans le hall Ils sont bizarre depuis que jsuis compté Ils aimeraient bien inverser les rôles Toi et moi yaura aucun rapport Tu saura pas combien les streams rapportent Tu saura pas tout ce quon aura pu faire Si un jour devant la baraque ya un Porsche Pre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais Couplets Des fois jsuis gentil des fois jsuis méchant Cest de toi que ça dépends Nerveux, est le tempérament Jolie fille, pour les sommes sapprête Ah quelle bombe quand elle snap sa tête La dans le bed Favé tire sa tresse Jme délaisse elle minsulte de sale traitre Trop souvent entouré de baby Elle me répète tous les jours que jsuis un connard Elle dis que jsuis entrain de gâcher ma vie Entouré de fumeurs et danciens tolars Le couteau senfonce et se retire Je rate lobjectif, je retire Pas besoin de le redire Jsuis lancé, impossible que je me retire Pre refrain Cest une fois les poches remplies que jai pu voir leurs vrais visages Jme rends compte que jai fauté quand jsuis déjà à fond dans le virage Cest la pénurie au quartier faut que je ramène le nouvel arrivage On me dis que jsuis trop dissipé Jai trop la tête dans les nuages Refrain Aaah aaah aaaahaaah Quand jte vois tu me dévisage Parce que jai plus de lovés Et beaucoup de sappes Ça me fais trop mal Jen ai marre Pourtant moi je taimais Aaah aaah aaaahaaah Elle voudrait savoir ce quil se passe Entre nous deux faut plus quinnover Mais jle fais mal Jvois tes messages Je répondrait pas Pourtant moi je taimais</t>
+          <t>Jallume un pét, jattire lattention 'ttention, surtout lodorat des passants passants Ici-bas, on nest que d'passage mais faire du pe-ra, cest ma passion Pense à garder lil sur tes rejetons, ils viennent nous acheter des pochons Et le terrain fait des réductions si, dans ta playlist, y a mes chansons uh, uh J'conduis avec précaution, faut pas qu'je fasse sauter la caution Moi, j'contrôle pas mes émotions donc très courtes sont les relations Moi, jsuis doué dans la rédaction et matrixé par les films daction Quand jécoute mes sons, jai des frissons à la concu', jmets la pression uh, uh Quand, quand, quand jétait p'tit, jétais un pickpocket 'pocket Cétait pas pour zouker mais pour per-ta si tu nous voyais venir à ta fête ta fête Que des hagar comme la Team Rocket, jfaisais des TP sur une chaise Maintenant, jfais des millions de vues sur ma chaîne, jmaîtrise la mélo' comme T-Pain uh, uh Dans lappart', jsuis ganté, j'leur laisse aucune chance de m'péter Dans le bloc avec mes brigantés, y a l'buzz mais Dieu merci, y a la santé Jconnais des mecs connus pour les armes à feu et jconnais dautres mecs connus pour shlasser Par les condés, jme suis fait pourchasser, y avait plusieurs pochons dans un sachet uh, uh Remets, remets, remets du Jack dans ma bouteille dEvian Jsuis pas un rookie, j'rappe depuis longtemps mais j'refourguais des dix et des vingt des trentes aussi Si ça dérape, man, on sort le nine, grâce aux auditeurs sur Spotify Toute la nuit sur moi, elle whine, toute la nuit, sur moi, elle whine Sa robe fait des vagues comme ma grande line Deux piles par jour, ça fait 10 balles, les bails veulent tous faire comme le drive comme le drive Sous piche avec Lifsa, jsuis au ze-quin, mon frère est matrixé, il suit mes pas On ma dit lavoir déjà vu fumer des guinzes, jlui mettrai des baffes quand je laurai en flag P'tit con va</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eyes contact</t>
+          <t>Full Up</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yeah, eh Ouh-ouh-ouh-ouh-ouh La muerte La muerte Uh-uh Yeah, let's get it Encore toi Uh-uh Ça fait trop longtemps que j'suis dans l'ghetto, baby me fait sortir sur les Champs Champs J'étais sur l'terrain, c'était trop miné, donc j'ai vite commencer le chant Yih-yih Elle kiffe les faux bandits, les mecs à histoire Mmh-mmh qui raconte les story au bigo, le soir Mais moi, j'suis posé dans l'bloc le soir, obligé d'faire les tes-com' Let's get it Pull up, skrt, la Rover en bas de la maison, fais-toi belle, j't'emmène dans un restau' Eh, eh Pull up, skrt, plusieurs couleurs dans la che-po, baby, j'achète pas Window Shope Pourquoi t'as peur ? En face, y a rien de méchant No, j'suis prêt même si j'chante la romance Du bling-bling Yes, j'en ai autour du cou Mmh, j'en ai sur les poignets, no Let's go Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh En une seule rencontre, y a le eyes contact, très souvent, c'est elle qui m'contacte Avant moi, tout était intact, dans sa vie, j'ai eu beaucoup d'impacts Ouais, j'avoue, dans sa vie, j'ai eu trop d'impact, j'ai les plugs, dans la ville, j'ai les contacts Ranger ma kichta, c'est dans la boîte, j'sais qu'elle s'inquiète pour moi tous les soirs Uh-uh Hey, bébé, j'suis méfiant, j'suis sorti, j'ai laissé l'cur à la maison Motema na ndaku Me demande pas pourquoi si j'te raconte ça, t'auras des frissons J'sais qu'tu vas trembler Pour qu'j'reste avec toi, faut que tu me montres, donne-moi les bonnes raisons Faut que tu donnes tout Oh-oh-oh-oh Tout, tout, yeah, eh Tant que j't'ai pas mis la bague au doigt Doigt, j'peux pas autant dépenser pour toi Toi J'ai pris des sous, donc j'ai pris du poids Poids, quand tu m'en demandes trop, tu perds des points Uh-uh Tant que j't'ai pas mis la bague au doigt, j'peux pas autant dépenser pour toi J'ai pris des sous, donc j'ai pris du poids, quand tu m'en demandes trop, tu perds des points, non Elle sait que j'viens du ghetto, hello Hello, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Sait que j'viens du ghetto, hello Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Baby, j'donne pas tout, tout, tout, tout Mmh-mmh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Baby, j'donne pas tout, tout, tout, tout Uh-uh, si t'es faites pour moi, rapproche-toi sinon, reste pas là, non Mmh-mmh Let's go No Eh-eh-eh Yeah, yeah, yeah Si t'es faites pour moi, reste pas là, non Eh-eh-eh-eh-eh-eh Uh-uh Si t'es faites pour moi, reste pas là, non</t>
+          <t>Scar Nardey, c'est chaud ça, eh, eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Elle veut balloné sur ma bon-bon-bonbonne, j'vais pas payer mais elle est pas bonne Donc elle ballone pas sur bon-bon-bonbonne, y a rien a gratter, c'est une folles J'suis sous lean, donc j'peux pas boire d'alcool Ce soir, j'y vais à la cool J'ramène les plus timides à l'hôtel car j'aime pas trop celles qui me colle Elle est gé-char, elle va tout caler Mmh-mmh, au marteau, je détaille le caillou Mmh-mmh C'étais moi, j'bossais quand il caillé Mmh-mmh, maman savait pas qu'j'étais un voyou Mmh-mmh La vie était dur mais j'étais joyeux, j'récup' tout mon bénéf' dans l'studio J'étais pas un élève studieux j'préférer vendre au étudiants Uh-uh J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh Ma racli n'aime pas La promo Promo, y a pas moyen d'percer Y a pas moyen Ma chérie, c'est soit ça, soit j'retourne revendre la C Les mousso, j'les connais pas mais elles croient que j'vais les castée J'vais les castée Bon, j'avoue qu'au chaud, à Lyon, j'me suis fait sucer Oups Quand, quand ça part en couille, on est full up Mmh-mmh Trop d'inspi', j'fais d'la pop, ils m'ont négligée, j'ai finis au top Le DJ pull up Pull up, j'suis dans l'fond du bloc Minimum deux bouteille de cîroc De cîroc, j'ai moula dans le froc J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fin du jeu</t>
+          <t>Gambinerie #3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'ai écrit mes textes sur mon parchemin, j'sors de chez Givenchy Et j'repense à quand c'est moi qui dealais en bas d'chez moi On en a fait du chemin, on a fait tout ça sans faire de schéma Mais tout ça c'est grâce à Dieu, donc petit à petit j'me rapproche du bon chemin Han, han J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons T'es prêt à gouter même si c'est pas ta gamme J'suis prêt à t'faire gouter c'qu'il y a dans l'métal Comme avant, postiché sur la dalle Papa sait pas qu'on fait tout ça pour les thalles Elle m'appelle, veut que j'sorte du local J'sais plus c'qui est légal, c'qui est illégal En voiture méchante, j'ai dégainé Dégaine fâchée comme Gambino Vol de vélo, pince monseigneur Revente immédiate chez l'drogueur Devant mon couteau tu fais l'pasteur Pourtant tu parles beaucoup sur Twitter Attention aux âmes sensibles, toujours extensible Finir bredouille, non c'est pas possible Tu vas rien faire, range tes ustensiles 9.1, les Ulis c'est l'asile J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur J'suis impliqué dans des bails noirs, des histoires depuis mineur J'suis impliqué dans des bails noirs, des histoires même étant majeur On va charbonner comme des chiens car on sait qu'c'est la recette pour rester dans l'jeu J'ai signé deux contrats chez Sony donc j'ai acheté une arme avec un silencieux Ils veulent plus s'frotter à nous car ils savent que quand nous on déboule on est dangereux Quand on arrive ça fait pah, pah, pah, c'est la fin du jeu Ils ont capté, c'est bon, Gambino, WaïV, monte le son J't'avais dit écoute mes sons, ça crie akha, y a les pimpons Ils ont capté, c'est bon, Gambino, WaïV, monte le son Ta gadji dit écoute mes sons, ça crie akha, y a les pimpons C'est bon, c'est la fin du jeu C'est bon, avec un silencieux C'est bon, c'est la fin du jeu</t>
+          <t>Gaza, Beriz Arc en ciel dans les chepo j'suis refait Tous mes négros comptent et on refait Gambinerie, eh paw paw paw paw Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refait Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refait</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Foiré</t>
+          <t>GÉ TRACÉ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nelly encore à la prod' Nelly encore à la prod' Brr Hum, hum Mig Moula GLM Gang Gang, gang Opps à l'hôpital, on fait la fête On fait la fête, on trouve le milieu, sur la 'quette, on fait la croix La croix Pour un re-fou, dans la vie, faut faire des choix Des choix, ma treizième années, j'ai choisi d'aller ché-rra' Brr, bang Deux ans après, j'ai commencé l'terrain Le terrain, le terrain, freiné par le gain, il fait froid, j'suis dehors, j'mets les gants Les gants 02 Géné', mon gang Mig Moula, Gambino La M', hum, hum, uh-uh Gambino La M', Mig Moula Mig Moula, brr, quand j'étais à terre, t'étais où, là T'étais où, là ? Uh-uh ? J'ai des hallucinations quand j'suis saoul Quand j'suis saoul, gang, envie de tous casser quand j'suis soûlé Pa-pa-pah, uh-uh Les p'tits reufs sont libérables que chez Sully Sully, bicrave plus d'bracelets, Timoune est sorti Pah T'as pookie, t'as v'-esqui la té-ci comme Brr, la plupart de tes rappeurs, c'est des Dober' Uh-uh Si t'écoutes pas du GLM, t'es foiré Foiré, si t'écoutes pas du Mig, t'es foiré Foiré Si y a pas d'sous à prendre, c'est foiré Foiré, le client ne veut pas attendre, c't'enfoiré Brr Si t'écoutes pas du GLM, t'es foiré Brr, si t'écoutes pas du Mig, t'es foiré Gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Uh-uh Ils font les voyous mais ils font pas peur Non, nous, c'est vrai zaza, y a pas d'jeu d'acteur Brr J'la ramène au tel-hô, j'ramène pas d'fleurs Non, j'ramène pas d'fleurs, j'lui sors que ma queue Brr On avance, on mène la cadence La cadence, c'est nous, on représente le neuf-un en France En France On avance, on mène la cadence La cadence, brr, c'est l'quatre-vingt onze, c'est la violence Pa-pah, brr Vacances à Venise, elle est ravis au lit Ravis au lit, la sacoche est remplie de billets violets Billets violets Au mortier, ça canarder la police La police, mets tes gants si tu veux pas t'faire soulever Soulever, bah Impasse de la délinquance, gros, y a pas d'virage Jamais, jamais, tout est organisé, vas voir au garage Vas voir Tout est organisé, vas voir aux Roses Vas voir, chez toi, sa tourne pas si c'est pas carré Brr Liasse de 10K sous céllo' Sous céllo', j'peux pas t'expliquer, c'est trop long Brr J'comptes pas sur tre-l'au, tout seul, j'découpe tron-li, pas d'ralentir, j'regardes pas les rétro' Pa-pa-pah J'peux pas ralentir, j'suis en RSQ3 Gang, j'peux pas tout dire, c'est trop délicat Jamais À part qu'y avait beaucoup d'contacts dans ma Lyca' Brr et qu'le garage coffee se rapproches des 20K Gang Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Yih-yih Si t'écoutes pas du GLM, t'es foiré Uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, gang Si y a pas d'sous à prendre, c'est foiré, le client ne veut pas attendre, c't'enfoiré Gang Fin d'journée, j'éteins mon tél' Gang, brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi Gang, j'la connais pas là-celle Gang, brr Fin d'journée, j'éteins mon tél' Brr, j'recompte la recette, obligé d'charbonner pour remplir mon assiette Oh, oh, okay Elle parles de moi, j'la connais pas là-celle Gang Si t'écoutes pas du GLM, t'es foiré Brr, foiré, si t'écoutes pas du Mig, t'es foiré T'es foiré, gang Si y a pas d'sous à prendre, c'est foiré C'est foiré, le client ne veut pas attendre, c't'enfoiré Brr, yih-yih Si t'écoutes pas du GLM, t'es foiré Gang, uh-uh, si t'écoutes pas du Mig, t'es foiré Uh-uh, c'est foiré Si y a pas d'sous à prendre, c'est foiré Uh-uh, le client ne veut pas attendre, c't'enfoiré Hum, hum, gang Brr</t>
+          <t>That is really legendary over here Jona Yihihh Mi street, mi causaille, j'ai l'attitude Attitude Devant moi les moussaux titubent Titubent, depuis qu'je suis sur YouTube YouTube Au HP j'ai fait des thunes Des thunes Merci à Mac et Bitume Bitume petit j'volais des Between Course poursuite j'avais l'habitude Huh huhh La street et ses phases j'ai l'habitude Han han C'est pas pour autant qu'j'péte les plombs Oui Un jour on prendra de l'altitude De l'altitud Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Mon-mon, Mon chemin j'ai tracé Tracé, certains sont de passage Huh huh Certains sont de passage Huh huh, mon chemin j'ai tracé Tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage Yeah, mon chemin j'ai tracé Le tartin est matinal, il arrive avant le facteur La famille c'est le principal, dehors y'a trop d'acteurs Ils pensaient m'la faire je les connais par cur Brr C'est des acteurs Brr, c'est des menteurs Brr, des profiteurs On reste vrai, on a pas sucé, vaillant depuis l'époque du BP Milau J'veux faire du shopping à Milan, j'lâche rien tant qu'j'ai pas un million Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yeah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Huh, huh, Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Yeah, mon chemin j'ai tracé Brr J'ai fait plusieurs passés Yeah, j'ai reçu très peu de passes Passes Certains sont de passage Yeah, mon chemin j'ai tracé Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Huh, huh, mon chemin j'ai tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage, mon chemin j'ai tracé Dehors y'a trop d'acteurs1</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Freestyle #11RappeursASuivre2021</t>
+          <t>GLM #6 (FUT)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ok, Booska-P, grosse dédicace à toute l'équipe de Booska-P C'est que d'la musique, hein, hein Ah Top départ, tu pourras jamais capter oh, oh, brassard, gros, j'le donne au capitaine J'aurais jamais assez palpé, j'suis l'coach des 11, j'démarre à la vingtaine On a squatté les bâtiments, p'tit frère, le but c'est pas d'cantiner encore J'ai attaché mes sentiments encore, pour la bécane, j'donnerais pas 10 000 pah Faut pas modifier l'plan, j'dois sortir un GLE pour mon vieux Zéro feat dans l'premier album, j'attends déjà un diamant, j'ai étranglé l'jeu On va t'la placer en finsse, le Uzave, il maîtris la vitesse J'vais gratter les grandes et les p'tites pièces, ma te-tê dans tous les business Ok, Booska-P oh Si t'as d'la plata, on s'arrange Faut qu'le sac de sous suive Faut pas que mon cul dans un Range eh, eh Si t'as d'la plata, on s'arrange Igniti0n Hey, hey, hey Hey Ils disent que j'ai percé parce que j'suis passé sur Booska-P mais moi, j'veux le cash à Mbappé, hey Ouais, j'ai d'la coke et j'la revends le soir, j'connais beaucoup d'personnes qui l'ont tapé, hey J'apparais dans tes cauchemars, cauchemars, 2-2, tu peux pas me zapper, hey J'envoie des merdeux t'faire, j'ai plus l'temps de me taper, brr Échec scolaire, j'levais la main sur le CPE spla, spla Ils racontent des trucs dans leurs sons ces fufus, comme si c'était eux c'était eux Faut qu'ça dure, j'vends d'la ce-dou et d'la pure Pète-moi dans le trafic, boy, que j'v'-esqui leurs filatures Hey, hey, 22 pour Booska-P Sur l'ter', j'vois des ges-sh' pour un demi d'coke s'taper Tête brulée comme Jose Aldo, brr Quand j'suis au poste, j'en dis pas trop hey, hey J'sors de 72 heures, cherche ta femelle dans le Quattro Nierche Ma vie n'tient qu'à un fil un fil et en c'moment, j'sens qu'il m'étrangle Pas du genre à jouer les marionnettes donc forcément, j'trouve ça étrange c'est che-lou, che-lou Mais bon, j'm'en bats les reins ouais, des amis d'venus étrangers étrangers Faites pas les fous pour rien, ça commence à prier quand ça sent l'danger quand ça pue Une vie, un 100 G' une vie, 100 G', les temps ont changé ouais, les temps ont changé Dans ma zone, les armes à feu parlent beaucoup plus qu'une poucave ces temps-ci pa-pa-pa-pah Dehors, c'est tendu, l'hiver est là, beaucoup vont glisser, y a du verglas partout J'marche prudemment, j'regarde plus derrière, j'en ai plus rien à foutre Et j'avoue que j'suis grotesque envers vous, j'ai mon joint qui agit sur l'cerveau Donc j'prends le mic', que des piques envers tous ceux qui m'obligent à toucher mon dos Ceux qui oublient qui étaient dans l'trou comme nous, qui m'disent que c'est pour bientôt Alors qu'hier, ils étaient même pas là, 2021, j'suis dans l'équipe, titulaire, que il faut mettre des buts Tous les jours, j'fais rentrer du liquide, on prend les sous même si ça vient d'une pute D'une pute juste ou encore du studio skch, skch J'mets des fringues usés mais tu sais qu'la dégaine est jdid J'ai pris du retard, j'ai jamais pris d'avance, carrément, j'me voyais dans les 11 d'avant Pour Booska-P Nierche Ouais, ouais Hiou, hou, hou, hou, hou, hou, hou Ocho Arriba, arriba Alors les gars ? Eh, eh, eh Eh Sayonara coucou, c'est l'retour de Pippo Inzaghi ocho Le porc a le mort contre moi parce que j'nique son salaire dans d'la bouffe et des habits ouh J'insulte que des surs, j'avoue, j'abuse ouh, j'suis dans les 11 parce que je joue bien ouh J'viens d'Clamart, du 100-8i, là où toi et tes putes de copains vous jouez pas ouh J'veux liasses en euros et en dollars ouh, la grand-mère à cette pute de donneuse va tomber J'suis fiable à mes gars, tu peux d'mander, j'ai jamais demandé retour quand j'ai donné, moi La Vegas qui allume un missile ouh, deux kil' de beuh sur la mesa brr Elle me dit que j'lui manque en message, j'lui tue la foufoune, le lit s'transforme en piscine Dans mon gang, bilaye, on est , gros, SDM sur Booska-P ouh J'suis comme Ryu, j'leur envoie que des putains d'combos, j'leur envoie des sons, t'as peur Hadouken Ouais, ouais, j'leur prépare une putain d'embuscade ouh SDM, 100-8, numéro 10 dans le 11 type à Booska-P, ocho 11 rappeurs à suivre sur Booska-P Combien d'entre eux seront rescapés ? Oh, Baker, t'as dead ça Deux-trois appels, j'attends toujours la paye, j'mise tout quitte à perdre quitte à perdre J'suis pas sûre d'le faire, j'réfléchis à perte, j'suis toujours déter' toujours déter' J'suis bien trop sévère eh, c'est jamais très clair jamais très clair C'est jamais très bien eh, eh, c'est toujours à r'faire ah, ah C'était l'année à personne nan, nan, c'était l'année au COVID COVID C'était l'année à TikTok oh, oh, c'était l'année à Netflix oh ouais J'ai besoin de personne, nan, nan, toujours été de-spi Demi sur le terre plein, nan, nan, flash et on sourit, eh On veut du cash, cash, cash, cash, sur la route, je trace, trace, trace, trace Ça v'-esqui le trash, trash, trash, trash, on est là pour le taff, taff, taff, taff La vie qui défile, on est focal' sur le trajet eh Y a plus d'espoir, que de profit sur le carnet eh Le temps me poursuit, c'est les preuves qui font le blase Après la mi-temps, on est gagnants dans le match, eh Après la mi-temps, on est gagnants dans le match So le Flem Fuck la misère, pour le biffzer, dans la streetzer, souvent, on s'est retrouvé dans des traqu'nards J'veux savoir si j'l'aime, elle, elle veut savoir quand est-ce que j'sortirais Ragnar La vie n'tient qu'à un fil, fuck les bleus donc si t'es d'mèche avec eux, tu finis wanted shoo Prince de la ville, je n'suis pas comme eux, j'ai même pas fait la queue et j'ai fini en tête Dans la sacoche blanche, j'ai l'arme qui se frotte à ma kichta et mes lunettes Cartier Beaucoup trop ghetto pour faire du zgar, si j'deviens une star, tu m'verras toujours au quartier wow Tu fais pas l'ancien si c'est un d'mes gars qui te vend la drogua qui te passe sous l'pif chargé, on reviendra si tu manques de respect ou qu'tu nous dois du biff Tellement hood que j'dis quand même 11 quand on m'demande de donner une note sur 10 Faut pas qu'tu t'inquiètes pour moi, maman, car le ciel a réactivé le mode furtif Dans les rues, c'est le chaos, hein, donc faire de l'oseille, c'est tout c'que j'veux La voix dans ma tête me répète sans arrêt que j'pourrais briser la glace si j'ouvre le feu grww La voix dans ma tête me dit Cogne ça cogne ça Dehors, on s'fait du mal pour s'mettre bien, c'est trash, c'est triste mais c'est comme ça comme ça En mauvaise compagnie, même courtois, nos sentiments sèment toujours le bazar Donc si l'homme a été banni du jardin d'Eden, ma chérie, c'est sûrement pas un hasard Elle ne veut pas lâcher prise, elle me piste sur les réseaux et m'appelle pour s'capter Mec du 11 dans les 11 rappeurs à suivre, armé comme Zé Pequ', j'passe sur Booska-P j'passe sur Booska-P Deuspi Mmh, mmh Mmh, mmh Mmh, mmh J'fume du kamas, j'fais pas de sport j'fume du kamas, j'fais pas de sport J'fais partie des 11 rappeurs à suivre j'fais parti des 11 rappeurs à suivre Ils entendent les Ulis, ils ont peur, viens dans ma ville, attends-toi au pire Guetteur posté, à l'affût des porcs, faut faire des sous, j'suis pas là pour plaire Fin d'se'-con sur une 'quette à moi mmh, mmh, le shit vient de Ketama mmh, mmh Elle twerke sur ma bite mais j'bande mou mmh, mmh, moi, j'pense qu'à arrondir mes fins d'mois J'suis dans un gros bolide noir mate, côté passager, j'suis khabat Et si tu payes pas avant la date, on descend chez toi comme à Kattegat ok Ça visser de la neige à toutes les saisons toutes les saisons J'suis à l'aise dans les rues d'ma ville comme à la maison comme à la maison Quand y avait heja, j'étais là, t'étais pas présent t'étais pas présent Libérez Zoulou, y en a marre d'la prison Rabattez pour faire d'la monnaie, on avait rien donc j'allais voler eh, eh On vend du doré, on veut du vert, on veut du violet eh, eh Après les cours, c'était sur l'terrain que j'étais collé eh On s'installe chez toi comme les Colons Colons Les gars d'chez toi, c'est tous des connards mmh, mmh Ouh, ouh Ah, ah, ah NV, NV Dièse, NV, NV Dièse Hey, hey Paire de gants noirs près d'bécane ah ouais, ouais J'vendais d'la came ah ouais, ouais pour du Designer L'oseille fait l'bonheur donc j'en veux plein ouh, ouh J'me couche à six heures, j'vois pas l'matin ouh, ouh Tout est blue, blue, dans l'appart' dans l'appart', y a la nounou d'vant la porte devant la porte Pas de quoi être fier, j'vends la mort j'vends la mort mais bon, chaque jour, j'fais des tales j'fais des tales J'veux du LV sur mes sur mes , j'veux du LV sur le sac sur le sac En moins d'une s'maine, j'fais 1K j'fais 1K et le week-end, je le claque le claque en cash en cash Eh, eh, eyah T'es fake, vas-y, bouge, s'te-plaît Tu m'dis que le travail paye quand tu m'vois sur Booska-P T'es fake, vas-y, bouge, s'te-plaît C'est l'refrain, y a rien d'nouveau C'est l'refrain, y a rien d'nouveau, hey, hey, hey Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh Entre le vol et le deal, mes gars te l'ont dit, fumée dans l'appartement J'vais pas rentrer de la nuit, ma chérie me dit que je vis n'importe comment Enculé, j'voulais la vida, j'voulais la loca, grâce à la coca' à la coca' Quand j'ai sauté dans le vide avec ma paire de cojo', un Toka' cojo', un Toka' Avec dit , rentre chez Gucci pour s'habiller yeah, yeah, yeah J'reviens du chantier avec du sang sur le tablier yeah, yeah, yeah J'ai assez de papier, le malheur est maquillé maquillé Des billets par milliers par milliers, s'ils m'ont pas mis l'il Bébé, j'suis dans la zone avec les malfrats et les bandits shku, shku Mais moi, j'n'ai plus de cur, y a que le papier qui m'fait bander shku, shku J'fais qu'empiler les sommes, j'fais ça de lundi jusqu'à lundi, oh, oh, oh Té-ma le train d'vie, oh, oh, oh J'm'en rappelle, j'étais pas coté, aujourd'hui, j'ai un peu d'buzz, j'passe sur Booska-P Faut qu'j'mette des sous d'côté parce que demain j'sais qu'tout ça peut s'arrêter ça peut s'arrêter Tous les jours, c'est la même, à la recherche des loves, j'connais pas la gaieté Tous les jours, c'est la merde, à 11 heures et d'mi, j'suis capuché dans l'ghetto Ghetto Youth depuis la Nintendo, j'suis dans une auto et j'ai les vitres teintées Tourne à droite, j'ai vu les gyro', c'est pour nous, j'ai pas envie d'me faire péter Non, j'suis pas pressé d'percer, y a d'la frappe de beuh dans l'pays d'Van Persie Si on joue, c'est pour gagner, si on perd, on va pas partir d'ici Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie Toute ma vie, moi, j'veux pas rapper, un million ou deux et j'me casse d'ici Toute l'année, des frères recherchés, même pas la trentaine, d'jà la calvitie C'est la folie c'est la folie Mmh, ouh pah, pah Booska, wow wow, wow, on est beaux ouais, ouais Et ma baby mama, j'tape pendant que j'roule mmh, mmh On prend l'extendo, rafale, j'en ramène ok Bitch, stock, riche, on la blesse cette bitch mmh, mmh Ouais, pan, snitch pan, nous on fuck cette bitch bang Triste, plein de fric ouais, double waka, j'vise eh Té-ma ce tocard , té-ma l', on n'fait pas de pitch mmh, mmh Oh, j'canalise eh, Flako LaM, j'mise eh T'as bien vu ma tête, il faut qu'tu t'souviennes bien d'moi Moteur coupé, le bas côté gé-char, c'est la merde ouais Ennemis dans le tas ouais, misère devient K blindée pour 1K, il m'faut mes gues-dro, j'en ai pas J'viens tout stopper, j'tabasse prod', stocker les balles dans son corps Gue-dro blistée, nous on fuck ces bitches, des sous, j'm'en fait déjà Shooter, dégaine donc il t'blesse, t'entends Waka, bang, bang Et comme j'suis dopé, ils m'portent l'il, j'suis trop gang, gang Sinon bref, j'laisse, t'encaisse, fric, yes, grosse caisse D'la cess pour mon fils, gros, là tes yeux s'plissent Sur leurs avis, j'pisse, futur rockstar, là j'tise Va falloir presser, t'es sous pression, p'tit imbécile Booska, Booska-P2</t>
+          <t>C'est incroyable, comment il arrive à faire ça? Noxious Eh-eh Je minimise les pêchers Je pense à quand on finira sous terre sous terre Devant l'OPJ j'ai rien lâché Moi au comico j'ai su me taire me taire Je suis là pour le blé pas pour plaire Moi j'ai toujours été vulgaire mmh-mmh Ils font les chauds en temps de paix mmh-mmh Mais je les voyais pas quand c'était la guerre mmh-mmh J'étais en seconde mais je revendais Même aux terminales et aux premières première Un an plus tard j'avais de quoi me vanter Sti2d c'était ma filière Je suis un pure produit de la calle calle Ils connaissent Gambino mais pas Warren Warren J'écrivais mes textes dans mes cahiers cahiers Je faisais même mes devoirs sur le R Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut J'ai tout donné pour ma ville J'ai tout donné pour ma zone brrr Passe au garage coffee Si tu veux pécho ta dose huh-huh Je viens là où t'habite Si tu me rends pas mes loves Dans ma tête j'ai trop de soucis Je les oublie grâce au bédo huh-huh A-arrêtes ton ciné rentre dans le bat Pas besoin de crier parle pas trop Et viens on se rentre Je suis skinny mais je peux t'enculer Gauche droite balayette Écrasement, mais si je perds Tous mes gavas vont rentrer dedans Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut mmh-mmh Mmh-mmh</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Freestyle No Hook</t>
+          <t>Hier</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jallume un pét, jattire lattention 'ttention, surtout lodorat des passants passants Ici-bas, on nest que d'passage mais faire du pe-ra, cest ma passion Pense à garder lil sur tes rejetons, ils viennent nous acheter des pochons Et le terrain fait des réductions si, dans ta playlist, y a mes chansons uh, uh J'conduis avec précaution, faut pas qu'je fasse sauter la caution Moi, j'contrôle pas mes émotions donc très courtes sont les relations Moi, jsuis doué dans la rédaction et matrixé par les films daction Quand jécoute mes sons, jai des frissons à la concu', jmets la pression uh, uh Quand, quand, quand jétait p'tit, jétais un pickpocket 'pocket Cétait pas pour zouker mais pour per-ta si tu nous voyais venir à ta fête ta fête Que des hagar comme la Team Rocket, jfaisais des TP sur une chaise Maintenant, jfais des millions de vues sur ma chaîne, jmaîtrise la mélo' comme T-Pain uh, uh Dans lappart', jsuis ganté, j'leur laisse aucune chance de m'péter Dans le bloc avec mes brigantés, y a l'buzz mais Dieu merci, y a la santé Jconnais des mecs connus pour les armes à feu et jconnais dautres mecs connus pour shlasser Par les condés, jme suis fait pourchasser, y avait plusieurs pochons dans un sachet uh, uh Remets, remets, remets du Jack dans ma bouteille dEvian Jsuis pas un rookie, j'rappe depuis longtemps mais j'refourguais des dix et des vingt des trentes aussi Si ça dérape, man, on sort le nine, grâce aux auditeurs sur Spotify Toute la nuit sur moi, elle whine, toute la nuit, sur moi, elle whine Sa robe fait des vagues comme ma grande line Deux piles par jour, ça fait 10 balles, les bails veulent tous faire comme le drive comme le drive Sous piche avec Lifsa, jsuis au ze-quin, mon frère est matrixé, il suit mes pas On ma dit lavoir déjà vu fumer des guinzes, jlui mettrai des baffes quand je laurai en flag P'tit con va</t>
+          <t>Elle veut qu'le soir, jl'appelle, de base, moi, j'voulais juste la baisé Elle mfait mal à la tête, donc j'roule un pétou pour m'apaiser Grandis loin des milieux aisées, fidèle aux HLM J'en ai connu des visites d'huissiers, comprends-tu pourquoi cette haine ? Haine Et toi, pour des textos, tu me fait chier toute la semaine Tu vas dire à tes potes que j'te dis pas souvent Je t'aime J'fais des nuits blanches au studio, elle pense que jles passe à lhôtel Comment pourrais-je calculer des folles si j'ai même pas le temps pour elle ? Temps pour elle Non, jy peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je nvis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh Elle voit mes story Snap, elle crois qu'jsuis comme Kirby Kirby C'est vrai qu'j'suis mignon et qu'je plaît au filles Elle est trop exigeante, elle se crois dans un film Un film J'suis trop ghetto, ma belle, c'est pas facile Quand elle entends mes sons, elle s'met à chantonnait Chantonnait T'es Bonnie, moi, j'suis Clyde, on va tout dérober Tout dérober Sur un cheval, à deux, on ira galoper Galoper Pour l'instant, laisse-moi faire mes billets Non, j'y peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je n'vis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Full Up</t>
+          <t>Impeccable #6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Scar Nardey, c'est chaud ça, eh, eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Elle veut balloné sur ma bon-bon-bonbonne, j'vais pas payer mais elle est pas bonne Donc elle ballone pas sur bon-bon-bonbonne, y a rien a gratter, c'est une folles J'suis sous lean, donc j'peux pas boire d'alcool Ce soir, j'y vais à la cool J'ramène les plus timides à l'hôtel car j'aime pas trop celles qui me colle Elle est gé-char, elle va tout caler Mmh-mmh, au marteau, je détaille le caillou Mmh-mmh C'étais moi, j'bossais quand il caillé Mmh-mmh, maman savait pas qu'j'étais un voyou Mmh-mmh La vie était dur mais j'étais joyeux, j'récup' tout mon bénéf' dans l'studio J'étais pas un élève studieux j'préférer vendre au étudiants Uh-uh J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh Ma racli n'aime pas La promo Promo, y a pas moyen d'percer Y a pas moyen Ma chérie, c'est soit ça, soit j'retourne revendre la C Les mousso, j'les connais pas mais elles croient que j'vais les castée J'vais les castée Bon, j'avoue qu'au chaud, à Lyon, j'me suis fait sucer Oups Quand, quand ça part en couille, on est full up Mmh-mmh Trop d'inspi', j'fais d'la pop, ils m'ont négligée, j'ai finis au top Le DJ pull up Pull up, j'suis dans l'fond du bloc Minimum deux bouteille de cîroc De cîroc, j'ai moula dans le froc J'suis dans le binks avec mes négros, on bouge pas du tieks, c'est pas pour faire du seille-o Yih-yih La vente de drogue, ça suffit, j'fais des concerts, j'fais crier les filles C'est chaud, dans le Viano, y a le fusil, j'ai changé de vie, Who's bad ? J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh J'suis dans l'carré VIP, y a des folles Liasses épaisse dans l'enveloppe Mmh-mmh Le gérant du show me félicite Mmh-mmh car ce soir, la salle était full up J'ai du cannabis dans ma culotte, j'suis dans l'carré VIP, y a des folles J'dois faire tournée sur les V.H.R car dans mon équipe, on est full up Eh-eh</t>
+          <t>Dans ma tête on est plusieurs J'raconte ma vie sur Deezer Le terrain tourne comme mes teasers Donc faut que tous soit détaillé à 10h La sauce va monté ça va pas tarder Jappelle GD pour venir les pétarder Coup d'cross sur la tête du physio si il laisse pas passer toute la cité Même au froid ça durcit pas Même au chaud ça noircit pas Viens pécho c'est dla peufra Les freestyles sont impeccables L'haut de couture vient de chez Lifsa Pour remplir mes poches j'vid le c-sa Pour faire de l'osille j'passe par le sale Si tu dois de l'oseille on sort le shhhhhh Que des gros kamas On roule pas de stick J'achète un famas Sisi t'es trop stock Beaucoup trop de follasses grâce à la musique Jles laisse à Kirby elles finissent sous le choc Ya la Cali et Jo lacoste Ju2, B2, Brazo, LaDoz T'es un intru donne ta sacoche sauf si tu viens pour pécho ta dose Jsuis dans le block avec mes mmmmmmmmh x2 J'fais de l'oseille j'fume la mmmmmmmh x2 Ça bicrave que dla mmmmmmmmmh x2 Ça bédave que d'la mmmmmmmmmh x2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gambinerie #3</t>
+          <t>Invaincu (GLM #2)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gaza, Beriz Arc en ciel dans les chepo j'suis refait Tous mes négros comptent et on refait Gambinerie, eh paw paw paw paw Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refait Poto la vie n'est pas rose pour des billets violets Tu peux te faire plomber y'a pas de marron que du doré J'additionne billets bleus pour du re-vé Arc-en-ciel dans les chepo j'suis refait Arc-en-ciel dans les chepo j'suis refait Y'a pas de marron ici que du doré Arc-en-ciel dans les chepo j'suis refait</t>
+          <t>La-LaSource on the beat Mets-moi l'volume dans l'casque s'te plaît BLN À fonds, à fonds, à fonds Shh Uh-uh Depuis tout p'tit, j'détaille des plaquettes, han Plaquettes, han, j'revends CD et cassettes Brr, cassettes, poh J'repense à quand j'avais sept ans Han, han, j'aurais dû coffrer à cet instant Bou-bou-bou-bou-bouh J'suis quelqu'un dans la cité Cité, Ma-Mano visser à côté Eh-eh-eh Les gars n'ont plus de pitié mais faites gaffes à ne pas plonger J'sais pas zouker, moi, j'fais que du rap Hum-hum, j'sais tout faire, drill, afro et trap Hum-hum J'ai des sons cut de ceux qui dérapent Hum-hum, on vends plus de chocolat qu'à patte Toute la nuit, son cavu, il claque Han, uh-uh Avant d'chanter, je n'ai plus le traque, j'fais turn-up la fosse, la salle, elle craque J'passe la soirée sous pétou Pétou Ramène une clope, une feuille, pour dormir, j'ai pas b'soin de snus Graah, graah, uh-uh Dans l'game, y a trop d'requins mais moi, les TN, j'les mets aux pieds Aux pieds J'suis dans l'pe-ra pour mon pain mais beaucoup trop d'éco veulent croquer Des fois, ça fait chier d'être à la mode Yih-yih, j'préfère voir les ients-cli venir au bloc Uh-uh Dans la cité, il est garé le Porsche, on est chez nous, ils vont rien dire les porcs Ah-ah Tous les jours, je loue Yessih Massilia Amen, comme je rappe, ils pensent tous que je prie pas Poh Écouté d'Alésia jusqu'à Massilia, on s'enfuit quand on voit la famille à Peppa J'ai fait tout cette merde pour le magot et aussi, pour me remplir le frigo Toi, tu dépense tout ton wari pour les go et sur Insta', tu joue les ssistes-gro, ssistes-gro J'suis défoncé dans le Pack M, Pack M, j'te-cla un gros joint de paki, paki J'me fait larhsa pas un paquet, paquet, en plein milieu de son parking, parking Y a que des babys dans la party, on les entasse dans le Viano à Kirby J'finis dans ma bre-cham seule et tranquille, j'peux plus donner ma bite à n'importe qui Yih-yih Passe au six-cent quinze si tu veux ta dose, la tenue est noir et le foulard est mauve T'es pas dans les travaux, mon négro, dose, on a grandi entouré de reptiles et d'fauves J'te fais danser le makosa, j't'ai sorti le 11.43 J'voulais finir sur Canalsat, j'veux pas finir comme Kalasa Tu m'té-ma bizzard, Que pasa? T'aimeras avoir mes mapessas, 'ssas Non, négro, c'est pas comme ça, faut bosser si tu veux tout ça Uh-uh J'fume un pétou devant la piscine Piscine, j'l'imagine rempli de billet Hum-hum Mon but, c'est de faire des millions Hum-hum, pour l'instant, j'suis dans les milliers Uh-uh J'fume un pétou devant la piscine Hum-hum, j'l'imagine rempli de billets Hum-hum J'l'imagine remplie de billets Hum-hum, j'l'imagine remplie de billets Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Hum-hum Eh, Kirby, dis-leur, dis-leur, dis-leur Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi Eh-eh-eh Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GÉ TRACÉ</t>
+          <t>Jack Daniel’s #1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>That is really legendary over here Jona Yihihh Mi street, mi causaille, j'ai l'attitude Attitude Devant moi les moussaux titubent Titubent, depuis qu'je suis sur YouTube YouTube Au HP j'ai fait des thunes Des thunes Merci à Mac et Bitume Bitume petit j'volais des Between Course poursuite j'avais l'habitude Huh huhh La street et ses phases j'ai l'habitude Han han C'est pas pour autant qu'j'péte les plombs Oui Un jour on prendra de l'altitude De l'altitud Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Mon-mon, Mon chemin j'ai tracé Tracé, certains sont de passage Huh huh Certains sont de passage Huh huh, mon chemin j'ai tracé Tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage Yeah, mon chemin j'ai tracé Le tartin est matinal, il arrive avant le facteur La famille c'est le principal, dehors y'a trop d'acteurs Ils pensaient m'la faire je les connais par cur Brr C'est des acteurs Brr, c'est des menteurs Brr, des profiteurs On reste vrai, on a pas sucé, vaillant depuis l'époque du BP Milau J'veux faire du shopping à Milan, j'lâche rien tant qu'j'ai pas un million Bientôt on sera là-haut Là-haut, pour l'instant dans la calle Yeah yeah yeahh En bas c'est le chaos Chaos, une envie de tailler Huh, huh, Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Yeah, mon chemin j'ai tracé Brr J'ai fait plusieurs passés Yeah, j'ai reçu très peu de passes Passes Certains sont de passage Yeah, mon chemin j'ai tracé Mon chemin j'ai tracé, certains sont de passage Huh, huh Certains sont de passage Huh, huh, mon chemin j'ai tracé J'ai fait plusieurs passés Ok, j'ai reçu très peu de passes Ok Certains sont de passage, mon chemin j'ai tracé Dehors y'a trop d'acteurs1</t>
+          <t>Ok Jenchaîne les pétous jsuis rarement à jeun Bienvenue à Gaza ici cest la jungle Jraquettais les intrus quand jétais jeune Et quand jsuis dans la cabine on dirais un jnoun Jai promis un Tmax à GDR jai promis un bolide à Glorie Jai promis une villa pour ma mère au jours de la mer en Floride Jsuis pas trop actif donc les abonnés baissent mais bon cest pas trop dur de les faire monter Ya du doré ya du soké Jfais du pera jsais pas zouker Jfais du bon son jsuis toujours à la cité Donc jsuis soutenu par les mecs de la cité Jsuis pas un exemple pour les tipeu d la cite Mais jsuis écouter par les mc de ta cité Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Jack pomme jack noir jack rouge jack miel Jack pomme jack noir jack rouge jack miel</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GLM #6 (FUT)</t>
+          <t>J’fais ça</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C'est incroyable, comment il arrive à faire ça? Noxious Eh-eh Je minimise les pêchers Je pense à quand on finira sous terre sous terre Devant l'OPJ j'ai rien lâché Moi au comico j'ai su me taire me taire Je suis là pour le blé pas pour plaire Moi j'ai toujours été vulgaire mmh-mmh Ils font les chauds en temps de paix mmh-mmh Mais je les voyais pas quand c'était la guerre mmh-mmh J'étais en seconde mais je revendais Même aux terminales et aux premières première Un an plus tard j'avais de quoi me vanter Sti2d c'était ma filière Je suis un pure produit de la calle calle Ils connaissent Gambino mais pas Warren Warren J'écrivais mes textes dans mes cahiers cahiers Je faisais même mes devoirs sur le R Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut J'ai tout donné pour ma ville J'ai tout donné pour ma zone brrr Passe au garage coffee Si tu veux pécho ta dose huh-huh Je viens là où t'habite Si tu me rends pas mes loves Dans ma tête j'ai trop de soucis Je les oublie grâce au bédo huh-huh A-arrêtes ton ciné rentre dans le bat Pas besoin de crier parle pas trop Et viens on se rentre Je suis skinny mais je peux t'enculer Gauche droite balayette Écrasement, mais si je perds Tous mes gavas vont rentrer dedans Je suis dans la playlist de ta sista sista Neuf milli si tu fais le Batista 'tista Je dealais avant d'avoir de la moustache moustache Je trafiquais j'écoutais Ninho Dita J'étais dans les tranchées t'étais pas là pas là Tu peux pas comprendre pourquoi je fais ça fais ça Tu peux pas comprendre pourquoi je suis comme ça comme ça Je voulais juste faire des mapessas huh-huh Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut Je suis sur le terrain de shit pas sur FUT sur FUT On a des guitares on joue pas de flûte pas de flûte Y a tellement de gadji qui veulent ma bite ma bite Tu me verras jamais au bar à putes à putes Et quand je m'éloigne de ces parasites 'rasites Je sens que je me rapproche du but du but C'est trop les cités là où j'habite j'habite Tu risques de rentrer chez toi sans fut mmh-mmh Mmh-mmh</t>
+          <t>Hum, hum Hum, hum Junior Alaprod, zanmé! Hum, hum Uh, uh Les mecs d'à côté veulent nous ressembler, c'qui est bien dans ma ville, c'est qu'on est tous en ble-' On est tous en ble-' Si tu viens ici, tu r'part avec des bleus, à l'école, j'notais pas c'qu'y avait sur l'tableau Yih-yih Quand j'avais pas d'buzz, des fois, les gows m'laissais en plan une fois après avoir payer la bre-' Payer la bre-' J'ai préféré revendre le shit et la beuh Le shit et la beuh, j'savais qu'un jours, j'f'rais l'million sur YouTube Uh, uh J'fais des millions d'vues, j'roule en Clio 3 Shoo, j'ai des inspirations venues d'autre part Pah La meuf est piqué mais j'ai pas de Audemars, si j'l'a baises, c'est que j'l'ai fait rire comme Omar Sy Hein J'abrège quand j'suis devant la victime, j'ai cassé des têtes, jamais cassé d'vitrines Bang, bang Fuck le dix-sept mais pas Vitinha Fuck, fuck, la mort t'appelles quand la vie t'ignores Je savais qu'j'étais fais pour l'dehors, vingt-quatre ans, j'ai d'l'oseilles mais je traîne encore Hum, hum Les condés sont passées, ça ne-tour encore Hum, hum, j'fais d'la pub' au re-fou pour augmenter l'score Augmenter le score Eh, mettre que des trois points Switch, je baisse les stores quand j'l'amène dans la Troup House Grr Les keufs t'attrape, donc tu passe à la trap Grr, j'peux t'piéger mais j'fais pas d'la trap Uh, uh J'prenais le métro pour que ces gues-shla tapent leurs rails Uh, uh J'fais du pe-ra, pas du Raï Du Raï, la cassette, c'est moi j'la détaille Uh, uh Les meufs me coursent, elle s'mettent à mes trousses Beendo, ta pé-ta des stylos, j'ai pé-ta des trousses Ouh Je compte pas sur la CAF, j'compte pas sur l'CROUS Nan, nan, elle veut m'envouter, je mange pas son couscous Shoo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo Recharger le R, fissa, fissa Shoo, shoo, elle a un string mais elle fais la fille sage C'est des salades J'ai des cicatrices qu'on voient pas sur l'visage Savent, une montagne de fric, voilà mon paysage J'ai tiré une taffe, j'm'envoles sans le visa, la police m'as toujours eu dans le viseur Eh J'me dis qu'c'est des shooters sans visière, j'me dis que j'peux tuer un ient-cli quand je visser Brr, brr C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu Beendo, uh, uh En amour, j'm'attache pas trop, j'vais la tromper, dans tous les cas Cas J'attire que les les meufs aux gros pétards Pétards, kiffent que les mecs de tess comme moi Comme moi La vie d'artiste, c'est éphémère, j'suis dans mon coin, j'm'y attache pas Nan, nan Tous les soirs, j'suis dans un block Yih-yih, poser avec Rando, Isco et Da' Gang Adrénaline quand j'che-rra' son tél' Tél', j'enlevais la SIM et j'le revendais Vendais J'les visser vers la Rue Vendôme, y en avait à Bastille qui m'attendais Hum Dans le Sud, dans le Nord, neuf-un, neuf-cinq, embrouilles de cités, couteaux, extinct' Hum, hum Ils font la cité, ils portent plaintes, détaillé, emballé pour le butin Hum, hum L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Groove</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Han Mais dis-moi, t'as peur de quoi Han ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Mmh-mmh, mes gavas baisent plus que moi Mmh-mmh Mais dis-moi, t'as peur de quoi Mmh-mmh ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi, hein ? J'ai laissé mon fer chez moi Raah J'répète Depuis qu'j fais des K Depuis qu'je fais ds K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi De quoi ? ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas Dix dans l'bloc, on a tous un cup, la substance, elle est blue C'est bleu Su-, sur de moi, on a tous un Glock, au cas-où tu fait le fou Au cas-où tu fait le fou On fait que de laisser court C'est court, ils viennent plus au rendez-vous 'dez-vous, drr, drr Y a Joe Lacoste et GDR, à tout moment, ça fait boum Eh-eh Quand, quand j'monte sur un plav', j'suis ganter Yih-yih, dans l'bloc, j'me nique la santé J'voulais juste me remplir les ches-po, donc j'me suis mis à servir les drogués Brr Donc j'me suis mis à visser la drogua, allez-retour, Paris-Meuda Dans la vie, y a des hauts et y a des bas mais j'peux pas tomber plus bas qu'en bas du bât' Eh-eh J'y étais déjà tout l'année L'année, j'enchaîné studio toute la nuit La nuit J'fumais d'la moula pour planer, overbooké, jamais j'm'ennuie Yih-yih J'étais là sous la neige, sous la pluie, j'suis sous pilon, j'suis sous lean Han-han Merco, j'tartine dans la ville Han-han, j'vise le million, pas dans l'mille Han-han Si elle fait des manières, elle déguerpie 'guerpie J'pers plus mon temps depuis qu'j'sais qu'y a des meufs qui rêve de sucer ma bite Ma , mmh-mmh Sur le terrain, y a pas d'arbitre D'arbitre, mmh-mmh, quand ça sifflait, j'mettais la fuite La fuite, mmh-mmh C'est vraiment punie, était les fautes, le mec en survêt' c'est harceler aux cravates Cravates Y a des armes, pourquoi faire d'la savate D'la savate ? Comme un plombier, j'ai des bons tuyaux Tuyaux Aqua d'fumée dans l'Airbnb, miskina, le proprio' Y a que des los-ki dans l'Clio Clio, Clio Qu'est-ce qu'on f'rai pas pour un client Un client ? Dans mon secteur, y a trop d'condés, c'est plus miné qu'un taille-crayon C'est plus miné qu'un taille-crayon Le guetteur alerte en criant Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi, Hein ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Eh ? J'ai laissé mon fer chez moi Raah Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Woaw ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas1</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hier</t>
+          <t>La calle</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Elle veut qu'le soir, jl'appelle, de base, moi, j'voulais juste la baisé Elle mfait mal à la tête, donc j'roule un pétou pour m'apaiser Grandis loin des milieux aisées, fidèle aux HLM J'en ai connu des visites d'huissiers, comprends-tu pourquoi cette haine ? Haine Et toi, pour des textos, tu me fait chier toute la semaine Tu vas dire à tes potes que j'te dis pas souvent Je t'aime J'fais des nuits blanches au studio, elle pense que jles passe à lhôtel Comment pourrais-je calculer des folles si j'ai même pas le temps pour elle ? Temps pour elle Non, jy peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je nvis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh Elle voit mes story Snap, elle crois qu'jsuis comme Kirby Kirby C'est vrai qu'j'suis mignon et qu'je plaît au filles Elle est trop exigeante, elle se crois dans un film Un film J'suis trop ghetto, ma belle, c'est pas facile Quand elle entends mes sons, elle s'met à chantonnait Chantonnait T'es Bonnie, moi, j'suis Clyde, on va tout dérober Tout dérober Sur un cheval, à deux, on ira galoper Galoper Pour l'instant, laisse-moi faire mes billets Non, j'y peux rien J'y peux rien Elle dit qu'je n'vis que pour les miens Je n'vis que pour les viens Je sais qu'au fond, elle veut mon bien Ma chérie, faut faire avec Pars pas, attends Attends, j'referais plus les mêmes erreurs qu'hier Pfiou, pfiou Laisse-moi du temps Du temps, pour l'instant, laisse-moi faire mes affaires Laisse-moi faire mes affaires Tout les jours, elle m'harcèle Mmh-mmh, elle va s'évanouir si elle fouille mon phone-tél' Mmh-mmh Laisse-moi du temps Attends, j'referais plus les mêmes erreurs qu'hier Mmh-mmh</t>
+          <t>La muerte La muerte Envoie ton RIB SG ou caisse d'épargne, y a que si tu viens d'ma ville que j't'épargne Beaucoup trop sous côté, ça m'fout en rogne, de retour avec des textes plein de hargne J'suis posé avec le Da', Isco, Nine Gan-gang, gang, gang, tu peux toujours me croiser dans la ville en Nike, j'visser clients en r'tard toute la night J'le connais par cur le bâtiment, sur-écoute comme à Baltimore On vend le te-shi qui vient d'Nador, nique sa grand-mère la Fauna Flor' On en a laisser des corps à terre, on fait pas d'tchitchi, on vend la mort, bébé, chupa mi poya, por flavor Grah, grah, suck my dick De base, j'rappe la rue, c'est pas d'ma faute si j'suis devenu archi viral sur TikTok J'peux pas m'permettre de finir en taule, met tout dans les chiottes, y a les flics qui Toc, toc J'ai pas de gamos, j'fais que des locations, pour clipper chez moi, pas b'soin d'autorisations J'suis doué pour coffrer les pesetas, j'suis BG, pas b'soin d'impressionner les 'tasses Impressionner les 'tasses J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied Tes ches-po sont vides et mon coffre et plein, tu peux parler, ça m'atteint pas J'étais tout seule, j'faisais temps plein, c'est pour ça qu'j'étais pas sympa J'ai rajouté l'bédo à la SIM et trop d'pétou, j'en suis à la décima J'dégaine l'Opi' si tu joues les sumos, quand y avait plus d'Lyca', j'prenais Syma Y a les favos, j'ai d'jà tout caler, mon gamos, il fait du bruit, donc avec moi, elle peut pas bomber, j'ai plus b'soin d'la séduire C'est sous l'porche que mes locks ont poussées, j'vendais des barrettes, j'étais encore puceau Ça y est, faut qu'j'arrête de m'venter de tout ça, si on continues, on va tous y passés J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied Ouh J'suis dans la street, toi, personne t'as vu Mmh-mmh Han Sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Yih-yih Han Uh-uh</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Impeccable #6</t>
+          <t>La cité</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dans ma tête on est plusieurs J'raconte ma vie sur Deezer Le terrain tourne comme mes teasers Donc faut que tous soit détaillé à 10h La sauce va monté ça va pas tarder Jappelle GD pour venir les pétarder Coup d'cross sur la tête du physio si il laisse pas passer toute la cité Même au froid ça durcit pas Même au chaud ça noircit pas Viens pécho c'est dla peufra Les freestyles sont impeccables L'haut de couture vient de chez Lifsa Pour remplir mes poches j'vid le c-sa Pour faire de l'osille j'passe par le sale Si tu dois de l'oseille on sort le shhhhhh Que des gros kamas On roule pas de stick J'achète un famas Sisi t'es trop stock Beaucoup trop de follasses grâce à la musique Jles laisse à Kirby elles finissent sous le choc Ya la Cali et Jo lacoste Ju2, B2, Brazo, LaDoz T'es un intru donne ta sacoche sauf si tu viens pour pécho ta dose Jsuis dans le block avec mes mmmmmmmmh x2 J'fais de l'oseille j'fume la mmmmmmmh x2 Ça bicrave que dla mmmmmmmmmh x2 Ça bédave que d'la mmmmmmmmmh x2</t>
+          <t>Mmh-mmh Mmh-mmh Yo, Joshy, Joshy J'manigance tout à l'avance pour savoir comment faire à chacune des réactions Ça fait deux été qu'j'ai pas pris d'vacances, y a trop sous à faire dans le tiekson Les grands nous envoyer au grecs chaque jours Chaque jours, c'est c'qui m'as donner le goût du charbon Charbon Pourtant, quand j'rentrais à la maison Maison, on disait que traînait n'était pas bon Non On disait que traînait n'était pas bon Non, qui fallait qu'j'aille relire mes leçons Mais comme un con, j'ai mordue à l'hameçon L'hameçon, j'ai fait le PU sur le R à bifton J'ai fait le PU sur le R à bifton, sur le pont, affamé par le bifton Yih-yih Et comme j'étais pas l'seule affamé, à midi, il fallait que j'hauss le ton Eh-eh Les potos avant ls raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse Entourer d'baby, j'suis en folie Yih-yih, à la base, tout ça, c'est ma phobie Mmh-mmh J'fais l'con que dans les Snap à Kirby Mmh-mmh, j'te mets une tate-pa, tu réalises Mmh-mhh Moi, j'suis dans la cité pour de vrai C'est vrai et même juste pour zoner, j'suis frais J'suis frais On te piétine si tu fait l'fou Fais l'fou, en B22 ou en Nike Air Eh-eh J'a-, j'allais chercher les sous, j'avais pas d'grands reufs Non J'avais trop d'soucis, j'ai acheté un neuf Neuf, pour faire de la plata, faut bi-bi la ppe-f' Eh-eh GD, le traceur, il le fait pleurer Fait pleurer, des fois, il revend du doré Doré Donc, sa lui arrive de s'faire courser, c'est les aléas d'la cité Pfiou, mmh-mhh Les potos avant les raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Invaincu (GLM #2)</t>
+          <t>La fête*</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La-LaSource on the beat Mets-moi l'volume dans l'casque s'te plaît BLN À fonds, à fonds, à fonds Shh Uh-uh Depuis tout p'tit, j'détaille des plaquettes, han Plaquettes, han, j'revends CD et cassettes Brr, cassettes, poh J'repense à quand j'avais sept ans Han, han, j'aurais dû coffrer à cet instant Bou-bou-bou-bou-bouh J'suis quelqu'un dans la cité Cité, Ma-Mano visser à côté Eh-eh-eh Les gars n'ont plus de pitié mais faites gaffes à ne pas plonger J'sais pas zouker, moi, j'fais que du rap Hum-hum, j'sais tout faire, drill, afro et trap Hum-hum J'ai des sons cut de ceux qui dérapent Hum-hum, on vends plus de chocolat qu'à patte Toute la nuit, son cavu, il claque Han, uh-uh Avant d'chanter, je n'ai plus le traque, j'fais turn-up la fosse, la salle, elle craque J'passe la soirée sous pétou Pétou Ramène une clope, une feuille, pour dormir, j'ai pas b'soin de snus Graah, graah, uh-uh Dans l'game, y a trop d'requins mais moi, les TN, j'les mets aux pieds Aux pieds J'suis dans l'pe-ra pour mon pain mais beaucoup trop d'éco veulent croquer Des fois, ça fait chier d'être à la mode Yih-yih, j'préfère voir les ients-cli venir au bloc Uh-uh Dans la cité, il est garé le Porsche, on est chez nous, ils vont rien dire les porcs Ah-ah Tous les jours, je loue Yessih Massilia Amen, comme je rappe, ils pensent tous que je prie pas Poh Écouté d'Alésia jusqu'à Massilia, on s'enfuit quand on voit la famille à Peppa J'ai fait tout cette merde pour le magot et aussi, pour me remplir le frigo Toi, tu dépense tout ton wari pour les go et sur Insta', tu joue les ssistes-gro, ssistes-gro J'suis défoncé dans le Pack M, Pack M, j'te-cla un gros joint de paki, paki J'me fait larhsa pas un paquet, paquet, en plein milieu de son parking, parking Y a que des babys dans la party, on les entasse dans le Viano à Kirby J'finis dans ma bre-cham seule et tranquille, j'peux plus donner ma bite à n'importe qui Yih-yih Passe au six-cent quinze si tu veux ta dose, la tenue est noir et le foulard est mauve T'es pas dans les travaux, mon négro, dose, on a grandi entouré de reptiles et d'fauves J'te fais danser le makosa, j't'ai sorti le 11.43 J'voulais finir sur Canalsat, j'veux pas finir comme Kalasa Tu m'té-ma bizzard, Que pasa? T'aimeras avoir mes mapessas, 'ssas Non, négro, c'est pas comme ça, faut bosser si tu veux tout ça Uh-uh J'fume un pétou devant la piscine Piscine, j'l'imagine rempli de billet Hum-hum Mon but, c'est de faire des millions Hum-hum, pour l'instant, j'suis dans les milliers Uh-uh J'fume un pétou devant la piscine Hum-hum, j'l'imagine rempli de billets Hum-hum J'l'imagine remplie de billets Hum-hum, j'l'imagine remplie de billets Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Uh-uh Tu connais Gambino La M' Hum-hum, nous copier, c'est pas la peine Hum-hum J'attise l'amour et la haine Hum-hum, on reste invaincu comme Athènes Hum-hum Eh, Kirby, dis-leur, dis-leur, dis-leur Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi Eh-eh-eh Pour monter dans la Ferrari, 'rrari, faut qu'la mousso s'mette accroupi, 'ccroupi</t>
+          <t>Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby Comment tu bouge, baby Elle bouge son gros cul, bouge sa tte-ch' Oh ouais Elle veut du sérieux ? Garde la pêche Airbnb, elle, ses fesses Charcle, pour un gadaye qui vend d'la fraîche Vendredi, samedi, j'fait pas la fête Wow, j'suis dans l'tiekson, shit, be-her Pas pour moi, pas pour moi, pas pour moi Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby Wouh</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jack Daniel’s #1</t>
+          <t>La promo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ok Jenchaîne les pétous jsuis rarement à jeun Bienvenue à Gaza ici cest la jungle Jraquettais les intrus quand jétais jeune Et quand jsuis dans la cabine on dirais un jnoun Jai promis un Tmax à GDR jai promis un bolide à Glorie Jai promis une villa pour ma mère au jours de la mer en Floride Jsuis pas trop actif donc les abonnés baissent mais bon cest pas trop dur de les faire monter Ya du doré ya du soké Jfais du pera jsais pas zouker Jfais du bon son jsuis toujours à la cité Donc jsuis soutenu par les mecs de la cité Jsuis pas un exemple pour les tipeu d la cite Mais jsuis écouter par les mc de ta cité Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Donne un billet rouge pour le jaune Un billet bleu pour le vert Jai une envie de jack daniel mais je sais pas choisir lequel Jack pomme jack noir jack rouge jack miel Jack pomme jack noir jack rouge jack miel</t>
+          <t>Négro, négro, c'est Negri' Mmh-mmh, mmh-mmh avec Gambino, eh Mmh-mmh Négro, négro, c'est Negri' Oui, oui avec Ferme la po-po-porte, hi J'viens-, j'viens d'là où tu trouves d'la drogue Mmh-mmh, plus vite qu'une pharmacie Mmh-mmh Et les clients veulent que du jaune, pas du noir, je crois qu'c'est des racistes Ouh, oui, oui J'suis posé sur le hazi Mmh-mmh, les Ulis, c'est l'asile Mmh-mmh Faire d'la Drill, c'est trop facile, biso nde toza ba mokonzii Uh-uh C'était moi l'guetteur après les cours Les cours, j'veux la fortune aux Bettncourt Brr La ne-zo était trop sous tension, donc on achetait ds armes à Clignancourt Eh-eh J'viens d'là où c'est pas cool, donc on monte sur des coups Ouh, ouh On peut t'sortir une lame Ouh, ouh, te faire une nouvelle coupe Ouh, ouh On peut t'sortir une lame, te faire une nouvelle coupe Y a pas que chez Pampers qu'tu peux trouver d'la kush Uh-uh Voler, c'est pas bon Mmh-mmh et la misère, c'est pas bon Nan, nan Donc on monte sur des plavons Mmh-mmh ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh On est dix dans le bloc, ils savent pas qui péter Oui, oui, sous tise mais y a rien à fêter Brr Faut qu'j'déclare un Audi TT Oui, j'passe les rapports, j'réveille la cité Mmh-mmh T'inquiète, j'ai l'pétard, j'peux pas m'inquiéter, par les p'tits d'chez moi, tu t'fais racketter Uh-uh Par les p'tits d'chez moi, tu t'fais piétiner Brr, par les armes à feu, on est fascinés Pah, pah, pah J'ai charbonné tard le soir Mmh-mmh, j'ai plus peur dans le noir Mmh-mmh J'ai toujours gardé espoir Mmh-mmh, aujourd'hui, c'est moi la star Uh-uh J'rem-, j'rempli pas mes polos Han, han mais-, mais j'ai rempli mes poches Mmh-mmh On-, on a visser des bollosses Oui, oui, han, han, même quand il faisait moche Brr Voler, c'est pas bon Han, han et la misère, c'est pas bon Han, nan Donc on monte sur des plavons Han, han ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh Négro, négro, c'est Negri' avec Gambi' Mmh, mmh Négro, négro, c'est Negri' Mmh, mmh avec Gambi' Mmh Gambino La M Mmh, mmh, grr, grr, grr Mmh, mmh Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Hey, hey Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Pah, pah Tesla, mwana mon boug, eh Uh, uh B2, mwana mon boug Uh, uh Mmh-mmh, mmh-mmh, mmh-mmh , mmh</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J’fais ça</t>
+          <t>Les Moussos (GLM #1)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hum, hum Hum, hum Junior Alaprod, zanmé! Hum, hum Uh, uh Les mecs d'à côté veulent nous ressembler, c'qui est bien dans ma ville, c'est qu'on est tous en ble-' On est tous en ble-' Si tu viens ici, tu r'part avec des bleus, à l'école, j'notais pas c'qu'y avait sur l'tableau Yih-yih Quand j'avais pas d'buzz, des fois, les gows m'laissais en plan une fois après avoir payer la bre-' Payer la bre-' J'ai préféré revendre le shit et la beuh Le shit et la beuh, j'savais qu'un jours, j'f'rais l'million sur YouTube Uh, uh J'fais des millions d'vues, j'roule en Clio 3 Shoo, j'ai des inspirations venues d'autre part Pah La meuf est piqué mais j'ai pas de Audemars, si j'l'a baises, c'est que j'l'ai fait rire comme Omar Sy Hein J'abrège quand j'suis devant la victime, j'ai cassé des têtes, jamais cassé d'vitrines Bang, bang Fuck le dix-sept mais pas Vitinha Fuck, fuck, la mort t'appelles quand la vie t'ignores Je savais qu'j'étais fais pour l'dehors, vingt-quatre ans, j'ai d'l'oseilles mais je traîne encore Hum, hum Les condés sont passées, ça ne-tour encore Hum, hum, j'fais d'la pub' au re-fou pour augmenter l'score Augmenter le score Eh, mettre que des trois points Switch, je baisse les stores quand j'l'amène dans la Troup House Grr Les keufs t'attrape, donc tu passe à la trap Grr, j'peux t'piéger mais j'fais pas d'la trap Uh, uh J'prenais le métro pour que ces gues-shla tapent leurs rails Uh, uh J'fais du pe-ra, pas du Raï Du Raï, la cassette, c'est moi j'la détaille Uh, uh Les meufs me coursent, elle s'mettent à mes trousses Beendo, ta pé-ta des stylos, j'ai pé-ta des trousses Ouh Je compte pas sur la CAF, j'compte pas sur l'CROUS Nan, nan, elle veut m'envouter, je mange pas son couscous Shoo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo Recharger le R, fissa, fissa Shoo, shoo, elle a un string mais elle fais la fille sage C'est des salades J'ai des cicatrices qu'on voient pas sur l'visage Savent, une montagne de fric, voilà mon paysage J'ai tiré une taffe, j'm'envoles sans le visa, la police m'as toujours eu dans le viseur Eh J'me dis qu'c'est des shooters sans visière, j'me dis que j'peux tuer un ient-cli quand je visser Brr, brr C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu Beendo, uh, uh En amour, j'm'attache pas trop, j'vais la tromper, dans tous les cas Cas J'attire que les les meufs aux gros pétards Pétards, kiffent que les mecs de tess comme moi Comme moi La vie d'artiste, c'est éphémère, j'suis dans mon coin, j'm'y attache pas Nan, nan Tous les soirs, j'suis dans un block Yih-yih, poser avec Rando, Isco et Da' Gang Adrénaline quand j'che-rra' son tél' Tél', j'enlevais la SIM et j'le revendais Vendais J'les visser vers la Rue Vendôme, y en avait à Bastille qui m'attendais Hum Dans le Sud, dans le Nord, neuf-un, neuf-cinq, embrouilles de cités, couteaux, extinct' Hum, hum Ils font la cité, ils portent plaintes, détaillé, emballé pour le butin Hum, hum L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo</t>
+          <t>BLN Hufel on the beat Uh-uh Pour la belle vie, j'vends la mort La mort mais y a que Dieu qu'on adore Jesus Remplit est le coffre-fort De thunes, le te-shi vient de Nador Hi-hi J'suis chrétien, j'mange du cochon mais toute l'année, je v'-esqui les porcs Les pu Mon gava, fait attention, pour du seill-o, j'peux cribler ton corps J'suis dans le street, j'ai pas gé-chan Gé-chan, j'suis juste entouré de méchants Méchants Celui qui vient jouer au con, j'lui fait les dents à Didir Deschamps Uh-uh J'suis avec Kirby toute la nuit, y a qu des putes dans la bre-cham À part GDR et B2, personne prend mes patins, c'est inquiétant Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Uh-uh L'assoc' m'appelle, il m'dit qu'y a six milles euros à prendre Et quand j'fais pas rentrer de papel, j'te jure qu'j'ai une envie de me pendre Hmm-hmm À chaque teaser, j'me dit qu'c'est l'bon C'est l'bon, le te-shi que j'fume, il me rend con Il me rend con Le guetteur est posté sur le pont Le pont, il n'a pas intérêt d'jouer aux cons Non, non Libérez Djodji-Djodji, j'veux la vie de Zac Cody-Cody Hmm-hmm J'suis sur scène, tout l'monde m'applaudis, demain, j'suis au tieks assis sur un caddie-caddie Caddie Elle a mit un body-body, j'ai du mal à voir son booty, booty C'est Gambino, chouchou des mommy-mommy Hmm-hmm Who can test me ? Nobody-body Hi-hi Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Longtemps*</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Han Mais dis-moi, t'as peur de quoi Han ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Mmh-mmh, mes gavas baisent plus que moi Mmh-mmh Mais dis-moi, t'as peur de quoi Mmh-mmh ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi, hein ? J'ai laissé mon fer chez moi Raah J'répète Depuis qu'j fais des K Depuis qu'je fais ds K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi De quoi ? ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas Dix dans l'bloc, on a tous un cup, la substance, elle est blue C'est bleu Su-, sur de moi, on a tous un Glock, au cas-où tu fait le fou Au cas-où tu fait le fou On fait que de laisser court C'est court, ils viennent plus au rendez-vous 'dez-vous, drr, drr Y a Joe Lacoste et GDR, à tout moment, ça fait boum Eh-eh Quand, quand j'monte sur un plav', j'suis ganter Yih-yih, dans l'bloc, j'me nique la santé J'voulais juste me remplir les ches-po, donc j'me suis mis à servir les drogués Brr Donc j'me suis mis à visser la drogua, allez-retour, Paris-Meuda Dans la vie, y a des hauts et y a des bas mais j'peux pas tomber plus bas qu'en bas du bât' Eh-eh J'y étais déjà tout l'année L'année, j'enchaîné studio toute la nuit La nuit J'fumais d'la moula pour planer, overbooké, jamais j'm'ennuie Yih-yih J'étais là sous la neige, sous la pluie, j'suis sous pilon, j'suis sous lean Han-han Merco, j'tartine dans la ville Han-han, j'vise le million, pas dans l'mille Han-han Si elle fait des manières, elle déguerpie 'guerpie J'pers plus mon temps depuis qu'j'sais qu'y a des meufs qui rêve de sucer ma bite Ma , mmh-mmh Sur le terrain, y a pas d'arbitre D'arbitre, mmh-mmh, quand ça sifflait, j'mettais la fuite La fuite, mmh-mmh C'est vraiment punie, était les fautes, le mec en survêt' c'est harceler aux cravates Cravates Y a des armes, pourquoi faire d'la savate D'la savate ? Comme un plombier, j'ai des bons tuyaux Tuyaux Aqua d'fumée dans l'Airbnb, miskina, le proprio' Y a que des los-ki dans l'Clio Clio, Clio Qu'est-ce qu'on f'rai pas pour un client Un client ? Dans mon secteur, y a trop d'condés, c'est plus miné qu'un taille-crayon C'est plus miné qu'un taille-crayon Le guetteur alerte en criant Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi, Hein ? J'ai laissé mon fer chez moi J'répète Depuis qu'je fais des K Des K, mes gavas baisent plus que moi Que moi Mais dis-moi, t'as peur de quoi De quoi ? J'ai laissé mon fer chez moi Eh-eh Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Eh ? J'ai laissé mon fer chez moi Raah Depuis qu'je fais des K Depuis qu'je fais des K, mes gavas baisent plus que moi Mes gavas baisent plus que moi Mais dis-moi, t'as peur de quoi Woaw ? J'ai laissé mon fer chez moi Pas pour moi, pas pour moi, pas1</t>
+          <t>J'mange de la musique il était temps j'suis dans le trafic depuis longtemps J'aurais pu bé-tom à tout moment J'restais sur mes gardes quand j'sortais de la ville J'volais les brises glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux de la résine On visser tout le monde même les femmes enceintes J'suis avec Ju sé-po à la pente J'ai mit les gants donc j'laisse aucune empreinte Si tu veux m'avoir faut passer par la science Le compte est rempli mais j'fais toujours la pince J'lai baisé toute la nuit mais j'ai pas craché J'prends même plus de plaisir à baiser des timps Quand j'bossais j'me faisais cramer par mes tantes Canon sur la tempe si tu portes plainte J'te refais le portrait mais j'suis pas un peintre Sur le rrain-té j'fais des passes et des feintes J'suis bien entouré donc j'ai aucune crainte je peux pas me plaindre Je tourne dans la ville le bosseur m'appelle pour ravitaille</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>La calle</t>
+          <t>Love 2 Hate (Remix)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>La muerte La muerte Envoie ton RIB SG ou caisse d'épargne, y a que si tu viens d'ma ville que j't'épargne Beaucoup trop sous côté, ça m'fout en rogne, de retour avec des textes plein de hargne J'suis posé avec le Da', Isco, Nine Gan-gang, gang, gang, tu peux toujours me croiser dans la ville en Nike, j'visser clients en r'tard toute la night J'le connais par cur le bâtiment, sur-écoute comme à Baltimore On vend le te-shi qui vient d'Nador, nique sa grand-mère la Fauna Flor' On en a laisser des corps à terre, on fait pas d'tchitchi, on vend la mort, bébé, chupa mi poya, por flavor Grah, grah, suck my dick De base, j'rappe la rue, c'est pas d'ma faute si j'suis devenu archi viral sur TikTok J'peux pas m'permettre de finir en taule, met tout dans les chiottes, y a les flics qui Toc, toc J'ai pas de gamos, j'fais que des locations, pour clipper chez moi, pas b'soin d'autorisations J'suis doué pour coffrer les pesetas, j'suis BG, pas b'soin d'impressionner les 'tasses Impressionner les 'tasses J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied Tes ches-po sont vides et mon coffre et plein, tu peux parler, ça m'atteint pas J'étais tout seule, j'faisais temps plein, c'est pour ça qu'j'étais pas sympa J'ai rajouté l'bédo à la SIM et trop d'pétou, j'en suis à la décima J'dégaine l'Opi' si tu joues les sumos, quand y avait plus d'Lyca', j'prenais Syma Y a les favos, j'ai d'jà tout caler, mon gamos, il fait du bruit, donc avec moi, elle peut pas bomber, j'ai plus b'soin d'la séduire C'est sous l'porche que mes locks ont poussées, j'vendais des barrettes, j'étais encore puceau Ça y est, faut qu'j'arrête de m'venter de tout ça, si on continues, on va tous y passés J'suis dans la street, toi, personne t'as vu, arrête de nous raconter ta vie Quand t'étais sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Ville J'suis dans la street, toi, personne t'as vu Vu, arrête de nous raconter ta vie Vie Quand t'étais sur Habbo et sur IMVU 'VU, moi, j'faisais les faits divers de ma ville J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied J'peux pas r'tourner ma veste, dehors, il caille Han, d'mande à qui tu veux, j'suis quelqu'un dans la calle Ouh J'peux pas r'tourner ma veste, dehors, il caille Ouh, la street, c'est chaud, non, viens pas nager où t'as pas pied Ouh J'suis dans la street, toi, personne t'as vu Mmh-mmh Han Sur Habbo et sur IMVU, moi, j'faisais les faits divers de ma ville Yih-yih Han Uh-uh</t>
+          <t>On fait parti des plus détestés surtout par les villes d'a côté On s'en bat les couilles on fait du blé en cas de pépin y'a la B7G Le prix du 100G a augmenté Qu'ce soit du doré ou du soké Solide est la mentalité car j'ai très bien été éduqué La j'suis avec Nova je gigote mes pieds dans les rues d'Edmonton Toi ta fan-base elle est trop conne On sait que ta jamais vendu des tonnes Elle veut du sérieux elle est trop conne Moi j'suis comme Kirby j'veux que ds folles Ça vient du 9.1.9.4.0 les Ulis capital d'la vente de drogue yiih, yiih Paris, London on est connecté, le terrain tourne parce qu'il est alimenté T'es pire qu'une feumeu qui fait que jacter Y'a de la frappe qui revient d'Alicante Ici tout est bresom igo c'est normal hmmm Sous la puche-ca j'ai les yeux cernés Tout ceux qui doivent des sous crois moi qui dorment mal Le business est carré et le cercle est fermé Parle pas d'la rue si ta pointer qu'une fois ou 2 Les pédales font les fous sa m'donne des idées Tu mérites pas la dote t'a un passé douteux Ma tête va surchauffer à force de méditer C'est pour le papier qu'on prend des risques Tu veux t'faire allumer sur la terrasse J'veux la même fortune que Thomas Burberry Si tu rapportes 0 de toi j'me débarrasse</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>La cité</t>
+          <t>Maintenant</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Yo, Joshy, Joshy J'manigance tout à l'avance pour savoir comment faire à chacune des réactions Ça fait deux été qu'j'ai pas pris d'vacances, y a trop sous à faire dans le tiekson Les grands nous envoyer au grecs chaque jours Chaque jours, c'est c'qui m'as donner le goût du charbon Charbon Pourtant, quand j'rentrais à la maison Maison, on disait que traînait n'était pas bon Non On disait que traînait n'était pas bon Non, qui fallait qu'j'aille relire mes leçons Mais comme un con, j'ai mordue à l'hameçon L'hameçon, j'ai fait le PU sur le R à bifton J'ai fait le PU sur le R à bifton, sur le pont, affamé par le bifton Yih-yih Et comme j'étais pas l'seule affamé, à midi, il fallait que j'hauss le ton Eh-eh Les potos avant ls raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse Entourer d'baby, j'suis en folie Yih-yih, à la base, tout ça, c'est ma phobie Mmh-mmh J'fais l'con que dans les Snap à Kirby Mmh-mmh, j'te mets une tate-pa, tu réalises Mmh-mhh Moi, j'suis dans la cité pour de vrai C'est vrai et même juste pour zoner, j'suis frais J'suis frais On te piétine si tu fait l'fou Fais l'fou, en B22 ou en Nike Air Eh-eh J'a-, j'allais chercher les sous, j'avais pas d'grands reufs Non J'avais trop d'soucis, j'ai acheté un neuf Neuf, pour faire de la plata, faut bi-bi la ppe-f' Eh-eh GD, le traceur, il le fait pleurer Fait pleurer, des fois, il revend du doré Doré Donc, sa lui arrive de s'faire courser, c'est les aléas d'la cité Pfiou, mmh-mhh Les potos avant les raclis c'est la devise Mmh-mmh Comme Tony Montana, pétard sous la chemise Mmh-mmh J'dois ramener la coupe au quartier, je l'ai promis Je l'ai promis Si j'la gagne pas, on met la cagoule, on dévalise Eh-eh J'aime bien voir ma ville buzzer sur le net Sur le net Les vidéos d'mecs qui lèvent des compèt' Des compèt' Les films de gangster en streaming sur Internet Sur Internet Les voyous à Miami, dans ma chambre, on était sept Eh-eh J'aime trop ma cité J'aime trop ma cité, j'capte les raclis au fond d'la tess Yih-yih Frère, j'aime trop la cité Ah-ah-ah On écoutent que des sons d'bandit dans la caisse</t>
+          <t>J'suis dans la rue, sa mère Rue, sa mère Hum-hum-hum, ih-ih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mèr, dans le caleçon, la moula est calé Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes Et le bitume, comme casse-pipe, les keufs sont chauds, c'est casse-tête Tous les jours, j'vends la frappe et j'fais partir des cassettes Visser dans le bendo, fais la guerre dans le bendo, c'est pas un jeu Prêt à sortir l'Extendo, si tu joue le Rondo, si t'es trop costaud On baisse pas les yeux, gros, j'ai pas les mots, j'entends des balivernes Odeur de White Widow, fais l'boulot ou baise tes morts J'enfile mon banda' quand j'pars en mission, je mets les gants J'consume mon bédo, gros, c'est moi B2, j'suis élégant Mon gars, fais doucement, j'aime pas comment tu parles, v'-esqui les bacqueux et la municipale C'est toutes des putes, j'veux pas leur ressembler, tant que l'argent rentre, pour moi, c'est l'principale On vient du ghetto, on veut notre part du gâteau, c'est évident À fond dans l'vaisseau, j'ai quitter le berceau, j'suis dans l'bâtiment J'suis dans la zone, sa mère, quatre-vingt onze, les Uliss, zone à risque Yih-yih Que la frappe qu'on visser, j'suis dans le bât', j'ai pas la vie d'artiste J'suis dans l'blocko Blocko, survêtement croco' Croco', j'suis dans les temps J'suis avec ma pine-co Pine-co, j'la ramène au tel-hô, c'est pas pour gue-lan Yih-yih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la tess, sa mère, j'suis dans les grosses affaires, pour mettre à l'abri ma mère Sur ma mère, j'vais les faire taire, gros, j'les enterres, oh ouais Et même nous, on a les armes, au cas-où c'est la guerre, pour tous les enterrer Sur ma mère, j'vais les faire taire, gros, j'les enterres Ton équipe, elle fait que de nous té-ma et ne joue pas la mafia ou on t'démarre Et en c'moment, les keufs font le ménage, six heures pile, ils ont bloqué le quartier J'suis avec mes sins-cou et fais belek car si t'en touches un, négro, on va t'masser Yih-yih J'vends du doré et du soké mais quelques fois, j'ai des clients d'C J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>La fête*</t>
+          <t>Martial</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby Comment tu bouge, baby Elle bouge son gros cul, bouge sa tte-ch' Oh ouais Elle veut du sérieux ? Garde la pêche Airbnb, elle, ses fesses Charcle, pour un gadaye qui vend d'la fraîche Vendredi, samedi, j'fait pas la fête Wow, j'suis dans l'tiekson, shit, be-her Pas pour moi, pas pour moi, pas pour moi Montre-moi comment tu bouge, baby Montre-moi comment tu bouge, baby Wouh</t>
+          <t>Eh, c'est quoi l'boulot ? J'suis dans la surface comme mon gars Dedinho Débrouillard comme le p'tit N.O.C Reste à l'affût, hendek y'a les gyros Sé-po avec Isma ça compte le liquide Défenseur du tier-quar comme Anas et Abdou Raconte pas tes bobards, on t'croit pas ici Comme Zizou sur un coup d'tête ça monte au charbon Mélange pas c'qu'il faut pas T'as pris KO ? Bah c'est Jobar À la Pogba, j'mets des top buts Zaïrois donc léopard Casse ta mère t'as pas les reins Ma chérie ce soir j'vais t'les casser C'est d'la frappe donc fais le M Comme Martial ou comme MG Ulissiens comme Anthony On veut être connu de Paname à Manchester Passement de jambes ça va trop vite Devant les gardiens rares sont les erreurs Enroulé, petit filet ou lucarne Tu sais qu'on attrape le taureau par les cornes Entre la concu' et nous y'a un écart Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony Snapchat en leuleu devant la télé-lé Elle mérite pas l'tel-hô, que j'dépense Des tas de billets c'est c'qu'on veut-veut Mais faut éviter-ter case prison, les condés et l'tribunal J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Sur le terrain on est attaquant C'est mort pour toi si tu goales On manie la mélo', on manie le flow Comme Anthony j'la mets offensif si tu m'donnes Et tchek de l'épaule si t'es un négro du tieks tieks Fais ton argent, ne les calcule pas La mala, la hagra, ça ne paie pas pas, pas, pas, pas Titulaire sur le terrain Demande à Zaki, on a trop tourné On a frappé toutes sortes de balle Toutes sortes de bougs, toutes sortes de 'tasses Midi-minuit dans le bloc bloc Midi-minuit dans le bloc bloc J'tape une gestu' pour les négros du gang Pas pour ceux qui donnent le corps J't'l'ai d'jà dit y'a d'la frappe dans le binks Donc si tu veux passe, t'inquiète nous on est peace L'inspi' elle vient on n'a pas besoin d'bédave On dit c'qu'on vit, on n'a pas besoin d'pénave Si t'es pas des U, igo t'es un intrus Tout comme Martial on efface la concu', eh Tout comme Martial on efface la concu' J't'avertis là c'est parti La MG 2K18 dans la partie On vient tout niquer, on est r'parti Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Brazo, La MG c'est bon déjà Toi tu fais l'ancien et t'es qui déjà ? On est reconnu pour faire des dégâts Sur l'terrain des passeurs, et ceux qui détaillent Ta tête la balle aux 6 mètres je dégage Toujours offensif, je contrôle, je décale Je cavale, j'ai du souffle pour éviter la flicaille Y'a mon gars Krims dans la surface La mettre au fond faut qu'il fasse Parle pas sur nous, viens en face Ou bien t'as peur qu'on t'fasse Ou bien t'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse Gambi-Gambino Faut qu'je rentabilise donc il faut qu'je perce Pour faire des sous j'ai tenu l'sac Aujourd'hui c'est moi qui l'ramène C'est moi qui fait les comptes, c'est moi qui détaille Y'a du te-shi couleur abeille Si tu veux pécho rentre dans le bât' On veut plus de biff que la veille Quand j'avais pas un rond j'arrachais des sacs Tous les jours avec les mêmes négros Tu vends pas de C espèce de mytho Tout le monde snap à la Mélanie da Cruz Et sur scène je fous le feu au micro Et sur scène je fous le feu au micro Fais l'fou dans ma ville j'envoie les microbes Sur l'terrain y'a la frappe de Martial Antho' J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>La promo</t>
+          <t>Métaux</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Négro, négro, c'est Negri' Mmh-mmh, mmh-mmh avec Gambino, eh Mmh-mmh Négro, négro, c'est Negri' Oui, oui avec Ferme la po-po-porte, hi J'viens-, j'viens d'là où tu trouves d'la drogue Mmh-mmh, plus vite qu'une pharmacie Mmh-mmh Et les clients veulent que du jaune, pas du noir, je crois qu'c'est des racistes Ouh, oui, oui J'suis posé sur le hazi Mmh-mmh, les Ulis, c'est l'asile Mmh-mmh Faire d'la Drill, c'est trop facile, biso nde toza ba mokonzii Uh-uh C'était moi l'guetteur après les cours Les cours, j'veux la fortune aux Bettncourt Brr La ne-zo était trop sous tension, donc on achetait ds armes à Clignancourt Eh-eh J'viens d'là où c'est pas cool, donc on monte sur des coups Ouh, ouh On peut t'sortir une lame Ouh, ouh, te faire une nouvelle coupe Ouh, ouh On peut t'sortir une lame, te faire une nouvelle coupe Y a pas que chez Pampers qu'tu peux trouver d'la kush Uh-uh Voler, c'est pas bon Mmh-mmh et la misère, c'est pas bon Nan, nan Donc on monte sur des plavons Mmh-mmh ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh On est dix dans le bloc, ils savent pas qui péter Oui, oui, sous tise mais y a rien à fêter Brr Faut qu'j'déclare un Audi TT Oui, j'passe les rapports, j'réveille la cité Mmh-mmh T'inquiète, j'ai l'pétard, j'peux pas m'inquiéter, par les p'tits d'chez moi, tu t'fais racketter Uh-uh Par les p'tits d'chez moi, tu t'fais piétiner Brr, par les armes à feu, on est fascinés Pah, pah, pah J'ai charbonné tard le soir Mmh-mmh, j'ai plus peur dans le noir Mmh-mmh J'ai toujours gardé espoir Mmh-mmh, aujourd'hui, c'est moi la star Uh-uh J'rem-, j'rempli pas mes polos Han, han mais-, mais j'ai rempli mes poches Mmh-mmh On-, on a visser des bollosses Oui, oui, han, han, même quand il faisait moche Brr Voler, c'est pas bon Han, han et la misère, c'est pas bon Han, nan Donc on monte sur des plavons Han, han ou on détaille des savons Oui, oui, brr C'est gnonmi et lait qui est bon, le bosseur est crépus, le client est blond Han, han Le PU est posté sur le pont Han, han, le te-shi est bon Ça dit quoi ? Ma beauté, t'es mimi Yiih-yiih, viens, on va faire de la promo' Promo' Gambino La M et Negri' Brr et on fait bouger ta mousso Mmh-mmh Ça dit quoi ? Ma beauté, t'es mimi Eh-eh, viens, on va faire de la promo' Mmh-mmh Gambino La M et Negri' Mmh-mmh et on fait bouger ta mousso Mmh-mmh, hey, hey, hey J'rentre en chap chap dans le bendo, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh J'rentre en chap chap dans le bendo Oui, oui, oui, y a les condés à mes trousses Uh-uh Négro, négro, c'est Negri' avec Gambi' Mmh, mmh Négro, négro, c'est Negri' Mmh, mmh avec Gambi' Mmh Gambino La M Mmh, mmh, grr, grr, grr Mmh, mmh Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Hey, hey Y a les mbilas partout, partout Awa, partout, partout Y a les mbilas partout, partout Cache la beuh dans le coin, partout, partout Pah, pah Tesla, mwana mon boug, eh Uh, uh B2, mwana mon boug Uh, uh Mmh-mmh, mmh-mmh, mmh-mmh , mmh</t>
+          <t>Avant d'faire j'analyse, j'suis dans l'binks j'gère le bizz J'ai le flaire pour les flouses, sous pillave je dérive Le p-ra je maitrise, le buzz grimpe j'réalise J'connais tout le monde dans la ville, je sais à qui prendre les Pour faire du sale on me , pour faire des sous j'ai la solution Faire d'la musique c'est ma seule issue, j'ai échappé belle à la commission Que des va et vient dans l'escalier les voisins ont même fait une pétition Mais bon tout les jours c'est le même récit les clients défilent en répétition Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuh De janvier à décembre décembre, les différents postes sont répartis partis Et si tu dois des sommes j'serais posé chaque soir dans ton parking parking J'suis posé dans la gari yiih yiih j'fume la frappe du Garage Coffee J'viens d'signer chez Sony En fait j'en revendrai juste un peu un peu, histoire de vesqui les impôts impôts Si y'a les condés sauve qui peut c'est pas le moment de finir en mandat de dépôt J'vends la dur au riche et la douce au pauvre ok Pour des billets mauves pour des billets mauves, négro on t'arrose. négro on t'arrose Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuuh</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>L’époque des cahiers</t>
+          <t>Météo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
+          <t>Ah-ah Mmh-mmh Ay J1, that's flames, my bro Whey, whey, whey Eh-eh Ceux qui sont méchants, c'est qu'ils font semblant d'être méchants Mmh-mmh Louis made it Ils nous connaissent même pas, ces bâtards, ils parlent trop Okay Uh-uh Mmh-mmh Brr CNLM, no cap, CNLM, no cap Yih-yih Okay Mmh-mmh CNLM, no cap, CNLM, no cap Chaud, chaud, chaud, chaud Mmh-mmh Kodes La Barrière, Kodes La Barrière, Kodes La Barrière Hey, hey, hey, brr Uh-uh J'arrive les bras ballants Hey, j'le pète au milieu du salon Hey, hey J'les vois qu'ils s'allongent Han depuis qu'on a prit du galon Hey, hey, hey J'connais la zone, j'ai tourné comme un ballon Han-han, j'suis dans la street, j'vais pas t'acheter tes talons Han, why Le travail paye plus que l talent Whey, il va falloir montrer c'que nous valons Ouh, okay J'les croisais déjà, eux, c'est des groupies, tu vois pas l'visage Han-han, on a l'air groupé Han-han C'est nous les méchants Brr, eux, c'est des pookies Han-han, on va les faire goûter Brr, brr si tu veux goûter Han-han Ouh, holà, d'puis qu'j'ai du buzz, elle est collante Eh Faut faire doucement sur la relance Whey, quatre-vingt onze, c'est la violence Whey, whey C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh J'suis pompette, j'me roule un pét' Pét', j'suis au sept, avec des-Ko Pal Des-Ko Pal Tu tires une barre, t'es tout pâle T'es tout pâle, tu bouges plus comme si t'avais l'palu' Palu' J'étais au trou, faut qu'j'demande un parlu Parlu, les condés, chez moi, sont pas venus Ils ont pété les armes chez Chino, putain, surtout qu'y avait mes paluches Yih-yih J'étais sous l'porche, les p'tits me voyaient Voyaient, matrixé, j'faisais le voyou J'peux pas ronfler, j'dois payer l'loyer Mmh-mmh, comme mon daron, toujours au caillou Pas b'soin d'être trop fort, j'suis trop beau, d'mande à Kirby, c'est comment les go Mmh-mmh On les wipe toutes, même celles qui ont des gars Whey, whey alors qu'ils ont mes sons dans l'bigo Mmh-mmh C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh Louis Made iT</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Les Moussos (GLM #1)</t>
+          <t>Midi</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BLN Hufel on the beat Uh-uh Pour la belle vie, j'vends la mort La mort mais y a que Dieu qu'on adore Jesus Remplit est le coffre-fort De thunes, le te-shi vient de Nador Hi-hi J'suis chrétien, j'mange du cochon mais toute l'année, je v'-esqui les porcs Les pu Mon gava, fait attention, pour du seill-o, j'peux cribler ton corps J'suis dans le street, j'ai pas gé-chan Gé-chan, j'suis juste entouré de méchants Méchants Celui qui vient jouer au con, j'lui fait les dents à Didir Deschamps Uh-uh J'suis avec Kirby toute la nuit, y a qu des putes dans la bre-cham À part GDR et B2, personne prend mes patins, c'est inquiétant Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Uh-uh L'assoc' m'appelle, il m'dit qu'y a six milles euros à prendre Et quand j'fais pas rentrer de papel, j'te jure qu'j'ai une envie de me pendre Hmm-hmm À chaque teaser, j'me dit qu'c'est l'bon C'est l'bon, le te-shi que j'fume, il me rend con Il me rend con Le guetteur est posté sur le pont Le pont, il n'a pas intérêt d'jouer aux cons Non, non Libérez Djodji-Djodji, j'veux la vie de Zac Cody-Cody Hmm-hmm J'suis sur scène, tout l'monde m'applaudis, demain, j'suis au tieks assis sur un caddie-caddie Caddie Elle a mit un body-body, j'ai du mal à voir son booty, booty C'est Gambino, chouchou des mommy-mommy Hmm-hmm Who can test me ? Nobody-body Hi-hi Il fait chaud, les moussos faut sortir les minis-minis ou bien, les bikini-kini J'suis dans Lamborghini-ghini, elle m'lèche les couilles, ça m'fait des guilis Si j'meurs demain, supprimez tout mes pes-cli-pes-cli, j'veux pas finir aux abymes L'amour, j'arrive pas, j'préfère rester célib', j'vendais la coca' aux gue-shla en vélib', en vélib' Gambino La M' Han-han, en Gucci, claquettes, bob Gambino La M' Han-han, j'ai fini mon paquet d'clopes Gambino La M' Han-han, on me connait dans la zone Gambino La M' Han-han, depuis tout p'tit, moi, j'ai fait les choses Uh-uh Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce Les moussos Les moussos, les moussos Les moussos, quand j'arrive, je les fait tous sauter Tous sauter J'ai pris son Snap', donc elle est saucer Elle est saucer, le soir, je finis dans la sauce Dans la sauce</t>
+          <t>Uh-uh Uh À midi sur le hazi, pas eu l'temps d'prendre mon p'tit déj' Prendre mon p'tit déj' Les condés font l'tour d'la ville, ils ne'-tour comme un manège Comme un manège J'ai cogité toute la nuit, j'leur ai promis qu'j'allais finir au sommet Elle kiffe, elle remue son boule, elle kiffe, elle remue son boule Ma bella, fait tes valises, on part une semaine à Venise Et pétasse, fait la cuisine, pendant que je fais mes vocalises Depuis que j'recompte les kichtas, michto ne regarde plus la mocheté J'ai toujours pas réponse en mes questions, casse toi, baby, j'vais jamais t'accoster Ça fait déjà longtemps qu'on est maudit Ça fait déjà longtemps, tu nous connais À deux cents cinquante dans le Audi Longtemps qu'on fait d'la monnaie M'aimeras-tu autant quand j's'rai plus à la mode ? M'aimeras-tu autant ? M'aimeras-tu autant ? T'étais où quand j'détailler dans le taudis ? Dis-moi, t'étais où ? Dis-moi, t'étais où ? SHK SHK Okay Oui, oui Brr CNLM, no cap, CNLM, no cap CNLM, no cap Han Kodes La Barrière, Kodes La Barrière Oui, oui, oui, oui Chaud, chaud Brr, han Rien n'a changé sauf le prix du 100G Sauf le prix du 100G, j'me suis pas assagi Hey La bouteille et son gros cul s'agite Hey mais l'temps passe, il s'rait temps d'y songer Hey, hey, hey Les autres, c'est des jaloux, j'vendaient dehors, les mains gelé Shh, à onze heures, j'étais déjà là J'étais déjà là Il m'faut Rolex pour leur donner l'heure, comme d'habitude, c'est moi, j'ai le Okay J'suis dans la calle, j'recompte la kichta du showcase et je récupère en she-ca Je récupère en waye Ils savent déjà qu'on va les choqué, quand on arrive, ils sont chés-ca J'enlève pour chacun d'entre d'eux, j'te le dis d'entrée, même en jogging, faut pas rentré Tu connais mes chacals, chacals Chaud, mets-toi en retrait, j'ai la concu' dans un rétro Bye, bye, bye, bye Elle s'rappelle de moi, j'l'ai même pas regardé, si la beuh sent trop fort, j'pourrais pas la garder Hey, hey, hey Ma nouvelle kichta n'est pas bien accordée, j'fais d'la moula, y en a un plein qui sont pas ccord-d'a Bye, bye, bye, bye Charismatique, j'suis entouré d'ma team, on pourrait t'faire des trous et des hématomes Brr J'suis bourré d'malade, j'me suis fait la madame, la cocaïna revient tout droit d'Mada Y a du doré si tu veux fumar, tous les jours, j'suis bourré, j'suis comme Homer Ma vie a changé, je mange du homard, j'ai du Gucci, du Moncler dans mes inserts Yi-yih J'aime que les sous, j'ai pas trouvé l'âme sur Uh-uh, j'ai trop d'argent, elle va m'jeter un sort Uh-uh Baby me suce la bite dans l'ascenseur Uh-uh, le buzz évolue comme un escalator J'ai la coupe à Pucca Pucca, de-ze comme Fally Ipupa 'pupa Tu crois qu'tu peux nous la mettre ? T'es timbré, comme ceux qui fument le shit au ton-car, tocard Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM J'suis là que pour les dineros, toi, arrête ton numéro Y a que d'la moussos, j'ai assez d'gars pour chaque mytho Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM Uh-uh Uh-uh</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Longtemps*</t>
+          <t>Midi Minuit #7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'mange de la musique il était temps j'suis dans le trafic depuis longtemps J'aurais pu bé-tom à tout moment J'restais sur mes gardes quand j'sortais de la ville J'volais les brises glaces du 9.1.0.5 Viens dans ma ne-zo si tu veux de la résine On visser tout le monde même les femmes enceintes J'suis avec Ju sé-po à la pente J'ai mit les gants donc j'laisse aucune empreinte Si tu veux m'avoir faut passer par la science Le compte est rempli mais j'fais toujours la pince J'lai baisé toute la nuit mais j'ai pas craché J'prends même plus de plaisir à baiser des timps Quand j'bossais j'me faisais cramer par mes tantes Canon sur la tempe si tu portes plainte J'te refais le portrait mais j'suis pas un peintre Sur le rrain-té j'fais des passes et des feintes J'suis bien entouré donc j'ai aucune crainte je peux pas me plaindre Je tourne dans la ville le bosseur m'appelle pour ravitaille</t>
+          <t>J'viens du côté du 91 réputé pour la vente de guedro Entouré de files de baptou donc logiquement y'a que des potos Que des potos en moins de 24 heures ça liquide que des kilos J'suis dans l'auto avec l'Ojozo y'a GD sur la moto J'arrondi mes fins de mois au pilon mais des fois j'ai des clients de zipette Y'a que du nau-je y'a pas de marron Rondo et Boseil dans la tchoupette Et j'ai du doré planqué sous mon cul On connait la rue tu crois la faire à qui Il parle dans mon dos pour salir ma répu Mais en face ils sont bons qu'à sucr ma bite J'suis dans le fond du binks le gérant fait ls comptes J'ai fais que du benef il s'en est même pas rendu compte Déterminé depuis le collège j'suis dans tout les charbons J'ai l'pétard gros pas besoin de faire de pompes Le keus est planqué au cas où y'aurait les condés Y'a que d'la qualité en plus de quantité Tout le monde est posté bosseur, guetteur Midi minuit dans l'binks J'ai ma conso Midi minuit dans l'binks Mes clopes, mes feuilles Midi minuit dans l'binks Faut faire des sous Midi minuit dans l'binks Les condés tournent Midi minuit dans l'binks</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Love 2 Hate (Remix)</t>
+          <t>Miné</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>On fait parti des plus détestés surtout par les villes d'a côté On s'en bat les couilles on fait du blé en cas de pépin y'a la B7G Le prix du 100G a augmenté Qu'ce soit du doré ou du soké Solide est la mentalité car j'ai très bien été éduqué La j'suis avec Nova je gigote mes pieds dans les rues d'Edmonton Toi ta fan-base elle est trop conne On sait que ta jamais vendu des tonnes Elle veut du sérieux elle est trop conne Moi j'suis comme Kirby j'veux que ds folles Ça vient du 9.1.9.4.0 les Ulis capital d'la vente de drogue yiih, yiih Paris, London on est connecté, le terrain tourne parce qu'il est alimenté T'es pire qu'une feumeu qui fait que jacter Y'a de la frappe qui revient d'Alicante Ici tout est bresom igo c'est normal hmmm Sous la puche-ca j'ai les yeux cernés Tout ceux qui doivent des sous crois moi qui dorment mal Le business est carré et le cercle est fermé Parle pas d'la rue si ta pointer qu'une fois ou 2 Les pédales font les fous sa m'donne des idées Tu mérites pas la dote t'a un passé douteux Ma tête va surchauffer à force de méditer C'est pour le papier qu'on prend des risques Tu veux t'faire allumer sur la terrasse J'veux la même fortune que Thomas Burberry Si tu rapportes 0 de toi j'me débarrasse</t>
+          <t>Elle a pas de boul donc je l'as mets sur le tec Y'a pépin, j'ai l'pe-pom, gros y'a pas besoin de pec On fout l'feu au club, ce soir on fait la bringue Fais le fou, je t'éclate une bouteille sur la tête Y'a d'la haine dans mes textes beaucoup d'négros m'ont déçus Y'a le glock sur la table ta reu-seu est en dessous Elle mettait des vues, aujourd'hui j'lui mets dans l'cul J'pense aux gars des U qui sont toujours sous écrous J'en place là-bas comme Lotchi Louis Vuitton, Kenzo et Gucci La mala sans faire exprès comme Isma Sur la ble-ta, y'a l'salaire à ta tantine La teille fais la taille de la teub à ton tonton Fais belek ce soir, j'repars avec ta copine Tu cherches la merde, j't'allume chez ton daron Et j'prends ta reu-seu en leu-leu dans la cuisine J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné J'fais des passes d, j'suis attaquant Pas défenseur, j'vends d'la pasta Pas des pastèques, et quand y'a pépin, tu deviens pasteur De temps en temps, j'suis sur l'rainté J'cache le détail, dans l'ascenseur Fais attention, j'vais t'allumer Si tu t'approches sur un peu trop de mes p'tites surs D'la moula à gogo, je te rassures Ils ont pas d'oseille, c'est des grands bluffeurs Moi j'fais mes sous, j'fais mes études À mes heures perdues, je deviens rappeur Les têtes de ta cité m'en veulent Et les ti-peu d'chez toi m'envient À trop faire le fou tu peux finir seul Et un plus fou que toi t'enlèvera la vie J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Maintenant</t>
+          <t>Moulala</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J'suis dans la rue, sa mère Rue, sa mère Hum-hum-hum, ih-ih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mèr, dans le caleçon, la moula est calé Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes Et le bitume, comme casse-pipe, les keufs sont chauds, c'est casse-tête Tous les jours, j'vends la frappe et j'fais partir des cassettes Visser dans le bendo, fais la guerre dans le bendo, c'est pas un jeu Prêt à sortir l'Extendo, si tu joue le Rondo, si t'es trop costaud On baisse pas les yeux, gros, j'ai pas les mots, j'entends des balivernes Odeur de White Widow, fais l'boulot ou baise tes morts J'enfile mon banda' quand j'pars en mission, je mets les gants J'consume mon bédo, gros, c'est moi B2, j'suis élégant Mon gars, fais doucement, j'aime pas comment tu parles, v'-esqui les bacqueux et la municipale C'est toutes des putes, j'veux pas leur ressembler, tant que l'argent rentre, pour moi, c'est l'principale On vient du ghetto, on veut notre part du gâteau, c'est évident À fond dans l'vaisseau, j'ai quitter le berceau, j'suis dans l'bâtiment J'suis dans la zone, sa mère, quatre-vingt onze, les Uliss, zone à risque Yih-yih Que la frappe qu'on visser, j'suis dans le bât', j'ai pas la vie d'artiste J'suis dans l'blocko Blocko, survêtement croco' Croco', j'suis dans les temps J'suis avec ma pine-co Pine-co, j'la ramène au tel-hô, c'est pas pour gue-lan Yih-yih J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la tess, sa mère, j'suis dans les grosses affaires, pour mettre à l'abri ma mère Sur ma mère, j'vais les faire taire, gros, j'les enterres, oh ouais Et même nous, on a les armes, au cas-où c'est la guerre, pour tous les enterrer Sur ma mère, j'vais les faire taire, gros, j'les enterres Ton équipe, elle fait que de nous té-ma et ne joue pas la mafia ou on t'démarre Et en c'moment, les keufs font le ménage, six heures pile, ils ont bloqué le quartier J'suis avec mes sins-cou et fais belek car si t'en touches un, négro, on va t'masser Yih-yih J'vends du doré et du soké mais quelques fois, j'ai des clients d'C J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes J'suis dans la rue, sa mère, j'voulais la vie d'artiste et du papier, j'suis dans la street, sa mère, dans le caleçon, la moula est calée Y a du ne-jau pas chère, j'fais des passes, j'allume, joint d'beuh se consume La beuh d'Meuda, j'consomme, elle t'envoie sur Saturne, j'fais des tubes et des thunes</t>
+          <t>Mmh-mmh Piou-piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah-yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Les condés enchaînent les bavures Bavures, ils veulent nous en faire baver Baver Si tu t'fais choper, sois pas bavard Bavard, il faudra juste payer le baveux Hi, hi Moi, j'faisais pas souvent mes devoirs Devoirs, j'préférais revendre du re-ve Re-ve J'voulais faire des billets violets Violets, viens dans ma zone, on est violents Eh-eh On joue d'la guitare, du violon, l'argent rend beau, de base, j'suis vilain Mmh-mmh J'veux juste me rapprocher du million Mmh-mmh, être populaire, ça, j'l'ai pas voulu Hi-hi J'té-cla un gros pét' au volant Volant, souvent pisté par la flicaille Non, j'me prends pas pour un dit-ban mais les grands te slashent comme des samouraïs Eh-eh J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Hi-hi J'vendais la moula dans la Ciudad 'dad, j'suis dans la tchoupette aux gars J'coffee, j'me roule un pét' avec Dad Dad, j'ai trop fumé, je bad Je bad Tous les recoins d'la ville sont crades Sont crades, petit à petit, je monte en grade Mais il faut pas qu'je baisse ma garde Hi-hi, j'suis avec bandits, j'suis aux arcades Les tits-pe à la gare prennent tes AirPods, on m'dit Gambino, comment tu fais pour kicker sur n'importe quelle prod' ? J'fais la fête dans le cul d'ta folle D'ta folle Un peu de bédo, un peu d'alcool Mmh-mmh, si tu veux pé-cho, tu fais la file Mmh-mmh Deux par deux comme à l'école Mmh-mmh, eh-eh J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala J'vendais la moulalalala J'vendais la moulalalala</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Maintenant 2 (Bonus Track)</t>
+          <t>Next Up France - S1-E8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
+          <t>Mmh-mmh Mmh-mmh Mmh-mmh J'prends tout même si tu m'payes en centimes, j'ai d'quoi t'faire planer dans mon jean C'que j'ressens, personne peut l'sentir, personne, même les mecs de ma team On court tous après les thunes, j'suis bon qu'à l'faire pour ceux qui veulent dormir Plus l'succès augmente, plus ça s'empire, j'dors plus la nuit comme vampire J'suis dans les bagayes depuis longtemps, j'ai jamais changé de camp Tout pour le plata, tout pour le gang, de la rue, j'suis un militant Ton Glock, tu comptes l'utiliser quand ? J'suis avec ta go, j'la mugu, pan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Oh J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt D'arrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt Les Ulis, c'est pas Disney Land Ça vient d'où ?, j'te l'répète depuis 2017 Yih-yih Ramène-moi une cassette, j'te la dissèque J'te la dissèque, à l'époque, t'en n'avais pas pour plus 2.5 Plus 2.5 Ceux qui viennent pper-cho mes sons dans leurs enceintes, occupe-toi bien du lot s'il va t'en ramener cinq Y a zéro concurrence depuis qu'Tiakola a parlé du coffee, il est passé à quinze J'passe un coup d'fil à Camélia Camélia, sa pote demande si Kirby est là Est là J'lui dis que Kirby est là Est là mais qu'on reste pas toute la nuit là-bas Nan, nan J'fais ton salaire en trois pubs Snap', tu comprends pourquoi j'ai grave des sapes Tu comprends pourquoi j'fais grave des Snap', tu comprends pourquoi je n'tiens plus l'sac Eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Drogue, monnaie, violence Violence, c'est mon quotidien Quotidien J'vais finir comme Fredo Santana Santana, je bois trop de lin Je bois trop de lin Si y a pas de Jolly Rancher Rancher, j'mets des Arlequins Harlequin J'volais partout où j'allais car j'viens du 9.1 Ouh-ouh Il a juste fait un vol portière Yih-yih, il nous parle de vol, de voiture Mmh-mmh Tu dois du djé, on te capture Mmh-mmh, tu vas tout cracher sous torture Mmh-mmh Et si tu veux t'faire la belle, j'envoie mon frère en filature Oh J'passe un traqueur dans ta voiture, imagine pas pouvoir t'enfuir Nan, nan, brr, brr J'aime trop le bédo, j'suis comme Homer et sa Duff Duff, Duff, brr Et jusqu'à mes dix-neuf, j'dépouillais toutes les teufs Teufs, teufs, gra-grah Ils m'contrôlent plus les keufs, sur moi, j'avais un neuf Neuf, neuf On vend la ppe-f', ppe-f', c'est pas du bluff, bluff Eh-eh Faut fidéliser la clientèle Clientèle et si mon bosseur veut m'la mettre, j'ai d'jà tout copié dans plusieurs tél' Plusieurs tél' Je les relance chaque fin d'semaine Fin d'semaine et ouais, gros, j'm'y connais dans c'domaine Dans l'game, j'fais partie d'ceux qui dominent Grah donc chaque matin, je dis Amen Gra-gra-grah J'suis dedans, j'ai capté l'truc Le truc, faut plus qu'je lâche le steak car il faut qu'je fasse croquer ma clique Ma clique Faut qu'je fasse gonfler ma cote Ma cote, tête de beau-gosse dans les clips Ah ouais ? mais si tu savais c'que j'ai en tête Ah ouais ? J'dois faire une passe d'un kil' Gra-gra-boum, eh-eh Comme Dougie B, j'danse le sturdy, j'm'en bats les couilles des schmitts J'dis tout dans mes textes comme Bobby, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous, les écoute pas, c'est des conneries Comme Dougie B, j'danse le sturdy Mmh-mmh, j'm'en bats les couilles des schmitts Mmh-mmh J'dis tout dans mes textes comme Bobby Mmh-mmh, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous Mmh-mmh, les écoute pas, c'est des conneries Mmh-mmh, gra-gra-boum</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Martial</t>
+          <t>No Hook</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Eh, c'est quoi l'boulot ? J'suis dans la surface comme mon gars Dedinho Débrouillard comme le p'tit N.O.C Reste à l'affût, hendek y'a les gyros Sé-po avec Isma ça compte le liquide Défenseur du tier-quar comme Anas et Abdou Raconte pas tes bobards, on t'croit pas ici Comme Zizou sur un coup d'tête ça monte au charbon Mélange pas c'qu'il faut pas T'as pris KO ? Bah c'est Jobar À la Pogba, j'mets des top buts Zaïrois donc léopard Casse ta mère t'as pas les reins Ma chérie ce soir j'vais t'les casser C'est d'la frappe donc fais le M Comme Martial ou comme MG Ulissiens comme Anthony On veut être connu de Paname à Manchester Passement de jambes ça va trop vite Devant les gardiens rares sont les erreurs Enroulé, petit filet ou lucarne Tu sais qu'on attrape le taureau par les cornes Entre la concu' et nous y'a un écart Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony, on mène au score Ulissiens comme Anthony Snapchat en leuleu devant la télé-lé Elle mérite pas l'tel-hô, que j'dépense Des tas de billets c'est c'qu'on veut-veut Mais faut éviter-ter case prison, les condés et l'tribunal J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Sur le terrain on est attaquant C'est mort pour toi si tu goales On manie la mélo', on manie le flow Comme Anthony j'la mets offensif si tu m'donnes Et tchek de l'épaule si t'es un négro du tieks tieks Fais ton argent, ne les calcule pas La mala, la hagra, ça ne paie pas pas, pas, pas, pas Titulaire sur le terrain Demande à Zaki, on a trop tourné On a frappé toutes sortes de balle Toutes sortes de bougs, toutes sortes de 'tasses Midi-minuit dans le bloc bloc Midi-minuit dans le bloc bloc J'tape une gestu' pour les négros du gang Pas pour ceux qui donnent le corps J't'l'ai d'jà dit y'a d'la frappe dans le binks Donc si tu veux passe, t'inquiète nous on est peace L'inspi' elle vient on n'a pas besoin d'bédave On dit c'qu'on vit, on n'a pas besoin d'pénave Si t'es pas des U, igo t'es un intrus Tout comme Martial on efface la concu', eh Tout comme Martial on efface la concu' J't'avertis là c'est parti La MG 2K18 dans la partie On vient tout niquer, on est r'parti Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po Quand y'a l'blégué dans les che-po J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony Brazo, La MG c'est bon déjà Toi tu fais l'ancien et t'es qui déjà ? On est reconnu pour faire des dégâts Sur l'terrain des passeurs, et ceux qui détaillent Ta tête la balle aux 6 mètres je dégage Toujours offensif, je contrôle, je décale Je cavale, j'ai du souffle pour éviter la flicaille Y'a mon gars Krims dans la surface La mettre au fond faut qu'il fasse Parle pas sur nous, viens en face Ou bien t'as peur qu'on t'fasse Ou bien t'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse T'as peur qu'on t'fasse Gambi-Gambino Faut qu'je rentabilise donc il faut qu'je perce Pour faire des sous j'ai tenu l'sac Aujourd'hui c'est moi qui l'ramène C'est moi qui fait les comptes, c'est moi qui détaille Y'a du te-shi couleur abeille Si tu veux pécho rentre dans le bât' On veut plus de biff que la veille Quand j'avais pas un rond j'arrachais des sacs Tous les jours avec les mêmes négros Tu vends pas de C espèce de mytho Tout le monde snap à la Mélanie da Cruz Et sur scène je fous le feu au micro Et sur scène je fous le feu au micro Fais l'fou dans ma ville j'envoie les microbes Sur l'terrain y'a la frappe de Martial Antho' J'suis dans la surface comme Anthony Rapide, efficace, tu peux pas l'nier Chez nous y'a que d'la frappe atomique Toutes sortes de balles qui trouent les filets Hm, eh, tu peux pas l'nier Huh, huh, 90ème le R est fermé J'suis dans la surface comme Anthony La surface comme Anthony La surface comme Anthony La surface Sur l'terrain j'mets des reprises de volée Jeune talent des Ulis comme Anthony Sur l'terrain j'mets des reprises de volée Sur l'terrain titulaire comme Anthony</t>
+          <t>Xanxuss... Yihi J'découpe en tranche la baguette de pain pour récupérer du blé du blé J'viens du côté du 91 réputé pour la revente de doré, quand y a seille-o, on y va d'emblée d'emblée, d'emblée grrr pah La drill Fr on va la faire trembler, le rap-game ouvre un nouvel onglet Si tu me dois des sous, j'vais t'étrangler si tu me dois des sous j'vais t'étrangler Le buzz augmente comme le prix du 100g J'veux la fortune à Gold D. Roger mais les condés veulent nous faire plonger On gratte partout comme des rongeurs hmm hmm Faut des billets toutes les couleurs couleurs Co-comme les power rangers hmm hmm C'est-c'est moi j'ai l'brassard brassard, j'vous laisse les dossards dossards Zoulou et Brazo m'ont dit qu'on remplirait des concerts J'ai du mal à y croire, j'suis encore forcé à vi-ser vi-ser Depuis tit-peu on est des poissards poissards, pourquoi pas vendre la poussière yihi, euheeeu Avec Mano et Nail SmithWesson au niveau de la taille anhan Dans la caille j'suis fonce-dé sous weed Bécane en i comme dans la cité à Creed Posté quand il fait chaud et quand il caille On est dans tout les plans on a faim on veut graille Les illes-cou chargées comme Beyoncé J'sors la guitare pour les faire danser. uuuuh J'porte mes couilles depuis l'époque d'la marelle Depuis les ça vient d'où ? à Massy-Pal' J'reprenais la mi-temps en sortant de l'école J'ai ves-qui la nat' et la municipale Laisse moi terminer tout mes dièses hmm hmm Terminer tout mes bails Le temps c'est de l'argent faut que tu pèses Depuis p'tit matrixer par l'oseille J'suis au tel' avec Mac Ten au placard Il dit qu'ça m'écoute en promenade Quand j'arrive ses jambes elle écarte yihi Gambino fait pas d'accolade J'suis free j'ai trop picolé j'fume la beuh verte comme Piccolo Nan j'suis pas un serial killer j'ai juste liquidé des kilos Nan le cartel fait pas d'pause et le guetteur crie ça passe J'ai la pefra sur ma paume quand j'la fume j'suis dans l'espace Et le client veut sa dose ouais dans l'escalier il s'gratte nan Pas d'marron que du jaune oui j'la fume j'suis dans l'espace Dans l'bâtiment 0 stress no stress dans la bre-cham j'tire ses tresses yihi Elle pompe que ma bite pas mon espèce hmm hmm J'fume que d'la moula j'suis dans l'espace hmm hmm Me fait pas d'coup d'crasse sa part en coup d'cross J'roule un kamas une fois dans l'carrosse Trop compétent pour être dans la sauce uuuuh Et mes teasers tournent comme la puce Ils ont retiré le bracelet à Soum Faut charbonner pour pas finir au sol Pour faire des sous nous on passe par le sale Revente de brocolis, de sable et de sel Elle kiffe le négro à ce qu'il paraît j'suis stylé Pourtant j'suis pas plus épais qu'un stylo Oh la pute elle veut mon buzz ou mon blé Elle aura rien c'est balo</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mauvaise Graine</t>
+          <t>Obito</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Comme un boug qui s'fait qué-bra a J'peux pas baisser les bras a SI j'marie ta soeur y'aura pas de sang sur les draps a Moi baisé toi, lui, elle etc a Sur ta clique j'mise pas 1 franc CFA a J'suis sombre j'ai l'coeur couleur vitre teintée Quand le chat n'est pas la les souris volent sur le rrain-té J'veux du Prada, Christian Dior Dior si tu veux pas baiser dans la villa tu dors dehors Sur les semelles de mes loubous y'a des points noirs a force d'écraser ses cafards Tu m'as insulté quand j'vais niquer tes grands morts Tu vas dire que j'suis un hagar Mxique, Brésil j'déchire des fills sexy Eh p'tit débile j'débite j'évite les flics Technique précis j'écris des rimes terribles Trop d'appétit j'maitrise depuis petit J'ai fais un rêve yii yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh A la base j'suis pas mauvais j'ai eu mon bac et mon brevet J'vends le ne-jau et le rt-ve vient à Gaza si tu veux m'trouver Jm'enfui pas car j'suis bien entouré aqua j'ai du mal à respirer Faire du buzz c'est bien beau mais faut durer Si j'sors le pétard tu vas vibrer Plus d'inspi j'tire une barre sur le doré J'rentre chez toi masqué comme Obito Arrête de faire le narcotraficante on sait que t'a rien fais espèce de mytho Six du mat les condés font toc toc toc J'fais du p-ra pas du pop pop pop Paye moi ou tu finis comme Pop Smoke Trop d'clients le verraient en rupture de stock J'ai fais un rêve yiih yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Métaux</t>
+          <t>O-DOG #14</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Avant d'faire j'analyse, j'suis dans l'binks j'gère le bizz J'ai le flaire pour les flouses, sous pillave je dérive Le p-ra je maitrise, le buzz grimpe j'réalise J'connais tout le monde dans la ville, je sais à qui prendre les Pour faire du sale on me , pour faire des sous j'ai la solution Faire d'la musique c'est ma seule issue, j'ai échappé belle à la commission Que des va et vient dans l'escalier les voisins ont même fait une pétition Mais bon tout les jours c'est le même récit les clients défilent en répétition Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuh De janvier à décembre décembre, les différents postes sont répartis partis Et si tu dois des sommes j'serais posé chaque soir dans ton parking parking J'suis posé dans la gari yiih yiih j'fume la frappe du Garage Coffee J'viens d'signer chez Sony En fait j'en revendrai juste un peu un peu, histoire de vesqui les impôts impôts Si y'a les condés sauve qui peut c'est pas le moment de finir en mandat de dépôt J'vends la dur au riche et la douce au pauvre ok Pour des billets mauves pour des billets mauves, négro on t'arrose. négro on t'arrose Y'a les métaux plus l'temps d'me bagarrer j'avais besoin que d'un manteau pour aller charbonner J'ai saigné l'bendo j'ai jamais travailler J'veux que le sol de mon compte en banque monte comme mes abonnés Sur l'terrain j'ai la vista j'ai jamais fais la re-sta 2021 je m'installe j'ai toutes les boules de cristal yiih yiih GDR sur la bécane se fait chasser par les motards Le bédo c'est mon doliprane j'le fume quand au coeur j'ai mal uuuuh Paire de off-white j'peux me le permettre j'peux me le permettre J'conduis sans boule au ventre j'ai mon permis j'ai mon permis Maman voudrait que j'lui ramène un marmot, mais j'veux pas que sa soit un fils de pute qui l'appelle mamie. uuuuuh</t>
+          <t>Mmh-mmh Mmh-mmh Mmh-mmh Je suis dans la playlist de ta grande sur Grande sur Cétait un délire, ça prend d'lampleur D'lampleur On n'a fait des délits pour avoir du beurre Yih-hi On n'a connu lété gelé et la sueur La sueur Devant l'pe-pom, tu deviens pasteur Pasteur J'découpe, j'revends, j'fume la pasta Pasta Cest les cités, pourquoi tas peur ? Yih-hi Y a du sable bleu comme le sol dAlabasta J'traine avec des requins méchants comme Arlong Au comico', tout l'monde a perdu sa langue J'suis aux HP posé sur ma chaise Décathlon J'té-fri, jenroule, j'mets un coup de langue Yih-hi J'suis sur l'terrain, j'fais que des passements d'jambes J'fais un créneau, faut pas que je raye les jantes En c'moment, j'vois le vrai visage des gens, je vais couper les ponts et faire du 'gen' Rapide, efficace, quand cest pour le ness-bi, il faut pas trop faire, attendre les loss-bo Que des grosses folasses dans lAirbnb, j'vous mets tous R1, je taye avec bobo Rando et Posec sont dans la compo', tablette de ping-pong, glissé de sur yo Un peu de détail dans mon sac à dos J'faisais du bénef pour manger au McDo' Ok Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Huu-hu Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Yih-hi Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Arrêtez d'gratter des mesures dans vos textes, nous quand on écrit on remplit toute la feuille Toute la feuilles Cest pareil quand on roule des bédos Des bédos Qand on roule on remplit toute la feuille Toute la feuille Pour percer dans le rap faut trouver la faille Plaquette mais pas d'conso' dans ma fouille Bon il a rien trouver moi je taille, il sait pas qu'tout était bien calé dans mes couilles Couilles Je suis dans la cabine tout est noir Noir Les potos avant les meufs cest la loi Loi Jen aurai encore envie alléluia Alléluia Quand les keufs passent on leur fait que des doigts J'suis dans un gros fer, j'suis plus dans l'four Yih-hi Pour loseille on n'a le flair nous, on lèche pas de fouf' Tous les jours sous terre mais je suis vif Je suis dans les passes de plaquettes, je trouve pas de taff' Quelques fois je revends la zipette à des keush Jessaye d'faire ma marge par rapport au prix d'touche Par rapport au prix d'touche Pour aller faire le pu, j'disais à ma mère qu'jallais faire mes devoirs au clash Je suis dans la cité pour de vrai Eux cest la cité pour de faux Je suis dans la cité pour de vrai Eux cest la cité pour de faux Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Négro, insolent comme O-Dog O-Dog Insolent comme O-Dog On revendique le trafic de drogue De drogue Le trafic de drogue Négro, insolent comme O-Dog Yih-hi Négro, insolent comme O-Dog Yih-hi On revendique le trafic de drogue Négro, insolent comme O-Dog Eh-hee</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Météo</t>
+          <t>On se connaît</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ah-ah Mmh-mmh Ay J1, that's flames, my bro Whey, whey, whey Eh-eh Ceux qui sont méchants, c'est qu'ils font semblant d'être méchants Mmh-mmh Louis made it Ils nous connaissent même pas, ces bâtards, ils parlent trop Okay Uh-uh Mmh-mmh Brr CNLM, no cap, CNLM, no cap Yih-yih Okay Mmh-mmh CNLM, no cap, CNLM, no cap Chaud, chaud, chaud, chaud Mmh-mmh Kodes La Barrière, Kodes La Barrière, Kodes La Barrière Hey, hey, hey, brr Uh-uh J'arrive les bras ballants Hey, j'le pète au milieu du salon Hey, hey J'les vois qu'ils s'allongent Han depuis qu'on a prit du galon Hey, hey, hey J'connais la zone, j'ai tourné comme un ballon Han-han, j'suis dans la street, j'vais pas t'acheter tes talons Han, why Le travail paye plus que l talent Whey, il va falloir montrer c'que nous valons Ouh, okay J'les croisais déjà, eux, c'est des groupies, tu vois pas l'visage Han-han, on a l'air groupé Han-han C'est nous les méchants Brr, eux, c'est des pookies Han-han, on va les faire goûter Brr, brr si tu veux goûter Han-han Ouh, holà, d'puis qu'j'ai du buzz, elle est collante Eh Faut faire doucement sur la relance Whey, quatre-vingt onze, c'est la violence Whey, whey C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh J'suis pompette, j'me roule un pét' Pét', j'suis au sept, avec des-Ko Pal Des-Ko Pal Tu tires une barre, t'es tout pâle T'es tout pâle, tu bouges plus comme si t'avais l'palu' Palu' J'étais au trou, faut qu'j'demande un parlu Parlu, les condés, chez moi, sont pas venus Ils ont pété les armes chez Chino, putain, surtout qu'y avait mes paluches Yih-yih J'étais sous l'porche, les p'tits me voyaient Voyaient, matrixé, j'faisais le voyou J'peux pas ronfler, j'dois payer l'loyer Mmh-mmh, comme mon daron, toujours au caillou Pas b'soin d'être trop fort, j'suis trop beau, d'mande à Kirby, c'est comment les go Mmh-mmh On les wipe toutes, même celles qui ont des gars Whey, whey alors qu'ils ont mes sons dans l'bigo Mmh-mmh C'est trop la cité, cité, j'augmente le niveau en pleine capacité Un pépin, on descend aussitôt, t'as jamais bon-char, on sait qu't'es un mytho Whey À deux-cent, j'aime trop la vitesse, surtout, quand j'ai d'la vodka dans ma Vittel Han Ça re-ti dans les points vitaux Whey, whey, même si tu pousses, tu pourras pas l'éviter Whey, whey, okay On commence tout en bas, on va finir en haut, c'est nous les mecs du hall, on fait la météo On commence tout en bas, on va finir en haut, j'arrive en full options, j'suis comme dans GTA Uh-uh J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut C'est nous les mecs du hall Du hall, on fait la météo Yih-yih J'ai commencé en bas En bas, j'vais finir tout là-haut Tout là-haut J'arrive en full options Mmh-mmh, j'suis comme dans GTA Uh-uh Louis Made iT</t>
+          <t>On est dans le binks on fait le bénéf, on fait le pain les jaloux chenef On fait le cash express on consomme la somme importe peu, la cuenta n'effraie plus personne La petite aime quand le bolide fait vroum que le profil est louche que le CV est lourd Les petits ont des couilles, la petite a du gout, Chanel Gucci semelle rouge Le four tourne midi minuit non-stop, drogue store veni vidi block story Grosse douille les gosses tourne en I8, grosses couilles on règle tout avant minuit Tu les écoutes y a tout qui s'écroule, ils m'dégoutent respect aux vrais couz' comme Jul tes couilles faut tout j'découpe Chaud comme Sampaoli on a fait cent fois Holine, on vit des temps chaotiques beaucoup de cents pas hors line C'est le grand Classico bienvenue au hazi rho, on a c'qui faut Que du sale niveau pour les tchikita et les carlito Y a Stone Black Sheïr As Gambino La MG grosse frappe Ryad Mahrez on pilote l'AMG Aketo Naps Aladin Kalsh l'Afro couplet tar sahr à la fin tu tires l'chapeau Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je traverse le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant Les affaires vont pas trop mal, j'dois recompter la moula Grosse comme la Taj Maal j'sais pas quoi faire Cambrée comme la bécane la petite veut le Macan Les DM sur Instagram j'sais pas quoi faire On se connait on se comprend, mon collègue mon sang du Nord vient la puissance carré rouge flip ça fait nuit blanche Petite chaise pliante petite cliente t'as fait le browhing et la petite frange Sur la XXX on me confond avec le Naps, la rue c'est sombre on danse avec le diable Et l'état pour la vendetta, j'fais les tasses pour la grande mi-fa Kiffe-nous le zin fais caler le joint, tu m'vois dans la joie mais la street c'est la jungle Merci le J mc's j'suis pas à jeun merci le bon Dieu je sais que j'suis pas à plaindre Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'ai soti le berrta je sais pas si tu comprends, c'est l'époque carré rouge l'époque tar l'Afgan Et moi je suis un sniper on a tout vu du balcon, j'suis avec la chica elle a le sourire des balcans Sur moi j'ai de la popo, on a jamais fait les totos, va dire au gendarme y'a son fiston qui veut une photo Toi j'tavais cala mais en fait t'as la boco, dans la merde t'étais pas là quand je dormais dans la clio Et ça fait mal au cur t'es plus le sang on se croise de temps en temps Comme le brinks à côté de Font vert j'écoutais Puissance Nord, retour dans le temps L'humain a quadrillé le secteur caméras projecteurs l'équipe est chaude organisée c'est le danger Derrière nous y a que des braqueurs des dealers et des gratteurs y a que des gros tu vois le mzé c'est mélangé Ouais comme le J, on parle pas, on agit, on dort, t'imagine, on perd pas la magie On m'a dit pourquoi tu perces pas, à ton avis cherche pas c'est la vie mais j'reste dans l'anthologie T'as vu le hebs, y a trop de serpents crocodiles ne sers pas j'te le dis tu sors quand vendredi Y a les khos qui m'attendent, j'traine pas mon ami, gauche, droite ça va vite bang, bang Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'suis dans le RS non-man, je l'intéresse la nuit on fait nos vies on va peut-être mourir à l'adresse J'suis dans le film y a le reflet dans ses yeux, ils sont plus là ceux qui disent que hier c'était mieux Ça danse le mia dans la calle c'est ma jolie, elle sourit, elle donne du bonheur même au bord de l'agonie Malgrès les cicatrices elle sort avec le dos nu, elle fume le filtre et la peufra de Lucas tony Elle m'a tué elle m'a réanimé la rue toute seule nous a contaminé Ils me disent comment comme si c'était inné, j'suis seul dans le noir mon âme est abîmée On se connait depuis l'époque du bas à sable, du coup aujourd'hui il boude il voulait gratter la Sacem Ce projet va péter de Marseille à Paname et dans les rues de Felix piat y'a GDR en KTM Je compte pas de la même façon que Jean de La Fontaine, ma chérie accroupie toi j'ai pas l'habitude de dire je t'aime J'ai dû faire le chouf pour mes premiers TN, sur la bonbonne je voulais pas laisser d'ADN La juge l'a condamné il est bé-tom pour port d'arme, elle a même trouvé des photos dans son portable Force aux frères enfermés aux Baumettes ou à Bois d'Ar', même après des années ils mendient pas les mandats Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Midi</t>
+          <t>Pécho</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Uh-uh Uh À midi sur le hazi, pas eu l'temps d'prendre mon p'tit déj' Prendre mon p'tit déj' Les condés font l'tour d'la ville, ils ne'-tour comme un manège Comme un manège J'ai cogité toute la nuit, j'leur ai promis qu'j'allais finir au sommet Elle kiffe, elle remue son boule, elle kiffe, elle remue son boule Ma bella, fait tes valises, on part une semaine à Venise Et pétasse, fait la cuisine, pendant que je fais mes vocalises Depuis que j'recompte les kichtas, michto ne regarde plus la mocheté J'ai toujours pas réponse en mes questions, casse toi, baby, j'vais jamais t'accoster Ça fait déjà longtemps qu'on est maudit Ça fait déjà longtemps, tu nous connais À deux cents cinquante dans le Audi Longtemps qu'on fait d'la monnaie M'aimeras-tu autant quand j's'rai plus à la mode ? M'aimeras-tu autant ? M'aimeras-tu autant ? T'étais où quand j'détailler dans le taudis ? Dis-moi, t'étais où ? Dis-moi, t'étais où ? SHK SHK Okay Oui, oui Brr CNLM, no cap, CNLM, no cap CNLM, no cap Han Kodes La Barrière, Kodes La Barrière Oui, oui, oui, oui Chaud, chaud Brr, han Rien n'a changé sauf le prix du 100G Sauf le prix du 100G, j'me suis pas assagi Hey La bouteille et son gros cul s'agite Hey mais l'temps passe, il s'rait temps d'y songer Hey, hey, hey Les autres, c'est des jaloux, j'vendaient dehors, les mains gelé Shh, à onze heures, j'étais déjà là J'étais déjà là Il m'faut Rolex pour leur donner l'heure, comme d'habitude, c'est moi, j'ai le Okay J'suis dans la calle, j'recompte la kichta du showcase et je récupère en she-ca Je récupère en waye Ils savent déjà qu'on va les choqué, quand on arrive, ils sont chés-ca J'enlève pour chacun d'entre d'eux, j'te le dis d'entrée, même en jogging, faut pas rentré Tu connais mes chacals, chacals Chaud, mets-toi en retrait, j'ai la concu' dans un rétro Bye, bye, bye, bye Elle s'rappelle de moi, j'l'ai même pas regardé, si la beuh sent trop fort, j'pourrais pas la garder Hey, hey, hey Ma nouvelle kichta n'est pas bien accordée, j'fais d'la moula, y en a un plein qui sont pas ccord-d'a Bye, bye, bye, bye Charismatique, j'suis entouré d'ma team, on pourrait t'faire des trous et des hématomes Brr J'suis bourré d'malade, j'me suis fait la madame, la cocaïna revient tout droit d'Mada Y a du doré si tu veux fumar, tous les jours, j'suis bourré, j'suis comme Homer Ma vie a changé, je mange du homard, j'ai du Gucci, du Moncler dans mes inserts Yi-yih J'aime que les sous, j'ai pas trouvé l'âme sur Uh-uh, j'ai trop d'argent, elle va m'jeter un sort Uh-uh Baby me suce la bite dans l'ascenseur Uh-uh, le buzz évolue comme un escalator J'ai la coupe à Pucca Pucca, de-ze comme Fally Ipupa 'pupa Tu crois qu'tu peux nous la mettre ? T'es timbré, comme ceux qui fument le shit au ton-car, tocard Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM J'suis là que pour les dineros, toi, arrête ton numéro Y a que d'la moussos, j'ai assez d'gars pour chaque mytho Eh-eh, j'suis dans l'binks, j'suis avec Kodes pour braquer la SACEM Uh-uh Uh-uh</t>
+          <t>Tchiki, tchiki, tchiki, tchikita Mmh-mmh On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Mmh-mmh Yo, Joshi Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mmh-mmh Mais demain, ça ira A-avant d'être au Ulis, on était dehors avec maman Maman Donc, soit pas étonné quand j'dit qu'je revends depuis tout enfant Yih-yih Quand j'te donne, j'attends rien en retour Rien mais soit juste un peu reconnaissant Y a deux-trois bécanes dans tes pes-cli, tu nous parle de Baltimore 'timore A-arrête de dire de la merde, tu mens Tu mens, moi, j'ai bosser, j'ai pas eu d'chances Non Quand tu fait du papier, les gens, ils changent Ils changent J'fais des concerts dans tout l'hexagone, elle m'as vu sur scène, donc elle s'abonne S'abonne Elle monte dans l'Viano, elle se la donne S'la donne, j'vais lui faire plaisir, donc je m'abonne J'm'abonne À midi, faut libérer l'hôtel L'hôtel, une fois parti, j'me désabonne Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais-, mais demain, ça ira Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh J'ai charbonné tard, la nuit La nuit, sur la route y a les vils-ci, donc je me la cale ici Ici Que des pirates à bord quand j'navigue J'navigue, visser pas d'vant les tantines Les tantines J'la vends, tu mets dans tes narines Tes narines, mon baveux vient de Tel-Aviv Tel-Aviv J'peux laisser ton corps dans la rive Dans la rive, oint-j de Kétama quand j'déprime Quand j'déprime J'crois en Dieu, j'peux pas faire de crime Non mais si j'avais pas fait du pe-ra, j'aurais fini chasseur de primes Yih-yih Tu pourra pas m'mettre dans la sauce, ma belle, tout l'monde sait que j'suis un charo Charo De base, j'arracher des téléphones, soit contentes que j'veuilles ton numéro Numéro, eh-eh Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais demain, ça ira</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Midi Minuit #7</t>
+          <t>Pefra</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J'viens du côté du 91 réputé pour la vente de guedro Entouré de files de baptou donc logiquement y'a que des potos Que des potos en moins de 24 heures ça liquide que des kilos J'suis dans l'auto avec l'Ojozo y'a GD sur la moto J'arrondi mes fins de mois au pilon mais des fois j'ai des clients de zipette Y'a que du nau-je y'a pas de marron Rondo et Boseil dans la tchoupette Et j'ai du doré planqué sous mon cul On connait la rue tu crois la faire à qui Il parle dans mon dos pour salir ma répu Mais en face ils sont bons qu'à sucr ma bite J'suis dans le fond du binks le gérant fait ls comptes J'ai fais que du benef il s'en est même pas rendu compte Déterminé depuis le collège j'suis dans tout les charbons J'ai l'pétard gros pas besoin de faire de pompes Le keus est planqué au cas où y'aurait les condés Y'a que d'la qualité en plus de quantité Tout le monde est posté bosseur, guetteur Midi minuit dans l'binks J'ai ma conso Midi minuit dans l'binks Mes clopes, mes feuilles Midi minuit dans l'binks Faut faire des sous Midi minuit dans l'binks Les condés tournent Midi minuit dans l'binks</t>
+          <t>Grr Pas pour moi, pas pour moi, pas là pour moi Mafia, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, eh Sectra Mmh, mmh, eh, eh Genius Ouh oui Kepler, Gambino, c'est bête et méchant Oui, c'est l'oseille qui encaisse les mapesas Oh oui J'viens d'finir la 'teille, j'ai des pulsions Sheesh, Obélix, rajoute de la potion Putain d'merde, j'suis bourré comme un gars die Gars die, c'est ma paire de TN dans la gadoue Merde Les p'tits te demandent T'es un gars d'où ? Merde, j'baise re-noi, rebeu, gindou Han, shit, beuh, gue-dro, han, j'suis stylé mais j'traîne dans le ghetto, han Ouais On dégaine même pendant la genda Rrah, Opinel, on t'charcle et c'est comme a-ç Pas pour moi J'suis fonce-dé mais j'rallume un kamas balaise, la ppe-fra na ngai attire les boloss Viens Pour toi, j'suis trop savage, Kepler arrive comme une bastos Mafia Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me testPas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi J'rap trop la rue parce que j'connais que ça Hi, hi, à la cité, validé par les vrais Mmh, mmh Pilon qui brûle la beuh dans la massa, Rondo roule mon joint car j'ai les mains givrées Eh, eh Pour vider mon sac, j'mets tout dans ma sacoche et je vide ma sacoche pour me remplir les poches Brr, brr, brr J'suis avec Shelby au volant du Porsche Ok, on veut chiffrer mais les porcs nous empêchent Ok Que du tac au tac, j'peux pas t'push Mmh, mmh, on vend tout, coke, hasch' Mmh, mmh J'suis avec Kepler vers P.S.O Mmh, mmh, j'relance un autre flash Mmh, mmh Y a pas d'marron, y a que du jaune Mmh, mmh et du vert pistache Mmh, mmh Et si tu nous dois des dollars Mmh, mmh, avec ton sang, on t'tâche Eh, eh Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me test Pas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, mmh, mmh Mmh, mmh Mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Miné</t>
+          <t>Pilon</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Elle a pas de boul donc je l'as mets sur le tec Y'a pépin, j'ai l'pe-pom, gros y'a pas besoin de pec On fout l'feu au club, ce soir on fait la bringue Fais le fou, je t'éclate une bouteille sur la tête Y'a d'la haine dans mes textes beaucoup d'négros m'ont déçus Y'a le glock sur la table ta reu-seu est en dessous Elle mettait des vues, aujourd'hui j'lui mets dans l'cul J'pense aux gars des U qui sont toujours sous écrous J'en place là-bas comme Lotchi Louis Vuitton, Kenzo et Gucci La mala sans faire exprès comme Isma Sur la ble-ta, y'a l'salaire à ta tantine La teille fais la taille de la teub à ton tonton Fais belek ce soir, j'repars avec ta copine Tu cherches la merde, j't'allume chez ton daron Et j'prends ta reu-seu en leu-leu dans la cuisine J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné J'fais des passes d, j'suis attaquant Pas défenseur, j'vends d'la pasta Pas des pastèques, et quand y'a pépin, tu deviens pasteur De temps en temps, j'suis sur l'rainté J'cache le détail, dans l'ascenseur Fais attention, j'vais t'allumer Si tu t'approches sur un peu trop de mes p'tites surs D'la moula à gogo, je te rassures Ils ont pas d'oseille, c'est des grands bluffeurs Moi j'fais mes sous, j'fais mes études À mes heures perdues, je deviens rappeur Les têtes de ta cité m'en veulent Et les ti-peu d'chez toi m'envient À trop faire le fou tu peux finir seul Et un plus fou que toi t'enlèvera la vie J'suis dans le bâtiment Impossible de trafiquer tranquillement J'suis dans le bâtiment Impossible de trafiquer tranquillement C'est trop miné</t>
+          <t>Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li, Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Samy Lrzo Eh eeh Ah c'est des incapables C'est qu'avec moi bébé que toi tu t'vois Elle veut pas mlâcher Elle a cru que j'étais une star La veille pourtant elle voulait pas de moi, Han Han T'as beau t'mettre mutakala hum hum hum T'as beau t'mttre mutakala mon cur bébé non tu ne l'auras pas, tu l'auras pas Mes sntiments t'auras pas Mes sentiments t'auras pas, Hiy Hiy Elle veut finir avec moi Elle veut finir avec moi, Han Han Sac Chanel, Louis Vuitton la t'auras pas ça Elle m'dit qu'j'bombe aujourd'hui, elle m'dit qu' j'fais trop la star, Han Han T'aime trop parler devant les gens Hum hum Devant les gens Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli, Hum Hum Pilon zapata Pilonli pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Hunh hunh Gambino La MG, Samy Lrzo Elle m'dit qu'j'traîne trop dehors pire qu'un Sheguey J'valide ses paniers PLT, SHEIN Elle a trop de flow j'peux dead Chaque fin de mois elle change de wig Elle s'demande pourquoi j'fume autant d'weed Elle veut une histoire d'amour comme dans Creed Elle s'demande pourquoi j'aime autant la street Pour avoir mon attention elle enlève son string Gambino elle fait mal à la tête, Han han J'la connais c'est une meuf bien Samy t'inquiète La petite a grandi donc veut dire que sima ekoli Hayaya Amoroso amoroso, Oh la vie est belle Nabala kabibi T'aime trop parler devant les gens T'aime trop parler devant les gens Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Samy Lrzo, Gambino La MG Samy Lrzo le chouchou des mamans Gambino La M le chouchou des petites Pussy Pussy Pussy Dj MKZ Hin hin hin Pow ! Samy Lrzo c'est moi</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Moulala</t>
+          <t>Pop Smoke (Remix)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mmh-mmh Piou-piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah-yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Les condés enchaînent les bavures Bavures, ils veulent nous en faire baver Baver Si tu t'fais choper, sois pas bavard Bavard, il faudra juste payer le baveux Hi, hi Moi, j'faisais pas souvent mes devoirs Devoirs, j'préférais revendre du re-ve Re-ve J'voulais faire des billets violets Violets, viens dans ma zone, on est violents Eh-eh On joue d'la guitare, du violon, l'argent rend beau, de base, j'suis vilain Mmh-mmh J'veux juste me rapprocher du million Mmh-mmh, être populaire, ça, j'l'ai pas voulu Hi-hi J'té-cla un gros pét' au volant Volant, souvent pisté par la flicaille Non, j'me prends pas pour un dit-ban mais les grands te slashent comme des samouraïs Eh-eh J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala Hi-hi J'vendais la moula dans la Ciudad 'dad, j'suis dans la tchoupette aux gars J'coffee, j'me roule un pét' avec Dad Dad, j'ai trop fumé, je bad Je bad Tous les recoins d'la ville sont crades Sont crades, petit à petit, je monte en grade Mais il faut pas qu'je baisse ma garde Hi-hi, j'suis avec bandits, j'suis aux arcades Les tits-pe à la gare prennent tes AirPods, on m'dit Gambino, comment tu fais pour kicker sur n'importe quelle prod' ? J'fais la fête dans le cul d'ta folle D'ta folle Un peu de bédo, un peu d'alcool Mmh-mmh, si tu veux pé-cho, tu fais la file Mmh-mmh Deux par deux comme à l'école Mmh-mmh, eh-eh J'ai appris à faire avec le peu qu'j'avais Peu qu'j'avais, piou-piou Dans la ne-zo, j'ai trop zoné Trop zoné, piou-piou Il m'faut l'disque d'or à la son-mai Mmh-mmh J'suis dans l'bloc depuis midi, mon meilleur pote, c'est mon briquet Eh-eh, piou-piou Les rats dansent quand l'gros poisson est là Mmh-mmh, les rats dansent quand l'gros poisson est là, eh-eh On agit, on fait pas d'cinéma Mmh-mmh, on fait pas d'cinéma, eh-eh Dans l'bloc, j'y ai passé mes journées Yah, yah J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala J'vendais la moulalalala J'revends la moulalalala Dans l'bloc, j'y ai passé mes journées J'vendais la moulalalala J'vendais la moulalalala J'vendais la moulalalala</t>
+          <t>9.1.9.4.0 Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Si tu veux barber ma part Ensemble tout noir Under Armour J'ai le six coups dans mon armoire Deux mecs sur un T-Max, ça fait un mort J'ai raison même quand j'ai tord Mais ces putains veulent me faire taire J'fume du kamas, j'fais pas de sport C'est pas les abdos qui font la guerre J'fais la fête dans le cul de ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école Trahir ses copains, c'est pas cool Crache sur son dos mais tu check de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Et dans la kitchen C'est Blacky qui cook Beuh, Shit, Coke Comme Pop Smoke Nos ennemis on va les corriger Tant qu'ils ont pas compris la lecon J'fais ta guele la peufra au lycee J'ai pas de temps de reviser mes lecons A la cite, il y a tellement d'attaques de la BAC Qu'on en devient parano J'recup a 500G, j'fais mon benef d'argent le-sa Mais je m'eloigne du paradis Tu nous vois toute l'annee dans le bendo Quand le guetteur cri plus on benda Mon objectif c'est de ne pas finir pauvre Donc j'investis pas si c'est pas rentable Pour les faire caval j'ai trouve la methode Il en faut peu, juste on degaine un metal Nous racontes pas ta vie on sait que tu mythonnes T'es une bonhomme sur snap mais en vrai une pedale J'suis en Versacce, uh-huh Juns cantine sur le shit, uh-huh J'baise</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Next Up France - S1-E8</t>
+          <t>Rasta</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Mmh-mmh J'prends tout même si tu m'payes en centimes, j'ai d'quoi t'faire planer dans mon jean C'que j'ressens, personne peut l'sentir, personne, même les mecs de ma team On court tous après les thunes, j'suis bon qu'à l'faire pour ceux qui veulent dormir Plus l'succès augmente, plus ça s'empire, j'dors plus la nuit comme vampire J'suis dans les bagayes depuis longtemps, j'ai jamais changé de camp Tout pour le plata, tout pour le gang, de la rue, j'suis un militant Ton Glock, tu comptes l'utiliser quand ? J'suis avec ta go, j'la mugu, pan Dans tes sons, t'es un délinquant, ton Glock, tu comptes l'utiliser quand ? Oh J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt D'arrêt J'suis défoncé toute la soirée Soirée, j'ai d'la coke dans mon Dsquared Squared Gyros, ma mère la pute si j'm'arrête Si j'm'arrête, j'peux pas finir en maison d'arrêt Les Ulis, c'est pas Disney Land Ça vient d'où ?, j'te l'répète depuis 2017 Yih-yih Ramène-moi une cassette, j'te la dissèque J'te la dissèque, à l'époque, t'en n'avais pas pour plus 2.5 Plus 2.5 Ceux qui viennent pper-cho mes sons dans leurs enceintes, occupe-toi bien du lot s'il va t'en ramener cinq Y a zéro concurrence depuis qu'Tiakola a parlé du coffee, il est passé à quinze J'passe un coup d'fil à Camélia Camélia, sa pote demande si Kirby est là Est là J'lui dis que Kirby est là Est là mais qu'on reste pas toute la nuit là-bas Nan, nan J'fais ton salaire en trois pubs Snap', tu comprends pourquoi j'ai grave des sapes Tu comprends pourquoi j'fais grave des Snap', tu comprends pourquoi je n'tiens plus l'sac Eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Du te-shi, y en a, de la beuh, y en a, du filtré, y en a, d'la CC, y en a De l'héro', y en a, tout c'que tu veux, on a, de l'extasy, y en a Y a tout, eh-eh Drogue, monnaie, violence Violence, c'est mon quotidien Quotidien J'vais finir comme Fredo Santana Santana, je bois trop de lin Je bois trop de lin Si y a pas de Jolly Rancher Rancher, j'mets des Arlequins Harlequin J'volais partout où j'allais car j'viens du 9.1 Ouh-ouh Il a juste fait un vol portière Yih-yih, il nous parle de vol, de voiture Mmh-mmh Tu dois du djé, on te capture Mmh-mmh, tu vas tout cracher sous torture Mmh-mmh Et si tu veux t'faire la belle, j'envoie mon frère en filature Oh J'passe un traqueur dans ta voiture, imagine pas pouvoir t'enfuir Nan, nan, brr, brr J'aime trop le bédo, j'suis comme Homer et sa Duff Duff, Duff, brr Et jusqu'à mes dix-neuf, j'dépouillais toutes les teufs Teufs, teufs, gra-grah Ils m'contrôlent plus les keufs, sur moi, j'avais un neuf Neuf, neuf On vend la ppe-f', ppe-f', c'est pas du bluff, bluff Eh-eh Faut fidéliser la clientèle Clientèle et si mon bosseur veut m'la mettre, j'ai d'jà tout copié dans plusieurs tél' Plusieurs tél' Je les relance chaque fin d'semaine Fin d'semaine et ouais, gros, j'm'y connais dans c'domaine Dans l'game, j'fais partie d'ceux qui dominent Grah donc chaque matin, je dis Amen Gra-gra-grah J'suis dedans, j'ai capté l'truc Le truc, faut plus qu'je lâche le steak car il faut qu'je fasse croquer ma clique Ma clique Faut qu'je fasse gonfler ma cote Ma cote, tête de beau-gosse dans les clips Ah ouais ? mais si tu savais c'que j'ai en tête Ah ouais ? J'dois faire une passe d'un kil' Gra-gra-boum, eh-eh Comme Dougie B, j'danse le sturdy, j'm'en bats les couilles des schmitts J'dis tout dans mes textes comme Bobby, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous, les écoute pas, c'est des conneries Comme Dougie B, j'danse le sturdy Mmh-mmh, j'm'en bats les couilles des schmitts Mmh-mmh J'dis tout dans mes textes comme Bobby Mmh-mmh, robuste est mon équipe Mmh-mmh Next Up, c'est pas pour gole-ri Mmh-mmh Ils veulent tous faire les voyous Mmh-mmh, les écoute pas, c'est des conneries Mmh-mmh, gra-gra-boum</t>
+          <t>J'ai fait chanter Bédo à tes parents Non, non Y a pas de magie, j'y vais au talent Non, non Mmh-mmh Wesh, bande d'enculée 'culée, j'traîne qu'avec des tarés Tarés J'bouyave que des traînées, viens pas chez moi, c'est trop miné Yih-yih Tu t'faits hagar par des mineurs qui font rien d'autre à part zoner À part zoner Devant personnes j'vais m'incliner, j'ai mon , j'te fait saigner Eh-eh Dans-, dans le bât' pour des mapessas 'pessas, faire du sale, on est bon qu'à ça Qu'à ça Sur le trrain, j'mets des transversal Eh-eh T'a-, t'a rien vécu, donc parle pas d'rafales D'rafales De ma bite, ces putes ont raffole La notoriété attire les femmes Yih-yih, mmh-mmh, eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai fait chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard Ils ont libérez Zoulou du placard, sisse-Nar, bis-Cra, Skofra, j'bouge pas, j'suis dans l'ffic-tra Eh-eh Visser pas dehors, y a des caméras Elle veut m'voir quand j'suis dans l'Audi, pas dans le mi-cra Eh-eh Ma-, malgré la signature, je mange des grecs dans ma voiture Je sors le truc, on fait pas d'lutte Ah ouais ? J'suis dans la planque, on fait des trucs T'entends les Ulis, t'as le traque, tu veux pé-cho ? Vas sur le té-c' Vas sur le té-c' J'suis avec H, j'vis sous le porche, j'paye tout au bec Eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai faits chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>No Hook</t>
+          <t>Rentre dans le Cercle - Saison 3 : Épisode 4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Xanxuss... Yihi J'découpe en tranche la baguette de pain pour récupérer du blé du blé J'viens du côté du 91 réputé pour la revente de doré, quand y a seille-o, on y va d'emblée d'emblée, d'emblée grrr pah La drill Fr on va la faire trembler, le rap-game ouvre un nouvel onglet Si tu me dois des sous, j'vais t'étrangler si tu me dois des sous j'vais t'étrangler Le buzz augmente comme le prix du 100g J'veux la fortune à Gold D. Roger mais les condés veulent nous faire plonger On gratte partout comme des rongeurs hmm hmm Faut des billets toutes les couleurs couleurs Co-comme les power rangers hmm hmm C'est-c'est moi j'ai l'brassard brassard, j'vous laisse les dossards dossards Zoulou et Brazo m'ont dit qu'on remplirait des concerts J'ai du mal à y croire, j'suis encore forcé à vi-ser vi-ser Depuis tit-peu on est des poissards poissards, pourquoi pas vendre la poussière yihi, euheeeu Avec Mano et Nail SmithWesson au niveau de la taille anhan Dans la caille j'suis fonce-dé sous weed Bécane en i comme dans la cité à Creed Posté quand il fait chaud et quand il caille On est dans tout les plans on a faim on veut graille Les illes-cou chargées comme Beyoncé J'sors la guitare pour les faire danser. uuuuh J'porte mes couilles depuis l'époque d'la marelle Depuis les ça vient d'où ? à Massy-Pal' J'reprenais la mi-temps en sortant de l'école J'ai ves-qui la nat' et la municipale Laisse moi terminer tout mes dièses hmm hmm Terminer tout mes bails Le temps c'est de l'argent faut que tu pèses Depuis p'tit matrixer par l'oseille J'suis au tel' avec Mac Ten au placard Il dit qu'ça m'écoute en promenade Quand j'arrive ses jambes elle écarte yihi Gambino fait pas d'accolade J'suis free j'ai trop picolé j'fume la beuh verte comme Piccolo Nan j'suis pas un serial killer j'ai juste liquidé des kilos Nan le cartel fait pas d'pause et le guetteur crie ça passe J'ai la pefra sur ma paume quand j'la fume j'suis dans l'espace Et le client veut sa dose ouais dans l'escalier il s'gratte nan Pas d'marron que du jaune oui j'la fume j'suis dans l'espace Dans l'bâtiment 0 stress no stress dans la bre-cham j'tire ses tresses yihi Elle pompe que ma bite pas mon espèce hmm hmm J'fume que d'la moula j'suis dans l'espace hmm hmm Me fait pas d'coup d'crasse sa part en coup d'cross J'roule un kamas une fois dans l'carrosse Trop compétent pour être dans la sauce uuuuh Et mes teasers tournent comme la puce Ils ont retiré le bracelet à Soum Faut charbonner pour pas finir au sol Pour faire des sous nous on passe par le sale Revente de brocolis, de sable et de sel Elle kiffe le négro à ce qu'il paraît j'suis stylé Pourtant j'suis pas plus épais qu'un stylo Oh la pute elle veut mon buzz ou mon blé Elle aura rien c'est balo</t>
+          <t>Hmm Hmm Yiih Uh Uh Uh Uh Ma bite sur le palet des agents de la police Que des grosses têtes de beuh remplis de pollen Croco sur le polo, dehors ta beaucoup damis Mais au shtar peu de gens pourront tépauler Tu peux bluffer les ti-peus de la cité dans la ville Mais quand yavait pépin tétait pas la Tout les moyens sont bon pour faire de la skalape Nos chemins se séparent car ya trop de salopes Si cest pas lucratif tu vois pas ma tête Si on fait pas rentrer de biff ont fait pas la fête Elles sont pesées au me-gras les barrettes Gros tes venu pour pêche ou pour faire la cossette Le coffee fait 10 balles de recettes donc les cops et veulent trouver la recette Cest de la peu-fra les clients achètent Descente de bleus on se replie a la chatte Déconnecte toi de snap , regarde tes che-pos Ferme bien ta gueule une fois au ste-po Pour le respect jai pas eu besoin dêtre costaud Temps plein dans la cage non je suis pas claustro' Deuxième cercle big-up a Fianso Ils essayent en vain de me mettre dans la sauce Posés dans le bâtiment avec mes assos Un clicos vaut 10 pesos Ya assez de terrain pour que tout le monde bosse donc essaye pas trouver dexcuses Si tu fais pas 1 euro tabuses, même les 2005 font du flouz Loseille et le shit mapaisent donc le four ne fait pas d'pause En GAV faut que tu te taise ou a ta sortie on tarrose Uh uh A la base jétais bon a lécole sur le r jeffectuais mes heures de colles Argent facile quand la mi-temps est calme Mais quand les condés descendent cest pas cool Dans mon tieks ça plante comme a lescrime Touche un membre de léquipe yaura un drame Depuis que je fais des millions de streams Je connais plus léchec au près des dames Je suis chargée je reviens de dam' Jai déjà passé la douane Jarrive dans la ville cest trop rodave Donc je ralentis sur les dos d'ânes On vissers pas les même choses Pas les même doses On prend tes boloss tu vas rien faire Largent a de la saveur Donc mon bénéfice je le savoure</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Obito</t>
+          <t>Saison #5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Comme un boug qui s'fait qué-bra a J'peux pas baisser les bras a SI j'marie ta soeur y'aura pas de sang sur les draps a Moi baisé toi, lui, elle etc a Sur ta clique j'mise pas 1 franc CFA a J'suis sombre j'ai l'coeur couleur vitre teintée Quand le chat n'est pas la les souris volent sur le rrain-té J'veux du Prada, Christian Dior Dior si tu veux pas baiser dans la villa tu dors dehors Sur les semelles de mes loubous y'a des points noirs a force d'écraser ses cafards Tu m'as insulté quand j'vais niquer tes grands morts Tu vas dire que j'suis un hagar Mxique, Brésil j'déchire des fills sexy Eh p'tit débile j'débite j'évite les flics Technique précis j'écris des rimes terribles Trop d'appétit j'maitrise depuis petit J'ai fais un rêve yii yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh A la base j'suis pas mauvais j'ai eu mon bac et mon brevet J'vends le ne-jau et le rt-ve vient à Gaza si tu veux m'trouver Jm'enfui pas car j'suis bien entouré aqua j'ai du mal à respirer Faire du buzz c'est bien beau mais faut durer Si j'sors le pétard tu vas vibrer Plus d'inspi j'tire une barre sur le doré J'rentre chez toi masqué comme Obito Arrête de faire le narcotraficante on sait que t'a rien fais espèce de mytho Six du mat les condés font toc toc toc J'fais du p-ra pas du pop pop pop Paye moi ou tu finis comme Pop Smoke Trop d'clients le verraient en rupture de stock J'ai fais un rêve yiih yiih ou j'baisais la geisha et la gerta dans une voiture française hmmm hmmm Parait qu'elle est vierge remercie la p'tite par les fesses hmmm hmmm Je pense qu'au business j'ai du mal à la hess pshh pshh Du mal à la hess pshh pshh uuuuuuh Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du yiih yiih Laisse moi terminer tout mes dièses Le temps c'est de l'argent faut du hmmm hmmm Posé dans l'fond du tieks j'suis à l'aise hmmm hmmm Mais j'dois visser un ient-cli dans l' hmmm hmmm Laisse moi terminer tout mes dièses hmmm hmmm Le temps c'est de l'argent faut du uuuuuuh</t>
+          <t>Jsuis dans limport-export Jmenfuis que si jvois les porcs Cest les poches pleines et les glocks qui commandent Chez nous ya pas de loi du plus fort Jai raison même quand jai tord Dans sa chatte jtrouve du réconfort Elle veut plus de moi mais tellement jla tord Elle revient comme le marteau de Thor Pour les sous jpasse par le sale Et non jte parle pas des Gunners quand jte dis quon a lArsenal Jsuis titulaire comme Martial Pour des billets couleur Lakers jfaisais la toupie sur Paname Les Ulis cest summerhouse tout le monde veut faire écouter sa came Refrain Ya dla moula qui vient dEspagne Là beu-her vient de Dam Jnique pas doseille pour plaire aux femmes Oui jai tout mis dans lcellophane Tout est pesé au gramme Touche à Jody jvais faire un drame Faut qujencaisse AutomneHiver jsuis dans ltieks On est fullop dans la caisse On va descendre dans ta tess Cest la merde ÉtéPrintemps jsuis dans ltieks Jfais tout pour vesqui la hess Mais les jaloux veulent que jy reste</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>O-DOG #14</t>
+          <t>Seille-o #9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mmh-mmh Mmh-mmh Mmh-mmh Je suis dans la playlist de ta grande sur Grande sur Cétait un délire, ça prend d'lampleur D'lampleur On n'a fait des délits pour avoir du beurre Yih-hi On n'a connu lété gelé et la sueur La sueur Devant l'pe-pom, tu deviens pasteur Pasteur J'découpe, j'revends, j'fume la pasta Pasta Cest les cités, pourquoi tas peur ? Yih-hi Y a du sable bleu comme le sol dAlabasta J'traine avec des requins méchants comme Arlong Au comico', tout l'monde a perdu sa langue J'suis aux HP posé sur ma chaise Décathlon J'té-fri, jenroule, j'mets un coup de langue Yih-hi J'suis sur l'terrain, j'fais que des passements d'jambes J'fais un créneau, faut pas que je raye les jantes En c'moment, j'vois le vrai visage des gens, je vais couper les ponts et faire du 'gen' Rapide, efficace, quand cest pour le ness-bi, il faut pas trop faire, attendre les loss-bo Que des grosses folasses dans lAirbnb, j'vous mets tous R1, je taye avec bobo Rando et Posec sont dans la compo', tablette de ping-pong, glissé de sur yo Un peu de détail dans mon sac à dos J'faisais du bénef pour manger au McDo' Ok Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Huu-hu Je suis dans la cité pour de vrai Huu-hu Eux cest la cité pour de faux Yih-hi Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Arrêtez d'gratter des mesures dans vos textes, nous quand on écrit on remplit toute la feuille Toute la feuilles Cest pareil quand on roule des bédos Des bédos Qand on roule on remplit toute la feuille Toute la feuille Pour percer dans le rap faut trouver la faille Plaquette mais pas d'conso' dans ma fouille Bon il a rien trouver moi je taille, il sait pas qu'tout était bien calé dans mes couilles Couilles Je suis dans la cabine tout est noir Noir Les potos avant les meufs cest la loi Loi Jen aurai encore envie alléluia Alléluia Quand les keufs passent on leur fait que des doigts J'suis dans un gros fer, j'suis plus dans l'four Yih-hi Pour loseille on n'a le flair nous, on lèche pas de fouf' Tous les jours sous terre mais je suis vif Je suis dans les passes de plaquettes, je trouve pas de taff' Quelques fois je revends la zipette à des keush Jessaye d'faire ma marge par rapport au prix d'touche Par rapport au prix d'touche Pour aller faire le pu, j'disais à ma mère qu'jallais faire mes devoirs au clash Je suis dans la cité pour de vrai Eux cest la cité pour de faux Je suis dans la cité pour de vrai Eux cest la cité pour de faux Mais bon personne nest parfait, cest vrai que tout le monde a ses défauts Mmh-mmh Moi je suis dans la cité pour de vrai Yih-hi Eux cest la cité pour de faux Négro, insolent comme O-Dog O-Dog Insolent comme O-Dog On revendique le trafic de drogue De drogue Le trafic de drogue Négro, insolent comme O-Dog Yih-hi Négro, insolent comme O-Dog Yih-hi On revendique le trafic de drogue Négro, insolent comme O-Dog Eh-hee</t>
+          <t>Hii-Hii Si j'sors le pétard ils vont sursauter, gros j'suis dans les diez Faut pas venir a Gaza c'est trop risqué, les p'tits t'arrachent si tu pèse Barod' a fond dans la Merco-Benz La miss veut toujours que je la baise Si je suis pas au studio je fais des passes Negro prêt a tout pour faire de l'espèce Viens chez nous tu te fais masser comme au kiné On fait pas de pause on est pas dans le mannequinat J'passe à la télé mais j'fais pas de ciné J'suis passé sur L'équipe, Trace Urban et Canal Ca bibi dans la tour et à la puce Ya ceux dans la dur et ceux dans la douce Ca rabat ls potos à l'arrêt de bus Si y a heja y a Brazo à la rescousse J'suis dans le bat' pour faire des sous, dans le bat' faut faire des sous Grosse file indienne, dans l'fond du binks et tous les yenclis s'poussent J'veux sortir de l'anonymat, le pestu c'est trop miné Au cas où ca finit mal, heureusement pour moi que j'ai étudié Il m'faut du seille-o, plein de zéros dans mon ptecom J'suis dans le merco, elle veut venir me pépom Il faut que ca pète Oooh, faut faire vivre le tiekson Il me faut du seille-o, plein de zéros dans mon ptecom</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>One Time</t>
+          <t>Session freestyle avec Gambino la MG, Olazermi, Laskiiz &amp; Negrito</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
+          <t>Ça dit quoi ma beauté ? T'es mimi Hey, hey Hey, hey, hey Ouh eh Ouh, ouh Ça dit quoi ma beauté ? T'es mi- Hey, hey Hey, hey Brr, paw Brr, brr Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile m titille On a fait le trajet, trajt, trajet, trajet Gue-dro dans l'sachet, sachet, sachet, sachet On connaît l'danger, danger, danger, danger Mais on veut manger, manger, manger, manger J'suis avec, il a caché l'fusil sous l'plancher Y a de la, pour animer tes soirées branchées On voulait brasser, bien avant de savoir nager Libérez tous ceux qui ont plongés J'me revois menotter sur le canapé Aujourd'hui, Negrito passe sur Booska-P J'ai dealé pour le papier, pas pour l'raper Si je t'ai donné, c'est pas pour t'le rappeler On m'a dit qu'il faut faire la guerre pour la paix Donc on fait la guerre aux gardiens de la paix Rancunier, tu m'as trahi, j'ai pas zappé La CC, faut la vendre, faut pas la taper Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier hey, hey Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier ouh Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Ti na Kotazo On n'est pas des mythos</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>On se connaît</t>
+          <t>Shatta</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>On est dans le binks on fait le bénéf, on fait le pain les jaloux chenef On fait le cash express on consomme la somme importe peu, la cuenta n'effraie plus personne La petite aime quand le bolide fait vroum que le profil est louche que le CV est lourd Les petits ont des couilles, la petite a du gout, Chanel Gucci semelle rouge Le four tourne midi minuit non-stop, drogue store veni vidi block story Grosse douille les gosses tourne en I8, grosses couilles on règle tout avant minuit Tu les écoutes y a tout qui s'écroule, ils m'dégoutent respect aux vrais couz' comme Jul tes couilles faut tout j'découpe Chaud comme Sampaoli on a fait cent fois Holine, on vit des temps chaotiques beaucoup de cents pas hors line C'est le grand Classico bienvenue au hazi rho, on a c'qui faut Que du sale niveau pour les tchikita et les carlito Y a Stone Black Sheïr As Gambino La MG grosse frappe Ryad Mahrez on pilote l'AMG Aketo Naps Aladin Kalsh l'Afro couplet tar sahr à la fin tu tires l'chapeau Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je traverse le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant Les affaires vont pas trop mal, j'dois recompter la moula Grosse comme la Taj Maal j'sais pas quoi faire Cambrée comme la bécane la petite veut le Macan Les DM sur Instagram j'sais pas quoi faire On se connait on se comprend, mon collègue mon sang du Nord vient la puissance carré rouge flip ça fait nuit blanche Petite chaise pliante petite cliente t'as fait le browhing et la petite frange Sur la XXX on me confond avec le Naps, la rue c'est sombre on danse avec le diable Et l'état pour la vendetta, j'fais les tasses pour la grande mi-fa Kiffe-nous le zin fais caler le joint, tu m'vois dans la joie mais la street c'est la jungle Merci le J mc's j'suis pas à jeun merci le bon Dieu je sais que j'suis pas à plaindre Même si j'en ai trop fait, les courses pour la daronne, les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'ai soti le berrta je sais pas si tu comprends, c'est l'époque carré rouge l'époque tar l'Afgan Et moi je suis un sniper on a tout vu du balcon, j'suis avec la chica elle a le sourire des balcans Sur moi j'ai de la popo, on a jamais fait les totos, va dire au gendarme y'a son fiston qui veut une photo Toi j'tavais cala mais en fait t'as la boco, dans la merde t'étais pas là quand je dormais dans la clio Et ça fait mal au cur t'es plus le sang on se croise de temps en temps Comme le brinks à côté de Font vert j'écoutais Puissance Nord, retour dans le temps L'humain a quadrillé le secteur caméras projecteurs l'équipe est chaude organisée c'est le danger Derrière nous y a que des braqueurs des dealers et des gratteurs y a que des gros tu vois le mzé c'est mélangé Ouais comme le J, on parle pas, on agit, on dort, t'imagine, on perd pas la magie On m'a dit pourquoi tu perces pas, à ton avis cherche pas c'est la vie mais j'reste dans l'anthologie T'as vu le hebs, y a trop de serpents crocodiles ne sers pas j'te le dis tu sors quand vendredi Y a les khos qui m'attendent, j'traine pas mon ami, gauche, droite ça va vite bang, bang Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant J'suis dans le RS non-man, je l'intéresse la nuit on fait nos vies on va peut-être mourir à l'adresse J'suis dans le film y a le reflet dans ses yeux, ils sont plus là ceux qui disent que hier c'était mieux Ça danse le mia dans la calle c'est ma jolie, elle sourit, elle donne du bonheur même au bord de l'agonie Malgrès les cicatrices elle sort avec le dos nu, elle fume le filtre et la peufra de Lucas tony Elle m'a tué elle m'a réanimé la rue toute seule nous a contaminé Ils me disent comment comme si c'était inné, j'suis seul dans le noir mon âme est abîmée On se connait depuis l'époque du bas à sable, du coup aujourd'hui il boude il voulait gratter la Sacem Ce projet va péter de Marseille à Paname et dans les rues de Felix piat y'a GDR en KTM Je compte pas de la même façon que Jean de La Fontaine, ma chérie accroupie toi j'ai pas l'habitude de dire je t'aime J'ai dû faire le chouf pour mes premiers TN, sur la bonbonne je voulais pas laisser d'ADN La juge l'a condamné il est bé-tom pour port d'arme, elle a même trouvé des photos dans son portable Force aux frères enfermés aux Baumettes ou à Bois d'Ar', même après des années ils mendient pas les mandats Même si j'en ai trop fait, les courses pour la daronne les cents pas dans la zone Marseille je te connais t'as pris mon corazon, j'vois les frères qui charbonnent Arrah y a les condés, dans le tieks ça klaxonne ça fait passer la tonne Et tout ça ouais on connait, Paris on se connait Je veux traverser le temps je veux revenir à l'époque, quand on était des mômes là c'est plus comme avant</t>
+          <t>Ghost Killer Track, bébé Mon papa ne veut pas Hum-hum, mon papa ne veut pas Hum-hum Mon papa ne veut pas que je danse, que je danse Mon papa ne veut pas Hum-hum, hum-hum, j'vide la 'teille sur son cavu, mon papa ne veut pas Ha, argh Mon papa ne veut pas que je danse, que je danse Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Hi J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Y a pas d'Netflix, j'viens pour chiller, j'ai chaud, j'enlève mon gilet Cette pute, elle s'appelle Julie, elle est sous ballon, cerveau gelé Elle vient des Antilles, elle sait bien cambrer J'fais que des va-et-vient sur son gros cavu J'vide ma 'teille sur son gros cavu Mon papa ne veut pas, j'vide ma 'teille sur son gros cavu Mon papa ne veut pas Hum-hum, j'vide ma 'teille sur son gros cavu Hum-hum Mon papa ne veut pas Hum-hum, gros cavu Uh-uh Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Ouh J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Uh-uh Elle veut dance sur ma bite, elle s'colle J'vide ma teille sur son gros cavu, elle whine sur moi sur du Sean Paul Shake, shake, shake, shake J'ai mis sa jambe sur mon épaule Hum-hum, uh-uh, j'la casse comme si elle m'doit des talles J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pécho</t>
+          <t>Smackdown #2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tchiki, tchiki, tchiki, tchikita Mmh-mmh On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Mmh-mmh Yo, Joshi Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mmh-mmh Mais demain, ça ira A-avant d'être au Ulis, on était dehors avec maman Maman Donc, soit pas étonné quand j'dit qu'je revends depuis tout enfant Yih-yih Quand j'te donne, j'attends rien en retour Rien mais soit juste un peu reconnaissant Y a deux-trois bécanes dans tes pes-cli, tu nous parle de Baltimore 'timore A-arrête de dire de la merde, tu mens Tu mens, moi, j'ai bosser, j'ai pas eu d'chances Non Quand tu fait du papier, les gens, ils changent Ils changent J'fais des concerts dans tout l'hexagone, elle m'as vu sur scène, donc elle s'abonne S'abonne Elle monte dans l'Viano, elle se la donne S'la donne, j'vais lui faire plaisir, donc je m'abonne J'm'abonne À midi, faut libérer l'hôtel L'hôtel, une fois parti, j'me désabonne Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais-, mais demain, ça ira Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh J'ai charbonné tard, la nuit La nuit, sur la route y a les vils-ci, donc je me la cale ici Ici Que des pirates à bord quand j'navigue J'navigue, visser pas d'vant les tantines Les tantines J'la vends, tu mets dans tes narines Tes narines, mon baveux vient de Tel-Aviv Tel-Aviv J'peux laisser ton corps dans la rive Dans la rive, oint-j de Kétama quand j'déprime Quand j'déprime J'crois en Dieu, j'peux pas faire de crime Non mais si j'avais pas fait du pe-ra, j'aurais fini chasseur de primes Yih-yih Tu pourra pas m'mettre dans la sauce, ma belle, tout l'monde sait que j'suis un charo Charo De base, j'arracher des téléphones, soit contentes que j'veuilles ton numéro Numéro, eh-eh Viens au dix-sept, résidence j'suis entrée Entrée Aucun résident s'met au plaid Yih-yih Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Yih-yih Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Adresse-toi au petits Au tits-pe, si tu veux quelque choses Si tu veux Y a du bon te-shi Du je-nau, si tu veux pé-cho Eh-eh Viens au dix-sept, résidence j'suis entrée Aucun résident s'met au plaid Si tu veux pé-cho Eh-eh, si tu veux pé-cho Eh-eh Tchiki, tchiki, tchiki, tchikita Pfiou On fume, on vole, on dealent, en vrai, parce qu'on connaît que ça Pfiou, pfiou Tu pense qu'on fait pour frimer mais dans la rue, c'est comme ça Mmh-mmh Soit tu passe avec les souris, soit tu passe traîne avec les rats Mais demain, ça ira</t>
+          <t>Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdown SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdowns SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles J'suis dans l'ghetto, y'a mes rho Pas de guerre dacides comme à Tottenham J'fais des temps pleins au studio J'me la but pour soulever le totm M.D au volant donc je m'inquiète pas Passager, j'roule un pétard Zaïrois pas trop fêtard C'est dans la zone que je traîne tard J'découpe en tranche la baguette de pain pour récupérer du blé Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doublés Si j'sors le pétard, ils vont sursautés Tes pseudos-rappeurs les sur-côtés Et Crobax me fais la passe Cest le poto va dans le petit filet</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pefra</t>
+          <t>Sobieski #4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Grr Pas pour moi, pas pour moi, pas là pour moi Mafia, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, eh Sectra Mmh, mmh, eh, eh Genius Ouh oui Kepler, Gambino, c'est bête et méchant Oui, c'est l'oseille qui encaisse les mapesas Oh oui J'viens d'finir la 'teille, j'ai des pulsions Sheesh, Obélix, rajoute de la potion Putain d'merde, j'suis bourré comme un gars die Gars die, c'est ma paire de TN dans la gadoue Merde Les p'tits te demandent T'es un gars d'où ? Merde, j'baise re-noi, rebeu, gindou Han, shit, beuh, gue-dro, han, j'suis stylé mais j'traîne dans le ghetto, han Ouais On dégaine même pendant la genda Rrah, Opinel, on t'charcle et c'est comme a-ç Pas pour moi J'suis fonce-dé mais j'rallume un kamas balaise, la ppe-fra na ngai attire les boloss Viens Pour toi, j'suis trop savage, Kepler arrive comme une bastos Mafia Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me testPas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi J'rap trop la rue parce que j'connais que ça Hi, hi, à la cité, validé par les vrais Mmh, mmh Pilon qui brûle la beuh dans la massa, Rondo roule mon joint car j'ai les mains givrées Eh, eh Pour vider mon sac, j'mets tout dans ma sacoche et je vide ma sacoche pour me remplir les poches Brr, brr, brr J'suis avec Shelby au volant du Porsche Ok, on veut chiffrer mais les porcs nous empêchent Ok Que du tac au tac, j'peux pas t'push Mmh, mmh, on vend tout, coke, hasch' Mmh, mmh J'suis avec Kepler vers P.S.O Mmh, mmh, j'relance un autre flash Mmh, mmh Y a pas d'marron, y a que du jaune Mmh, mmh et du vert pistache Mmh, mmh Et si tu nous dois des dollars Mmh, mmh, avec ton sang, on t'tâche Eh, eh Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Mmh, mmh, c'est nous les méchants de la ville Mmh, mmh, détaille la ppe-fra dans la veu-c' Mmh, mmh, c'est nous les méchants de la ville, ah Eh-eh J'mens pas dans mes textes Jamais, on m'connaît dans la tess C'est vrai J'ai l'6.35 coffré au cas où Rrah, ces cons veulent me test Pas pour moi, pas pour moi J'mens pas dans mes textes Jamais, on m'connaît dans la tess Vraiment J'ai l'6.35 coffré au cas où Eh, eh, eh, ces cons veulent le test Ouh, mmh, mmh C'est moi, j'ai l'sac de ppe-fra Mmh, mmh, sac de ppe-fra, wow Mmh, mmh La rue, c'est nous, la rue, c'est vous, la rue, c'est eux C'est nous Sur moi, j'ai l'sac de ppe-fra, sac de ppe-fra, wow Mmh, mmh, c'est eux La rue, c'est nous, la rue, c'est vous, la rue, c'est eux Pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, c'est Kepler, pas Vénus Mmh, mmh, yi-ha Mmh, mmh, pas pour moi, pas pour moi, pas là pour moi Mmh, mmh, mmh, mmh Mmh, mmh Mmh, mmh</t>
+          <t>Guetteur crie ça passe à l'affût des gyros On fait tomber d'la neige comme au Jura Si y'a pépin y'a Shelby et Jiren Tu fais moins le gérant tu commences à jurer J'revends le ne-jau depuis que j'suis ne-jeu J'oublie ceux qui m'ont déjà fait manger Demande à RV demande à Barjo Depuis tout p'tit dans l'oseille on veut nager Clope, feuille, briquet chez le pakat 2,2 dans le pocket Et si t'es pas trop sur tes gardes on t'hagar comme la Team Rocket J'suis dans la playlist de ta grande soeur Elle m'suit sur Insta et sur Twitter Eh oui y'a que le travail qui paye J'suis la star local de mon secteur Faire du biff c'est pas compliqué J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'ai bosser à la puce et au block Negro insolent comme O-DOG Negro insolent comme O-DOG Faut m'vesqui si j'sors le shhhh J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski On vend d'la neige les tournées fait du ski On vend d'la neige les tournées fait du ski J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski Et quand y'a les condés qui bravesqui Et quand y'a les condés qui bravesqui</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pilon</t>
+          <t>Sse-Di #10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li, Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Samy Lrzo Eh eeh Ah c'est des incapables C'est qu'avec moi bébé que toi tu t'vois Elle veut pas mlâcher Elle a cru que j'étais une star La veille pourtant elle voulait pas de moi, Han Han T'as beau t'mettre mutakala hum hum hum T'as beau t'mttre mutakala mon cur bébé non tu ne l'auras pas, tu l'auras pas Mes sntiments t'auras pas Mes sentiments t'auras pas, Hiy Hiy Elle veut finir avec moi Elle veut finir avec moi, Han Han Sac Chanel, Louis Vuitton la t'auras pas ça Elle m'dit qu'j'bombe aujourd'hui, elle m'dit qu' j'fais trop la star, Han Han T'aime trop parler devant les gens Hum hum Devant les gens Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli, Hum Hum Pilon zapata Pilonli pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Gambino La MG Eratakate oh oui Ça dit quoi ma beauté t'es jolie La journée j'ai ves-ki les Pilonli Le soir même j'ai fini dans son lit Hunh hunh Gambino La MG, Samy Lrzo Elle m'dit qu'j'traîne trop dehors pire qu'un Sheguey J'valide ses paniers PLT, SHEIN Elle a trop de flow j'peux dead Chaque fin de mois elle change de wig Elle s'demande pourquoi j'fume autant d'weed Elle veut une histoire d'amour comme dans Creed Elle s'demande pourquoi j'aime autant la street Pour avoir mon attention elle enlève son string Gambino elle fait mal à la tête, Han han J'la connais c'est une meuf bien Samy t'inquiète La petite a grandi donc veut dire que sima ekoli Hayaya Amoroso amoroso, Oh la vie est belle Nabala kabibi T'aime trop parler devant les gens T'aime trop parler devant les gens Samy Lrzo J'fume mon Pilon Pilon Derrière moi y'a les poulets poulets Yakala Pilonli Pilon zapata Pilon-li Pilon zapata J'fume mon Pilon Pilon Mon Pilon qui fait tousser tousser Yah Pilonli Pilon zapata Pilonli Pilon zapata Samy Lrzo, Gambino La MG Samy Lrzo le chouchou des mamans Gambino La M le chouchou des petites Pussy Pussy Pussy Dj MKZ Hin hin hin Pow ! Samy Lrzo c'est moi</t>
+          <t>L'argent facile en vrai cest dur Mais à la hess on va pas céder Jveux du papier pour quitter la u-re Mais pour l'instant faut qu' jvende des CD Des CD, pour l'instant faut qu' j'vende des CD Mon negro j'ai trop vendu d' sse-di Pour l'instant faut qu' jvende des CD x2 Le réseau sest fait remonter donc on reprend tout à la case départ Libérez Zoulou, Yougo, Biscra et tous les mecs d'la ville au schtar 9,2 grammes dans le pochtar On se lève tôt pourtant on se couche tard Dans l secteur cest moi la star, donc lle se déshabille et j'baisse les stores Toute l'année à l'affût des porcs, sur les photos de CR on tape la pose On mdit Gambino t'es trop fort, la machine est lancée faut plus faire de pause Vient dans ma zone si tu l'oses, on fait enlever l'iCloud de ton iPhone 11 Jsuis dans le bloc si tu veux ta dose, j'ai mon paquet de masse, mes clopes, ma cons Jsuis pas dans le suçage de bite C'est carbo mais ça débite Chaque jour la flicaille nous embête, j'ai jamais mit les pieds en boîte J'prefere voir GD sur le compet ou voir MD frotter la bavette Ça defourraille des Et si tu détournes on te fait ta fête L'argent facile en vrai c'est dur Mais à la hess on va pas céder Jveux du papier pour quitter la u-re Mais pour l'instant faut qu' j'vende des CD Des CD, pour l'instant faut qu' j'vende des CD Mon negro j'ai trop vendu d' sse-di Pour l'instant faut qu' j'vende des CD x2</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pop Smoke (Remix)</t>
+          <t>Summerhouse #11</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9.1.9.4.0 Viens faire le tour de ma ville Tout les 500 mètres, y'a un terrain d'bédo Elle m'appelle quand j'suis dans le merco Zéro coup d'fil quand j'suis dans le clio Faut ves-qui les giros J'suis dans l'block avec tout mes négros Y'a les porcs, je m'enfuis plus vite que Si tu veux barber ma part Ensemble tout noir Under Armour J'ai le six coups dans mon armoire Deux mecs sur un T-Max, ça fait un mort J'ai raison même quand j'ai tord Mais ces putains veulent me faire taire J'fume du kamas, j'fais pas de sport C'est pas les abdos qui font la guerre J'fais la fête dans le cul de ta folle Elle peut dead sur ma bite, elle s'colle J'prenais la mi-temps en sortant de l'école Trahir ses copains, c'est pas cool Crache sur son dos mais tu check de l'épaule Et j'aime pas que la police me fouille Avant qu'ils soient là, j'ai déjà décale Beuh, Shit, Coke J'suis dans le fond du block Et si tu dois du fric Tu finis comme Pop Smoke Et dans la kitchen C'est Blacky qui cook Beuh, Shit, Coke Comme Pop Smoke Nos ennemis on va les corriger Tant qu'ils ont pas compris la lecon J'fais ta guele la peufra au lycee J'ai pas de temps de reviser mes lecons A la cite, il y a tellement d'attaques de la BAC Qu'on en devient parano J'recup a 500G, j'fais mon benef d'argent le-sa Mais je m'eloigne du paradis Tu nous vois toute l'annee dans le bendo Quand le guetteur cri plus on benda Mon objectif c'est de ne pas finir pauvre Donc j'investis pas si c'est pas rentable Pour les faire caval j'ai trouve la methode Il en faut peu, juste on degaine un metal Nous racontes pas ta vie on sait que tu mythonnes T'es une bonhomme sur snap mais en vrai une pedale J'suis en Versacce, uh-huh Juns cantine sur le shit, uh-huh J'baise</t>
+          <t>Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir prcé, d'avoir percé Big up à ceux qui m'ont donner la forc big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came J'suis la prochaine pépite du 91 On vend d'la frappe nous pas de CBD On vient tout graille igo on a faim C'est les cités c'est pas une BD Ça vient du côté ouest de l'Essonne-geles Elle est nne-bo mais de son cul j'me lasse J'aime le respect pas la politesse Cette année il faut qu'je brasse Aux Ulis y'a tellement de terrains de be-her Qu'ça déborde même la police Et pour minimum 50 hertz on vient te livrer ton colis J'te voulais juste dans mon lit si j't'ai fais du mal j'suis sorry Ils font tout comme nous ça me fait gol-ri, hmhm Meilleur de notre catégorie Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir percé, d'avoir percé Big up à ceux qui m'ont donner la force big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came Quand tu l'a té-fri la beuh fait crack GTR la bécane il la cabre J'prends des selfies pendant qu'j'l'a cambre pour ma story X privé sur Snapchat Le bonheur et la mort s'achète Certains négros payent même pour de la chatte Ça sera pas du basket si j'te shoot En primaire je chipper dans les sacs à dos j'étais discret pas comme Chipeur En attendant que ça pète j'suis dans le bendo j'vends la médicinal comme Chopper On fait pas de tiépi si c'est pour du biff on va te chopper Si t'es pas d'ici vide tes che-po Déter depuis l'époque d'la chapka déter depuis l'époque d'la chapka Beaucoup d'négros bannis parce que la rue c'est cru, parce que la rue c'est cru, cru, cru J'veux voir GT sur un pot Akra sur un pot Akra À la base j'le revendais mais j'suis devenu accro, accro Et peut-être car j'ai du cran, cran J'aime quand le she-fla est corsé j'aime quand le she-fla est corsé Mes negro sont dangereux comme en Corse comme en Corse Ils nous envient alors qu'on est encore très loin d'avoir percé d'avoir percé, d'avoir percé Big up à ceux qui m'ont donner la force big up à ceux qui m'ont donner la force Pour les plans sous pas d'chinois chinois J'te ferais pas d'schéma En ce moment j'suis sur l'bon chemin J'ai mis d'côté le bâtiment Tout le monde glissait la patinoire Les Ulis c'est Summerhouse Tout le monde veut faire écouler sa came</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Rasta</t>
+          <t>Tana</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J'ai fait chanter Bédo à tes parents Non, non Y a pas de magie, j'y vais au talent Non, non Mmh-mmh Wesh, bande d'enculée 'culée, j'traîne qu'avec des tarés Tarés J'bouyave que des traînées, viens pas chez moi, c'est trop miné Yih-yih Tu t'faits hagar par des mineurs qui font rien d'autre à part zoner À part zoner Devant personnes j'vais m'incliner, j'ai mon , j'te fait saigner Eh-eh Dans-, dans le bât' pour des mapessas 'pessas, faire du sale, on est bon qu'à ça Qu'à ça Sur le trrain, j'mets des transversal Eh-eh T'a-, t'a rien vécu, donc parle pas d'rafales D'rafales De ma bite, ces putes ont raffole La notoriété attire les femmes Yih-yih, mmh-mmh, eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai fait chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard Ils ont libérez Zoulou du placard, sisse-Nar, bis-Cra, Skofra, j'bouge pas, j'suis dans l'ffic-tra Eh-eh Visser pas dehors, y a des caméras Elle veut m'voir quand j'suis dans l'Audi, pas dans le mi-cra Eh-eh Ma-, malgré la signature, je mange des grecs dans ma voiture Je sors le truc, on fait pas d'lutte Ah ouais ? J'suis dans la planque, on fait des trucs T'entends les Ulis, t'as le traque, tu veux pé-cho ? Vas sur le té-c' Vas sur le té-c' J'suis avec H, j'vis sous le porche, j'paye tout au bec Eh-eh Y a pas de magie, j'y vais au talent Mmh-mhh, eh-eh J'ai faits chanter Bédo à tes parents Mmh-mmh, la ppe-fra viens d'Hollande Nouvelle pépite comme Haaland T'es pas l'bienvenue dans ma bande Les Ulis, c'est pas Disneyland J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta J'roule encore un joint d'beuh Beuh, tout les soirs, j'suis khapta 'ta J'roule encore un joint d'beuh Beuh, j'm'enfume comme un Rasta 'sta, mmh-mmh, j'm'enfume comme un rasta Y a, y a ma tête sur les pochtards Ma tête sur les pochtards J'suis écouté par les zonards Zonards Pour mes taulards, j't'envoie une meuf pour un traquenard Traquenard Ils ont libérez Zoulou du placard</t>
+          <t>Quand jétais petit Uhuh Je me rappelle quand j'étais p'tit, j'regardais des films de cul sur l'ordi Au lycée, j'étais à fond dans l'deal, retour du prime, GLM qu'est-ce qu't'en dis? J'ai regardé Menace to Society et j'suis parti braquer une épicerie Je zip, autour de moi, trop d'faux, j'ai fait un tri MDK, si il est sérieux dans les affaires, une fois qu'il a tes accès, y a rien à faire non non Une fois qu'il a tes accès, y a plus rien à faire non non Après ça, t'iras demander des sous à ta mère J'suis dans ma piscine, vu sur la ouh j'suis dans ma piscine, vue sur la mer On les voyait pas quand on faisait la ouh on les voyait pas quand on faisait la guerre J'en, j'envoie un p'tit à la banque, moi, j'suis trop populaire Ils font les lanceurs, c'est des bénéficiaires, le télégramme de Kirby a sauté sa mère mère Faut qu'j'envoie des PCS à mon p'tit frère, il est au D1 avec les mecs de Zola de Zola Dans ma famille, y a que des gangsters, tous les pères de famille, c'est des anciens taulards Uhuh En ce moment, j'suis en pétard, j'fais que du son pour les charos, ceux qui s'couchent tard J'me rappelle, j'roulais mes joints au fond du car Aujourd'hui je roule en vélard Ils font d'plata, ils ont pas d'plata plata, que du blabla Zéro tracas, c'est des incapables, avec eux j'suis obligé d'être un bâtard Que des m'bata, j'suis avec le Da, Esko et Nine J'reviens pour tout niquer, j'ai plus le time Obligé de baiser, Willy le Borgne, j'suis à Mobali, j'suis avec la L J'suis avec le Da, Esko et Nine J'reviens pour tout niquer, j'ai plus le time Obligé de baiser, Willy le Borgne, j'suis à Mobali, j'suis avec la L Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Elle c'est une tana des tana, tana des tana des tana uhuh Mais j'l'aime bien, elle est belle c'est un pain Ça finit en goumin, elle vie pour les caméras on s'croirait sur TF1 J'suis un mec du 9-1, quand tu me croises check bien Sinon sinon ça peut en venir aux mains Elle c'est une tana mais j'l'aime bien Elle c'est une tana des tana, tana des tana des tana Mais j'l'aime bien Elle c'est une tana des tana, tana des tana des tana Mais j'l'aime bien Mmh mmh, mmh mmh, mmh mmh Brr, mmh mmh</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Rentre dans le Cercle - Saison 3 : Épisode 4</t>
+          <t>TMD #3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hmm Hmm Yiih Uh Uh Uh Uh Ma bite sur le palet des agents de la police Que des grosses têtes de beuh remplis de pollen Croco sur le polo, dehors ta beaucoup damis Mais au shtar peu de gens pourront tépauler Tu peux bluffer les ti-peus de la cité dans la ville Mais quand yavait pépin tétait pas la Tout les moyens sont bon pour faire de la skalape Nos chemins se séparent car ya trop de salopes Si cest pas lucratif tu vois pas ma tête Si on fait pas rentrer de biff ont fait pas la fête Elles sont pesées au me-gras les barrettes Gros tes venu pour pêche ou pour faire la cossette Le coffee fait 10 balles de recettes donc les cops et veulent trouver la recette Cest de la peu-fra les clients achètent Descente de bleus on se replie a la chatte Déconnecte toi de snap , regarde tes che-pos Ferme bien ta gueule une fois au ste-po Pour le respect jai pas eu besoin dêtre costaud Temps plein dans la cage non je suis pas claustro' Deuxième cercle big-up a Fianso Ils essayent en vain de me mettre dans la sauce Posés dans le bâtiment avec mes assos Un clicos vaut 10 pesos Ya assez de terrain pour que tout le monde bosse donc essaye pas trouver dexcuses Si tu fais pas 1 euro tabuses, même les 2005 font du flouz Loseille et le shit mapaisent donc le four ne fait pas d'pause En GAV faut que tu te taise ou a ta sortie on tarrose Uh uh A la base jétais bon a lécole sur le r jeffectuais mes heures de colles Argent facile quand la mi-temps est calme Mais quand les condés descendent cest pas cool Dans mon tieks ça plante comme a lescrime Touche un membre de léquipe yaura un drame Depuis que je fais des millions de streams Je connais plus léchec au près des dames Je suis chargée je reviens de dam' Jai déjà passé la douane Jarrive dans la ville cest trop rodave Donc je ralentis sur les dos d'ânes On vissers pas les même choses Pas les même doses On prend tes boloss tu vas rien faire Largent a de la saveur Donc mon bénéfice je le savoure</t>
+          <t>Et toute l'année on a compté MD s'fait chasser par les motards Et nan c'est pas pour galérer que chaque mois tout les soirs on rentrait tard Les porcs font que de nous embêter donc 14 juillet sortez les pétards La mauvaise graine a bien poussé nan c'est pas du rap on fait de l'art J'suis dans un gros fer allemand dans ma paume j'ai té-ffri la substance J'vide la clope, j'roule mon pétou et j'lèche le collant Sous jack noir, coca cola j'suis free j'ai trop picolé Suce moi j'fais pas d'accolade j'suis pas là pour rigoler Y'a d'la peufra par ici argent facile, paresseux J'vais visser sur Paris 6 prêt à tout pour fair des sous J'suis dans la chatte à ta soeur ou avc les p'tits dans une inser' J'ai plus d' dans ma sacoche sauf quand j'ai tout visser J'baraude à fond dans la caisse elle fait les yeux doux elle veut que j'la baise Biff avant les meufs gros c'est la base donc laisse moi terminer tout mes dièses hanhan Terminer tout mes dièses hmmhmm Terminer tout mes dièses hanhan Terminer tout mes dièses hmmhmm Terminer tout mes dièses</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Saison #5</t>
+          <t>Touch Down</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Jsuis dans limport-export Jmenfuis que si jvois les porcs Cest les poches pleines et les glocks qui commandent Chez nous ya pas de loi du plus fort Jai raison même quand jai tord Dans sa chatte jtrouve du réconfort Elle veut plus de moi mais tellement jla tord Elle revient comme le marteau de Thor Pour les sous jpasse par le sale Et non jte parle pas des Gunners quand jte dis quon a lArsenal Jsuis titulaire comme Martial Pour des billets couleur Lakers jfaisais la toupie sur Paname Les Ulis cest summerhouse tout le monde veut faire écouter sa came Refrain Ya dla moula qui vient dEspagne Là beu-her vient de Dam Jnique pas doseille pour plaire aux femmes Oui jai tout mis dans lcellophane Tout est pesé au gramme Touche à Jody jvais faire un drame Faut qujencaisse AutomneHiver jsuis dans ltieks On est fullop dans la caisse On va descendre dans ta tess Cest la merde ÉtéPrintemps jsuis dans ltieks Jfais tout pour vesqui la hess Mais les jaloux veulent que jy reste</t>
+          <t>Mmh-mmh Hey, it's Raedwav Nous, c'est la TH Mmh-mmh Demande à Shh Mmh-mmh Vingt-deux Mmh-mmh C'est mort, eh Mmh-mmh J'ai d'la bonne moula si tu veux ter-ach' Ter-ach', j'suis avec Saamou, mon boug de la TH De la TH J'conduis discrètement, y a la douane au péage Péage, j'vais les semer dans les embouteillages Yih-yih Si aux keufs, t'as dit des noms, faut qu'tu dégages, dégages Mmh-mmh, j'vendais du doré au treizième étage Mmh-mmh Sur la passerelle, quand j'étais au guettage Mmh-mmh, midi pile, c'est moi qui ngage, engage Eh-h J'ai fait des lignes mais j'tape pas d'dans Brr, raconte pas l'histoire si t'es pas d'dans Brr, brr, brr Chaque jours, j'vois le Sheitan qui danse Pah, j'envoie des boum, y a tout l'monde qui tremble Pa-pa-pah Péter l'million d'euros, j'y pense Grr, regarde le vécu de la vie, tu meurt Grr, pah J'visser d'la plante, des fois, d'la banche Pah, soit ça t'allume sinon, ça t'plante Pah, pah, boom, boom Dans la tchop, on attache Mmh-mmh, elle laisse pas de tache quand ses cheveux, elle attache Elle attache, mmh-mmh J'tape pas ses fesses, elle se fâche Fâche, maintenant, tu sais qu'la ne-chaî est ice Ice, ice, yih-yih J'ai les gants en latex, cambu, je laisse pas de trace Trace, y a plus rien à prendre, on se casse Mmh-mmh, casse, brr J'ai déjà mon acheteur pour la Rolex 'lex, j'finis de rouler mon pétou, je tasse, tasse Mmh-mmh, c'est cru On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' Touch Down, yih-yih Cent pour cent congolais, j'attire toutes les moussos, sur mes sons, elle fait des playbacks, sa re-su, j'allais visser des 'llos à la gare de Sceaux Au pays, j'me douchais avec un seau Seau, brr, force à tous ceux qui envoient des lassos Brr, brr J'ai charbonné, j'ai pas pété avec un son Son, une seule erreur, du bateau, tu sautes, sautes Eh-eh Y a pas d'Netflix, j'viens pour chiller Chiller, la cocaïne vient du Chili Chili La balle transperce ton gilet, t'as pas eu le temps de te repentir Yih-yih Il m'faut le Urus, Lamborghini Vroum, j'lui ai mis une balle, ça fait pas d'guilis Vroum, vroum J'veux voir toutes les bitchies en bikini Pah, les moussos, les moussos, sortez les minis Pa-pa-pah, uh-uh Dans la tchop, on attache Mmh-mmh, elle laisse pas de tache quand ses cheveux, elle attache Elle attache, mmh-mmh J'tape pas ses fesses, elle se fâche Fâche, maintenant, tu sais qu'la ne-chaî est ice Ice, ice, yih-yih J'ai les gants en latex, cambu, je laisse pas de trace Trace, y a plus rien à prendre, on se casse Mmh-mmh, casse, brr J'ai déjà mon acheteur pour la Rolex 'lex, j'finis de rouler mon pétou, je tasse, tasse Mmh-mmh, c'est cru On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' On tombe pas pour histoire de 'tasse, 'tasse, le shooter a rafale, il trace, trace Elle est nne-bo, té-ma les bes-jam, bes-jam, ce soir, il faut qu'je la casse, casse Benga rempli au max, max, dans l'pe-ra, il faut ça brasse max Buteur comme Harry Kane, c'est réel, connu pour histoire de hasch', hasch' Touch down, yih-yih Ah-ah-ah Eh, j'suis une galère Les bes-jam, bes-jam, les bes-jam, bes-jam Brr Nous, c'est la TH Pah, pa-pa-pah</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Seille-o #9</t>
+          <t>Tout donner</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Hii-Hii Si j'sors le pétard ils vont sursauter, gros j'suis dans les diez Faut pas venir a Gaza c'est trop risqué, les p'tits t'arrachent si tu pèse Barod' a fond dans la Merco-Benz La miss veut toujours que je la baise Si je suis pas au studio je fais des passes Negro prêt a tout pour faire de l'espèce Viens chez nous tu te fais masser comme au kiné On fait pas de pause on est pas dans le mannequinat J'passe à la télé mais j'fais pas de ciné J'suis passé sur L'équipe, Trace Urban et Canal Ca bibi dans la tour et à la puce Ya ceux dans la dur et ceux dans la douce Ca rabat ls potos à l'arrêt de bus Si y a heja y a Brazo à la rescousse J'suis dans le bat' pour faire des sous, dans le bat' faut faire des sous Grosse file indienne, dans l'fond du binks et tous les yenclis s'poussent J'veux sortir de l'anonymat, le pestu c'est trop miné Au cas où ca finit mal, heureusement pour moi que j'ai étudié Il m'faut du seille-o, plein de zéros dans mon ptecom J'suis dans le merco, elle veut venir me pépom Il faut que ca pète Oooh, faut faire vivre le tiekson Il me faut du seille-o, plein de zéros dans mon ptecom</t>
+          <t>Que l'travail Yah, yah, yah Okay, c'est G, yeah Y a pas d'secret que l'travail, petit, garde ça en tête Yeah Tellement de gens comptent sur oi-m, j'te dis faut faire rentrer Yeah C'est des suceurs, ils avalent avant d'nous boycotter Yeah On les a mis de côté Grr, j'sais pas comment t'expliquer J'suis charismatique, ils disent que j'suis insolent depuis qu'j'ai mis l'single d'or dans mon salon Y a pas d'secret, petit, knde na mousala, le te-comp st blindé, j'attends pas le salaire uhuh Ah-ah, Genezio, si on en est là c'est grâce à la vision, j'passe à la radio, à la télévision Fini l'époque où j'passais sur l'Parisien Et aujourd'hui, dans mes poches, j'ai le prix du Pack M Le prix du Pack M, j'ai même pas la trentaine J'ai même pas la trentaine J'veux une femme comme moi qu'aime, même si elles sont pas fidèles Y a qu'du bon shit à fumer par ici, toute l'année, on prend des risques pour les sous Tu veux pas payer, tu rejoins les cieux, à part faire du son, j'avais pas d'issue uhuh J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain uhuh J'sais pas comment t'expliquer, j'passe ma nuit à cogiter Yeah, yeah Si demain, gros, ça tire, tire, très peu font les excités Nan On connait la vérité, non tu peux pas m'la mettre à moi, yeah J'connais l'vice d'en bas, yeah, j'connais l'vice d'en bas, yeah J'ai tout donné, j'ai rien lâché uhuh , j'ai charbonné, hiver, été uhuh J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh Demain, c'est loin, faut qu'j'trace mon chemin Yeah, yeah Quand j'm'en souviens, aucun soutien donc j'pars Elle veut qu'j'm'attache, elle oublie tout quand l'soir, j'l'attache N'en parlons peu, parlons en cash, moi y a que l'oseille en qui je m'attache J'ai réalisé mon rêve de collégien, j'y vois plus clair dans c'monde de chiens J'suis en folie, j'ai pas de chaine, à maman, j'paye nouvelle machine À maman, j'paye nouvelle machine Brr, que l'boulot, y a pas d'magie On est en colère dès qu'on agit, avec le temps, on s'assagit uhuh J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain J'ai mis la paire de gants, j'ai ma paire de Requin J'ai fini mon temps plein, on s'reverra demain uhuh J'sais pas comment t'expliquer, j'passe ma nuit à cogiter Yeah, yeah Si demain, gros, ça tire, tire, très peu font les excités Nan On connait la vérité, non tu peux pas m'la mettre à moi, yeah J'connais l'vice d'en bas, yeah, j'connais l'vice d'en bas, yeah J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh J'ai tout donné, j'ai rien lâché uhuh, j'ai charbonné, hiver, été uhuh Okay, c'est G, cest Game Over Na-na-na-na-na-nah, yeah Na-na-na-na-na-nah, yeah</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Session freestyle avec Gambino la MG, Olazermi, Laskiiz &amp; Negrito</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ça dit quoi ma beauté ? T'es mimi Hey, hey Hey, hey, hey Ouh eh Ouh, ouh Ça dit quoi ma beauté ? T'es mi- Hey, hey Hey, hey Brr, paw Brr, brr Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile m titille On a fait le trajet, trajt, trajet, trajet Gue-dro dans l'sachet, sachet, sachet, sachet On connaît l'danger, danger, danger, danger Mais on veut manger, manger, manger, manger J'suis avec, il a caché l'fusil sous l'plancher Y a de la, pour animer tes soirées branchées On voulait brasser, bien avant de savoir nager Libérez tous ceux qui ont plongés J'me revois menotter sur le canapé Aujourd'hui, Negrito passe sur Booska-P J'ai dealé pour le papier, pas pour l'raper Si je t'ai donné, c'est pas pour t'le rappeler On m'a dit qu'il faut faire la guerre pour la paix Donc on fait la guerre aux gardiens de la paix Rancunier, tu m'as trahi, j'ai pas zappé La CC, faut la vendre, faut pas la taper Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Négro, négro, c'est Negrito hey, hey J'avais si j'récupère aussitôt hey, hey Igo, nous on fait pas les bandits hey, hey Mais crois-moi, on n'est pas des mythos hey, hey Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier hey, hey Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées Mon sin-cou Zaky, il vend le sel, pourtant, c'est pas un épicier ouh Si tu connais ton boug Negri, tu sais qu'il aime les filles métissées Ça dit quoi ma beauté ? T'es mimi, mimi, mimi, mimi, mimi, mimi, mimi Moi, j'viens de là où ça bibi, bibi, bibi, bibi, bibi, bibi, bibi J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille J'sais qu'j'aurais pas l'salaire de Matuidi en revendant la matiti Mais l'argent facile me titille, mais l'argent facile me titille Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo eh, eh, ti na kotazo Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Kotazo Négro, négro, c'est Negrito Kotazo Igo, nous on fait pas les bandits Ti na Kotazo On n'est pas des mythos</t>
+          <t>Comment tu m'as vu, j'suis pas mécra En mode biture bah Cocorico, machin sous le tricot Je t'emballes comme un cadeau 500 metres, c'est fatiguant Tomber derriere, c'est epuisant Faut le disque d'or a la maison sur la terter Dans la tess, tout les jours dans la tess, toi tu fi J'ai les condes au cul, mais je m'arrete pas J'ai vendu des rrettes-ba, j'etait autant dans la sel3a Si tu fais le fou on t'allumera, on tape pas quand tu tiens tant pas Dans la tess, j'ai vendu du C J'ai sign, mais j'suis toujours dans le sal Dans la tess, tous les jours c'st le zoo c'est le zoo Les histoires, ce doux six-coups six-coups J'ai mal au crane quand j'entends ce patrouille Avant de m'faire canner, j'fais le tour de la zone tour de la zone Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Dans la tess, j'pete le champagne, j'ai pas fini menotte Y a mes illes-cou qui m'accompagnent, si j'dois finir en beaute Y a des sous donc des potes en moins Ca visser dans le batiment On opere quand y a pas d'temoins Et les poucaves connaissent le chatiment eeh eeh On est les boss de notre categorie categorie On viens tout prendre, reviens pas decorer pas decorer Je vais te planter si tu t'en prends a glory prends a glory On coupe le fromage en quatre comme des rats comme des rats J'ai mon sirop peche-melon, j'ai mon ame pour la melo la melo Il est droit comme Lamela, on n'a vecu pas dans la melee Dans la tess, tous les jours c'est le zoo c'est le zoo Les histoires, ce doux six-coups six-coups J'ai mal au crane quand j'entends ce patrouille Avant de m'faire canner, j'fais le tour de la zone tour de la zone Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Tu-tu vois comment, tu-tu vois comment, tu-tu vois comment Dit moi qui m'a donnee, a manger quand j'avais faim Au quartier abonne, les gens quete, t'inquietes pas Dit moi qui m'a donnee, a manger quand j'avais faim Au quartier abonne, les gens quete, t'inquietes pas</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Shatta</t>
+          <t>Un, Dos, Tres (GLM #3)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ghost Killer Track, bébé Mon papa ne veut pas Hum-hum, mon papa ne veut pas Hum-hum Mon papa ne veut pas que je danse, que je danse Mon papa ne veut pas Hum-hum, hum-hum, j'vide la 'teille sur son cavu, mon papa ne veut pas Ha, argh Mon papa ne veut pas que je danse, que je danse Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Hi J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Y a pas d'Netflix, j'viens pour chiller, j'ai chaud, j'enlève mon gilet Cette pute, elle s'appelle Julie, elle est sous ballon, cerveau gelé Elle vient des Antilles, elle sait bien cambrer J'fais que des va-et-vient sur son gros cavu J'vide ma 'teille sur son gros cavu Mon papa ne veut pas, j'vide ma 'teille sur son gros cavu Mon papa ne veut pas Hum-hum, j'vide ma 'teille sur son gros cavu Hum-hum Mon papa ne veut pas Hum-hum, gros cavu Uh-uh Son mec est là mais elle s'en tape S'en tape, sur le tempo elle bouge son fiak Son fiak J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Hi Son mec est là mais elle s'en tape Ouh, sur le tempo elle bouge son fiak Ouh J'suis venu chanter, prendre mon cash, elle vient sur moi faire du bootyshake Uh-uh Y a pas d'Netflix, j'viens pour chiller, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Gars, gars, gars, gars J'vide ma teille sur son gros cavu, ramène ton équipe de shattas -tas, -tas, -tas, -tas Il en faut une pour tous mes gars Uh-uh Elle veut dance sur ma bite, elle s'colle J'vide ma teille sur son gros cavu, elle whine sur moi sur du Sean Paul Shake, shake, shake, shake J'ai mis sa jambe sur mon épaule Hum-hum, uh-uh, j'la casse comme si elle m'doit des talles J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu J'vide ma teille sur son gros cavu Shake, shake, shake, shake, j'vide ma teille sur son gros cavu, gros cavu</t>
+          <t>Un, dos, tres, quatro Mmh-mmh Uh-uh Mmh-mmh Yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Han Han, grr Grr, hey Hey Faut qu'j'arrive cée-per, ils vont être sans voix Sans voix, t'entends pas quand j'te dis Envoie tout ? La première fois, c'était dans une tour Yih-yih, la dernière fois d'vant la Eiffel Tour La Tour Eiffel J'me roule un tou-pé, j'arrête les ballons, j'ai failli caner J'ai failli dead C'est devenu banal pour les tits-pe qu'j'leurs prennent des canettes Canettes J'suis au studio avec mes gadayes Gadayes, en pagaille quand le son, il graille Fort Elles m'intéresse pas vos médailles Yih-yih, moi, j'suis juste là pour gagner d'la maille On vient chez vous, on fait pas d'détaille Détaille, j'suis trop gradé comme rival J'suis beaucoup trop croyant, donc j'ai pas peur de l'il des gens Le fait d'avoir des sous m'as rendu plus intelligent J'suis un mec de cité, j'dirais rien d'vant monsieur l'agent J'avais besoin d'argent, j'étais moins hilarant Han-han-han Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh Même si chanter, c'est pas bien Pas bien, j'm'arrête jamais de pas mbola Mbola Il revient bientôt, faut mais il m'faut les streams de Umbrella Mmh-mmh Y a maman ici, papa là-bas Mmh-mmh, je peux pas m'permettre d'être faucher là Mmh-mmh Every day, j'fais rentrer d'la moula Mmh-mmh, j'mets ma part dans le likelemba Yih-yih Sortez les robes, robes Robes, ça fait mieux ressortir les formes, formes Formes J'calcule pas les gens qui dorment, dorment Dorment, j'ai besoin de garder la forme, forme Uh-uh J'suis entrain d'baisser les stores, stores Uh-uh, après fini, j'le vois nu son corps, corps J'ai raison même quand j'ai tort, tort, c'est Gambino, le marteau de Thor J'suis beaucoup trop croyant, donc j'ai pas peur de l'il des gens Le fait d'avoir des sous m'as rendu plus intelligent J'suis un mec de cité, j'dirais rien d'vant monsieur l'agent J'avais besoin d'argent, j'étais moins hilarant Han-han-han Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, mmh-mmh, yih-yih Un, dos, tres, ça bicrave dans le bât' à María Un, dos, tres Uh-uh, y a que d'la patata Uh-uh</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SISI</t>
+          <t>Vitinha*</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Les mecs d'à côté veulent nous ressembler C'qui est bien dans ma ville c'est qu'on est tous en bleu Si tu viens ici tu repars avec des bleus A l'école j'notais pas c'qui y'avait sur l'tableau Quand j'avais pas d'buzz des fois les gow me laissaient en plan une fois après avoir payé la bre J'ai préféré revendre le shit et la beuh le million sur YouTube J'fais des millions d'vues j'roule en Clio 3 J'ai des inspirations venues d'autre part La meuf est piquée mais j'ai pas de Audemart Si j'la baise c'est que j'lai fait rire comme Omar Sy J'abrège quand j'suis devant la victime J'ai cassé des têtes jamais cassé de vitrines Fuck le 17 mais pas Vitinha Je savais que j'étais fait pour le dehors</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Smackdown #2</t>
+          <t>Voisins</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdown SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles Dans mon 91, ça s'tape comme à SmackDown Ou comme à Raw Sur l'terrain, j'mets que des Touchdowns SuperBowl J'suis dans la surface, pas sur l'corner Ou dans le hall Génération portable, ils sont bons qu'à s'donner des rôles J'suis dans l'ghetto, y'a mes rho Pas de guerre dacides comme à Tottenham J'fais des temps pleins au studio J'me la but pour soulever le totm M.D au volant donc je m'inquiète pas Passager, j'roule un pétard Zaïrois pas trop fêtard C'est dans la zone que je traîne tard J'découpe en tranche la baguette de pain pour récupérer du blé Ils veulent toujours pas nous tendre la main car ils savent qu'on va les doublés Si j'sors le pétard, ils vont sursautés Tes pseudos-rappeurs les sur-côtés Et Crobax me fais la passe Cest le poto va dans le petit filet</t>
+          <t>Rigolades Do you object to working late hours, Mr. Levi? Not at all Ay Lucid Turn That Shit Up Mmm mmm J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous ls jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on st prêt à faire pour faire de l'oseille lalala G-A-M, B-I-N-O Rappeurétudiant, pas gangster J'ai juste revendu un peu de guedro guedro J'ai pas de gros bras, donc il y a les métaux métaux En cas d'pépin, y a GD et Joe eeh eeh Le teuchi rend paro Elle veut que j'aille lui casser son dos Mais c'est niqué faut que j'y aille au studio non De toute facon, j'y vais écouter une autre folle autre folle J'ai beaucoup de nudes dans mon téléphone mon phone On peut même dire que j'les colléctionnes léctionnes Pour chaque match on me sélectionne mmm mmm C'est moi le prochain talent de l'Essonne J'ai même des connéxions dans les cités de London London Trafford, Brixton, Leytonstone mmm mmm J'vais être connu partout comme Werrason J'suis dans l'fond du binks, j'récompte, j'revends J'fais que d'augmenter les stats yah Paie moi avant la date, ou on descend chez toi comme à Kattagat On me dis t'es trop fort ça me flatte Mais ils ne partagent pas mes teaseurs sur Snapchat yah yah J'suis dans sa chatte, j'lui fait du catch, doggy-style, que des smash eeh eeh J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala J'menfume dans le fond du binks j'dérange les voisins Je me rappelle plus de ce que j'ai fait la veille fonsdé dès l'matin Tous les jours en survêt, mais on a la tête eeh eeh Tu sais pas tout ce qu'on est prêt à faire pour faire de l'oseille lalala Rigolades Do you object to working late hours, Mr. Levi? Not at all Rigolades</t>
         </is>
       </c>
     </row>
@@ -1886,214 +1886,10 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sobieski #4</t>
+          <t>Wo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
-        <is>
-          <t>Guetteur crie ça passe à l'affût des gyros On fait tomber d'la neige comme au Jura Si y'a pépin y'a Shelby et Jiren Tu fais moins le gérant tu commences à jurer J'revends le ne-jau depuis que j'suis ne-jeu J'oublie ceux qui m'ont déjà fait manger Demande à RV demande à Barjo Depuis tout p'tit dans l'oseille on veut nager Clope, feuille, briquet chez le pakat 2,2 dans le pocket Et si t'es pas trop sur tes gardes on t'hagar comme la Team Rocket J'suis dans la playlist de ta grande soeur Elle m'suit sur Insta et sur Twitter Eh oui y'a que le travail qui paye J'suis la star local de mon secteur Faire du biff c'est pas compliqué J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'fais du p-ra j'sais pas zouker J'ai bosser à la puce et au block Negro insolent comme O-DOG Negro insolent comme O-DOG Faut m'vesqui si j'sors le shhhh J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski On vend d'la neige les tournées fait du ski On vend d'la neige les tournées fait du ski J'suis trop violent quand j'suis sous Sobieski J'suis trop violent quand j'suis sous Sobieski Et quand y'a les condés qui bravesqui Et quand y'a les condés qui bravesqui</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Gambino La MG</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Sse-Di #10</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>L'argent facile en vrai cest dur Mais à la hess on va pas céder Jveux du papier pour quitter la u-re Mais pour l'instant faut qu' jvende des CD Des CD, pour l'instant faut qu' j'vende des CD Mon negro j'ai trop vendu d' sse-di Pour l'instant faut qu' jvende des CD x2 Le réseau sest fait remonter donc on reprend tout à la case départ Libérez Zoulou, Yougo, Biscra et tous les mecs d'la ville au schtar 9,2 grammes dans le pochtar On se lève tôt pourtant on se couche tard Dans l secteur cest moi la star, donc lle se déshabille et j'baisse les stores Toute l'année à l'affût des porcs, sur les photos de CR on tape la pose On mdit Gambino t'es trop fort, la machine est lancée faut plus faire de pause Vient dans ma zone si tu l'oses, on fait enlever l'iCloud de ton iPhone 11 Jsuis dans le bloc si tu veux ta dose, j'ai mon paquet de masse, mes clopes, ma cons Jsuis pas dans le suçage de bite C'est carbo mais ça débite Chaque jour la flicaille nous embête, j'ai ja